--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -37026,7 +37026,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>5145107</v>
+        <v>5145351</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37038,76 +37038,76 @@
         <v>44814.5625</v>
       </c>
       <c r="F411" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G411" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J411" t="s">
         <v>48</v>
       </c>
       <c r="K411">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="L411">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M411">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N411">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O411">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P411">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q411">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R411">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S411">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T411">
         <v>2.25</v>
       </c>
       <c r="U411">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V411">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W411">
         <v>-1</v>
       </c>
       <c r="X411">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA411">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB411">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC411">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37115,7 +37115,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>5145351</v>
+        <v>5145107</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37127,76 +37127,76 @@
         <v>44814.5625</v>
       </c>
       <c r="F412" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G412" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J412" t="s">
         <v>48</v>
       </c>
       <c r="K412">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="L412">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M412">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N412">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O412">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P412">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q412">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R412">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S412">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T412">
         <v>2.25</v>
       </c>
       <c r="U412">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V412">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W412">
         <v>-1</v>
       </c>
       <c r="X412">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y412">
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA412">
+        <v>-0</v>
+      </c>
+      <c r="AB412">
         <v>-0.5</v>
       </c>
-      <c r="AB412">
-        <v>-1</v>
-      </c>
       <c r="AC412">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -43968,7 +43968,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>5145874</v>
+        <v>5145337</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43980,76 +43980,76 @@
         <v>44919.54166666666</v>
       </c>
       <c r="F489" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G489" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489">
         <v>0</v>
       </c>
       <c r="J489" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K489">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L489">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M489">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="N489">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="O489">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P489">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q489">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R489">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S489">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T489">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U489">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V489">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W489">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X489">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y489">
         <v>-1</v>
       </c>
       <c r="Z489">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA489">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB489">
         <v>-1</v>
       </c>
       <c r="AC489">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -44057,7 +44057,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>5145337</v>
+        <v>5145874</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44069,76 +44069,76 @@
         <v>44919.54166666666</v>
       </c>
       <c r="F490" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G490" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490">
         <v>0</v>
       </c>
       <c r="J490" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K490">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L490">
+        <v>3.1</v>
+      </c>
+      <c r="M490">
         <v>3.3</v>
       </c>
-      <c r="M490">
-        <v>2.05</v>
-      </c>
       <c r="N490">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O490">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P490">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="Q490">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R490">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S490">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T490">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U490">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V490">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W490">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X490">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y490">
         <v>-1</v>
       </c>
       <c r="Z490">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA490">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB490">
         <v>-1</v>
       </c>
       <c r="AC490">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="491" spans="1:29">
@@ -48329,7 +48329,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>5145868</v>
+        <v>5145146</v>
       </c>
       <c r="C538" t="s">
         <v>28</v>
@@ -48341,76 +48341,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F538" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G538" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J538" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K538">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L538">
+        <v>3.3</v>
+      </c>
+      <c r="M538">
+        <v>2.375</v>
+      </c>
+      <c r="N538">
+        <v>3.1</v>
+      </c>
+      <c r="O538">
         <v>3.4</v>
       </c>
-      <c r="M538">
-        <v>3.1</v>
-      </c>
-      <c r="N538">
-        <v>1.65</v>
-      </c>
-      <c r="O538">
-        <v>3.6</v>
-      </c>
       <c r="P538">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q538">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R538">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S538">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T538">
         <v>2.25</v>
       </c>
       <c r="U538">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V538">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W538">
         <v>-1</v>
       </c>
       <c r="X538">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y538">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z538">
         <v>-1</v>
       </c>
       <c r="AA538">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB538">
         <v>-0.5</v>
       </c>
       <c r="AC538">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="539" spans="1:29">
@@ -48418,7 +48418,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>5145146</v>
+        <v>5145868</v>
       </c>
       <c r="C539" t="s">
         <v>28</v>
@@ -48430,76 +48430,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F539" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G539" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I539">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J539" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K539">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L539">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M539">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N539">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O539">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P539">
+        <v>4.333</v>
+      </c>
+      <c r="Q539">
+        <v>-0.75</v>
+      </c>
+      <c r="R539">
+        <v>1.9</v>
+      </c>
+      <c r="S539">
         <v>1.95</v>
-      </c>
-      <c r="Q539">
-        <v>0.5</v>
-      </c>
-      <c r="R539">
-        <v>1.85</v>
-      </c>
-      <c r="S539">
-        <v>2</v>
       </c>
       <c r="T539">
         <v>2.25</v>
       </c>
       <c r="U539">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V539">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W539">
         <v>-1</v>
       </c>
       <c r="X539">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y539">
+        <v>-1</v>
+      </c>
+      <c r="Z539">
+        <v>-1</v>
+      </c>
+      <c r="AA539">
         <v>0.95</v>
-      </c>
-      <c r="Z539">
-        <v>-1</v>
-      </c>
-      <c r="AA539">
-        <v>1</v>
       </c>
       <c r="AB539">
         <v>-0.5</v>
       </c>
       <c r="AC539">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="540" spans="1:29">
@@ -52245,7 +52245,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>6402965</v>
+        <v>6404135</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52257,76 +52257,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F582" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G582" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I582">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J582" t="s">
         <v>48</v>
       </c>
       <c r="K582">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L582">
         <v>3.3</v>
       </c>
       <c r="M582">
+        <v>2.375</v>
+      </c>
+      <c r="N582">
+        <v>2</v>
+      </c>
+      <c r="O582">
+        <v>3.4</v>
+      </c>
+      <c r="P582">
+        <v>3.25</v>
+      </c>
+      <c r="Q582">
+        <v>-0.25</v>
+      </c>
+      <c r="R582">
+        <v>1.8</v>
+      </c>
+      <c r="S582">
+        <v>2.05</v>
+      </c>
+      <c r="T582">
+        <v>2.25</v>
+      </c>
+      <c r="U582">
+        <v>1.8</v>
+      </c>
+      <c r="V582">
+        <v>2.05</v>
+      </c>
+      <c r="W582">
+        <v>-1</v>
+      </c>
+      <c r="X582">
         <v>2.4</v>
       </c>
-      <c r="N582">
-        <v>2.6</v>
-      </c>
-      <c r="O582">
-        <v>3</v>
-      </c>
-      <c r="P582">
-        <v>2.7</v>
-      </c>
-      <c r="Q582">
-        <v>0</v>
-      </c>
-      <c r="R582">
-        <v>1.9</v>
-      </c>
-      <c r="S582">
-        <v>1.95</v>
-      </c>
-      <c r="T582">
-        <v>2</v>
-      </c>
-      <c r="U582">
-        <v>1.875</v>
-      </c>
-      <c r="V582">
-        <v>1.975</v>
-      </c>
-      <c r="W582">
-        <v>-1</v>
-      </c>
-      <c r="X582">
-        <v>2</v>
-      </c>
       <c r="Y582">
         <v>-1</v>
       </c>
       <c r="Z582">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA582">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB582">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC582">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583" spans="1:29">
@@ -52334,7 +52334,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>6404135</v>
+        <v>6402965</v>
       </c>
       <c r="C583" t="s">
         <v>28</v>
@@ -52346,76 +52346,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F583" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G583" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J583" t="s">
         <v>48</v>
       </c>
       <c r="K583">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L583">
         <v>3.3</v>
       </c>
       <c r="M583">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N583">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O583">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P583">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q583">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R583">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S583">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T583">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U583">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V583">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W583">
         <v>-1</v>
       </c>
       <c r="X583">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y583">
         <v>-1</v>
       </c>
       <c r="Z583">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA583">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB583">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC583">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="584" spans="1:29">
@@ -53313,7 +53313,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>6404150</v>
+        <v>6402966</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -53325,76 +53325,76 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F594" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G594" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H594">
         <v>1</v>
       </c>
       <c r="I594">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J594" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K594">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L594">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M594">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N594">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="O594">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P594">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="Q594">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R594">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S594">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T594">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U594">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V594">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W594">
         <v>-1</v>
       </c>
       <c r="X594">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y594">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z594">
         <v>-1</v>
       </c>
       <c r="AA594">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB594">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC594">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="595" spans="1:29">
@@ -53402,7 +53402,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>6402966</v>
+        <v>6404150</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53414,76 +53414,76 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F595" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G595" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H595">
         <v>1</v>
       </c>
       <c r="I595">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J595" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K595">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L595">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M595">
+        <v>6.5</v>
+      </c>
+      <c r="N595">
+        <v>1.333</v>
+      </c>
+      <c r="O595">
+        <v>4.75</v>
+      </c>
+      <c r="P595">
+        <v>7</v>
+      </c>
+      <c r="Q595">
+        <v>-1.5</v>
+      </c>
+      <c r="R595">
+        <v>2.025</v>
+      </c>
+      <c r="S595">
+        <v>1.825</v>
+      </c>
+      <c r="T595">
         <v>2.75</v>
       </c>
-      <c r="N595">
-        <v>2.875</v>
-      </c>
-      <c r="O595">
-        <v>3.3</v>
-      </c>
-      <c r="P595">
-        <v>2.15</v>
-      </c>
-      <c r="Q595">
-        <v>0.25</v>
-      </c>
-      <c r="R595">
-        <v>1.875</v>
-      </c>
-      <c r="S595">
-        <v>1.975</v>
-      </c>
-      <c r="T595">
-        <v>2.25</v>
-      </c>
       <c r="U595">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V595">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W595">
         <v>-1</v>
       </c>
       <c r="X595">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y595">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z595">
         <v>-1</v>
       </c>
       <c r="AA595">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB595">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC595">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="596" spans="1:29">
@@ -55627,7 +55627,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6402969</v>
+        <v>6404121</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55639,40 +55639,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F620" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G620" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J620" t="s">
         <v>50</v>
       </c>
       <c r="K620">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L620">
         <v>3.2</v>
       </c>
       <c r="M620">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N620">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O620">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P620">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q620">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R620">
         <v>1.8</v>
@@ -55684,10 +55684,10 @@
         <v>2.5</v>
       </c>
       <c r="U620">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V620">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W620">
         <v>-1</v>
@@ -55696,7 +55696,7 @@
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z620">
         <v>-1</v>
@@ -55705,7 +55705,7 @@
         <v>1.05</v>
       </c>
       <c r="AB620">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC620">
         <v>-1</v>
@@ -55716,7 +55716,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>6404121</v>
+        <v>6402969</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55728,40 +55728,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F621" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G621" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I621">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J621" t="s">
         <v>50</v>
       </c>
       <c r="K621">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L621">
         <v>3.2</v>
       </c>
       <c r="M621">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N621">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O621">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P621">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q621">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R621">
         <v>1.8</v>
@@ -55773,10 +55773,10 @@
         <v>2.5</v>
       </c>
       <c r="U621">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V621">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W621">
         <v>-1</v>
@@ -55785,7 +55785,7 @@
         <v>-1</v>
       </c>
       <c r="Y621">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z621">
         <v>-1</v>
@@ -55794,7 +55794,7 @@
         <v>1.05</v>
       </c>
       <c r="AB621">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC621">
         <v>-1</v>
@@ -57852,7 +57852,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57864,58 +57864,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F645" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G645" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H645">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I645">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J645" t="s">
         <v>49</v>
       </c>
       <c r="K645">
+        <v>1.571</v>
+      </c>
+      <c r="L645">
+        <v>3.6</v>
+      </c>
+      <c r="M645">
         <v>5</v>
       </c>
-      <c r="L645">
-        <v>3.75</v>
-      </c>
-      <c r="M645">
-        <v>1.533</v>
-      </c>
       <c r="N645">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O645">
         <v>3.6</v>
       </c>
       <c r="P645">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q645">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R645">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S645">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T645">
         <v>2.5</v>
       </c>
       <c r="U645">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V645">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W645">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X645">
         <v>-1</v>
@@ -57924,13 +57924,13 @@
         <v>-1</v>
       </c>
       <c r="Z645">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA645">
         <v>-1</v>
       </c>
       <c r="AB645">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC645">
         <v>-1</v>
@@ -57941,7 +57941,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -57953,58 +57953,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F646" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G646" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H646">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I646">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J646" t="s">
         <v>49</v>
       </c>
       <c r="K646">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L646">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M646">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N646">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O646">
         <v>3.6</v>
       </c>
       <c r="P646">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q646">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R646">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S646">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T646">
         <v>2.5</v>
       </c>
       <c r="U646">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V646">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W646">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X646">
         <v>-1</v>
@@ -58013,13 +58013,13 @@
         <v>-1</v>
       </c>
       <c r="Z646">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA646">
         <v>-1</v>
       </c>
       <c r="AB646">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC646">
         <v>-1</v>
@@ -62658,7 +62658,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C699" t="s">
         <v>28</v>
@@ -62670,76 +62670,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F699" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G699" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699">
         <v>1</v>
       </c>
       <c r="J699" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K699">
+        <v>2.6</v>
+      </c>
+      <c r="L699">
+        <v>3.1</v>
+      </c>
+      <c r="M699">
+        <v>2.6</v>
+      </c>
+      <c r="N699">
+        <v>2.9</v>
+      </c>
+      <c r="O699">
+        <v>3.2</v>
+      </c>
+      <c r="P699">
+        <v>2.3</v>
+      </c>
+      <c r="Q699">
+        <v>0.25</v>
+      </c>
+      <c r="R699">
+        <v>1.8</v>
+      </c>
+      <c r="S699">
         <v>2.05</v>
       </c>
-      <c r="L699">
-        <v>3.2</v>
-      </c>
-      <c r="M699">
-        <v>3.5</v>
-      </c>
-      <c r="N699">
-        <v>2.15</v>
-      </c>
-      <c r="O699">
-        <v>3.1</v>
-      </c>
-      <c r="P699">
-        <v>3.2</v>
-      </c>
-      <c r="Q699">
-        <v>-0.25</v>
-      </c>
-      <c r="R699">
-        <v>1.925</v>
-      </c>
-      <c r="S699">
-        <v>1.925</v>
-      </c>
       <c r="T699">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U699">
+        <v>2</v>
+      </c>
+      <c r="V699">
+        <v>1.85</v>
+      </c>
+      <c r="W699">
         <v>1.9</v>
       </c>
-      <c r="V699">
-        <v>1.95</v>
-      </c>
-      <c r="W699">
-        <v>-1</v>
-      </c>
       <c r="X699">
         <v>-1</v>
       </c>
       <c r="Y699">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z699">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA699">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB699">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC699">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="700" spans="1:29">
@@ -62836,7 +62836,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>7542719</v>
+        <v>7542640</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62848,76 +62848,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F701" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G701" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701">
         <v>1</v>
       </c>
       <c r="J701" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K701">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L701">
+        <v>3.2</v>
+      </c>
+      <c r="M701">
+        <v>3.5</v>
+      </c>
+      <c r="N701">
+        <v>2.15</v>
+      </c>
+      <c r="O701">
         <v>3.1</v>
       </c>
-      <c r="M701">
-        <v>2.6</v>
-      </c>
-      <c r="N701">
-        <v>2.9</v>
-      </c>
-      <c r="O701">
+      <c r="P701">
         <v>3.2</v>
       </c>
-      <c r="P701">
-        <v>2.3</v>
-      </c>
       <c r="Q701">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R701">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S701">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T701">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U701">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V701">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W701">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X701">
         <v>-1</v>
       </c>
       <c r="Y701">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z701">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA701">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB701">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC701">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -67681,10 +67681,10 @@
         <v>-0.25</v>
       </c>
       <c r="R755">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S755">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T755">
         <v>2.25</v>
@@ -67764,10 +67764,10 @@
         <v>2.5</v>
       </c>
       <c r="U756">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V756">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W756">
         <v>0</v>
@@ -67838,10 +67838,10 @@
         <v>2.5</v>
       </c>
       <c r="U757">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V757">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W757">
         <v>0</v>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC761"/>
+  <dimension ref="A1:AC758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33911,7 +33911,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>4798018</v>
+        <v>4804192</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33923,73 +33923,73 @@
         <v>44691.60416666666</v>
       </c>
       <c r="F376" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G376" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J376" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K376">
+        <v>3.75</v>
+      </c>
+      <c r="L376">
+        <v>3.4</v>
+      </c>
+      <c r="M376">
         <v>1.909</v>
       </c>
-      <c r="L376">
+      <c r="N376">
         <v>3.5</v>
       </c>
-      <c r="M376">
-        <v>3.5</v>
-      </c>
-      <c r="N376">
-        <v>1.833</v>
-      </c>
       <c r="O376">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P376">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q376">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R376">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S376">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T376">
+        <v>2.25</v>
+      </c>
+      <c r="U376">
+        <v>1.975</v>
+      </c>
+      <c r="V376">
+        <v>1.875</v>
+      </c>
+      <c r="W376">
         <v>2.5</v>
       </c>
-      <c r="U376">
-        <v>1.925</v>
-      </c>
-      <c r="V376">
-        <v>1.925</v>
-      </c>
-      <c r="W376">
-        <v>-1</v>
-      </c>
       <c r="X376">
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z376">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA376">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34089,7 +34089,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>4804192</v>
+        <v>4798018</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34101,73 +34101,73 @@
         <v>44691.60416666666</v>
       </c>
       <c r="F378" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G378" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J378" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K378">
+        <v>1.909</v>
+      </c>
+      <c r="L378">
+        <v>3.5</v>
+      </c>
+      <c r="M378">
+        <v>3.5</v>
+      </c>
+      <c r="N378">
+        <v>1.833</v>
+      </c>
+      <c r="O378">
+        <v>3.6</v>
+      </c>
+      <c r="P378">
         <v>3.75</v>
       </c>
-      <c r="L378">
-        <v>3.4</v>
-      </c>
-      <c r="M378">
-        <v>1.909</v>
-      </c>
-      <c r="N378">
-        <v>3.5</v>
-      </c>
-      <c r="O378">
-        <v>3.25</v>
-      </c>
-      <c r="P378">
-        <v>2</v>
-      </c>
       <c r="Q378">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R378">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S378">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T378">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U378">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V378">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W378">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z378">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA378">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB378">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC378">
         <v>-1</v>
@@ -43968,7 +43968,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>5145337</v>
+        <v>5145874</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43980,76 +43980,76 @@
         <v>44919.54166666666</v>
       </c>
       <c r="F489" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G489" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489">
         <v>0</v>
       </c>
       <c r="J489" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K489">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L489">
+        <v>3.1</v>
+      </c>
+      <c r="M489">
         <v>3.3</v>
       </c>
-      <c r="M489">
-        <v>2.05</v>
-      </c>
       <c r="N489">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O489">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P489">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="Q489">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R489">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S489">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T489">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U489">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V489">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W489">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X489">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y489">
         <v>-1</v>
       </c>
       <c r="Z489">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA489">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB489">
         <v>-1</v>
       </c>
       <c r="AC489">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -44057,7 +44057,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>5145874</v>
+        <v>5145337</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44069,76 +44069,76 @@
         <v>44919.54166666666</v>
       </c>
       <c r="F490" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G490" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490">
         <v>0</v>
       </c>
       <c r="J490" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K490">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L490">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M490">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="N490">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="O490">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P490">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q490">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R490">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S490">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T490">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U490">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V490">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W490">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X490">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y490">
         <v>-1</v>
       </c>
       <c r="Z490">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA490">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB490">
         <v>-1</v>
       </c>
       <c r="AC490">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="491" spans="1:29">
@@ -53313,7 +53313,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>6402966</v>
+        <v>6404150</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -53325,76 +53325,76 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F594" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G594" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H594">
         <v>1</v>
       </c>
       <c r="I594">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J594" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K594">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L594">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M594">
+        <v>6.5</v>
+      </c>
+      <c r="N594">
+        <v>1.333</v>
+      </c>
+      <c r="O594">
+        <v>4.75</v>
+      </c>
+      <c r="P594">
+        <v>7</v>
+      </c>
+      <c r="Q594">
+        <v>-1.5</v>
+      </c>
+      <c r="R594">
+        <v>2.025</v>
+      </c>
+      <c r="S594">
+        <v>1.825</v>
+      </c>
+      <c r="T594">
         <v>2.75</v>
       </c>
-      <c r="N594">
-        <v>2.875</v>
-      </c>
-      <c r="O594">
-        <v>3.3</v>
-      </c>
-      <c r="P594">
-        <v>2.15</v>
-      </c>
-      <c r="Q594">
-        <v>0.25</v>
-      </c>
-      <c r="R594">
-        <v>1.875</v>
-      </c>
-      <c r="S594">
-        <v>1.975</v>
-      </c>
-      <c r="T594">
-        <v>2.25</v>
-      </c>
       <c r="U594">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V594">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W594">
         <v>-1</v>
       </c>
       <c r="X594">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y594">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z594">
         <v>-1</v>
       </c>
       <c r="AA594">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB594">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC594">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="595" spans="1:29">
@@ -53402,7 +53402,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>6404150</v>
+        <v>6402966</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53414,76 +53414,76 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F595" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G595" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H595">
         <v>1</v>
       </c>
       <c r="I595">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J595" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K595">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L595">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M595">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N595">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="O595">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P595">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="Q595">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R595">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S595">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T595">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U595">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V595">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W595">
         <v>-1</v>
       </c>
       <c r="X595">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y595">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z595">
         <v>-1</v>
       </c>
       <c r="AA595">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB595">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC595">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="596" spans="1:29">
@@ -55627,7 +55627,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6404121</v>
+        <v>6402969</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55639,40 +55639,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F620" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G620" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I620">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J620" t="s">
         <v>50</v>
       </c>
       <c r="K620">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L620">
         <v>3.2</v>
       </c>
       <c r="M620">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N620">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O620">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P620">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q620">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R620">
         <v>1.8</v>
@@ -55684,10 +55684,10 @@
         <v>2.5</v>
       </c>
       <c r="U620">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V620">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W620">
         <v>-1</v>
@@ -55696,7 +55696,7 @@
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z620">
         <v>-1</v>
@@ -55705,7 +55705,7 @@
         <v>1.05</v>
       </c>
       <c r="AB620">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC620">
         <v>-1</v>
@@ -55716,7 +55716,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>6402969</v>
+        <v>6404121</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55728,40 +55728,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F621" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G621" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J621" t="s">
         <v>50</v>
       </c>
       <c r="K621">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L621">
         <v>3.2</v>
       </c>
       <c r="M621">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N621">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O621">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P621">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q621">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R621">
         <v>1.8</v>
@@ -55773,10 +55773,10 @@
         <v>2.5</v>
       </c>
       <c r="U621">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V621">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W621">
         <v>-1</v>
@@ -55785,7 +55785,7 @@
         <v>-1</v>
       </c>
       <c r="Y621">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z621">
         <v>-1</v>
@@ -55794,7 +55794,7 @@
         <v>1.05</v>
       </c>
       <c r="AB621">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC621">
         <v>-1</v>
@@ -62658,7 +62658,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>7542719</v>
+        <v>7542640</v>
       </c>
       <c r="C699" t="s">
         <v>28</v>
@@ -62670,76 +62670,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F699" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G699" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699">
         <v>1</v>
       </c>
       <c r="J699" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K699">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L699">
+        <v>3.2</v>
+      </c>
+      <c r="M699">
+        <v>3.5</v>
+      </c>
+      <c r="N699">
+        <v>2.15</v>
+      </c>
+      <c r="O699">
         <v>3.1</v>
       </c>
-      <c r="M699">
-        <v>2.6</v>
-      </c>
-      <c r="N699">
-        <v>2.9</v>
-      </c>
-      <c r="O699">
+      <c r="P699">
         <v>3.2</v>
       </c>
-      <c r="P699">
-        <v>2.3</v>
-      </c>
       <c r="Q699">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R699">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S699">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T699">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U699">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V699">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W699">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X699">
         <v>-1</v>
       </c>
       <c r="Y699">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z699">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA699">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB699">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC699">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="700" spans="1:29">
@@ -62747,7 +62747,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>7542639</v>
+        <v>7542719</v>
       </c>
       <c r="C700" t="s">
         <v>28</v>
@@ -62759,76 +62759,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F700" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G700" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I700">
         <v>1</v>
       </c>
       <c r="J700" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K700">
+        <v>2.6</v>
+      </c>
+      <c r="L700">
+        <v>3.1</v>
+      </c>
+      <c r="M700">
+        <v>2.6</v>
+      </c>
+      <c r="N700">
+        <v>2.9</v>
+      </c>
+      <c r="O700">
+        <v>3.2</v>
+      </c>
+      <c r="P700">
+        <v>2.3</v>
+      </c>
+      <c r="Q700">
+        <v>0.25</v>
+      </c>
+      <c r="R700">
+        <v>1.8</v>
+      </c>
+      <c r="S700">
+        <v>2.05</v>
+      </c>
+      <c r="T700">
         <v>2.5</v>
       </c>
-      <c r="L700">
-        <v>3</v>
-      </c>
-      <c r="M700">
-        <v>2.75</v>
-      </c>
-      <c r="N700">
-        <v>2.7</v>
-      </c>
-      <c r="O700">
-        <v>2.8</v>
-      </c>
-      <c r="P700">
-        <v>2.75</v>
-      </c>
-      <c r="Q700">
-        <v>0</v>
-      </c>
-      <c r="R700">
-        <v>1.925</v>
-      </c>
-      <c r="S700">
-        <v>1.925</v>
-      </c>
-      <c r="T700">
-        <v>2</v>
-      </c>
       <c r="U700">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V700">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W700">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X700">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y700">
         <v>-1</v>
       </c>
       <c r="Z700">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA700">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB700">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC700">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="701" spans="1:29">
@@ -62836,7 +62836,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>7542640</v>
+        <v>7542639</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62848,40 +62848,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F701" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G701" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I701">
         <v>1</v>
       </c>
       <c r="J701" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K701">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L701">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M701">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N701">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O701">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P701">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q701">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R701">
         <v>1.925</v>
@@ -62890,34 +62890,34 @@
         <v>1.925</v>
       </c>
       <c r="T701">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U701">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V701">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W701">
         <v>-1</v>
       </c>
       <c r="X701">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y701">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z701">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA701">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB701">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC701">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -67642,7 +67642,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>6799947</v>
+        <v>6799946</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67651,49 +67651,49 @@
         <v>28</v>
       </c>
       <c r="E755" s="2">
-        <v>45321.58333333334</v>
+        <v>45322.58333333334</v>
       </c>
       <c r="F755" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G755" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K755">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L755">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M755">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N755">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O755">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P755">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q755">
         <v>-0.25</v>
       </c>
       <c r="R755">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S755">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T755">
         <v>2.25</v>
       </c>
       <c r="U755">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V755">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W755">
         <v>0</v>
@@ -67716,7 +67716,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>6799952</v>
+        <v>6799948</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67725,49 +67725,49 @@
         <v>28</v>
       </c>
       <c r="E756" s="2">
-        <v>45321.61458333334</v>
+        <v>45322.61458333334</v>
       </c>
       <c r="F756" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G756" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K756">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L756">
+        <v>3.25</v>
+      </c>
+      <c r="M756">
         <v>3.5</v>
       </c>
-      <c r="M756">
-        <v>4</v>
-      </c>
       <c r="N756">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O756">
+        <v>3.25</v>
+      </c>
+      <c r="P756">
         <v>3.5</v>
-      </c>
-      <c r="P756">
-        <v>4</v>
       </c>
       <c r="Q756">
         <v>-0.5</v>
       </c>
       <c r="R756">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S756">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T756">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U756">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V756">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W756">
         <v>0</v>
@@ -67790,7 +67790,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>6799949</v>
+        <v>6799950</v>
       </c>
       <c r="C757" t="s">
         <v>28</v>
@@ -67799,49 +67799,49 @@
         <v>28</v>
       </c>
       <c r="E757" s="2">
-        <v>45321.625</v>
+        <v>45322.625</v>
       </c>
       <c r="F757" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G757" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K757">
-        <v>1.75</v>
+        <v>1.285</v>
       </c>
       <c r="L757">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M757">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="N757">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="O757">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P757">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q757">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R757">
+        <v>1.925</v>
+      </c>
+      <c r="S757">
+        <v>1.925</v>
+      </c>
+      <c r="T757">
+        <v>2.75</v>
+      </c>
+      <c r="U757">
+        <v>2</v>
+      </c>
+      <c r="V757">
         <v>1.85</v>
-      </c>
-      <c r="S757">
-        <v>2</v>
-      </c>
-      <c r="T757">
-        <v>2.5</v>
-      </c>
-      <c r="U757">
-        <v>1.825</v>
-      </c>
-      <c r="V757">
-        <v>2.025</v>
       </c>
       <c r="W757">
         <v>0</v>
@@ -67864,7 +67864,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>6799946</v>
+        <v>6799951</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67873,49 +67873,49 @@
         <v>28</v>
       </c>
       <c r="E758" s="2">
-        <v>45322.58333333334</v>
+        <v>45322.64583333334</v>
       </c>
       <c r="F758" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G758" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K758">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L758">
         <v>3.2</v>
       </c>
       <c r="M758">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N758">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O758">
         <v>3.2</v>
       </c>
       <c r="P758">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q758">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R758">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S758">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T758">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U758">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V758">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W758">
         <v>0</v>
@@ -67930,228 +67930,6 @@
         <v>0</v>
       </c>
       <c r="AA758">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759" spans="1:29">
-      <c r="A759" s="1">
-        <v>757</v>
-      </c>
-      <c r="B759">
-        <v>6799948</v>
-      </c>
-      <c r="C759" t="s">
-        <v>28</v>
-      </c>
-      <c r="D759" t="s">
-        <v>28</v>
-      </c>
-      <c r="E759" s="2">
-        <v>45322.61458333334</v>
-      </c>
-      <c r="F759" t="s">
-        <v>35</v>
-      </c>
-      <c r="G759" t="s">
-        <v>29</v>
-      </c>
-      <c r="K759">
-        <v>2</v>
-      </c>
-      <c r="L759">
-        <v>3.25</v>
-      </c>
-      <c r="M759">
-        <v>3.5</v>
-      </c>
-      <c r="N759">
-        <v>2.05</v>
-      </c>
-      <c r="O759">
-        <v>3.2</v>
-      </c>
-      <c r="P759">
-        <v>3.3</v>
-      </c>
-      <c r="Q759">
-        <v>-0.25</v>
-      </c>
-      <c r="R759">
-        <v>1.8</v>
-      </c>
-      <c r="S759">
-        <v>2.05</v>
-      </c>
-      <c r="T759">
-        <v>2.25</v>
-      </c>
-      <c r="U759">
-        <v>1.8</v>
-      </c>
-      <c r="V759">
-        <v>2.05</v>
-      </c>
-      <c r="W759">
-        <v>0</v>
-      </c>
-      <c r="X759">
-        <v>0</v>
-      </c>
-      <c r="Y759">
-        <v>0</v>
-      </c>
-      <c r="Z759">
-        <v>0</v>
-      </c>
-      <c r="AA759">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="760" spans="1:29">
-      <c r="A760" s="1">
-        <v>758</v>
-      </c>
-      <c r="B760">
-        <v>6799950</v>
-      </c>
-      <c r="C760" t="s">
-        <v>28</v>
-      </c>
-      <c r="D760" t="s">
-        <v>28</v>
-      </c>
-      <c r="E760" s="2">
-        <v>45322.625</v>
-      </c>
-      <c r="F760" t="s">
-        <v>41</v>
-      </c>
-      <c r="G760" t="s">
-        <v>44</v>
-      </c>
-      <c r="K760">
-        <v>1.285</v>
-      </c>
-      <c r="L760">
-        <v>5</v>
-      </c>
-      <c r="M760">
-        <v>8.5</v>
-      </c>
-      <c r="N760">
-        <v>1.285</v>
-      </c>
-      <c r="O760">
-        <v>5.25</v>
-      </c>
-      <c r="P760">
-        <v>8.5</v>
-      </c>
-      <c r="Q760">
-        <v>-1.5</v>
-      </c>
-      <c r="R760">
-        <v>1.925</v>
-      </c>
-      <c r="S760">
-        <v>1.925</v>
-      </c>
-      <c r="T760">
-        <v>2.75</v>
-      </c>
-      <c r="U760">
-        <v>1.975</v>
-      </c>
-      <c r="V760">
-        <v>1.875</v>
-      </c>
-      <c r="W760">
-        <v>0</v>
-      </c>
-      <c r="X760">
-        <v>0</v>
-      </c>
-      <c r="Y760">
-        <v>0</v>
-      </c>
-      <c r="Z760">
-        <v>0</v>
-      </c>
-      <c r="AA760">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761" spans="1:29">
-      <c r="A761" s="1">
-        <v>759</v>
-      </c>
-      <c r="B761">
-        <v>6799951</v>
-      </c>
-      <c r="C761" t="s">
-        <v>28</v>
-      </c>
-      <c r="D761" t="s">
-        <v>28</v>
-      </c>
-      <c r="E761" s="2">
-        <v>45322.64583333334</v>
-      </c>
-      <c r="F761" t="s">
-        <v>36</v>
-      </c>
-      <c r="G761" t="s">
-        <v>30</v>
-      </c>
-      <c r="K761">
-        <v>2.6</v>
-      </c>
-      <c r="L761">
-        <v>3.2</v>
-      </c>
-      <c r="M761">
-        <v>2.5</v>
-      </c>
-      <c r="N761">
-        <v>2.6</v>
-      </c>
-      <c r="O761">
-        <v>3.2</v>
-      </c>
-      <c r="P761">
-        <v>2.55</v>
-      </c>
-      <c r="Q761">
-        <v>0</v>
-      </c>
-      <c r="R761">
-        <v>1.95</v>
-      </c>
-      <c r="S761">
-        <v>1.9</v>
-      </c>
-      <c r="T761">
-        <v>2.5</v>
-      </c>
-      <c r="U761">
-        <v>1.975</v>
-      </c>
-      <c r="V761">
-        <v>1.875</v>
-      </c>
-      <c r="W761">
-        <v>0</v>
-      </c>
-      <c r="X761">
-        <v>0</v>
-      </c>
-      <c r="Y761">
-        <v>0</v>
-      </c>
-      <c r="Z761">
-        <v>0</v>
-      </c>
-      <c r="AA761">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC758"/>
+  <dimension ref="A1:AC755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37026,7 +37026,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>5145351</v>
+        <v>5145107</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37038,76 +37038,76 @@
         <v>44814.5625</v>
       </c>
       <c r="F411" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G411" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J411" t="s">
         <v>48</v>
       </c>
       <c r="K411">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="L411">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M411">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N411">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O411">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P411">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q411">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R411">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S411">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T411">
         <v>2.25</v>
       </c>
       <c r="U411">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V411">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W411">
         <v>-1</v>
       </c>
       <c r="X411">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA411">
+        <v>-0</v>
+      </c>
+      <c r="AB411">
         <v>-0.5</v>
       </c>
-      <c r="AB411">
-        <v>-1</v>
-      </c>
       <c r="AC411">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37115,7 +37115,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>5145107</v>
+        <v>5145351</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37127,76 +37127,76 @@
         <v>44814.5625</v>
       </c>
       <c r="F412" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G412" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J412" t="s">
         <v>48</v>
       </c>
       <c r="K412">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="L412">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M412">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N412">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O412">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P412">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q412">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R412">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S412">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T412">
         <v>2.25</v>
       </c>
       <c r="U412">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V412">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W412">
         <v>-1</v>
       </c>
       <c r="X412">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y412">
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA412">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB412">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC412">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -52245,7 +52245,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>6404135</v>
+        <v>6402965</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52257,76 +52257,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F582" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G582" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I582">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J582" t="s">
         <v>48</v>
       </c>
       <c r="K582">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L582">
         <v>3.3</v>
       </c>
       <c r="M582">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N582">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O582">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P582">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q582">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R582">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S582">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T582">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U582">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V582">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W582">
         <v>-1</v>
       </c>
       <c r="X582">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y582">
         <v>-1</v>
       </c>
       <c r="Z582">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA582">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB582">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC582">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="583" spans="1:29">
@@ -52334,7 +52334,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>6402965</v>
+        <v>6404135</v>
       </c>
       <c r="C583" t="s">
         <v>28</v>
@@ -52346,76 +52346,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F583" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G583" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I583">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J583" t="s">
         <v>48</v>
       </c>
       <c r="K583">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L583">
         <v>3.3</v>
       </c>
       <c r="M583">
+        <v>2.375</v>
+      </c>
+      <c r="N583">
+        <v>2</v>
+      </c>
+      <c r="O583">
+        <v>3.4</v>
+      </c>
+      <c r="P583">
+        <v>3.25</v>
+      </c>
+      <c r="Q583">
+        <v>-0.25</v>
+      </c>
+      <c r="R583">
+        <v>1.8</v>
+      </c>
+      <c r="S583">
+        <v>2.05</v>
+      </c>
+      <c r="T583">
+        <v>2.25</v>
+      </c>
+      <c r="U583">
+        <v>1.8</v>
+      </c>
+      <c r="V583">
+        <v>2.05</v>
+      </c>
+      <c r="W583">
+        <v>-1</v>
+      </c>
+      <c r="X583">
         <v>2.4</v>
       </c>
-      <c r="N583">
-        <v>2.6</v>
-      </c>
-      <c r="O583">
-        <v>3</v>
-      </c>
-      <c r="P583">
-        <v>2.7</v>
-      </c>
-      <c r="Q583">
-        <v>0</v>
-      </c>
-      <c r="R583">
-        <v>1.9</v>
-      </c>
-      <c r="S583">
-        <v>1.95</v>
-      </c>
-      <c r="T583">
-        <v>2</v>
-      </c>
-      <c r="U583">
-        <v>1.875</v>
-      </c>
-      <c r="V583">
-        <v>1.975</v>
-      </c>
-      <c r="W583">
-        <v>-1</v>
-      </c>
-      <c r="X583">
-        <v>2</v>
-      </c>
       <c r="Y583">
         <v>-1</v>
       </c>
       <c r="Z583">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA583">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB583">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC583">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="584" spans="1:29">
@@ -58386,7 +58386,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>6799846</v>
+        <v>6799841</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58398,10 +58398,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F651" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G651" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H651">
         <v>1</v>
@@ -58413,46 +58413,46 @@
         <v>48</v>
       </c>
       <c r="K651">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L651">
+        <v>3.25</v>
+      </c>
+      <c r="M651">
+        <v>2.75</v>
+      </c>
+      <c r="N651">
+        <v>2.3</v>
+      </c>
+      <c r="O651">
         <v>3.3</v>
       </c>
-      <c r="M651">
-        <v>2.3</v>
-      </c>
-      <c r="N651">
-        <v>2.5</v>
-      </c>
-      <c r="O651">
-        <v>3.2</v>
-      </c>
       <c r="P651">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q651">
         <v>0</v>
       </c>
       <c r="R651">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S651">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T651">
         <v>2.5</v>
       </c>
       <c r="U651">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V651">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y651">
         <v>-1</v>
@@ -58467,7 +58467,7 @@
         <v>-1</v>
       </c>
       <c r="AC651">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -58475,7 +58475,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>6799841</v>
+        <v>6799846</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58487,10 +58487,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F652" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G652" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H652">
         <v>1</v>
@@ -58502,46 +58502,46 @@
         <v>48</v>
       </c>
       <c r="K652">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L652">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M652">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N652">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O652">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P652">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q652">
         <v>0</v>
       </c>
       <c r="R652">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S652">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T652">
         <v>2.5</v>
       </c>
       <c r="U652">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V652">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y652">
         <v>-1</v>
@@ -58556,7 +58556,7 @@
         <v>-1</v>
       </c>
       <c r="AC652">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -65862,7 +65862,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>7542736</v>
+        <v>7542737</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65874,76 +65874,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F735" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G735" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H735">
         <v>0</v>
       </c>
       <c r="I735">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J735" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K735">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L735">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M735">
+        <v>2.45</v>
+      </c>
+      <c r="N735">
         <v>3.2</v>
       </c>
-      <c r="N735">
-        <v>2.375</v>
-      </c>
       <c r="O735">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P735">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q735">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R735">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S735">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T735">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U735">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V735">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W735">
         <v>-1</v>
       </c>
       <c r="X735">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y735">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z735">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA735">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB735">
         <v>-1</v>
       </c>
       <c r="AC735">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="736" spans="1:29">
@@ -65951,7 +65951,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>7542735</v>
+        <v>7542736</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -65963,76 +65963,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F736" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G736" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736">
         <v>0</v>
       </c>
       <c r="J736" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K736">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L736">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M736">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N736">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O736">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P736">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q736">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R736">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S736">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T736">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U736">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V736">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W736">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X736">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y736">
         <v>-1</v>
       </c>
       <c r="Z736">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA736">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB736">
         <v>-1</v>
       </c>
       <c r="AC736">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="737" spans="1:29">
@@ -66040,7 +66040,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>7542737</v>
+        <v>7542735</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66052,76 +66052,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F737" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G737" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H737">
+        <v>2</v>
+      </c>
+      <c r="I737">
         <v>0</v>
       </c>
-      <c r="I737">
-        <v>1</v>
-      </c>
       <c r="J737" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K737">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L737">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M737">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N737">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O737">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P737">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q737">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R737">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S737">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T737">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U737">
+        <v>1.975</v>
+      </c>
+      <c r="V737">
         <v>1.875</v>
       </c>
-      <c r="V737">
-        <v>1.975</v>
-      </c>
       <c r="W737">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X737">
         <v>-1</v>
       </c>
       <c r="Y737">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z737">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA737">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB737">
         <v>-1</v>
       </c>
       <c r="AC737">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -67642,7 +67642,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>6799946</v>
+        <v>6799953</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67651,49 +67651,49 @@
         <v>28</v>
       </c>
       <c r="E755" s="2">
-        <v>45322.58333333334</v>
+        <v>45325.41666666666</v>
       </c>
       <c r="F755" t="s">
+        <v>31</v>
+      </c>
+      <c r="G755" t="s">
         <v>34</v>
       </c>
-      <c r="G755" t="s">
-        <v>38</v>
-      </c>
       <c r="K755">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L755">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M755">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N755">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O755">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P755">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q755">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R755">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S755">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T755">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U755">
+        <v>1.9</v>
+      </c>
+      <c r="V755">
         <v>1.95</v>
-      </c>
-      <c r="V755">
-        <v>1.9</v>
       </c>
       <c r="W755">
         <v>0</v>
@@ -67708,228 +67708,6 @@
         <v>0</v>
       </c>
       <c r="AA755">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="756" spans="1:29">
-      <c r="A756" s="1">
-        <v>754</v>
-      </c>
-      <c r="B756">
-        <v>6799948</v>
-      </c>
-      <c r="C756" t="s">
-        <v>28</v>
-      </c>
-      <c r="D756" t="s">
-        <v>28</v>
-      </c>
-      <c r="E756" s="2">
-        <v>45322.61458333334</v>
-      </c>
-      <c r="F756" t="s">
-        <v>35</v>
-      </c>
-      <c r="G756" t="s">
-        <v>29</v>
-      </c>
-      <c r="K756">
-        <v>2</v>
-      </c>
-      <c r="L756">
-        <v>3.25</v>
-      </c>
-      <c r="M756">
-        <v>3.5</v>
-      </c>
-      <c r="N756">
-        <v>2</v>
-      </c>
-      <c r="O756">
-        <v>3.25</v>
-      </c>
-      <c r="P756">
-        <v>3.5</v>
-      </c>
-      <c r="Q756">
-        <v>-0.5</v>
-      </c>
-      <c r="R756">
-        <v>2.05</v>
-      </c>
-      <c r="S756">
-        <v>1.8</v>
-      </c>
-      <c r="T756">
-        <v>2.25</v>
-      </c>
-      <c r="U756">
-        <v>1.8</v>
-      </c>
-      <c r="V756">
-        <v>2.05</v>
-      </c>
-      <c r="W756">
-        <v>0</v>
-      </c>
-      <c r="X756">
-        <v>0</v>
-      </c>
-      <c r="Y756">
-        <v>0</v>
-      </c>
-      <c r="Z756">
-        <v>0</v>
-      </c>
-      <c r="AA756">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757" spans="1:29">
-      <c r="A757" s="1">
-        <v>755</v>
-      </c>
-      <c r="B757">
-        <v>6799950</v>
-      </c>
-      <c r="C757" t="s">
-        <v>28</v>
-      </c>
-      <c r="D757" t="s">
-        <v>28</v>
-      </c>
-      <c r="E757" s="2">
-        <v>45322.625</v>
-      </c>
-      <c r="F757" t="s">
-        <v>41</v>
-      </c>
-      <c r="G757" t="s">
-        <v>44</v>
-      </c>
-      <c r="K757">
-        <v>1.285</v>
-      </c>
-      <c r="L757">
-        <v>5</v>
-      </c>
-      <c r="M757">
-        <v>8.5</v>
-      </c>
-      <c r="N757">
-        <v>1.285</v>
-      </c>
-      <c r="O757">
-        <v>5.25</v>
-      </c>
-      <c r="P757">
-        <v>8.5</v>
-      </c>
-      <c r="Q757">
-        <v>-1.5</v>
-      </c>
-      <c r="R757">
-        <v>1.925</v>
-      </c>
-      <c r="S757">
-        <v>1.925</v>
-      </c>
-      <c r="T757">
-        <v>2.75</v>
-      </c>
-      <c r="U757">
-        <v>2</v>
-      </c>
-      <c r="V757">
-        <v>1.85</v>
-      </c>
-      <c r="W757">
-        <v>0</v>
-      </c>
-      <c r="X757">
-        <v>0</v>
-      </c>
-      <c r="Y757">
-        <v>0</v>
-      </c>
-      <c r="Z757">
-        <v>0</v>
-      </c>
-      <c r="AA757">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="758" spans="1:29">
-      <c r="A758" s="1">
-        <v>756</v>
-      </c>
-      <c r="B758">
-        <v>6799951</v>
-      </c>
-      <c r="C758" t="s">
-        <v>28</v>
-      </c>
-      <c r="D758" t="s">
-        <v>28</v>
-      </c>
-      <c r="E758" s="2">
-        <v>45322.64583333334</v>
-      </c>
-      <c r="F758" t="s">
-        <v>36</v>
-      </c>
-      <c r="G758" t="s">
-        <v>30</v>
-      </c>
-      <c r="K758">
-        <v>2.6</v>
-      </c>
-      <c r="L758">
-        <v>3.2</v>
-      </c>
-      <c r="M758">
-        <v>2.5</v>
-      </c>
-      <c r="N758">
-        <v>2.875</v>
-      </c>
-      <c r="O758">
-        <v>3.2</v>
-      </c>
-      <c r="P758">
-        <v>2.3</v>
-      </c>
-      <c r="Q758">
-        <v>0.25</v>
-      </c>
-      <c r="R758">
-        <v>1.825</v>
-      </c>
-      <c r="S758">
-        <v>2.025</v>
-      </c>
-      <c r="T758">
-        <v>2.5</v>
-      </c>
-      <c r="U758">
-        <v>1.975</v>
-      </c>
-      <c r="V758">
-        <v>1.875</v>
-      </c>
-      <c r="W758">
-        <v>0</v>
-      </c>
-      <c r="X758">
-        <v>0</v>
-      </c>
-      <c r="Y758">
-        <v>0</v>
-      </c>
-      <c r="Z758">
-        <v>0</v>
-      </c>
-      <c r="AA758">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC755"/>
+  <dimension ref="A1:AC762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2616221</v>
+        <v>2616219</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,13 +8202,13 @@
         <v>44275.59375</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8217,43 +8217,43 @@
         <v>49</v>
       </c>
       <c r="K87">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N87">
+        <v>1.363</v>
+      </c>
+      <c r="O87">
+        <v>4</v>
+      </c>
+      <c r="P87">
+        <v>9</v>
+      </c>
+      <c r="Q87">
+        <v>-1.25</v>
+      </c>
+      <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
         <v>2.75</v>
       </c>
-      <c r="O87">
-        <v>3.2</v>
-      </c>
-      <c r="P87">
-        <v>2.375</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>2.1</v>
-      </c>
-      <c r="S87">
-        <v>1.775</v>
-      </c>
-      <c r="T87">
-        <v>2</v>
-      </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V87">
         <v>1.8</v>
       </c>
       <c r="W87">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8262,7 +8262,7 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2616218</v>
+        <v>2616221</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,76 +8291,76 @@
         <v>44275.59375</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L88">
         <v>3.2</v>
       </c>
       <c r="M88">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N88">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P88">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q88">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8368,7 +8368,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2616219</v>
+        <v>2616216</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8380,10 +8380,10 @@
         <v>44275.59375</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8395,43 +8395,43 @@
         <v>49</v>
       </c>
       <c r="K89">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L89">
+        <v>3.75</v>
+      </c>
+      <c r="M89">
+        <v>4.333</v>
+      </c>
+      <c r="N89">
+        <v>1.85</v>
+      </c>
+      <c r="O89">
+        <v>3.3</v>
+      </c>
+      <c r="P89">
         <v>4</v>
       </c>
-      <c r="M89">
-        <v>6</v>
-      </c>
-      <c r="N89">
-        <v>1.363</v>
-      </c>
-      <c r="O89">
-        <v>4</v>
-      </c>
-      <c r="P89">
-        <v>9</v>
-      </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
         <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
-        <v>0.363</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8440,16 +8440,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2616216</v>
+        <v>2616215</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,10 +8469,10 @@
         <v>44275.59375</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8484,61 +8484,61 @@
         <v>49</v>
       </c>
       <c r="K90">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="O90">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q90">
+        <v>0.25</v>
+      </c>
+      <c r="R90">
+        <v>1.875</v>
+      </c>
+      <c r="S90">
+        <v>1.975</v>
+      </c>
+      <c r="T90">
+        <v>2.25</v>
+      </c>
+      <c r="U90">
+        <v>1.875</v>
+      </c>
+      <c r="V90">
+        <v>1.975</v>
+      </c>
+      <c r="W90">
+        <v>1.9</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>0.875</v>
+      </c>
+      <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
         <v>-0.5</v>
       </c>
-      <c r="R90">
-        <v>1.925</v>
-      </c>
-      <c r="S90">
-        <v>1.925</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
-      <c r="U90">
-        <v>1.825</v>
-      </c>
-      <c r="V90">
-        <v>2.025</v>
-      </c>
-      <c r="W90">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>0.925</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
-      <c r="AB90">
-        <v>0</v>
-      </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2616215</v>
+        <v>2616218</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>44275.59375</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L91">
         <v>3.2</v>
       </c>
       <c r="M91">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N91">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O91">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>3372460</v>
+        <v>3372587</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>44339.625</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>0</v>
       </c>
-      <c r="I142">
+      <c r="J142" t="s">
+        <v>49</v>
+      </c>
+      <c r="K142">
+        <v>1.4</v>
+      </c>
+      <c r="L142">
+        <v>4.5</v>
+      </c>
+      <c r="M142">
+        <v>5.5</v>
+      </c>
+      <c r="N142">
+        <v>1.4</v>
+      </c>
+      <c r="O142">
+        <v>4.2</v>
+      </c>
+      <c r="P142">
+        <v>6.5</v>
+      </c>
+      <c r="Q142">
+        <v>-1.25</v>
+      </c>
+      <c r="R142">
+        <v>1.9</v>
+      </c>
+      <c r="S142">
+        <v>1.95</v>
+      </c>
+      <c r="T142">
         <v>3</v>
       </c>
-      <c r="J142" t="s">
-        <v>50</v>
-      </c>
-      <c r="K142">
-        <v>3.8</v>
-      </c>
-      <c r="L142">
-        <v>3.6</v>
-      </c>
-      <c r="M142">
-        <v>1.75</v>
-      </c>
-      <c r="N142">
-        <v>4.75</v>
-      </c>
-      <c r="O142">
-        <v>3.4</v>
-      </c>
-      <c r="P142">
-        <v>1.65</v>
-      </c>
-      <c r="Q142">
-        <v>0.75</v>
-      </c>
-      <c r="R142">
-        <v>1.85</v>
-      </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
-      <c r="T142">
-        <v>2.25</v>
-      </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>3372587</v>
+        <v>3372460</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,76 +13275,76 @@
         <v>44339.625</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="L144">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="N144">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>3372590</v>
+        <v>3372461</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>44342.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K146">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L146">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="N146">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O146">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P146">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q146">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z146">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC146">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>3372461</v>
+        <v>3372589</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>44342.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K147">
+        <v>2.4</v>
+      </c>
+      <c r="L147">
+        <v>3.2</v>
+      </c>
+      <c r="M147">
+        <v>2.625</v>
+      </c>
+      <c r="N147">
+        <v>1.8</v>
+      </c>
+      <c r="O147">
+        <v>3.3</v>
+      </c>
+      <c r="P147">
         <v>4.2</v>
       </c>
-      <c r="L147">
-        <v>3.6</v>
-      </c>
-      <c r="M147">
-        <v>1.666</v>
-      </c>
-      <c r="N147">
-        <v>6.5</v>
-      </c>
-      <c r="O147">
-        <v>3.75</v>
-      </c>
-      <c r="P147">
-        <v>1.5</v>
-      </c>
       <c r="Q147">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
+        <v>1.925</v>
+      </c>
+      <c r="S147">
+        <v>1.925</v>
+      </c>
+      <c r="T147">
+        <v>2.25</v>
+      </c>
+      <c r="U147">
         <v>1.9</v>
       </c>
-      <c r="S147">
+      <c r="V147">
         <v>1.95</v>
       </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>1.925</v>
-      </c>
-      <c r="V147">
-        <v>1.925</v>
-      </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13619,7 +13619,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>3372589</v>
+        <v>3372590</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13631,76 +13631,76 @@
         <v>44342.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L148">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M148">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N148">
+        <v>9</v>
+      </c>
+      <c r="O148">
+        <v>4.75</v>
+      </c>
+      <c r="P148">
+        <v>1.3</v>
+      </c>
+      <c r="Q148">
+        <v>1.5</v>
+      </c>
+      <c r="R148">
         <v>1.8</v>
       </c>
-      <c r="O148">
-        <v>3.3</v>
-      </c>
-      <c r="P148">
-        <v>4.2</v>
-      </c>
-      <c r="Q148">
-        <v>-0.5</v>
-      </c>
-      <c r="R148">
-        <v>1.925</v>
-      </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>3.75</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
         <v>0.8</v>
       </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
-      <c r="Z148">
-        <v>0.925</v>
-      </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>3575393</v>
+        <v>3575455</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>44346.60416666666</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L149">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M149">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N149">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="O149">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="P149">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB149">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13886,7 +13886,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>3575455</v>
+        <v>3575393</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13898,73 +13898,73 @@
         <v>44346.60416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K151">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L151">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M151">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="N151">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="O151">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="P151">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q151">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S151">
+        <v>2.1</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>1.925</v>
+      </c>
+      <c r="V151">
         <v>1.875</v>
       </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
-      <c r="U151">
-        <v>1.85</v>
-      </c>
-      <c r="V151">
-        <v>2</v>
-      </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X151">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -29550,7 +29550,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>3730303</v>
+        <v>3730301</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29562,76 +29562,76 @@
         <v>44632.58333333334</v>
       </c>
       <c r="F327" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G327" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327">
         <v>2</v>
       </c>
       <c r="J327" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K327">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="L327">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M327">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="N327">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="O327">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P327">
+        <v>1.45</v>
+      </c>
+      <c r="Q327">
+        <v>1</v>
+      </c>
+      <c r="R327">
         <v>2.05</v>
       </c>
-      <c r="Q327">
-        <v>0.25</v>
-      </c>
-      <c r="R327">
-        <v>2</v>
-      </c>
       <c r="S327">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T327">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U327">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V327">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W327">
         <v>-1</v>
       </c>
       <c r="X327">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y327">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z327">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA327">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB327">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC327">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29728,7 +29728,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>3730301</v>
+        <v>3730303</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29740,76 +29740,76 @@
         <v>44632.58333333334</v>
       </c>
       <c r="F329" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G329" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329">
         <v>2</v>
       </c>
       <c r="J329" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K329">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
       <c r="L329">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M329">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="N329">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="O329">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P329">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q329">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R329">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S329">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T329">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U329">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V329">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W329">
         <v>-1</v>
       </c>
       <c r="X329">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y329">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA329">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB329">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC329">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30707,7 +30707,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>4803833</v>
+        <v>4798007</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30719,76 +30719,76 @@
         <v>44653.58333333334</v>
       </c>
       <c r="F340" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G340" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340">
         <v>1</v>
       </c>
       <c r="J340" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K340">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L340">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M340">
+        <v>1.95</v>
+      </c>
+      <c r="N340">
         <v>3.25</v>
       </c>
-      <c r="N340">
-        <v>2.375</v>
-      </c>
       <c r="O340">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P340">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q340">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R340">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S340">
-        <v>2.15</v>
+        <v>1.925</v>
       </c>
       <c r="T340">
         <v>2.25</v>
       </c>
       <c r="U340">
+        <v>1.825</v>
+      </c>
+      <c r="V340">
         <v>2.025</v>
       </c>
-      <c r="V340">
-        <v>1.825</v>
-      </c>
       <c r="W340">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X340">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y340">
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>0.7250000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA340">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB340">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC340">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30796,7 +30796,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>4798007</v>
+        <v>4803833</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30808,76 +30808,76 @@
         <v>44653.58333333334</v>
       </c>
       <c r="F341" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G341" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341">
         <v>1</v>
       </c>
       <c r="J341" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K341">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L341">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M341">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="N341">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="O341">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P341">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R341">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S341">
-        <v>1.925</v>
+        <v>2.15</v>
       </c>
       <c r="T341">
         <v>2.25</v>
       </c>
       <c r="U341">
+        <v>2.025</v>
+      </c>
+      <c r="V341">
         <v>1.825</v>
       </c>
-      <c r="V341">
-        <v>2.025</v>
-      </c>
       <c r="W341">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X341">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y341">
         <v>-1</v>
       </c>
       <c r="Z341">
-        <v>0.4625</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA341">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB341">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC341">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -32131,7 +32131,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>4931878</v>
+        <v>4804203</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32143,73 +32143,73 @@
         <v>44674.5</v>
       </c>
       <c r="F356" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G356" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H356">
+        <v>4</v>
+      </c>
+      <c r="I356">
         <v>0</v>
       </c>
-      <c r="I356">
-        <v>4</v>
-      </c>
       <c r="J356" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K356">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L356">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M356">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N356">
+        <v>2.25</v>
+      </c>
+      <c r="O356">
+        <v>3</v>
+      </c>
+      <c r="P356">
+        <v>3.1</v>
+      </c>
+      <c r="Q356">
+        <v>-0.25</v>
+      </c>
+      <c r="R356">
+        <v>2.025</v>
+      </c>
+      <c r="S356">
+        <v>1.825</v>
+      </c>
+      <c r="T356">
+        <v>2.5</v>
+      </c>
+      <c r="U356">
+        <v>2.05</v>
+      </c>
+      <c r="V356">
         <v>1.8</v>
       </c>
-      <c r="O356">
-        <v>3.3</v>
-      </c>
-      <c r="P356">
-        <v>4</v>
-      </c>
-      <c r="Q356">
-        <v>-0.5</v>
-      </c>
-      <c r="R356">
-        <v>1.85</v>
-      </c>
-      <c r="S356">
-        <v>2</v>
-      </c>
-      <c r="T356">
-        <v>2.25</v>
-      </c>
-      <c r="U356">
-        <v>2</v>
-      </c>
-      <c r="V356">
-        <v>1.85</v>
-      </c>
       <c r="W356">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X356">
         <v>-1</v>
       </c>
       <c r="Y356">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA356">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB356">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC356">
         <v>-1</v>
@@ -32220,7 +32220,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>4804203</v>
+        <v>4931878</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32232,73 +32232,73 @@
         <v>44674.5</v>
       </c>
       <c r="F357" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G357" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
         <v>4</v>
       </c>
-      <c r="I357">
-        <v>0</v>
-      </c>
       <c r="J357" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K357">
+        <v>1.909</v>
+      </c>
+      <c r="L357">
+        <v>3.25</v>
+      </c>
+      <c r="M357">
+        <v>3.5</v>
+      </c>
+      <c r="N357">
+        <v>1.8</v>
+      </c>
+      <c r="O357">
+        <v>3.3</v>
+      </c>
+      <c r="P357">
+        <v>4</v>
+      </c>
+      <c r="Q357">
+        <v>-0.5</v>
+      </c>
+      <c r="R357">
+        <v>1.85</v>
+      </c>
+      <c r="S357">
+        <v>2</v>
+      </c>
+      <c r="T357">
         <v>2.25</v>
       </c>
-      <c r="L357">
+      <c r="U357">
+        <v>2</v>
+      </c>
+      <c r="V357">
+        <v>1.85</v>
+      </c>
+      <c r="W357">
+        <v>-1</v>
+      </c>
+      <c r="X357">
+        <v>-1</v>
+      </c>
+      <c r="Y357">
         <v>3</v>
       </c>
-      <c r="M357">
-        <v>3</v>
-      </c>
-      <c r="N357">
-        <v>2.25</v>
-      </c>
-      <c r="O357">
-        <v>3</v>
-      </c>
-      <c r="P357">
-        <v>3.1</v>
-      </c>
-      <c r="Q357">
-        <v>-0.25</v>
-      </c>
-      <c r="R357">
-        <v>2.025</v>
-      </c>
-      <c r="S357">
-        <v>1.825</v>
-      </c>
-      <c r="T357">
-        <v>2.5</v>
-      </c>
-      <c r="U357">
-        <v>2.05</v>
-      </c>
-      <c r="V357">
-        <v>1.8</v>
-      </c>
-      <c r="W357">
-        <v>1.25</v>
-      </c>
-      <c r="X357">
-        <v>-1</v>
-      </c>
-      <c r="Y357">
-        <v>-1</v>
-      </c>
       <c r="Z357">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA357">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB357">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC357">
         <v>-1</v>
@@ -32665,7 +32665,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>4804206</v>
+        <v>4804208</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32677,10 +32677,10 @@
         <v>44681.52083333334</v>
       </c>
       <c r="F362" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G362" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -32692,40 +32692,40 @@
         <v>50</v>
       </c>
       <c r="K362">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L362">
         <v>3.2</v>
       </c>
       <c r="M362">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N362">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O362">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P362">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q362">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R362">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S362">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T362">
         <v>2.25</v>
       </c>
       <c r="U362">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V362">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W362">
         <v>-1</v>
@@ -32734,19 +32734,19 @@
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Z362">
         <v>-1</v>
       </c>
       <c r="AA362">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB362">
         <v>-0.5</v>
       </c>
       <c r="AC362">
-        <v>0.5125</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32843,7 +32843,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>4804208</v>
+        <v>4804206</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32855,10 +32855,10 @@
         <v>44681.52083333334</v>
       </c>
       <c r="F364" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G364" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H364">
         <v>0</v>
@@ -32870,40 +32870,40 @@
         <v>50</v>
       </c>
       <c r="K364">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L364">
         <v>3.2</v>
       </c>
       <c r="M364">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N364">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O364">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P364">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q364">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R364">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S364">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T364">
         <v>2.25</v>
       </c>
       <c r="U364">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V364">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W364">
         <v>-1</v>
@@ -32912,19 +32912,19 @@
         <v>-1</v>
       </c>
       <c r="Y364">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z364">
         <v>-1</v>
       </c>
       <c r="AA364">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB364">
         <v>-0.5</v>
       </c>
       <c r="AC364">
-        <v>0.45</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -33911,7 +33911,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>4804192</v>
+        <v>4803837</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33923,58 +33923,58 @@
         <v>44691.60416666666</v>
       </c>
       <c r="F376" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G376" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J376" t="s">
         <v>49</v>
       </c>
       <c r="K376">
+        <v>1.7</v>
+      </c>
+      <c r="L376">
+        <v>3.5</v>
+      </c>
+      <c r="M376">
+        <v>4.5</v>
+      </c>
+      <c r="N376">
+        <v>1.55</v>
+      </c>
+      <c r="O376">
         <v>3.75</v>
       </c>
-      <c r="L376">
-        <v>3.4</v>
-      </c>
-      <c r="M376">
-        <v>1.909</v>
-      </c>
-      <c r="N376">
-        <v>3.5</v>
-      </c>
-      <c r="O376">
-        <v>3.25</v>
-      </c>
       <c r="P376">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q376">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R376">
+        <v>2.05</v>
+      </c>
+      <c r="S376">
         <v>1.8</v>
-      </c>
-      <c r="S376">
-        <v>2.05</v>
       </c>
       <c r="T376">
         <v>2.25</v>
       </c>
       <c r="U376">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V376">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W376">
-        <v>2.5</v>
+        <v>0.55</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -33983,13 +33983,13 @@
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA376">
         <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34000,7 +34000,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>4803837</v>
+        <v>4798018</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34012,73 +34012,73 @@
         <v>44691.60416666666</v>
       </c>
       <c r="F377" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G377" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H377">
+        <v>1</v>
+      </c>
+      <c r="I377">
         <v>3</v>
       </c>
-      <c r="I377">
-        <v>0</v>
-      </c>
       <c r="J377" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K377">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L377">
         <v>3.5</v>
       </c>
       <c r="M377">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N377">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O377">
+        <v>3.6</v>
+      </c>
+      <c r="P377">
         <v>3.75</v>
       </c>
-      <c r="P377">
-        <v>5.25</v>
-      </c>
       <c r="Q377">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R377">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S377">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T377">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U377">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V377">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W377">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z377">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB377">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34089,7 +34089,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>4798018</v>
+        <v>4804192</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34101,73 +34101,73 @@
         <v>44691.60416666666</v>
       </c>
       <c r="F378" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G378" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J378" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K378">
+        <v>3.75</v>
+      </c>
+      <c r="L378">
+        <v>3.4</v>
+      </c>
+      <c r="M378">
         <v>1.909</v>
       </c>
-      <c r="L378">
+      <c r="N378">
         <v>3.5</v>
       </c>
-      <c r="M378">
-        <v>3.5</v>
-      </c>
-      <c r="N378">
-        <v>1.833</v>
-      </c>
       <c r="O378">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P378">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q378">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R378">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S378">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T378">
+        <v>2.25</v>
+      </c>
+      <c r="U378">
+        <v>1.975</v>
+      </c>
+      <c r="V378">
+        <v>1.875</v>
+      </c>
+      <c r="W378">
         <v>2.5</v>
       </c>
-      <c r="U378">
-        <v>1.925</v>
-      </c>
-      <c r="V378">
-        <v>1.925</v>
-      </c>
-      <c r="W378">
-        <v>-1</v>
-      </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA378">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC378">
         <v>-1</v>
@@ -34267,7 +34267,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>4804215</v>
+        <v>4804217</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34279,58 +34279,58 @@
         <v>44695.54166666666</v>
       </c>
       <c r="F380" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G380" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I380">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J380" t="s">
         <v>49</v>
       </c>
       <c r="K380">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L380">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M380">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N380">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="O380">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P380">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q380">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R380">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S380">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T380">
         <v>2.75</v>
       </c>
       <c r="U380">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V380">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W380">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34339,16 +34339,16 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB380">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC380">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34445,7 +34445,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>4804217</v>
+        <v>4804215</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34457,58 +34457,58 @@
         <v>44695.54166666666</v>
       </c>
       <c r="F382" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G382" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H382">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I382">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J382" t="s">
         <v>49</v>
       </c>
       <c r="K382">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L382">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M382">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N382">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="O382">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P382">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q382">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R382">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S382">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T382">
         <v>2.75</v>
       </c>
       <c r="U382">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V382">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W382">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="X382">
         <v>-1</v>
@@ -34517,16 +34517,16 @@
         <v>-1</v>
       </c>
       <c r="Z382">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA382">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB382">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC382">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34534,7 +34534,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>4804193</v>
+        <v>4798019</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34546,76 +34546,76 @@
         <v>44697.60416666666</v>
       </c>
       <c r="F383" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G383" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H383">
         <v>0</v>
       </c>
       <c r="I383">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J383" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K383">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="L383">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M383">
-        <v>3.75</v>
+        <v>1.333</v>
       </c>
       <c r="N383">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O383">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P383">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q383">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R383">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S383">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T383">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U383">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V383">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W383">
         <v>-1</v>
       </c>
       <c r="X383">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y383">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z383">
         <v>-1</v>
       </c>
       <c r="AA383">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AB383">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC383">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34623,7 +34623,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>4798019</v>
+        <v>4798020</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34635,76 +34635,76 @@
         <v>44697.60416666666</v>
       </c>
       <c r="F384" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G384" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J384" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K384">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="L384">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M384">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N384">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="O384">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P384">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q384">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R384">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S384">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T384">
         <v>2.5</v>
       </c>
       <c r="U384">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V384">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W384">
         <v>-1</v>
       </c>
       <c r="X384">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y384">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z384">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA384">
-        <v>1.1</v>
+        <v>0.425</v>
       </c>
       <c r="AB384">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC384">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34712,7 +34712,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>4798020</v>
+        <v>4804193</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34724,76 +34724,76 @@
         <v>44697.60416666666</v>
       </c>
       <c r="F385" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G385" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J385" t="s">
         <v>48</v>
       </c>
       <c r="K385">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L385">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M385">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N385">
+        <v>2.55</v>
+      </c>
+      <c r="O385">
+        <v>3</v>
+      </c>
+      <c r="P385">
+        <v>2.55</v>
+      </c>
+      <c r="Q385">
+        <v>-0.5</v>
+      </c>
+      <c r="R385">
+        <v>1.85</v>
+      </c>
+      <c r="S385">
+        <v>2</v>
+      </c>
+      <c r="T385">
         <v>2.25</v>
       </c>
-      <c r="O385">
-        <v>3.25</v>
-      </c>
-      <c r="P385">
-        <v>2.75</v>
-      </c>
-      <c r="Q385">
-        <v>-0.25</v>
-      </c>
-      <c r="R385">
-        <v>2</v>
-      </c>
-      <c r="S385">
+      <c r="U385">
         <v>1.85</v>
       </c>
-      <c r="T385">
-        <v>2.5</v>
-      </c>
-      <c r="U385">
-        <v>1.975</v>
-      </c>
       <c r="V385">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W385">
         <v>-1</v>
       </c>
       <c r="X385">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y385">
         <v>-1</v>
       </c>
       <c r="Z385">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA385">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB385">
         <v>-1</v>
       </c>
       <c r="AC385">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -34801,7 +34801,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>4803838</v>
+        <v>4798021</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34813,76 +34813,76 @@
         <v>44702.60416666666</v>
       </c>
       <c r="F386" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G386" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H386">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J386" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K386">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="L386">
+        <v>3.5</v>
+      </c>
+      <c r="M386">
+        <v>1.909</v>
+      </c>
+      <c r="N386">
+        <v>4.2</v>
+      </c>
+      <c r="O386">
         <v>3.8</v>
       </c>
-      <c r="M386">
-        <v>5.5</v>
-      </c>
-      <c r="N386">
-        <v>1.5</v>
-      </c>
-      <c r="O386">
-        <v>4.2</v>
-      </c>
       <c r="P386">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q386">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R386">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S386">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T386">
         <v>2.5</v>
       </c>
       <c r="U386">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V386">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W386">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X386">
         <v>-1</v>
       </c>
       <c r="Y386">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z386">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA386">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB386">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC386">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34979,7 +34979,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>4798021</v>
+        <v>4803838</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -34991,76 +34991,76 @@
         <v>44702.60416666666</v>
       </c>
       <c r="F388" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G388" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I388">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J388" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K388">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="L388">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M388">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N388">
+        <v>1.5</v>
+      </c>
+      <c r="O388">
         <v>4.2</v>
       </c>
-      <c r="O388">
-        <v>3.8</v>
-      </c>
       <c r="P388">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q388">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R388">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S388">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T388">
         <v>2.5</v>
       </c>
       <c r="U388">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V388">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W388">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X388">
         <v>-1</v>
       </c>
       <c r="Y388">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z388">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA388">
+        <v>-1</v>
+      </c>
+      <c r="AB388">
         <v>1.025</v>
       </c>
-      <c r="AB388">
-        <v>-1</v>
-      </c>
       <c r="AC388">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -37026,7 +37026,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>5145107</v>
+        <v>5145351</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37038,76 +37038,76 @@
         <v>44814.5625</v>
       </c>
       <c r="F411" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G411" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J411" t="s">
         <v>48</v>
       </c>
       <c r="K411">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="L411">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M411">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N411">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O411">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P411">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q411">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R411">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S411">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T411">
         <v>2.25</v>
       </c>
       <c r="U411">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V411">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W411">
         <v>-1</v>
       </c>
       <c r="X411">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA411">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB411">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC411">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37115,7 +37115,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>5145351</v>
+        <v>5145107</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37127,76 +37127,76 @@
         <v>44814.5625</v>
       </c>
       <c r="F412" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G412" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J412" t="s">
         <v>48</v>
       </c>
       <c r="K412">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="L412">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M412">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N412">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O412">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P412">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q412">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R412">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S412">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T412">
         <v>2.25</v>
       </c>
       <c r="U412">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V412">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W412">
         <v>-1</v>
       </c>
       <c r="X412">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y412">
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA412">
+        <v>-0</v>
+      </c>
+      <c r="AB412">
         <v>-0.5</v>
       </c>
-      <c r="AB412">
-        <v>-1</v>
-      </c>
       <c r="AC412">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -40764,7 +40764,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>5266285</v>
+        <v>5145361</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40776,55 +40776,55 @@
         <v>44863.53125</v>
       </c>
       <c r="F453" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G453" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I453">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J453" t="s">
         <v>50</v>
       </c>
       <c r="K453">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="L453">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M453">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N453">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="O453">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P453">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q453">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R453">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S453">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T453">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U453">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V453">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W453">
         <v>-1</v>
@@ -40833,19 +40833,19 @@
         <v>-1</v>
       </c>
       <c r="Y453">
-        <v>0.75</v>
+        <v>3.333</v>
       </c>
       <c r="Z453">
         <v>-1</v>
       </c>
       <c r="AA453">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB453">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC453">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40853,7 +40853,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5145361</v>
+        <v>5266285</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40865,55 +40865,55 @@
         <v>44863.53125</v>
       </c>
       <c r="F454" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G454" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J454" t="s">
         <v>50</v>
       </c>
       <c r="K454">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="L454">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M454">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N454">
+        <v>4.2</v>
+      </c>
+      <c r="O454">
+        <v>3.5</v>
+      </c>
+      <c r="P454">
         <v>1.75</v>
       </c>
-      <c r="O454">
-        <v>3.4</v>
-      </c>
-      <c r="P454">
-        <v>4.333</v>
-      </c>
       <c r="Q454">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R454">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S454">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T454">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U454">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V454">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W454">
         <v>-1</v>
@@ -40922,19 +40922,19 @@
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>3.333</v>
+        <v>0.75</v>
       </c>
       <c r="Z454">
         <v>-1</v>
       </c>
       <c r="AA454">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB454">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC454">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -43968,7 +43968,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>5145874</v>
+        <v>5145337</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43980,76 +43980,76 @@
         <v>44919.54166666666</v>
       </c>
       <c r="F489" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G489" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489">
         <v>0</v>
       </c>
       <c r="J489" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K489">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L489">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M489">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="N489">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="O489">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P489">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q489">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R489">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S489">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T489">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U489">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V489">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W489">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X489">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y489">
         <v>-1</v>
       </c>
       <c r="Z489">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA489">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB489">
         <v>-1</v>
       </c>
       <c r="AC489">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -44057,7 +44057,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>5145337</v>
+        <v>5145874</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44069,76 +44069,76 @@
         <v>44919.54166666666</v>
       </c>
       <c r="F490" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G490" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490">
         <v>0</v>
       </c>
       <c r="J490" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K490">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L490">
+        <v>3.1</v>
+      </c>
+      <c r="M490">
         <v>3.3</v>
       </c>
-      <c r="M490">
-        <v>2.05</v>
-      </c>
       <c r="N490">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O490">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P490">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="Q490">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R490">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S490">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T490">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U490">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V490">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W490">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X490">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y490">
         <v>-1</v>
       </c>
       <c r="Z490">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA490">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB490">
         <v>-1</v>
       </c>
       <c r="AC490">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="491" spans="1:29">
@@ -52067,7 +52067,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>6404155</v>
+        <v>6402973</v>
       </c>
       <c r="C580" t="s">
         <v>28</v>
@@ -52079,58 +52079,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F580" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G580" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I580">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J580" t="s">
         <v>49</v>
       </c>
       <c r="K580">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L580">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M580">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N580">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O580">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P580">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q580">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R580">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S580">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T580">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U580">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V580">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W580">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X580">
         <v>-1</v>
@@ -52139,16 +52139,16 @@
         <v>-1</v>
       </c>
       <c r="Z580">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA580">
         <v>-1</v>
       </c>
       <c r="AB580">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC580">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581" spans="1:29">
@@ -52156,7 +52156,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>6402973</v>
+        <v>6404155</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52168,58 +52168,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F581" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G581" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H581">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I581">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J581" t="s">
         <v>49</v>
       </c>
       <c r="K581">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L581">
+        <v>3.75</v>
+      </c>
+      <c r="M581">
+        <v>5</v>
+      </c>
+      <c r="N581">
+        <v>1.833</v>
+      </c>
+      <c r="O581">
         <v>3.3</v>
       </c>
-      <c r="M581">
-        <v>3.1</v>
-      </c>
-      <c r="N581">
-        <v>2.15</v>
-      </c>
-      <c r="O581">
-        <v>3.2</v>
-      </c>
       <c r="P581">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q581">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R581">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S581">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T581">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U581">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V581">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W581">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X581">
         <v>-1</v>
@@ -52228,16 +52228,16 @@
         <v>-1</v>
       </c>
       <c r="Z581">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA581">
         <v>-1</v>
       </c>
       <c r="AB581">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC581">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -52245,7 +52245,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>6402965</v>
+        <v>6404135</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52257,76 +52257,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F582" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G582" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I582">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J582" t="s">
         <v>48</v>
       </c>
       <c r="K582">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L582">
         <v>3.3</v>
       </c>
       <c r="M582">
+        <v>2.375</v>
+      </c>
+      <c r="N582">
+        <v>2</v>
+      </c>
+      <c r="O582">
+        <v>3.4</v>
+      </c>
+      <c r="P582">
+        <v>3.25</v>
+      </c>
+      <c r="Q582">
+        <v>-0.25</v>
+      </c>
+      <c r="R582">
+        <v>1.8</v>
+      </c>
+      <c r="S582">
+        <v>2.05</v>
+      </c>
+      <c r="T582">
+        <v>2.25</v>
+      </c>
+      <c r="U582">
+        <v>1.8</v>
+      </c>
+      <c r="V582">
+        <v>2.05</v>
+      </c>
+      <c r="W582">
+        <v>-1</v>
+      </c>
+      <c r="X582">
         <v>2.4</v>
       </c>
-      <c r="N582">
-        <v>2.6</v>
-      </c>
-      <c r="O582">
-        <v>3</v>
-      </c>
-      <c r="P582">
-        <v>2.7</v>
-      </c>
-      <c r="Q582">
-        <v>0</v>
-      </c>
-      <c r="R582">
-        <v>1.9</v>
-      </c>
-      <c r="S582">
-        <v>1.95</v>
-      </c>
-      <c r="T582">
-        <v>2</v>
-      </c>
-      <c r="U582">
-        <v>1.875</v>
-      </c>
-      <c r="V582">
-        <v>1.975</v>
-      </c>
-      <c r="W582">
-        <v>-1</v>
-      </c>
-      <c r="X582">
-        <v>2</v>
-      </c>
       <c r="Y582">
         <v>-1</v>
       </c>
       <c r="Z582">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA582">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB582">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC582">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583" spans="1:29">
@@ -52334,7 +52334,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>6404135</v>
+        <v>6402965</v>
       </c>
       <c r="C583" t="s">
         <v>28</v>
@@ -52346,76 +52346,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F583" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G583" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J583" t="s">
         <v>48</v>
       </c>
       <c r="K583">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L583">
         <v>3.3</v>
       </c>
       <c r="M583">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N583">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O583">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P583">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q583">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R583">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S583">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T583">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U583">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V583">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W583">
         <v>-1</v>
       </c>
       <c r="X583">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y583">
         <v>-1</v>
       </c>
       <c r="Z583">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA583">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB583">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC583">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="584" spans="1:29">
@@ -53224,7 +53224,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>6404131</v>
+        <v>6402966</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53236,46 +53236,46 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F593" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G593" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H593">
         <v>1</v>
       </c>
       <c r="I593">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J593" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K593">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L593">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M593">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N593">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O593">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P593">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q593">
         <v>0.25</v>
       </c>
       <c r="R593">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S593">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T593">
         <v>2.25</v>
@@ -53290,22 +53290,22 @@
         <v>-1</v>
       </c>
       <c r="X593">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y593">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z593">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA593">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB593">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC593">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -53313,7 +53313,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>6404150</v>
+        <v>6404131</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -53325,10 +53325,10 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F594" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G594" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H594">
         <v>1</v>
@@ -53340,61 +53340,61 @@
         <v>48</v>
       </c>
       <c r="K594">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L594">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M594">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N594">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O594">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P594">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q594">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R594">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S594">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T594">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U594">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V594">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W594">
         <v>-1</v>
       </c>
       <c r="X594">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y594">
         <v>-1</v>
       </c>
       <c r="Z594">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA594">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB594">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC594">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="595" spans="1:29">
@@ -53402,7 +53402,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>6402966</v>
+        <v>6404150</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53414,76 +53414,76 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F595" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G595" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H595">
         <v>1</v>
       </c>
       <c r="I595">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J595" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K595">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L595">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M595">
+        <v>6.5</v>
+      </c>
+      <c r="N595">
+        <v>1.333</v>
+      </c>
+      <c r="O595">
+        <v>4.75</v>
+      </c>
+      <c r="P595">
+        <v>7</v>
+      </c>
+      <c r="Q595">
+        <v>-1.5</v>
+      </c>
+      <c r="R595">
+        <v>2.025</v>
+      </c>
+      <c r="S595">
+        <v>1.825</v>
+      </c>
+      <c r="T595">
         <v>2.75</v>
       </c>
-      <c r="N595">
-        <v>2.875</v>
-      </c>
-      <c r="O595">
-        <v>3.3</v>
-      </c>
-      <c r="P595">
-        <v>2.15</v>
-      </c>
-      <c r="Q595">
-        <v>0.25</v>
-      </c>
-      <c r="R595">
-        <v>1.875</v>
-      </c>
-      <c r="S595">
-        <v>1.975</v>
-      </c>
-      <c r="T595">
-        <v>2.25</v>
-      </c>
       <c r="U595">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V595">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W595">
         <v>-1</v>
       </c>
       <c r="X595">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y595">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z595">
         <v>-1</v>
       </c>
       <c r="AA595">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB595">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC595">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="596" spans="1:29">
@@ -53847,7 +53847,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>6404128</v>
+        <v>6404130</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53859,40 +53859,40 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F600" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G600" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I600">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J600" t="s">
         <v>48</v>
       </c>
       <c r="K600">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L600">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M600">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N600">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O600">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P600">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q600">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R600">
         <v>2.05</v>
@@ -53901,19 +53901,19 @@
         <v>1.8</v>
       </c>
       <c r="T600">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U600">
+        <v>2.025</v>
+      </c>
+      <c r="V600">
         <v>1.825</v>
       </c>
-      <c r="V600">
-        <v>2.025</v>
-      </c>
       <c r="W600">
         <v>-1</v>
       </c>
       <c r="X600">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Y600">
         <v>-1</v>
@@ -53925,10 +53925,10 @@
         <v>0.8</v>
       </c>
       <c r="AB600">
+        <v>-1</v>
+      </c>
+      <c r="AC600">
         <v>0.825</v>
-      </c>
-      <c r="AC600">
-        <v>-1</v>
       </c>
     </row>
     <row r="601" spans="1:29">
@@ -53936,7 +53936,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>6404130</v>
+        <v>6404146</v>
       </c>
       <c r="C601" t="s">
         <v>28</v>
@@ -53948,76 +53948,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F601" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G601" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J601" t="s">
         <v>48</v>
       </c>
       <c r="K601">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="L601">
         <v>3.5</v>
       </c>
       <c r="M601">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="N601">
-        <v>1.45</v>
+        <v>8.5</v>
       </c>
       <c r="O601">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P601">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="Q601">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R601">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S601">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T601">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U601">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V601">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W601">
         <v>-1</v>
       </c>
       <c r="X601">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y601">
         <v>-1</v>
       </c>
       <c r="Z601">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA601">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB601">
         <v>-1</v>
       </c>
       <c r="AC601">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="602" spans="1:29">
@@ -54025,7 +54025,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>6404146</v>
+        <v>6404128</v>
       </c>
       <c r="C602" t="s">
         <v>28</v>
@@ -54037,76 +54037,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F602" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G602" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J602" t="s">
         <v>48</v>
       </c>
       <c r="K602">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L602">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M602">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="N602">
-        <v>8.5</v>
+        <v>1.95</v>
       </c>
       <c r="O602">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P602">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="Q602">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R602">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S602">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T602">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U602">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V602">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W602">
         <v>-1</v>
       </c>
       <c r="X602">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y602">
         <v>-1</v>
       </c>
       <c r="Z602">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA602">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB602">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC602">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="603" spans="1:29">
@@ -54470,7 +54470,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>6404125</v>
+        <v>6404144</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54482,73 +54482,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F607" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G607" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I607">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J607" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K607">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L607">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M607">
+        <v>8</v>
+      </c>
+      <c r="N607">
+        <v>1.363</v>
+      </c>
+      <c r="O607">
+        <v>4</v>
+      </c>
+      <c r="P607">
+        <v>9</v>
+      </c>
+      <c r="Q607">
+        <v>-1.25</v>
+      </c>
+      <c r="R607">
+        <v>1.925</v>
+      </c>
+      <c r="S607">
+        <v>1.925</v>
+      </c>
+      <c r="T607">
+        <v>2.25</v>
+      </c>
+      <c r="U607">
         <v>1.8</v>
       </c>
-      <c r="N607">
-        <v>4.2</v>
-      </c>
-      <c r="O607">
-        <v>3.6</v>
-      </c>
-      <c r="P607">
-        <v>1.727</v>
-      </c>
-      <c r="Q607">
-        <v>0.75</v>
-      </c>
-      <c r="R607">
-        <v>1.85</v>
-      </c>
-      <c r="S607">
-        <v>2</v>
-      </c>
-      <c r="T607">
-        <v>2.75</v>
-      </c>
-      <c r="U607">
-        <v>1.85</v>
-      </c>
       <c r="V607">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W607">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X607">
         <v>-1</v>
       </c>
       <c r="Y607">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z607">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA607">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB607">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC607">
         <v>-1</v>
@@ -54559,7 +54559,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>6404144</v>
+        <v>6404125</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54571,73 +54571,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F608" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G608" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I608">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J608" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K608">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="L608">
+        <v>3.6</v>
+      </c>
+      <c r="M608">
+        <v>1.8</v>
+      </c>
+      <c r="N608">
         <v>4.2</v>
       </c>
-      <c r="M608">
-        <v>8</v>
-      </c>
-      <c r="N608">
-        <v>1.363</v>
-      </c>
       <c r="O608">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P608">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q608">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R608">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S608">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T608">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U608">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V608">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W608">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X608">
         <v>-1</v>
       </c>
       <c r="Y608">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z608">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA608">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB608">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC608">
         <v>-1</v>
@@ -55627,7 +55627,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6402969</v>
+        <v>6404121</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55639,40 +55639,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F620" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G620" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J620" t="s">
         <v>50</v>
       </c>
       <c r="K620">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L620">
         <v>3.2</v>
       </c>
       <c r="M620">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N620">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O620">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P620">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q620">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R620">
         <v>1.8</v>
@@ -55684,10 +55684,10 @@
         <v>2.5</v>
       </c>
       <c r="U620">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V620">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W620">
         <v>-1</v>
@@ -55696,7 +55696,7 @@
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z620">
         <v>-1</v>
@@ -55705,7 +55705,7 @@
         <v>1.05</v>
       </c>
       <c r="AB620">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC620">
         <v>-1</v>
@@ -55716,7 +55716,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>6404121</v>
+        <v>6402969</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55728,40 +55728,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F621" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G621" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I621">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J621" t="s">
         <v>50</v>
       </c>
       <c r="K621">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L621">
         <v>3.2</v>
       </c>
       <c r="M621">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N621">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O621">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P621">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q621">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R621">
         <v>1.8</v>
@@ -55773,10 +55773,10 @@
         <v>2.5</v>
       </c>
       <c r="U621">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V621">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W621">
         <v>-1</v>
@@ -55785,7 +55785,7 @@
         <v>-1</v>
       </c>
       <c r="Y621">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z621">
         <v>-1</v>
@@ -55794,7 +55794,7 @@
         <v>1.05</v>
       </c>
       <c r="AB621">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC621">
         <v>-1</v>
@@ -56161,7 +56161,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>6670414</v>
+        <v>6670416</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -56173,76 +56173,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F626" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G626" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I626">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J626" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K626">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="L626">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M626">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N626">
-        <v>7</v>
+        <v>1.222</v>
       </c>
       <c r="O626">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P626">
-        <v>1.285</v>
+        <v>8.5</v>
       </c>
       <c r="Q626">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R626">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S626">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T626">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U626">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V626">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W626">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X626">
         <v>-1</v>
       </c>
       <c r="Y626">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z626">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA626">
         <v>-1</v>
       </c>
       <c r="AB626">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC626">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="627" spans="1:29">
@@ -56250,7 +56250,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6670416</v>
+        <v>6670415</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56262,13 +56262,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F627" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G627" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H627">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I627">
         <v>0</v>
@@ -56277,43 +56277,43 @@
         <v>49</v>
       </c>
       <c r="K627">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="L627">
+        <v>4</v>
+      </c>
+      <c r="M627">
         <v>5</v>
       </c>
-      <c r="M627">
-        <v>7.5</v>
-      </c>
       <c r="N627">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="O627">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P627">
-        <v>8.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q627">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R627">
+        <v>1.8</v>
+      </c>
+      <c r="S627">
+        <v>2.05</v>
+      </c>
+      <c r="T627">
+        <v>2.75</v>
+      </c>
+      <c r="U627">
         <v>1.875</v>
       </c>
-      <c r="S627">
+      <c r="V627">
         <v>1.975</v>
       </c>
-      <c r="T627">
-        <v>3.25</v>
-      </c>
-      <c r="U627">
-        <v>1.925</v>
-      </c>
-      <c r="V627">
-        <v>1.925</v>
-      </c>
       <c r="W627">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X627">
         <v>-1</v>
@@ -56322,16 +56322,16 @@
         <v>-1</v>
       </c>
       <c r="Z627">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA627">
         <v>-1</v>
       </c>
       <c r="AB627">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC627">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="628" spans="1:29">
@@ -56339,7 +56339,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>6670415</v>
+        <v>6670414</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56351,76 +56351,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F628" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G628" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I628">
+        <v>2</v>
+      </c>
+      <c r="J628" t="s">
+        <v>50</v>
+      </c>
+      <c r="K628">
+        <v>5.25</v>
+      </c>
+      <c r="L628">
+        <v>4.333</v>
+      </c>
+      <c r="M628">
+        <v>1.444</v>
+      </c>
+      <c r="N628">
+        <v>7</v>
+      </c>
+      <c r="O628">
+        <v>5.25</v>
+      </c>
+      <c r="P628">
+        <v>1.285</v>
+      </c>
+      <c r="Q628">
+        <v>1.5</v>
+      </c>
+      <c r="R628">
+        <v>1.9</v>
+      </c>
+      <c r="S628">
+        <v>1.95</v>
+      </c>
+      <c r="T628">
+        <v>3</v>
+      </c>
+      <c r="U628">
+        <v>1.95</v>
+      </c>
+      <c r="V628">
+        <v>1.9</v>
+      </c>
+      <c r="W628">
+        <v>-1</v>
+      </c>
+      <c r="X628">
+        <v>-1</v>
+      </c>
+      <c r="Y628">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z628">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA628">
+        <v>-1</v>
+      </c>
+      <c r="AB628">
         <v>0</v>
       </c>
-      <c r="J628" t="s">
-        <v>49</v>
-      </c>
-      <c r="K628">
-        <v>1.5</v>
-      </c>
-      <c r="L628">
-        <v>4</v>
-      </c>
-      <c r="M628">
-        <v>5</v>
-      </c>
-      <c r="N628">
-        <v>1.45</v>
-      </c>
-      <c r="O628">
-        <v>4.2</v>
-      </c>
-      <c r="P628">
-        <v>5.25</v>
-      </c>
-      <c r="Q628">
-        <v>-1</v>
-      </c>
-      <c r="R628">
-        <v>1.8</v>
-      </c>
-      <c r="S628">
-        <v>2.05</v>
-      </c>
-      <c r="T628">
-        <v>2.75</v>
-      </c>
-      <c r="U628">
-        <v>1.875</v>
-      </c>
-      <c r="V628">
-        <v>1.975</v>
-      </c>
-      <c r="W628">
-        <v>0.45</v>
-      </c>
-      <c r="X628">
-        <v>-1</v>
-      </c>
-      <c r="Y628">
-        <v>-1</v>
-      </c>
-      <c r="Z628">
-        <v>0.8</v>
-      </c>
-      <c r="AA628">
-        <v>-1</v>
-      </c>
-      <c r="AB628">
-        <v>-1</v>
-      </c>
       <c r="AC628">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -57140,7 +57140,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>6799829</v>
+        <v>6799825</v>
       </c>
       <c r="C637" t="s">
         <v>28</v>
@@ -57152,76 +57152,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F637" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G637" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H637">
         <v>2</v>
       </c>
       <c r="I637">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J637" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K637">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L637">
+        <v>3.25</v>
+      </c>
+      <c r="M637">
+        <v>4</v>
+      </c>
+      <c r="N637">
+        <v>1.95</v>
+      </c>
+      <c r="O637">
+        <v>3.2</v>
+      </c>
+      <c r="P637">
         <v>3.4</v>
       </c>
-      <c r="M637">
-        <v>2.6</v>
-      </c>
-      <c r="N637">
-        <v>2.625</v>
-      </c>
-      <c r="O637">
-        <v>3.4</v>
-      </c>
-      <c r="P637">
-        <v>2.375</v>
-      </c>
       <c r="Q637">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R637">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S637">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T637">
         <v>2.5</v>
       </c>
       <c r="U637">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V637">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W637">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X637">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y637">
         <v>-1</v>
       </c>
       <c r="Z637">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA637">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB637">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC637">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="638" spans="1:29">
@@ -57229,7 +57229,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>6799825</v>
+        <v>6799829</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57241,76 +57241,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F638" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G638" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H638">
         <v>2</v>
       </c>
       <c r="I638">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J638" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K638">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L638">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M638">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N638">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O638">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P638">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q638">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R638">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S638">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T638">
         <v>2.5</v>
       </c>
       <c r="U638">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V638">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W638">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X638">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y638">
         <v>-1</v>
       </c>
       <c r="Z638">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA638">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB638">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC638">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="639" spans="1:29">
@@ -57674,7 +57674,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>6799838</v>
+        <v>6799836</v>
       </c>
       <c r="C643" t="s">
         <v>28</v>
@@ -57686,76 +57686,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F643" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G643" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I643">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J643" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K643">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="L643">
+        <v>6</v>
+      </c>
+      <c r="M643">
+        <v>11</v>
+      </c>
+      <c r="N643">
+        <v>1.2</v>
+      </c>
+      <c r="O643">
+        <v>6</v>
+      </c>
+      <c r="P643">
+        <v>10</v>
+      </c>
+      <c r="Q643">
+        <v>-1.75</v>
+      </c>
+      <c r="R643">
+        <v>1.825</v>
+      </c>
+      <c r="S643">
+        <v>2.025</v>
+      </c>
+      <c r="T643">
         <v>3</v>
       </c>
-      <c r="M643">
-        <v>3.2</v>
-      </c>
-      <c r="N643">
-        <v>2.15</v>
-      </c>
-      <c r="O643">
-        <v>3.1</v>
-      </c>
-      <c r="P643">
-        <v>3.1</v>
-      </c>
-      <c r="Q643">
-        <v>-0.25</v>
-      </c>
-      <c r="R643">
-        <v>2</v>
-      </c>
-      <c r="S643">
+      <c r="U643">
         <v>1.85</v>
       </c>
-      <c r="T643">
-        <v>2.5</v>
-      </c>
-      <c r="U643">
-        <v>2</v>
-      </c>
       <c r="V643">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W643">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X643">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y643">
         <v>-1</v>
       </c>
       <c r="Z643">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA643">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB643">
         <v>-1</v>
       </c>
       <c r="AC643">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:29">
@@ -57763,7 +57763,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>6799836</v>
+        <v>6799838</v>
       </c>
       <c r="C644" t="s">
         <v>28</v>
@@ -57775,76 +57775,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F644" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G644" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I644">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J644" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K644">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="L644">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M644">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N644">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O644">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P644">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q644">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R644">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S644">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T644">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U644">
+        <v>2</v>
+      </c>
+      <c r="V644">
         <v>1.85</v>
       </c>
-      <c r="V644">
-        <v>2</v>
-      </c>
       <c r="W644">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X644">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y644">
         <v>-1</v>
       </c>
       <c r="Z644">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA644">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB644">
         <v>-1</v>
       </c>
       <c r="AC644">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="645" spans="1:29">
@@ -58386,7 +58386,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>6799841</v>
+        <v>6799846</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58398,10 +58398,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F651" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G651" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H651">
         <v>1</v>
@@ -58413,46 +58413,46 @@
         <v>48</v>
       </c>
       <c r="K651">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L651">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M651">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N651">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O651">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P651">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q651">
         <v>0</v>
       </c>
       <c r="R651">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S651">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T651">
         <v>2.5</v>
       </c>
       <c r="U651">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V651">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y651">
         <v>-1</v>
@@ -58467,7 +58467,7 @@
         <v>-1</v>
       </c>
       <c r="AC651">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -58475,7 +58475,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>6799846</v>
+        <v>6799841</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58487,10 +58487,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F652" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G652" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H652">
         <v>1</v>
@@ -58502,46 +58502,46 @@
         <v>48</v>
       </c>
       <c r="K652">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L652">
+        <v>3.25</v>
+      </c>
+      <c r="M652">
+        <v>2.75</v>
+      </c>
+      <c r="N652">
+        <v>2.3</v>
+      </c>
+      <c r="O652">
         <v>3.3</v>
       </c>
-      <c r="M652">
-        <v>2.3</v>
-      </c>
-      <c r="N652">
-        <v>2.5</v>
-      </c>
-      <c r="O652">
-        <v>3.2</v>
-      </c>
       <c r="P652">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q652">
         <v>0</v>
       </c>
       <c r="R652">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S652">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T652">
         <v>2.5</v>
       </c>
       <c r="U652">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V652">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y652">
         <v>-1</v>
@@ -58556,7 +58556,7 @@
         <v>-1</v>
       </c>
       <c r="AC652">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -62658,7 +62658,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C699" t="s">
         <v>28</v>
@@ -62670,76 +62670,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F699" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G699" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699">
         <v>1</v>
       </c>
       <c r="J699" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K699">
+        <v>2.6</v>
+      </c>
+      <c r="L699">
+        <v>3.1</v>
+      </c>
+      <c r="M699">
+        <v>2.6</v>
+      </c>
+      <c r="N699">
+        <v>2.9</v>
+      </c>
+      <c r="O699">
+        <v>3.2</v>
+      </c>
+      <c r="P699">
+        <v>2.3</v>
+      </c>
+      <c r="Q699">
+        <v>0.25</v>
+      </c>
+      <c r="R699">
+        <v>1.8</v>
+      </c>
+      <c r="S699">
         <v>2.05</v>
       </c>
-      <c r="L699">
-        <v>3.2</v>
-      </c>
-      <c r="M699">
-        <v>3.5</v>
-      </c>
-      <c r="N699">
-        <v>2.15</v>
-      </c>
-      <c r="O699">
-        <v>3.1</v>
-      </c>
-      <c r="P699">
-        <v>3.2</v>
-      </c>
-      <c r="Q699">
-        <v>-0.25</v>
-      </c>
-      <c r="R699">
-        <v>1.925</v>
-      </c>
-      <c r="S699">
-        <v>1.925</v>
-      </c>
       <c r="T699">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U699">
+        <v>2</v>
+      </c>
+      <c r="V699">
+        <v>1.85</v>
+      </c>
+      <c r="W699">
         <v>1.9</v>
       </c>
-      <c r="V699">
-        <v>1.95</v>
-      </c>
-      <c r="W699">
-        <v>-1</v>
-      </c>
       <c r="X699">
         <v>-1</v>
       </c>
       <c r="Y699">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z699">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA699">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB699">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC699">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="700" spans="1:29">
@@ -62747,7 +62747,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>7542719</v>
+        <v>7542640</v>
       </c>
       <c r="C700" t="s">
         <v>28</v>
@@ -62759,76 +62759,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F700" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G700" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700">
         <v>1</v>
       </c>
       <c r="J700" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K700">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L700">
+        <v>3.2</v>
+      </c>
+      <c r="M700">
+        <v>3.5</v>
+      </c>
+      <c r="N700">
+        <v>2.15</v>
+      </c>
+      <c r="O700">
         <v>3.1</v>
       </c>
-      <c r="M700">
-        <v>2.6</v>
-      </c>
-      <c r="N700">
-        <v>2.9</v>
-      </c>
-      <c r="O700">
+      <c r="P700">
         <v>3.2</v>
       </c>
-      <c r="P700">
-        <v>2.3</v>
-      </c>
       <c r="Q700">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R700">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S700">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T700">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U700">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V700">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W700">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X700">
         <v>-1</v>
       </c>
       <c r="Y700">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z700">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA700">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB700">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC700">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="701" spans="1:29">
@@ -65862,7 +65862,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>7542737</v>
+        <v>7542735</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65874,76 +65874,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F735" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G735" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H735">
+        <v>2</v>
+      </c>
+      <c r="I735">
         <v>0</v>
       </c>
-      <c r="I735">
-        <v>1</v>
-      </c>
       <c r="J735" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K735">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L735">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M735">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N735">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O735">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P735">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q735">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R735">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S735">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T735">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U735">
+        <v>1.975</v>
+      </c>
+      <c r="V735">
         <v>1.875</v>
       </c>
-      <c r="V735">
-        <v>1.975</v>
-      </c>
       <c r="W735">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X735">
         <v>-1</v>
       </c>
       <c r="Y735">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z735">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA735">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB735">
         <v>-1</v>
       </c>
       <c r="AC735">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="736" spans="1:29">
@@ -66040,7 +66040,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>7542735</v>
+        <v>7542737</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66052,76 +66052,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F737" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G737" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J737" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K737">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L737">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M737">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N737">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O737">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P737">
+        <v>2.3</v>
+      </c>
+      <c r="Q737">
+        <v>0.25</v>
+      </c>
+      <c r="R737">
         <v>1.85</v>
       </c>
-      <c r="Q737">
-        <v>0.5</v>
-      </c>
-      <c r="R737">
-        <v>1.95</v>
-      </c>
       <c r="S737">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T737">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U737">
+        <v>1.875</v>
+      </c>
+      <c r="V737">
         <v>1.975</v>
       </c>
-      <c r="V737">
-        <v>1.875</v>
-      </c>
       <c r="W737">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X737">
         <v>-1</v>
       </c>
       <c r="Y737">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z737">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA737">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB737">
         <v>-1</v>
       </c>
       <c r="AC737">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -67642,7 +67642,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>6799953</v>
+        <v>6799947</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67651,34 +67651,43 @@
         <v>28</v>
       </c>
       <c r="E755" s="2">
-        <v>45325.41666666666</v>
+        <v>45321.58333333334</v>
       </c>
       <c r="F755" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G755" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="H755">
+        <v>1</v>
+      </c>
+      <c r="I755">
+        <v>0</v>
+      </c>
+      <c r="J755" t="s">
+        <v>49</v>
       </c>
       <c r="K755">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L755">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M755">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N755">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="O755">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P755">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q755">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R755">
         <v>2</v>
@@ -67687,27 +67696,641 @@
         <v>1.85</v>
       </c>
       <c r="T755">
+        <v>2.25</v>
+      </c>
+      <c r="U755">
+        <v>2</v>
+      </c>
+      <c r="V755">
+        <v>1.85</v>
+      </c>
+      <c r="W755">
+        <v>1.75</v>
+      </c>
+      <c r="X755">
+        <v>-1</v>
+      </c>
+      <c r="Y755">
+        <v>-1</v>
+      </c>
+      <c r="Z755">
+        <v>1</v>
+      </c>
+      <c r="AA755">
+        <v>-1</v>
+      </c>
+      <c r="AB755">
+        <v>-1</v>
+      </c>
+      <c r="AC755">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="756" spans="1:29">
+      <c r="A756" s="1">
+        <v>754</v>
+      </c>
+      <c r="B756">
+        <v>6799952</v>
+      </c>
+      <c r="C756" t="s">
+        <v>28</v>
+      </c>
+      <c r="D756" t="s">
+        <v>28</v>
+      </c>
+      <c r="E756" s="2">
+        <v>45321.61458333334</v>
+      </c>
+      <c r="F756" t="s">
+        <v>31</v>
+      </c>
+      <c r="G756" t="s">
+        <v>37</v>
+      </c>
+      <c r="H756">
+        <v>0</v>
+      </c>
+      <c r="I756">
+        <v>1</v>
+      </c>
+      <c r="J756" t="s">
+        <v>50</v>
+      </c>
+      <c r="K756">
+        <v>1.85</v>
+      </c>
+      <c r="L756">
+        <v>3.5</v>
+      </c>
+      <c r="M756">
+        <v>4</v>
+      </c>
+      <c r="N756">
+        <v>1.85</v>
+      </c>
+      <c r="O756">
+        <v>3.5</v>
+      </c>
+      <c r="P756">
+        <v>4</v>
+      </c>
+      <c r="Q756">
+        <v>-0.5</v>
+      </c>
+      <c r="R756">
+        <v>1.9</v>
+      </c>
+      <c r="S756">
+        <v>1.95</v>
+      </c>
+      <c r="T756">
         <v>2.5</v>
       </c>
-      <c r="U755">
+      <c r="U756">
+        <v>1.95</v>
+      </c>
+      <c r="V756">
         <v>1.9</v>
       </c>
-      <c r="V755">
+      <c r="W756">
+        <v>-1</v>
+      </c>
+      <c r="X756">
+        <v>-1</v>
+      </c>
+      <c r="Y756">
+        <v>3</v>
+      </c>
+      <c r="Z756">
+        <v>-1</v>
+      </c>
+      <c r="AA756">
+        <v>0.95</v>
+      </c>
+      <c r="AB756">
+        <v>-1</v>
+      </c>
+      <c r="AC756">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="757" spans="1:29">
+      <c r="A757" s="1">
+        <v>755</v>
+      </c>
+      <c r="B757">
+        <v>6799949</v>
+      </c>
+      <c r="C757" t="s">
+        <v>28</v>
+      </c>
+      <c r="D757" t="s">
+        <v>28</v>
+      </c>
+      <c r="E757" s="2">
+        <v>45321.625</v>
+      </c>
+      <c r="F757" t="s">
+        <v>32</v>
+      </c>
+      <c r="G757" t="s">
+        <v>47</v>
+      </c>
+      <c r="H757">
+        <v>2</v>
+      </c>
+      <c r="I757">
+        <v>2</v>
+      </c>
+      <c r="J757" t="s">
+        <v>48</v>
+      </c>
+      <c r="K757">
+        <v>1.75</v>
+      </c>
+      <c r="L757">
+        <v>3.6</v>
+      </c>
+      <c r="M757">
+        <v>4.2</v>
+      </c>
+      <c r="N757">
+        <v>1.65</v>
+      </c>
+      <c r="O757">
+        <v>3.75</v>
+      </c>
+      <c r="P757">
+        <v>4.5</v>
+      </c>
+      <c r="Q757">
+        <v>-0.75</v>
+      </c>
+      <c r="R757">
+        <v>1.875</v>
+      </c>
+      <c r="S757">
+        <v>1.975</v>
+      </c>
+      <c r="T757">
+        <v>2.75</v>
+      </c>
+      <c r="U757">
+        <v>2.025</v>
+      </c>
+      <c r="V757">
+        <v>1.825</v>
+      </c>
+      <c r="W757">
+        <v>-1</v>
+      </c>
+      <c r="X757">
+        <v>2.75</v>
+      </c>
+      <c r="Y757">
+        <v>-1</v>
+      </c>
+      <c r="Z757">
+        <v>-1</v>
+      </c>
+      <c r="AA757">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB757">
+        <v>1.025</v>
+      </c>
+      <c r="AC757">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:29">
+      <c r="A758" s="1">
+        <v>756</v>
+      </c>
+      <c r="B758">
+        <v>6799946</v>
+      </c>
+      <c r="C758" t="s">
+        <v>28</v>
+      </c>
+      <c r="D758" t="s">
+        <v>28</v>
+      </c>
+      <c r="E758" s="2">
+        <v>45322.58333333334</v>
+      </c>
+      <c r="F758" t="s">
+        <v>34</v>
+      </c>
+      <c r="G758" t="s">
+        <v>38</v>
+      </c>
+      <c r="H758">
+        <v>1</v>
+      </c>
+      <c r="I758">
+        <v>0</v>
+      </c>
+      <c r="J758" t="s">
+        <v>49</v>
+      </c>
+      <c r="K758">
+        <v>2.3</v>
+      </c>
+      <c r="L758">
+        <v>3.2</v>
+      </c>
+      <c r="M758">
+        <v>2.9</v>
+      </c>
+      <c r="N758">
+        <v>2.2</v>
+      </c>
+      <c r="O758">
+        <v>3.2</v>
+      </c>
+      <c r="P758">
+        <v>3.1</v>
+      </c>
+      <c r="Q758">
+        <v>-0.25</v>
+      </c>
+      <c r="R758">
         <v>1.95</v>
       </c>
-      <c r="W755">
+      <c r="S758">
+        <v>1.9</v>
+      </c>
+      <c r="T758">
+        <v>2.25</v>
+      </c>
+      <c r="U758">
+        <v>1.95</v>
+      </c>
+      <c r="V758">
+        <v>1.9</v>
+      </c>
+      <c r="W758">
+        <v>1.2</v>
+      </c>
+      <c r="X758">
+        <v>-1</v>
+      </c>
+      <c r="Y758">
+        <v>-1</v>
+      </c>
+      <c r="Z758">
+        <v>0.95</v>
+      </c>
+      <c r="AA758">
+        <v>-1</v>
+      </c>
+      <c r="AB758">
+        <v>-1</v>
+      </c>
+      <c r="AC758">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="759" spans="1:29">
+      <c r="A759" s="1">
+        <v>757</v>
+      </c>
+      <c r="B759">
+        <v>6799948</v>
+      </c>
+      <c r="C759" t="s">
+        <v>28</v>
+      </c>
+      <c r="D759" t="s">
+        <v>28</v>
+      </c>
+      <c r="E759" s="2">
+        <v>45322.61458333334</v>
+      </c>
+      <c r="F759" t="s">
+        <v>35</v>
+      </c>
+      <c r="G759" t="s">
+        <v>29</v>
+      </c>
+      <c r="H759">
+        <v>4</v>
+      </c>
+      <c r="I759">
+        <v>3</v>
+      </c>
+      <c r="J759" t="s">
+        <v>49</v>
+      </c>
+      <c r="K759">
+        <v>2</v>
+      </c>
+      <c r="L759">
+        <v>3.25</v>
+      </c>
+      <c r="M759">
+        <v>3.5</v>
+      </c>
+      <c r="N759">
+        <v>2</v>
+      </c>
+      <c r="O759">
+        <v>3.2</v>
+      </c>
+      <c r="P759">
+        <v>3.5</v>
+      </c>
+      <c r="Q759">
+        <v>-0.5</v>
+      </c>
+      <c r="R759">
+        <v>2</v>
+      </c>
+      <c r="S759">
+        <v>1.85</v>
+      </c>
+      <c r="T759">
+        <v>2.25</v>
+      </c>
+      <c r="U759">
+        <v>1.825</v>
+      </c>
+      <c r="V759">
+        <v>2.025</v>
+      </c>
+      <c r="W759">
+        <v>1</v>
+      </c>
+      <c r="X759">
+        <v>-1</v>
+      </c>
+      <c r="Y759">
+        <v>-1</v>
+      </c>
+      <c r="Z759">
+        <v>1</v>
+      </c>
+      <c r="AA759">
+        <v>-1</v>
+      </c>
+      <c r="AB759">
+        <v>0.825</v>
+      </c>
+      <c r="AC759">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:29">
+      <c r="A760" s="1">
+        <v>758</v>
+      </c>
+      <c r="B760">
+        <v>6799950</v>
+      </c>
+      <c r="C760" t="s">
+        <v>28</v>
+      </c>
+      <c r="D760" t="s">
+        <v>28</v>
+      </c>
+      <c r="E760" s="2">
+        <v>45322.625</v>
+      </c>
+      <c r="F760" t="s">
+        <v>41</v>
+      </c>
+      <c r="G760" t="s">
+        <v>44</v>
+      </c>
+      <c r="H760">
+        <v>2</v>
+      </c>
+      <c r="I760">
+        <v>1</v>
+      </c>
+      <c r="J760" t="s">
+        <v>49</v>
+      </c>
+      <c r="K760">
+        <v>1.285</v>
+      </c>
+      <c r="L760">
+        <v>5</v>
+      </c>
+      <c r="M760">
+        <v>8.5</v>
+      </c>
+      <c r="N760">
+        <v>1.363</v>
+      </c>
+      <c r="O760">
+        <v>4.75</v>
+      </c>
+      <c r="P760">
+        <v>7</v>
+      </c>
+      <c r="Q760">
+        <v>-1.25</v>
+      </c>
+      <c r="R760">
+        <v>1.85</v>
+      </c>
+      <c r="S760">
+        <v>2</v>
+      </c>
+      <c r="T760">
+        <v>2.75</v>
+      </c>
+      <c r="U760">
+        <v>1.95</v>
+      </c>
+      <c r="V760">
+        <v>1.9</v>
+      </c>
+      <c r="W760">
+        <v>0.363</v>
+      </c>
+      <c r="X760">
+        <v>-1</v>
+      </c>
+      <c r="Y760">
+        <v>-1</v>
+      </c>
+      <c r="Z760">
+        <v>-0.5</v>
+      </c>
+      <c r="AA760">
+        <v>0.5</v>
+      </c>
+      <c r="AB760">
+        <v>0.475</v>
+      </c>
+      <c r="AC760">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="761" spans="1:29">
+      <c r="A761" s="1">
+        <v>759</v>
+      </c>
+      <c r="B761">
+        <v>6799951</v>
+      </c>
+      <c r="C761" t="s">
+        <v>28</v>
+      </c>
+      <c r="D761" t="s">
+        <v>28</v>
+      </c>
+      <c r="E761" s="2">
+        <v>45322.64583333334</v>
+      </c>
+      <c r="F761" t="s">
+        <v>36</v>
+      </c>
+      <c r="G761" t="s">
+        <v>30</v>
+      </c>
+      <c r="H761">
+        <v>2</v>
+      </c>
+      <c r="I761">
+        <v>1</v>
+      </c>
+      <c r="J761" t="s">
+        <v>49</v>
+      </c>
+      <c r="K761">
+        <v>2.6</v>
+      </c>
+      <c r="L761">
+        <v>3.2</v>
+      </c>
+      <c r="M761">
+        <v>2.5</v>
+      </c>
+      <c r="N761">
+        <v>2.75</v>
+      </c>
+      <c r="O761">
+        <v>3.25</v>
+      </c>
+      <c r="P761">
+        <v>2.3</v>
+      </c>
+      <c r="Q761">
+        <v>0.25</v>
+      </c>
+      <c r="R761">
+        <v>1.75</v>
+      </c>
+      <c r="S761">
+        <v>2.05</v>
+      </c>
+      <c r="T761">
+        <v>2.5</v>
+      </c>
+      <c r="U761">
+        <v>1.875</v>
+      </c>
+      <c r="V761">
+        <v>1.975</v>
+      </c>
+      <c r="W761">
+        <v>1.75</v>
+      </c>
+      <c r="X761">
+        <v>-1</v>
+      </c>
+      <c r="Y761">
+        <v>-1</v>
+      </c>
+      <c r="Z761">
+        <v>0.75</v>
+      </c>
+      <c r="AA761">
+        <v>-1</v>
+      </c>
+      <c r="AB761">
+        <v>0.875</v>
+      </c>
+      <c r="AC761">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:29">
+      <c r="A762" s="1">
+        <v>760</v>
+      </c>
+      <c r="B762">
+        <v>6799953</v>
+      </c>
+      <c r="C762" t="s">
+        <v>28</v>
+      </c>
+      <c r="D762" t="s">
+        <v>28</v>
+      </c>
+      <c r="E762" s="2">
+        <v>45325.41666666666</v>
+      </c>
+      <c r="F762" t="s">
+        <v>31</v>
+      </c>
+      <c r="G762" t="s">
+        <v>34</v>
+      </c>
+      <c r="K762">
+        <v>1.8</v>
+      </c>
+      <c r="L762">
+        <v>3.4</v>
+      </c>
+      <c r="M762">
+        <v>3.75</v>
+      </c>
+      <c r="N762">
+        <v>1.7</v>
+      </c>
+      <c r="O762">
+        <v>3.5</v>
+      </c>
+      <c r="P762">
+        <v>4.2</v>
+      </c>
+      <c r="Q762">
+        <v>-0.75</v>
+      </c>
+      <c r="R762">
+        <v>2</v>
+      </c>
+      <c r="S762">
+        <v>1.85</v>
+      </c>
+      <c r="T762">
+        <v>2.5</v>
+      </c>
+      <c r="U762">
+        <v>1.9</v>
+      </c>
+      <c r="V762">
+        <v>1.95</v>
+      </c>
+      <c r="W762">
         <v>0</v>
       </c>
-      <c r="X755">
+      <c r="X762">
         <v>0</v>
       </c>
-      <c r="Y755">
+      <c r="Y762">
         <v>0</v>
       </c>
-      <c r="Z755">
+      <c r="Z762">
         <v>0</v>
       </c>
-      <c r="AA755">
+      <c r="AA762">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC762"/>
+  <dimension ref="A1:AC768"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2616219</v>
+        <v>2616215</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,10 +8202,10 @@
         <v>44275.59375</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8217,43 +8217,43 @@
         <v>49</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M87">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N87">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P87">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
         <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>0.363</v>
+        <v>1.9</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8268,10 +8268,10 @@
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2616221</v>
+        <v>2616219</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,13 +8291,13 @@
         <v>44275.59375</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -8306,43 +8306,43 @@
         <v>49</v>
       </c>
       <c r="K88">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M88">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N88">
+        <v>1.363</v>
+      </c>
+      <c r="O88">
+        <v>4</v>
+      </c>
+      <c r="P88">
+        <v>9</v>
+      </c>
+      <c r="Q88">
+        <v>-1.25</v>
+      </c>
+      <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
         <v>2.75</v>
       </c>
-      <c r="O88">
-        <v>3.2</v>
-      </c>
-      <c r="P88">
-        <v>2.375</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>2.1</v>
-      </c>
-      <c r="S88">
-        <v>1.775</v>
-      </c>
-      <c r="T88">
-        <v>2</v>
-      </c>
       <c r="U88">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V88">
         <v>1.8</v>
       </c>
       <c r="W88">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8351,7 +8351,7 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
         <v>-1</v>
@@ -8368,7 +8368,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2616216</v>
+        <v>2616221</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8380,13 +8380,13 @@
         <v>44275.59375</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -8395,43 +8395,43 @@
         <v>49</v>
       </c>
       <c r="K89">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N89">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O89">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T89">
         <v>2</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V89">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8440,16 +8440,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2616215</v>
+        <v>2616216</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8469,10 +8469,10 @@
         <v>44275.59375</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8484,43 +8484,43 @@
         <v>49</v>
       </c>
       <c r="K90">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N90">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P90">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
-        <v>1.9</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8529,16 +8529,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -10326,7 +10326,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>3428804</v>
+        <v>3428810</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10338,76 +10338,76 @@
         <v>44303.5</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>50</v>
+      </c>
+      <c r="K111">
+        <v>2.4</v>
+      </c>
+      <c r="L111">
+        <v>2.875</v>
+      </c>
+      <c r="M111">
         <v>3</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
-        <v>49</v>
-      </c>
-      <c r="K111">
-        <v>2.625</v>
-      </c>
-      <c r="L111">
-        <v>2.75</v>
-      </c>
-      <c r="M111">
-        <v>2.875</v>
-      </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O111">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
         <v>2</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z111">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3428810</v>
+        <v>3428804</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10427,76 +10427,76 @@
         <v>44303.5</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L112">
+        <v>2.75</v>
+      </c>
+      <c r="M112">
         <v>2.875</v>
       </c>
-      <c r="M112">
-        <v>3</v>
-      </c>
       <c r="N112">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O112">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P112">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC112">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>3541932</v>
+        <v>3372604</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,40 +12830,40 @@
         <v>44336.5</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>3.2</v>
+      </c>
+      <c r="M139">
+        <v>3.3</v>
+      </c>
+      <c r="N139">
+        <v>1.95</v>
+      </c>
+      <c r="O139">
         <v>3.25</v>
       </c>
-      <c r="L139">
-        <v>3.3</v>
-      </c>
-      <c r="M139">
-        <v>2</v>
-      </c>
-      <c r="N139">
-        <v>3.25</v>
-      </c>
-      <c r="O139">
-        <v>3.3</v>
-      </c>
       <c r="P139">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
         <v>1.975</v>
@@ -12872,34 +12872,34 @@
         <v>1.875</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X139">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>3372604</v>
+        <v>3541932</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,40 +12919,40 @@
         <v>44336.5</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>3.25</v>
+      </c>
+      <c r="O140">
         <v>3.3</v>
       </c>
-      <c r="N140">
-        <v>1.95</v>
-      </c>
-      <c r="O140">
-        <v>3.25</v>
-      </c>
       <c r="P140">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
         <v>1.975</v>
@@ -12961,34 +12961,34 @@
         <v>1.875</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>3372587</v>
+        <v>3372460</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>44339.625</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="L142">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="N142">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="O142">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13174,7 +13174,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>3523847</v>
+        <v>3372587</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13186,58 +13186,58 @@
         <v>44339.625</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>49</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L143">
+        <v>4.5</v>
+      </c>
+      <c r="M143">
+        <v>5.5</v>
+      </c>
+      <c r="N143">
+        <v>1.4</v>
+      </c>
+      <c r="O143">
+        <v>4.2</v>
+      </c>
+      <c r="P143">
+        <v>6.5</v>
+      </c>
+      <c r="Q143">
+        <v>-1.25</v>
+      </c>
+      <c r="R143">
+        <v>1.9</v>
+      </c>
+      <c r="S143">
+        <v>1.95</v>
+      </c>
+      <c r="T143">
         <v>3</v>
       </c>
-      <c r="M143">
-        <v>3</v>
-      </c>
-      <c r="N143">
-        <v>1.6</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
-      <c r="P143">
-        <v>5.75</v>
-      </c>
-      <c r="Q143">
-        <v>-0.5</v>
-      </c>
-      <c r="R143">
-        <v>1.625</v>
-      </c>
-      <c r="S143">
-        <v>2.25</v>
-      </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>0.6000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13246,16 +13246,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>3372460</v>
+        <v>3523847</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,73 +13275,73 @@
         <v>44339.625</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>49</v>
+      </c>
+      <c r="K144">
+        <v>2.25</v>
+      </c>
+      <c r="L144">
         <v>3</v>
       </c>
-      <c r="J144" t="s">
-        <v>50</v>
-      </c>
-      <c r="K144">
-        <v>3.8</v>
-      </c>
-      <c r="L144">
-        <v>3.6</v>
-      </c>
       <c r="M144">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N144">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="O144">
         <v>3.4</v>
       </c>
       <c r="P144">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="Q144">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.625</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.625</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>3372461</v>
+        <v>3372589</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>44342.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K146">
+        <v>2.4</v>
+      </c>
+      <c r="L146">
+        <v>3.2</v>
+      </c>
+      <c r="M146">
+        <v>2.625</v>
+      </c>
+      <c r="N146">
+        <v>1.8</v>
+      </c>
+      <c r="O146">
+        <v>3.3</v>
+      </c>
+      <c r="P146">
         <v>4.2</v>
       </c>
-      <c r="L146">
-        <v>3.6</v>
-      </c>
-      <c r="M146">
-        <v>1.666</v>
-      </c>
-      <c r="N146">
-        <v>6.5</v>
-      </c>
-      <c r="O146">
-        <v>3.75</v>
-      </c>
-      <c r="P146">
-        <v>1.5</v>
-      </c>
       <c r="Q146">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>1.925</v>
+      </c>
+      <c r="T146">
+        <v>2.25</v>
+      </c>
+      <c r="U146">
         <v>1.9</v>
       </c>
-      <c r="S146">
+      <c r="V146">
         <v>1.95</v>
       </c>
-      <c r="T146">
-        <v>2.5</v>
-      </c>
-      <c r="U146">
-        <v>1.925</v>
-      </c>
-      <c r="V146">
-        <v>1.925</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>3372589</v>
+        <v>3372590</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>44342.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K147">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M147">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N147">
+        <v>9</v>
+      </c>
+      <c r="O147">
+        <v>4.75</v>
+      </c>
+      <c r="P147">
+        <v>1.3</v>
+      </c>
+      <c r="Q147">
+        <v>1.5</v>
+      </c>
+      <c r="R147">
         <v>1.8</v>
       </c>
-      <c r="O147">
-        <v>3.3</v>
-      </c>
-      <c r="P147">
-        <v>4.2</v>
-      </c>
-      <c r="Q147">
-        <v>-0.5</v>
-      </c>
-      <c r="R147">
-        <v>1.925</v>
-      </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>3.75</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
         <v>0.8</v>
       </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0.925</v>
-      </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13619,7 +13619,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>3372590</v>
+        <v>3372461</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13631,76 +13631,76 @@
         <v>44342.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K148">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L148">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="N148">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O148">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P148">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q148">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>3575455</v>
+        <v>3575393</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>44346.60416666666</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L149">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M149">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="N149">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="O149">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="P149">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S149">
+        <v>2.1</v>
+      </c>
+      <c r="T149">
+        <v>2.25</v>
+      </c>
+      <c r="U149">
+        <v>1.925</v>
+      </c>
+      <c r="V149">
         <v>1.875</v>
       </c>
-      <c r="T149">
-        <v>2.75</v>
-      </c>
-      <c r="U149">
-        <v>1.85</v>
-      </c>
-      <c r="V149">
-        <v>2</v>
-      </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X149">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA149">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13886,7 +13886,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>3575393</v>
+        <v>3575455</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13898,73 +13898,73 @@
         <v>44346.60416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K151">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L151">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M151">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N151">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="O151">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="P151">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R151">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S151">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V151">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W151">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB151">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -29550,7 +29550,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>3730301</v>
+        <v>3730303</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29562,76 +29562,76 @@
         <v>44632.58333333334</v>
       </c>
       <c r="F327" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G327" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327">
         <v>2</v>
       </c>
       <c r="J327" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K327">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
       <c r="L327">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M327">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="N327">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="O327">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P327">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q327">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R327">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S327">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T327">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U327">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V327">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W327">
         <v>-1</v>
       </c>
       <c r="X327">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y327">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z327">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA327">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB327">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC327">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29639,7 +29639,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>3730300</v>
+        <v>3730301</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29651,55 +29651,55 @@
         <v>44632.58333333334</v>
       </c>
       <c r="F328" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G328" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H328">
         <v>0</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J328" t="s">
         <v>50</v>
       </c>
       <c r="K328">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="L328">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="M328">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="N328">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="O328">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P328">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="Q328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R328">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S328">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T328">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U328">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V328">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W328">
         <v>-1</v>
@@ -29708,19 +29708,19 @@
         <v>-1</v>
       </c>
       <c r="Y328">
-        <v>1.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z328">
         <v>-1</v>
       </c>
       <c r="AA328">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AB328">
         <v>-1</v>
       </c>
       <c r="AC328">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29728,7 +29728,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>3730303</v>
+        <v>3730300</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29740,76 +29740,76 @@
         <v>44632.58333333334</v>
       </c>
       <c r="F329" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G329" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K329">
+        <v>2.4</v>
+      </c>
+      <c r="L329">
+        <v>2.9</v>
+      </c>
+      <c r="M329">
+        <v>3</v>
+      </c>
+      <c r="N329">
+        <v>2.55</v>
+      </c>
+      <c r="O329">
+        <v>2.9</v>
+      </c>
+      <c r="P329">
         <v>2.8</v>
       </c>
-      <c r="L329">
-        <v>3.1</v>
-      </c>
-      <c r="M329">
-        <v>2.4</v>
-      </c>
-      <c r="N329">
-        <v>3.4</v>
-      </c>
-      <c r="O329">
-        <v>3.1</v>
-      </c>
-      <c r="P329">
+      <c r="Q329">
+        <v>0</v>
+      </c>
+      <c r="R329">
+        <v>1.8</v>
+      </c>
+      <c r="S329">
         <v>2.05</v>
-      </c>
-      <c r="Q329">
-        <v>0.25</v>
-      </c>
-      <c r="R329">
-        <v>2</v>
-      </c>
-      <c r="S329">
-        <v>1.85</v>
       </c>
       <c r="T329">
         <v>2.25</v>
       </c>
       <c r="U329">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V329">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W329">
         <v>-1</v>
       </c>
       <c r="X329">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z329">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA329">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB329">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -32131,7 +32131,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>4804203</v>
+        <v>4931878</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32143,73 +32143,73 @@
         <v>44674.5</v>
       </c>
       <c r="F356" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G356" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
         <v>4</v>
       </c>
-      <c r="I356">
-        <v>0</v>
-      </c>
       <c r="J356" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K356">
+        <v>1.909</v>
+      </c>
+      <c r="L356">
+        <v>3.25</v>
+      </c>
+      <c r="M356">
+        <v>3.5</v>
+      </c>
+      <c r="N356">
+        <v>1.8</v>
+      </c>
+      <c r="O356">
+        <v>3.3</v>
+      </c>
+      <c r="P356">
+        <v>4</v>
+      </c>
+      <c r="Q356">
+        <v>-0.5</v>
+      </c>
+      <c r="R356">
+        <v>1.85</v>
+      </c>
+      <c r="S356">
+        <v>2</v>
+      </c>
+      <c r="T356">
         <v>2.25</v>
       </c>
-      <c r="L356">
+      <c r="U356">
+        <v>2</v>
+      </c>
+      <c r="V356">
+        <v>1.85</v>
+      </c>
+      <c r="W356">
+        <v>-1</v>
+      </c>
+      <c r="X356">
+        <v>-1</v>
+      </c>
+      <c r="Y356">
         <v>3</v>
       </c>
-      <c r="M356">
-        <v>3</v>
-      </c>
-      <c r="N356">
-        <v>2.25</v>
-      </c>
-      <c r="O356">
-        <v>3</v>
-      </c>
-      <c r="P356">
-        <v>3.1</v>
-      </c>
-      <c r="Q356">
-        <v>-0.25</v>
-      </c>
-      <c r="R356">
-        <v>2.025</v>
-      </c>
-      <c r="S356">
-        <v>1.825</v>
-      </c>
-      <c r="T356">
-        <v>2.5</v>
-      </c>
-      <c r="U356">
-        <v>2.05</v>
-      </c>
-      <c r="V356">
-        <v>1.8</v>
-      </c>
-      <c r="W356">
-        <v>1.25</v>
-      </c>
-      <c r="X356">
-        <v>-1</v>
-      </c>
-      <c r="Y356">
-        <v>-1</v>
-      </c>
       <c r="Z356">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA356">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB356">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC356">
         <v>-1</v>
@@ -32220,7 +32220,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>4931878</v>
+        <v>4804203</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32232,73 +32232,73 @@
         <v>44674.5</v>
       </c>
       <c r="F357" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G357" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I357">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J357" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K357">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L357">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M357">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N357">
+        <v>2.25</v>
+      </c>
+      <c r="O357">
+        <v>3</v>
+      </c>
+      <c r="P357">
+        <v>3.1</v>
+      </c>
+      <c r="Q357">
+        <v>-0.25</v>
+      </c>
+      <c r="R357">
+        <v>2.025</v>
+      </c>
+      <c r="S357">
+        <v>1.825</v>
+      </c>
+      <c r="T357">
+        <v>2.5</v>
+      </c>
+      <c r="U357">
+        <v>2.05</v>
+      </c>
+      <c r="V357">
         <v>1.8</v>
       </c>
-      <c r="O357">
-        <v>3.3</v>
-      </c>
-      <c r="P357">
-        <v>4</v>
-      </c>
-      <c r="Q357">
-        <v>-0.5</v>
-      </c>
-      <c r="R357">
-        <v>1.85</v>
-      </c>
-      <c r="S357">
-        <v>2</v>
-      </c>
-      <c r="T357">
-        <v>2.25</v>
-      </c>
-      <c r="U357">
-        <v>2</v>
-      </c>
-      <c r="V357">
-        <v>1.85</v>
-      </c>
       <c r="W357">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X357">
         <v>-1</v>
       </c>
       <c r="Y357">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z357">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA357">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB357">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC357">
         <v>-1</v>
@@ -32665,7 +32665,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>4804208</v>
+        <v>4804206</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32677,10 +32677,10 @@
         <v>44681.52083333334</v>
       </c>
       <c r="F362" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G362" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -32692,40 +32692,40 @@
         <v>50</v>
       </c>
       <c r="K362">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L362">
         <v>3.2</v>
       </c>
       <c r="M362">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N362">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O362">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P362">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q362">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R362">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S362">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T362">
         <v>2.25</v>
       </c>
       <c r="U362">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V362">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W362">
         <v>-1</v>
@@ -32734,19 +32734,19 @@
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z362">
         <v>-1</v>
       </c>
       <c r="AA362">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB362">
         <v>-0.5</v>
       </c>
       <c r="AC362">
-        <v>0.45</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32754,7 +32754,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>4804209</v>
+        <v>4804208</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32766,76 +32766,76 @@
         <v>44681.52083333334</v>
       </c>
       <c r="F363" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G363" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363">
         <v>2</v>
       </c>
       <c r="J363" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K363">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L363">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M363">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N363">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O363">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P363">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q363">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R363">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S363">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T363">
         <v>2.25</v>
       </c>
       <c r="U363">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V363">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W363">
         <v>-1</v>
       </c>
       <c r="X363">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y363">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z363">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA363">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB363">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC363">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32843,7 +32843,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>4804206</v>
+        <v>4804209</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32855,76 +32855,76 @@
         <v>44681.52083333334</v>
       </c>
       <c r="F364" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G364" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364">
         <v>2</v>
       </c>
       <c r="J364" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K364">
         <v>2.5</v>
       </c>
       <c r="L364">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M364">
+        <v>2.75</v>
+      </c>
+      <c r="N364">
+        <v>2.75</v>
+      </c>
+      <c r="O364">
+        <v>2.875</v>
+      </c>
+      <c r="P364">
         <v>2.625</v>
       </c>
-      <c r="N364">
-        <v>3</v>
-      </c>
-      <c r="O364">
-        <v>3.3</v>
-      </c>
-      <c r="P364">
-        <v>2.15</v>
-      </c>
       <c r="Q364">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R364">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S364">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T364">
         <v>2.25</v>
       </c>
       <c r="U364">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V364">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W364">
         <v>-1</v>
       </c>
       <c r="X364">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y364">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z364">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA364">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB364">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC364">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -33555,7 +33555,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4804210</v>
+        <v>4804212</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33567,13 +33567,13 @@
         <v>44689.58333333334</v>
       </c>
       <c r="F372" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G372" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I372">
         <v>0</v>
@@ -33582,34 +33582,34 @@
         <v>49</v>
       </c>
       <c r="K372">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L372">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M372">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N372">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O372">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P372">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="Q372">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R372">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S372">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T372">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
         <v>1.975</v>
@@ -33618,7 +33618,7 @@
         <v>1.875</v>
       </c>
       <c r="W372">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="X372">
         <v>-1</v>
@@ -33627,7 +33627,7 @@
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA372">
         <v>-1</v>
@@ -33644,7 +33644,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4804212</v>
+        <v>4804210</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33656,13 +33656,13 @@
         <v>44689.58333333334</v>
       </c>
       <c r="F373" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G373" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373">
         <v>0</v>
@@ -33671,34 +33671,34 @@
         <v>49</v>
       </c>
       <c r="K373">
+        <v>2.625</v>
+      </c>
+      <c r="L373">
+        <v>3.1</v>
+      </c>
+      <c r="M373">
+        <v>2.55</v>
+      </c>
+      <c r="N373">
+        <v>2.75</v>
+      </c>
+      <c r="O373">
+        <v>3.1</v>
+      </c>
+      <c r="P373">
+        <v>2.45</v>
+      </c>
+      <c r="Q373">
+        <v>0</v>
+      </c>
+      <c r="R373">
+        <v>2.1</v>
+      </c>
+      <c r="S373">
+        <v>1.775</v>
+      </c>
+      <c r="T373">
         <v>2.25</v>
-      </c>
-      <c r="L373">
-        <v>3.25</v>
-      </c>
-      <c r="M373">
-        <v>2.9</v>
-      </c>
-      <c r="N373">
-        <v>2.2</v>
-      </c>
-      <c r="O373">
-        <v>3.4</v>
-      </c>
-      <c r="P373">
-        <v>2.8</v>
-      </c>
-      <c r="Q373">
-        <v>-0.25</v>
-      </c>
-      <c r="R373">
-        <v>2</v>
-      </c>
-      <c r="S373">
-        <v>1.85</v>
-      </c>
-      <c r="T373">
-        <v>2.5</v>
       </c>
       <c r="U373">
         <v>1.975</v>
@@ -33707,7 +33707,7 @@
         <v>1.875</v>
       </c>
       <c r="W373">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -33716,7 +33716,7 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA373">
         <v>-1</v>
@@ -33911,7 +33911,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>4803837</v>
+        <v>4804192</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33923,58 +33923,58 @@
         <v>44691.60416666666</v>
       </c>
       <c r="F376" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G376" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H376">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J376" t="s">
         <v>49</v>
       </c>
       <c r="K376">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="L376">
+        <v>3.4</v>
+      </c>
+      <c r="M376">
+        <v>1.909</v>
+      </c>
+      <c r="N376">
         <v>3.5</v>
       </c>
-      <c r="M376">
-        <v>4.5</v>
-      </c>
-      <c r="N376">
-        <v>1.55</v>
-      </c>
       <c r="O376">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P376">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q376">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R376">
+        <v>1.8</v>
+      </c>
+      <c r="S376">
         <v>2.05</v>
-      </c>
-      <c r="S376">
-        <v>1.8</v>
       </c>
       <c r="T376">
         <v>2.25</v>
       </c>
       <c r="U376">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V376">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W376">
-        <v>0.55</v>
+        <v>2.5</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -33983,13 +33983,13 @@
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA376">
         <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34089,7 +34089,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>4804192</v>
+        <v>4803837</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34101,58 +34101,58 @@
         <v>44691.60416666666</v>
       </c>
       <c r="F378" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G378" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J378" t="s">
         <v>49</v>
       </c>
       <c r="K378">
+        <v>1.7</v>
+      </c>
+      <c r="L378">
+        <v>3.5</v>
+      </c>
+      <c r="M378">
+        <v>4.5</v>
+      </c>
+      <c r="N378">
+        <v>1.55</v>
+      </c>
+      <c r="O378">
         <v>3.75</v>
       </c>
-      <c r="L378">
-        <v>3.4</v>
-      </c>
-      <c r="M378">
-        <v>1.909</v>
-      </c>
-      <c r="N378">
-        <v>3.5</v>
-      </c>
-      <c r="O378">
-        <v>3.25</v>
-      </c>
       <c r="P378">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q378">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R378">
+        <v>2.05</v>
+      </c>
+      <c r="S378">
         <v>1.8</v>
-      </c>
-      <c r="S378">
-        <v>2.05</v>
       </c>
       <c r="T378">
         <v>2.25</v>
       </c>
       <c r="U378">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V378">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W378">
-        <v>2.5</v>
+        <v>0.55</v>
       </c>
       <c r="X378">
         <v>-1</v>
@@ -34161,13 +34161,13 @@
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA378">
         <v>-1</v>
       </c>
       <c r="AB378">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC378">
         <v>-1</v>
@@ -34267,7 +34267,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>4804217</v>
+        <v>4804214</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34279,76 +34279,76 @@
         <v>44695.54166666666</v>
       </c>
       <c r="F380" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G380" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H380">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I380">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J380" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K380">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L380">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M380">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N380">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O380">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P380">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q380">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R380">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S380">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T380">
         <v>2.75</v>
       </c>
       <c r="U380">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V380">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W380">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z380">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA380">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB380">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC380">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34356,7 +34356,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>4804214</v>
+        <v>4804215</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34368,46 +34368,46 @@
         <v>44695.54166666666</v>
       </c>
       <c r="F381" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G381" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J381" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K381">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L381">
         <v>3.1</v>
       </c>
       <c r="M381">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N381">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O381">
         <v>3.3</v>
       </c>
       <c r="P381">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q381">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R381">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S381">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T381">
         <v>2.75</v>
@@ -34419,19 +34419,19 @@
         <v>1.85</v>
       </c>
       <c r="W381">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X381">
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z381">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA381">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
         <v>-1</v>
@@ -34445,7 +34445,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>4804215</v>
+        <v>4804217</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34457,58 +34457,58 @@
         <v>44695.54166666666</v>
       </c>
       <c r="F382" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G382" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I382">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J382" t="s">
         <v>49</v>
       </c>
       <c r="K382">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L382">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M382">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N382">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="O382">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P382">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q382">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R382">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S382">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T382">
         <v>2.75</v>
       </c>
       <c r="U382">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V382">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W382">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="X382">
         <v>-1</v>
@@ -34517,16 +34517,16 @@
         <v>-1</v>
       </c>
       <c r="Z382">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA382">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB382">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC382">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34534,7 +34534,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>4798019</v>
+        <v>4804193</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34546,76 +34546,76 @@
         <v>44697.60416666666</v>
       </c>
       <c r="F383" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G383" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H383">
         <v>0</v>
       </c>
       <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383" t="s">
+        <v>48</v>
+      </c>
+      <c r="K383">
+        <v>1.85</v>
+      </c>
+      <c r="L383">
+        <v>3.3</v>
+      </c>
+      <c r="M383">
+        <v>3.75</v>
+      </c>
+      <c r="N383">
+        <v>2.55</v>
+      </c>
+      <c r="O383">
         <v>3</v>
       </c>
-      <c r="J383" t="s">
-        <v>50</v>
-      </c>
-      <c r="K383">
-        <v>7.5</v>
-      </c>
-      <c r="L383">
-        <v>4.333</v>
-      </c>
-      <c r="M383">
-        <v>1.333</v>
-      </c>
-      <c r="N383">
-        <v>4</v>
-      </c>
-      <c r="O383">
-        <v>3.4</v>
-      </c>
       <c r="P383">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q383">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R383">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S383">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T383">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U383">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V383">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W383">
         <v>-1</v>
       </c>
       <c r="X383">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y383">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z383">
         <v>-1</v>
       </c>
       <c r="AA383">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AB383">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC383">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34712,7 +34712,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>4804193</v>
+        <v>4798019</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34724,76 +34724,76 @@
         <v>44697.60416666666</v>
       </c>
       <c r="F385" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G385" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H385">
         <v>0</v>
       </c>
       <c r="I385">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J385" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K385">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="L385">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M385">
-        <v>3.75</v>
+        <v>1.333</v>
       </c>
       <c r="N385">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O385">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P385">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q385">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R385">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S385">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T385">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U385">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V385">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W385">
         <v>-1</v>
       </c>
       <c r="X385">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y385">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z385">
         <v>-1</v>
       </c>
       <c r="AA385">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AB385">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC385">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -40764,7 +40764,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>5145361</v>
+        <v>5266285</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40776,55 +40776,55 @@
         <v>44863.53125</v>
       </c>
       <c r="F453" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G453" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J453" t="s">
         <v>50</v>
       </c>
       <c r="K453">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="L453">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M453">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N453">
+        <v>4.2</v>
+      </c>
+      <c r="O453">
+        <v>3.5</v>
+      </c>
+      <c r="P453">
         <v>1.75</v>
       </c>
-      <c r="O453">
-        <v>3.4</v>
-      </c>
-      <c r="P453">
-        <v>4.333</v>
-      </c>
       <c r="Q453">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R453">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S453">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T453">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U453">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V453">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W453">
         <v>-1</v>
@@ -40833,19 +40833,19 @@
         <v>-1</v>
       </c>
       <c r="Y453">
-        <v>3.333</v>
+        <v>0.75</v>
       </c>
       <c r="Z453">
         <v>-1</v>
       </c>
       <c r="AA453">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB453">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC453">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40853,7 +40853,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5266285</v>
+        <v>5145361</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40865,55 +40865,55 @@
         <v>44863.53125</v>
       </c>
       <c r="F454" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G454" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I454">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J454" t="s">
         <v>50</v>
       </c>
       <c r="K454">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="L454">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M454">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N454">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="O454">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P454">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q454">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R454">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S454">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T454">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U454">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V454">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W454">
         <v>-1</v>
@@ -40922,19 +40922,19 @@
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>0.75</v>
+        <v>3.333</v>
       </c>
       <c r="Z454">
         <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB454">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC454">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -43167,7 +43167,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>5266289</v>
+        <v>5145128</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43179,76 +43179,76 @@
         <v>44912.41666666666</v>
       </c>
       <c r="F480" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G480" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I480">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J480" t="s">
         <v>48</v>
       </c>
       <c r="K480">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L480">
+        <v>3.2</v>
+      </c>
+      <c r="M480">
+        <v>3.75</v>
+      </c>
+      <c r="N480">
+        <v>2.25</v>
+      </c>
+      <c r="O480">
         <v>3</v>
       </c>
-      <c r="M480">
-        <v>2.4</v>
-      </c>
-      <c r="N480">
-        <v>4</v>
-      </c>
-      <c r="O480">
-        <v>3.1</v>
-      </c>
       <c r="P480">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q480">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R480">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S480">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T480">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U480">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V480">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W480">
         <v>-1</v>
       </c>
       <c r="X480">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y480">
         <v>-1</v>
       </c>
       <c r="Z480">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA480">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB480">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC480">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481" spans="1:29">
@@ -43256,7 +43256,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>5145128</v>
+        <v>5266289</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43268,76 +43268,76 @@
         <v>44912.41666666666</v>
       </c>
       <c r="F481" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G481" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H481">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J481" t="s">
         <v>48</v>
       </c>
       <c r="K481">
+        <v>2.8</v>
+      </c>
+      <c r="L481">
+        <v>3</v>
+      </c>
+      <c r="M481">
+        <v>2.4</v>
+      </c>
+      <c r="N481">
+        <v>4</v>
+      </c>
+      <c r="O481">
+        <v>3.1</v>
+      </c>
+      <c r="P481">
         <v>1.909</v>
       </c>
-      <c r="L481">
-        <v>3.2</v>
-      </c>
-      <c r="M481">
-        <v>3.75</v>
-      </c>
-      <c r="N481">
-        <v>2.25</v>
-      </c>
-      <c r="O481">
-        <v>3</v>
-      </c>
-      <c r="P481">
-        <v>3</v>
-      </c>
       <c r="Q481">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R481">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S481">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T481">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U481">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V481">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W481">
         <v>-1</v>
       </c>
       <c r="X481">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y481">
         <v>-1</v>
       </c>
       <c r="Z481">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA481">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB481">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC481">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:29">
@@ -48329,7 +48329,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>5145146</v>
+        <v>5145868</v>
       </c>
       <c r="C538" t="s">
         <v>28</v>
@@ -48341,76 +48341,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F538" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G538" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I538">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J538" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K538">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L538">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M538">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N538">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O538">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P538">
+        <v>4.333</v>
+      </c>
+      <c r="Q538">
+        <v>-0.75</v>
+      </c>
+      <c r="R538">
+        <v>1.9</v>
+      </c>
+      <c r="S538">
         <v>1.95</v>
-      </c>
-      <c r="Q538">
-        <v>0.5</v>
-      </c>
-      <c r="R538">
-        <v>1.85</v>
-      </c>
-      <c r="S538">
-        <v>2</v>
       </c>
       <c r="T538">
         <v>2.25</v>
       </c>
       <c r="U538">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V538">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W538">
         <v>-1</v>
       </c>
       <c r="X538">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y538">
+        <v>-1</v>
+      </c>
+      <c r="Z538">
+        <v>-1</v>
+      </c>
+      <c r="AA538">
         <v>0.95</v>
-      </c>
-      <c r="Z538">
-        <v>-1</v>
-      </c>
-      <c r="AA538">
-        <v>1</v>
       </c>
       <c r="AB538">
         <v>-0.5</v>
       </c>
       <c r="AC538">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="539" spans="1:29">
@@ -48418,7 +48418,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>5145868</v>
+        <v>5145146</v>
       </c>
       <c r="C539" t="s">
         <v>28</v>
@@ -48430,76 +48430,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F539" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G539" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J539" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K539">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L539">
+        <v>3.3</v>
+      </c>
+      <c r="M539">
+        <v>2.375</v>
+      </c>
+      <c r="N539">
+        <v>3.1</v>
+      </c>
+      <c r="O539">
         <v>3.4</v>
       </c>
-      <c r="M539">
-        <v>3.1</v>
-      </c>
-      <c r="N539">
-        <v>1.65</v>
-      </c>
-      <c r="O539">
-        <v>3.6</v>
-      </c>
       <c r="P539">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q539">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R539">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S539">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T539">
         <v>2.25</v>
       </c>
       <c r="U539">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V539">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W539">
         <v>-1</v>
       </c>
       <c r="X539">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y539">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z539">
         <v>-1</v>
       </c>
       <c r="AA539">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB539">
         <v>-0.5</v>
       </c>
       <c r="AC539">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="540" spans="1:29">
@@ -48952,7 +48952,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>5266291</v>
+        <v>5145379</v>
       </c>
       <c r="C545" t="s">
         <v>28</v>
@@ -48964,76 +48964,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F545" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G545" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H545">
         <v>1</v>
       </c>
       <c r="I545">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J545" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K545">
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
       <c r="L545">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M545">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N545">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="O545">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P545">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q545">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R545">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S545">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T545">
         <v>2.25</v>
       </c>
       <c r="U545">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V545">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W545">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X545">
         <v>-1</v>
       </c>
       <c r="Y545">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z545">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA545">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB545">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC545">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546" spans="1:29">
@@ -49041,7 +49041,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>5145379</v>
+        <v>5266291</v>
       </c>
       <c r="C546" t="s">
         <v>28</v>
@@ -49053,76 +49053,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F546" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G546" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H546">
         <v>1</v>
       </c>
       <c r="I546">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J546" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K546">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="L546">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M546">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N546">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O546">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P546">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q546">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R546">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S546">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T546">
         <v>2.25</v>
       </c>
       <c r="U546">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V546">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W546">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X546">
         <v>-1</v>
       </c>
       <c r="Y546">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z546">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA546">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB546">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC546">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="547" spans="1:29">
@@ -50198,7 +50198,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>5145342</v>
+        <v>5266292</v>
       </c>
       <c r="C559" t="s">
         <v>28</v>
@@ -50210,76 +50210,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F559" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G559" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I559">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J559" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K559">
         <v>2.15</v>
       </c>
       <c r="L559">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M559">
         <v>3.4</v>
       </c>
       <c r="N559">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O559">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P559">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q559">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R559">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S559">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T559">
         <v>2.25</v>
       </c>
       <c r="U559">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V559">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W559">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X559">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y559">
         <v>-1</v>
       </c>
       <c r="Z559">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA559">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB559">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC559">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="560" spans="1:29">
@@ -50287,7 +50287,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>5266292</v>
+        <v>5145342</v>
       </c>
       <c r="C560" t="s">
         <v>28</v>
@@ -50299,76 +50299,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F560" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G560" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H560">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I560">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J560" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K560">
         <v>2.15</v>
       </c>
       <c r="L560">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M560">
         <v>3.4</v>
       </c>
       <c r="N560">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O560">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P560">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q560">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R560">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S560">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T560">
         <v>2.25</v>
       </c>
       <c r="U560">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V560">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W560">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X560">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y560">
         <v>-1</v>
       </c>
       <c r="Z560">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA560">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB560">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC560">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="561" spans="1:29">
@@ -52067,7 +52067,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>6402973</v>
+        <v>6404155</v>
       </c>
       <c r="C580" t="s">
         <v>28</v>
@@ -52079,58 +52079,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F580" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G580" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H580">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I580">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J580" t="s">
         <v>49</v>
       </c>
       <c r="K580">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L580">
+        <v>3.75</v>
+      </c>
+      <c r="M580">
+        <v>5</v>
+      </c>
+      <c r="N580">
+        <v>1.833</v>
+      </c>
+      <c r="O580">
         <v>3.3</v>
       </c>
-      <c r="M580">
-        <v>3.1</v>
-      </c>
-      <c r="N580">
-        <v>2.15</v>
-      </c>
-      <c r="O580">
-        <v>3.2</v>
-      </c>
       <c r="P580">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q580">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R580">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S580">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T580">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U580">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V580">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W580">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X580">
         <v>-1</v>
@@ -52139,16 +52139,16 @@
         <v>-1</v>
       </c>
       <c r="Z580">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA580">
         <v>-1</v>
       </c>
       <c r="AB580">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC580">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="581" spans="1:29">
@@ -52156,7 +52156,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>6404155</v>
+        <v>6402973</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52168,58 +52168,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F581" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G581" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I581">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J581" t="s">
         <v>49</v>
       </c>
       <c r="K581">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L581">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M581">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N581">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O581">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P581">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q581">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R581">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S581">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T581">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U581">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V581">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W581">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X581">
         <v>-1</v>
@@ -52228,16 +52228,16 @@
         <v>-1</v>
       </c>
       <c r="Z581">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA581">
         <v>-1</v>
       </c>
       <c r="AB581">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC581">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -52245,7 +52245,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>6404135</v>
+        <v>6402965</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52257,76 +52257,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F582" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G582" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I582">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J582" t="s">
         <v>48</v>
       </c>
       <c r="K582">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L582">
         <v>3.3</v>
       </c>
       <c r="M582">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N582">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O582">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P582">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q582">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R582">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S582">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T582">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U582">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V582">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W582">
         <v>-1</v>
       </c>
       <c r="X582">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y582">
         <v>-1</v>
       </c>
       <c r="Z582">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA582">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB582">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC582">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="583" spans="1:29">
@@ -52334,7 +52334,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>6402965</v>
+        <v>6404135</v>
       </c>
       <c r="C583" t="s">
         <v>28</v>
@@ -52346,76 +52346,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F583" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G583" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I583">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J583" t="s">
         <v>48</v>
       </c>
       <c r="K583">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L583">
         <v>3.3</v>
       </c>
       <c r="M583">
+        <v>2.375</v>
+      </c>
+      <c r="N583">
+        <v>2</v>
+      </c>
+      <c r="O583">
+        <v>3.4</v>
+      </c>
+      <c r="P583">
+        <v>3.25</v>
+      </c>
+      <c r="Q583">
+        <v>-0.25</v>
+      </c>
+      <c r="R583">
+        <v>1.8</v>
+      </c>
+      <c r="S583">
+        <v>2.05</v>
+      </c>
+      <c r="T583">
+        <v>2.25</v>
+      </c>
+      <c r="U583">
+        <v>1.8</v>
+      </c>
+      <c r="V583">
+        <v>2.05</v>
+      </c>
+      <c r="W583">
+        <v>-1</v>
+      </c>
+      <c r="X583">
         <v>2.4</v>
       </c>
-      <c r="N583">
-        <v>2.6</v>
-      </c>
-      <c r="O583">
-        <v>3</v>
-      </c>
-      <c r="P583">
-        <v>2.7</v>
-      </c>
-      <c r="Q583">
-        <v>0</v>
-      </c>
-      <c r="R583">
-        <v>1.9</v>
-      </c>
-      <c r="S583">
-        <v>1.95</v>
-      </c>
-      <c r="T583">
-        <v>2</v>
-      </c>
-      <c r="U583">
-        <v>1.875</v>
-      </c>
-      <c r="V583">
-        <v>1.975</v>
-      </c>
-      <c r="W583">
-        <v>-1</v>
-      </c>
-      <c r="X583">
-        <v>2</v>
-      </c>
       <c r="Y583">
         <v>-1</v>
       </c>
       <c r="Z583">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA583">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB583">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC583">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="584" spans="1:29">
@@ -53936,7 +53936,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>6404146</v>
+        <v>6404128</v>
       </c>
       <c r="C601" t="s">
         <v>28</v>
@@ -53948,76 +53948,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F601" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G601" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J601" t="s">
         <v>48</v>
       </c>
       <c r="K601">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L601">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M601">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="N601">
-        <v>8.5</v>
+        <v>1.95</v>
       </c>
       <c r="O601">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P601">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="Q601">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R601">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S601">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T601">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U601">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V601">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W601">
         <v>-1</v>
       </c>
       <c r="X601">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y601">
         <v>-1</v>
       </c>
       <c r="Z601">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA601">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB601">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC601">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="602" spans="1:29">
@@ -54025,7 +54025,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>6404128</v>
+        <v>6404146</v>
       </c>
       <c r="C602" t="s">
         <v>28</v>
@@ -54037,76 +54037,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F602" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G602" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J602" t="s">
         <v>48</v>
       </c>
       <c r="K602">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L602">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M602">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="N602">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="O602">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P602">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q602">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R602">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S602">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T602">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U602">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V602">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W602">
         <v>-1</v>
       </c>
       <c r="X602">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y602">
         <v>-1</v>
       </c>
       <c r="Z602">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA602">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB602">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC602">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="603" spans="1:29">
@@ -55627,7 +55627,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6404121</v>
+        <v>6402969</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55639,40 +55639,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F620" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G620" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I620">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J620" t="s">
         <v>50</v>
       </c>
       <c r="K620">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L620">
         <v>3.2</v>
       </c>
       <c r="M620">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N620">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O620">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P620">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q620">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R620">
         <v>1.8</v>
@@ -55684,10 +55684,10 @@
         <v>2.5</v>
       </c>
       <c r="U620">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V620">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W620">
         <v>-1</v>
@@ -55696,7 +55696,7 @@
         <v>-1</v>
       </c>
       <c r="Y620">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z620">
         <v>-1</v>
@@ -55705,7 +55705,7 @@
         <v>1.05</v>
       </c>
       <c r="AB620">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC620">
         <v>-1</v>
@@ -55716,7 +55716,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>6402969</v>
+        <v>6404121</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55728,40 +55728,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F621" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G621" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J621" t="s">
         <v>50</v>
       </c>
       <c r="K621">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L621">
         <v>3.2</v>
       </c>
       <c r="M621">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N621">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O621">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P621">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q621">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R621">
         <v>1.8</v>
@@ -55773,10 +55773,10 @@
         <v>2.5</v>
       </c>
       <c r="U621">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V621">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W621">
         <v>-1</v>
@@ -55785,7 +55785,7 @@
         <v>-1</v>
       </c>
       <c r="Y621">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z621">
         <v>-1</v>
@@ -55794,7 +55794,7 @@
         <v>1.05</v>
       </c>
       <c r="AB621">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC621">
         <v>-1</v>
@@ -55983,7 +55983,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>6404140</v>
+        <v>6404139</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -55995,49 +55995,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F624" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G624" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I624">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J624" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K624">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L624">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M624">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N624">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O624">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P624">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q624">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R624">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S624">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T624">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U624">
         <v>1.875</v>
@@ -56046,19 +56046,19 @@
         <v>1.975</v>
       </c>
       <c r="W624">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X624">
         <v>-1</v>
       </c>
       <c r="Y624">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z624">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA624">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB624">
         <v>0.875</v>
@@ -56072,7 +56072,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>6404139</v>
+        <v>6404140</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56084,49 +56084,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F625" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G625" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H625">
+        <v>1</v>
+      </c>
+      <c r="I625">
+        <v>5</v>
+      </c>
+      <c r="J625" t="s">
+        <v>50</v>
+      </c>
+      <c r="K625">
+        <v>4.5</v>
+      </c>
+      <c r="L625">
+        <v>4.2</v>
+      </c>
+      <c r="M625">
+        <v>1.533</v>
+      </c>
+      <c r="N625">
+        <v>6</v>
+      </c>
+      <c r="O625">
+        <v>5</v>
+      </c>
+      <c r="P625">
+        <v>1.363</v>
+      </c>
+      <c r="Q625">
+        <v>1.25</v>
+      </c>
+      <c r="R625">
+        <v>2</v>
+      </c>
+      <c r="S625">
+        <v>1.85</v>
+      </c>
+      <c r="T625">
         <v>3</v>
-      </c>
-      <c r="I625">
-        <v>0</v>
-      </c>
-      <c r="J625" t="s">
-        <v>49</v>
-      </c>
-      <c r="K625">
-        <v>2.2</v>
-      </c>
-      <c r="L625">
-        <v>3.3</v>
-      </c>
-      <c r="M625">
-        <v>2.8</v>
-      </c>
-      <c r="N625">
-        <v>2</v>
-      </c>
-      <c r="O625">
-        <v>3.5</v>
-      </c>
-      <c r="P625">
-        <v>3.3</v>
-      </c>
-      <c r="Q625">
-        <v>-0.5</v>
-      </c>
-      <c r="R625">
-        <v>1.975</v>
-      </c>
-      <c r="S625">
-        <v>1.875</v>
-      </c>
-      <c r="T625">
-        <v>2.5</v>
       </c>
       <c r="U625">
         <v>1.875</v>
@@ -56135,19 +56135,19 @@
         <v>1.975</v>
       </c>
       <c r="W625">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X625">
         <v>-1</v>
       </c>
       <c r="Y625">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z625">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA625">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB625">
         <v>0.875</v>
@@ -56161,7 +56161,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>6670416</v>
+        <v>6670415</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -56173,13 +56173,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F626" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G626" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H626">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I626">
         <v>0</v>
@@ -56188,43 +56188,43 @@
         <v>49</v>
       </c>
       <c r="K626">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="L626">
+        <v>4</v>
+      </c>
+      <c r="M626">
         <v>5</v>
       </c>
-      <c r="M626">
-        <v>7.5</v>
-      </c>
       <c r="N626">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="O626">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P626">
-        <v>8.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q626">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R626">
+        <v>1.8</v>
+      </c>
+      <c r="S626">
+        <v>2.05</v>
+      </c>
+      <c r="T626">
+        <v>2.75</v>
+      </c>
+      <c r="U626">
         <v>1.875</v>
       </c>
-      <c r="S626">
+      <c r="V626">
         <v>1.975</v>
       </c>
-      <c r="T626">
-        <v>3.25</v>
-      </c>
-      <c r="U626">
-        <v>1.925</v>
-      </c>
-      <c r="V626">
-        <v>1.925</v>
-      </c>
       <c r="W626">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X626">
         <v>-1</v>
@@ -56233,16 +56233,16 @@
         <v>-1</v>
       </c>
       <c r="Z626">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA626">
         <v>-1</v>
       </c>
       <c r="AB626">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC626">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="627" spans="1:29">
@@ -56250,7 +56250,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6670415</v>
+        <v>6670416</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56262,13 +56262,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F627" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G627" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I627">
         <v>0</v>
@@ -56277,43 +56277,43 @@
         <v>49</v>
       </c>
       <c r="K627">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="L627">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M627">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N627">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O627">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P627">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q627">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R627">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S627">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T627">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U627">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V627">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W627">
-        <v>0.45</v>
+        <v>0.222</v>
       </c>
       <c r="X627">
         <v>-1</v>
@@ -56322,16 +56322,16 @@
         <v>-1</v>
       </c>
       <c r="Z627">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA627">
         <v>-1</v>
       </c>
       <c r="AB627">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC627">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="628" spans="1:29">
@@ -56962,7 +56962,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -56974,10 +56974,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F635" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G635" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H635">
         <v>1</v>
@@ -56989,61 +56989,61 @@
         <v>48</v>
       </c>
       <c r="K635">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L635">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M635">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N635">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O635">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P635">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R635">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S635">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T635">
         <v>2.5</v>
       </c>
       <c r="U635">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V635">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W635">
         <v>-1</v>
       </c>
       <c r="X635">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
+        <v>0</v>
+      </c>
+      <c r="AA635">
+        <v>-0</v>
+      </c>
+      <c r="AB635">
+        <v>-1</v>
+      </c>
+      <c r="AC635">
         <v>0.825</v>
-      </c>
-      <c r="AA635">
-        <v>-1</v>
-      </c>
-      <c r="AB635">
-        <v>-1</v>
-      </c>
-      <c r="AC635">
-        <v>0.875</v>
       </c>
     </row>
     <row r="636" spans="1:29">
@@ -57051,7 +57051,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C636" t="s">
         <v>28</v>
@@ -57063,10 +57063,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F636" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G636" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H636">
         <v>1</v>
@@ -57078,61 +57078,61 @@
         <v>48</v>
       </c>
       <c r="K636">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L636">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M636">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N636">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O636">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P636">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R636">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S636">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T636">
         <v>2.5</v>
       </c>
       <c r="U636">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V636">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W636">
         <v>-1</v>
       </c>
       <c r="X636">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y636">
         <v>-1</v>
       </c>
       <c r="Z636">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA636">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB636">
         <v>-1</v>
       </c>
       <c r="AC636">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="637" spans="1:29">
@@ -57852,7 +57852,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57864,58 +57864,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F645" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G645" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H645">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I645">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J645" t="s">
         <v>49</v>
       </c>
       <c r="K645">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L645">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M645">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N645">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O645">
         <v>3.6</v>
       </c>
       <c r="P645">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q645">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R645">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S645">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T645">
         <v>2.5</v>
       </c>
       <c r="U645">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V645">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W645">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X645">
         <v>-1</v>
@@ -57924,13 +57924,13 @@
         <v>-1</v>
       </c>
       <c r="Z645">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA645">
         <v>-1</v>
       </c>
       <c r="AB645">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC645">
         <v>-1</v>
@@ -57941,7 +57941,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -57953,58 +57953,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F646" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G646" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H646">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I646">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J646" t="s">
         <v>49</v>
       </c>
       <c r="K646">
+        <v>1.571</v>
+      </c>
+      <c r="L646">
+        <v>3.6</v>
+      </c>
+      <c r="M646">
         <v>5</v>
       </c>
-      <c r="L646">
-        <v>3.75</v>
-      </c>
-      <c r="M646">
-        <v>1.533</v>
-      </c>
       <c r="N646">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O646">
         <v>3.6</v>
       </c>
       <c r="P646">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q646">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R646">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S646">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T646">
         <v>2.5</v>
       </c>
       <c r="U646">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V646">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W646">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X646">
         <v>-1</v>
@@ -58013,13 +58013,13 @@
         <v>-1</v>
       </c>
       <c r="Z646">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA646">
         <v>-1</v>
       </c>
       <c r="AB646">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC646">
         <v>-1</v>
@@ -58386,7 +58386,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>6799846</v>
+        <v>6799841</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58398,10 +58398,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F651" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G651" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H651">
         <v>1</v>
@@ -58413,46 +58413,46 @@
         <v>48</v>
       </c>
       <c r="K651">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L651">
+        <v>3.25</v>
+      </c>
+      <c r="M651">
+        <v>2.75</v>
+      </c>
+      <c r="N651">
+        <v>2.3</v>
+      </c>
+      <c r="O651">
         <v>3.3</v>
       </c>
-      <c r="M651">
-        <v>2.3</v>
-      </c>
-      <c r="N651">
-        <v>2.5</v>
-      </c>
-      <c r="O651">
-        <v>3.2</v>
-      </c>
       <c r="P651">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q651">
         <v>0</v>
       </c>
       <c r="R651">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S651">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T651">
         <v>2.5</v>
       </c>
       <c r="U651">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V651">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W651">
         <v>-1</v>
       </c>
       <c r="X651">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y651">
         <v>-1</v>
@@ -58467,7 +58467,7 @@
         <v>-1</v>
       </c>
       <c r="AC651">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -58475,7 +58475,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>6799841</v>
+        <v>6799846</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58487,10 +58487,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F652" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G652" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H652">
         <v>1</v>
@@ -58502,46 +58502,46 @@
         <v>48</v>
       </c>
       <c r="K652">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L652">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M652">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N652">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O652">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P652">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q652">
         <v>0</v>
       </c>
       <c r="R652">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S652">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T652">
         <v>2.5</v>
       </c>
       <c r="U652">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V652">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y652">
         <v>-1</v>
@@ -58556,7 +58556,7 @@
         <v>-1</v>
       </c>
       <c r="AC652">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -61412,7 +61412,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>7542499</v>
+        <v>7542500</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61424,76 +61424,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F685" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G685" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H685">
         <v>1</v>
       </c>
       <c r="I685">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J685" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K685">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="L685">
         <v>3.2</v>
       </c>
       <c r="M685">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N685">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O685">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P685">
+        <v>2.9</v>
+      </c>
+      <c r="Q685">
+        <v>-0.25</v>
+      </c>
+      <c r="R685">
         <v>2.05</v>
       </c>
-      <c r="Q685">
-        <v>0.25</v>
-      </c>
-      <c r="R685">
-        <v>2</v>
-      </c>
       <c r="S685">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T685">
         <v>2.25</v>
       </c>
       <c r="U685">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V685">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W685">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X685">
         <v>-1</v>
       </c>
       <c r="Y685">
+        <v>-1</v>
+      </c>
+      <c r="Z685">
         <v>1.05</v>
       </c>
-      <c r="Z685">
-        <v>-1</v>
-      </c>
       <c r="AA685">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB685">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC685">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -61501,7 +61501,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>7542500</v>
+        <v>7542499</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61513,76 +61513,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F686" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G686" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H686">
         <v>1</v>
       </c>
       <c r="I686">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J686" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K686">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="L686">
         <v>3.2</v>
       </c>
       <c r="M686">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N686">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O686">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P686">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q686">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R686">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S686">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T686">
         <v>2.25</v>
       </c>
       <c r="U686">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V686">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W686">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X686">
         <v>-1</v>
       </c>
       <c r="Y686">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z686">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA686">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB686">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC686">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="687" spans="1:29">
@@ -63904,7 +63904,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C713" t="s">
         <v>28</v>
@@ -63916,55 +63916,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F713" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G713" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J713" t="s">
         <v>50</v>
       </c>
       <c r="K713">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L713">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M713">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N713">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O713">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P713">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q713">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R713">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S713">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T713">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U713">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V713">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W713">
         <v>-1</v>
@@ -63973,19 +63973,19 @@
         <v>-1</v>
       </c>
       <c r="Y713">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z713">
         <v>-1</v>
       </c>
       <c r="AA713">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB713">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC713">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="714" spans="1:29">
@@ -63993,7 +63993,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64005,55 +64005,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F714" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G714" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I714">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J714" t="s">
         <v>50</v>
       </c>
       <c r="K714">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L714">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M714">
+        <v>2</v>
+      </c>
+      <c r="N714">
+        <v>4.333</v>
+      </c>
+      <c r="O714">
         <v>3.6</v>
       </c>
-      <c r="N714">
-        <v>2.45</v>
-      </c>
-      <c r="O714">
-        <v>3</v>
-      </c>
       <c r="P714">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q714">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R714">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S714">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T714">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U714">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V714">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W714">
         <v>-1</v>
@@ -64062,19 +64062,19 @@
         <v>-1</v>
       </c>
       <c r="Y714">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z714">
         <v>-1</v>
       </c>
       <c r="AA714">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB714">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC714">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -65862,7 +65862,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>7542735</v>
+        <v>7542736</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65874,76 +65874,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F735" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G735" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735">
         <v>0</v>
       </c>
       <c r="J735" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K735">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L735">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M735">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N735">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O735">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P735">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q735">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R735">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S735">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T735">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U735">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V735">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W735">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X735">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y735">
         <v>-1</v>
       </c>
       <c r="Z735">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA735">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB735">
         <v>-1</v>
       </c>
       <c r="AC735">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="736" spans="1:29">
@@ -65951,7 +65951,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>7542736</v>
+        <v>7542735</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -65963,76 +65963,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F736" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G736" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736">
         <v>0</v>
       </c>
       <c r="J736" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K736">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L736">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M736">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N736">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O736">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P736">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q736">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R736">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S736">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T736">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U736">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V736">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W736">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X736">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y736">
         <v>-1</v>
       </c>
       <c r="Z736">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA736">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB736">
         <v>-1</v>
       </c>
       <c r="AC736">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="737" spans="1:29">
@@ -68292,45 +68292,489 @@
         <v>3.75</v>
       </c>
       <c r="N762">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O762">
         <v>3.5</v>
       </c>
       <c r="P762">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q762">
         <v>-0.75</v>
       </c>
       <c r="R762">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S762">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T762">
         <v>2.5</v>
       </c>
       <c r="U762">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V762">
+        <v>1.975</v>
+      </c>
+      <c r="W762">
+        <v>0</v>
+      </c>
+      <c r="X762">
+        <v>0</v>
+      </c>
+      <c r="Y762">
+        <v>0</v>
+      </c>
+      <c r="Z762">
+        <v>0</v>
+      </c>
+      <c r="AA762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:29">
+      <c r="A763" s="1">
+        <v>761</v>
+      </c>
+      <c r="B763">
+        <v>6799954</v>
+      </c>
+      <c r="C763" t="s">
+        <v>28</v>
+      </c>
+      <c r="D763" t="s">
+        <v>28</v>
+      </c>
+      <c r="E763" s="2">
+        <v>45325.52083333334</v>
+      </c>
+      <c r="F763" t="s">
+        <v>37</v>
+      </c>
+      <c r="G763" t="s">
+        <v>36</v>
+      </c>
+      <c r="K763">
+        <v>2.75</v>
+      </c>
+      <c r="L763">
+        <v>3.25</v>
+      </c>
+      <c r="M763">
+        <v>2.25</v>
+      </c>
+      <c r="N763">
+        <v>4.333</v>
+      </c>
+      <c r="O763">
+        <v>3.6</v>
+      </c>
+      <c r="P763">
+        <v>1.65</v>
+      </c>
+      <c r="Q763">
+        <v>0.75</v>
+      </c>
+      <c r="R763">
+        <v>1.925</v>
+      </c>
+      <c r="S763">
+        <v>1.925</v>
+      </c>
+      <c r="T763">
+        <v>2.5</v>
+      </c>
+      <c r="U763">
+        <v>2</v>
+      </c>
+      <c r="V763">
+        <v>1.85</v>
+      </c>
+      <c r="W763">
+        <v>0</v>
+      </c>
+      <c r="X763">
+        <v>0</v>
+      </c>
+      <c r="Y763">
+        <v>0</v>
+      </c>
+      <c r="Z763">
+        <v>0</v>
+      </c>
+      <c r="AA763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:29">
+      <c r="A764" s="1">
+        <v>762</v>
+      </c>
+      <c r="B764">
+        <v>6799957</v>
+      </c>
+      <c r="C764" t="s">
+        <v>28</v>
+      </c>
+      <c r="D764" t="s">
+        <v>28</v>
+      </c>
+      <c r="E764" s="2">
+        <v>45325.54166666666</v>
+      </c>
+      <c r="F764" t="s">
+        <v>47</v>
+      </c>
+      <c r="G764" t="s">
+        <v>35</v>
+      </c>
+      <c r="K764">
+        <v>3.4</v>
+      </c>
+      <c r="L764">
+        <v>3.4</v>
+      </c>
+      <c r="M764">
+        <v>1.909</v>
+      </c>
+      <c r="N764">
+        <v>3.5</v>
+      </c>
+      <c r="O764">
+        <v>3.4</v>
+      </c>
+      <c r="P764">
+        <v>1.909</v>
+      </c>
+      <c r="Q764">
+        <v>0.5</v>
+      </c>
+      <c r="R764">
+        <v>1.85</v>
+      </c>
+      <c r="S764">
+        <v>2</v>
+      </c>
+      <c r="T764">
+        <v>2.25</v>
+      </c>
+      <c r="U764">
+        <v>1.8</v>
+      </c>
+      <c r="V764">
+        <v>2.05</v>
+      </c>
+      <c r="W764">
+        <v>0</v>
+      </c>
+      <c r="X764">
+        <v>0</v>
+      </c>
+      <c r="Y764">
+        <v>0</v>
+      </c>
+      <c r="Z764">
+        <v>0</v>
+      </c>
+      <c r="AA764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:29">
+      <c r="A765" s="1">
+        <v>763</v>
+      </c>
+      <c r="B765">
+        <v>6799958</v>
+      </c>
+      <c r="C765" t="s">
+        <v>28</v>
+      </c>
+      <c r="D765" t="s">
+        <v>28</v>
+      </c>
+      <c r="E765" s="2">
+        <v>45325.60416666666</v>
+      </c>
+      <c r="F765" t="s">
+        <v>29</v>
+      </c>
+      <c r="G765" t="s">
+        <v>40</v>
+      </c>
+      <c r="K765">
+        <v>1.8</v>
+      </c>
+      <c r="L765">
+        <v>3.4</v>
+      </c>
+      <c r="M765">
+        <v>3.75</v>
+      </c>
+      <c r="N765">
         <v>1.95</v>
       </c>
-      <c r="W762">
-        <v>0</v>
-      </c>
-      <c r="X762">
-        <v>0</v>
-      </c>
-      <c r="Y762">
-        <v>0</v>
-      </c>
-      <c r="Z762">
-        <v>0</v>
-      </c>
-      <c r="AA762">
+      <c r="O765">
+        <v>3.25</v>
+      </c>
+      <c r="P765">
+        <v>3.3</v>
+      </c>
+      <c r="Q765">
+        <v>-0.5</v>
+      </c>
+      <c r="R765">
+        <v>2.05</v>
+      </c>
+      <c r="S765">
+        <v>1.8</v>
+      </c>
+      <c r="T765">
+        <v>2.25</v>
+      </c>
+      <c r="U765">
+        <v>1.825</v>
+      </c>
+      <c r="V765">
+        <v>2.025</v>
+      </c>
+      <c r="W765">
+        <v>0</v>
+      </c>
+      <c r="X765">
+        <v>0</v>
+      </c>
+      <c r="Y765">
+        <v>0</v>
+      </c>
+      <c r="Z765">
+        <v>0</v>
+      </c>
+      <c r="AA765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:29">
+      <c r="A766" s="1">
+        <v>764</v>
+      </c>
+      <c r="B766">
+        <v>6799959</v>
+      </c>
+      <c r="C766" t="s">
+        <v>28</v>
+      </c>
+      <c r="D766" t="s">
+        <v>28</v>
+      </c>
+      <c r="E766" s="2">
+        <v>45326.58333333334</v>
+      </c>
+      <c r="F766" t="s">
+        <v>46</v>
+      </c>
+      <c r="G766" t="s">
+        <v>38</v>
+      </c>
+      <c r="K766">
+        <v>1.666</v>
+      </c>
+      <c r="L766">
+        <v>3.75</v>
+      </c>
+      <c r="M766">
+        <v>4</v>
+      </c>
+      <c r="N766">
+        <v>2.05</v>
+      </c>
+      <c r="O766">
+        <v>3.3</v>
+      </c>
+      <c r="P766">
+        <v>3.1</v>
+      </c>
+      <c r="Q766">
+        <v>-0.25</v>
+      </c>
+      <c r="R766">
+        <v>1.875</v>
+      </c>
+      <c r="S766">
+        <v>1.975</v>
+      </c>
+      <c r="T766">
+        <v>2.25</v>
+      </c>
+      <c r="U766">
+        <v>2.025</v>
+      </c>
+      <c r="V766">
+        <v>1.825</v>
+      </c>
+      <c r="W766">
+        <v>0</v>
+      </c>
+      <c r="X766">
+        <v>0</v>
+      </c>
+      <c r="Y766">
+        <v>0</v>
+      </c>
+      <c r="Z766">
+        <v>0</v>
+      </c>
+      <c r="AA766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:29">
+      <c r="A767" s="1">
+        <v>765</v>
+      </c>
+      <c r="B767">
+        <v>6799956</v>
+      </c>
+      <c r="C767" t="s">
+        <v>28</v>
+      </c>
+      <c r="D767" t="s">
+        <v>28</v>
+      </c>
+      <c r="E767" s="2">
+        <v>45326.625</v>
+      </c>
+      <c r="F767" t="s">
+        <v>44</v>
+      </c>
+      <c r="G767" t="s">
+        <v>32</v>
+      </c>
+      <c r="K767">
+        <v>2.5</v>
+      </c>
+      <c r="L767">
+        <v>3.2</v>
+      </c>
+      <c r="M767">
+        <v>2.5</v>
+      </c>
+      <c r="N767">
+        <v>2.7</v>
+      </c>
+      <c r="O767">
+        <v>3.25</v>
+      </c>
+      <c r="P767">
+        <v>2.3</v>
+      </c>
+      <c r="Q767">
+        <v>0.25</v>
+      </c>
+      <c r="R767">
+        <v>1.775</v>
+      </c>
+      <c r="S767">
+        <v>2.1</v>
+      </c>
+      <c r="T767">
+        <v>2.25</v>
+      </c>
+      <c r="U767">
+        <v>1.875</v>
+      </c>
+      <c r="V767">
+        <v>1.975</v>
+      </c>
+      <c r="W767">
+        <v>0</v>
+      </c>
+      <c r="X767">
+        <v>0</v>
+      </c>
+      <c r="Y767">
+        <v>0</v>
+      </c>
+      <c r="Z767">
+        <v>0</v>
+      </c>
+      <c r="AA767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:29">
+      <c r="A768" s="1">
+        <v>766</v>
+      </c>
+      <c r="B768">
+        <v>6799955</v>
+      </c>
+      <c r="C768" t="s">
+        <v>28</v>
+      </c>
+      <c r="D768" t="s">
+        <v>28</v>
+      </c>
+      <c r="E768" s="2">
+        <v>45327.64583333334</v>
+      </c>
+      <c r="F768" t="s">
+        <v>30</v>
+      </c>
+      <c r="G768" t="s">
+        <v>41</v>
+      </c>
+      <c r="K768">
+        <v>2.25</v>
+      </c>
+      <c r="L768">
+        <v>3.25</v>
+      </c>
+      <c r="M768">
+        <v>2.75</v>
+      </c>
+      <c r="N768">
+        <v>2.55</v>
+      </c>
+      <c r="O768">
+        <v>3.25</v>
+      </c>
+      <c r="P768">
+        <v>2.45</v>
+      </c>
+      <c r="Q768">
+        <v>0</v>
+      </c>
+      <c r="R768">
+        <v>2</v>
+      </c>
+      <c r="S768">
+        <v>1.85</v>
+      </c>
+      <c r="T768">
+        <v>2.5</v>
+      </c>
+      <c r="U768">
+        <v>1.85</v>
+      </c>
+      <c r="V768">
+        <v>2</v>
+      </c>
+      <c r="W768">
+        <v>0</v>
+      </c>
+      <c r="X768">
+        <v>0</v>
+      </c>
+      <c r="Y768">
+        <v>0</v>
+      </c>
+      <c r="Z768">
+        <v>0</v>
+      </c>
+      <c r="AA768">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5145373</v>
+        <v>5145339</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N19">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5145339</v>
+        <v>5145373</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P20">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>0.4875</v>
+      </c>
+      <c r="AA20">
+        <v>-0.5</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
-      <c r="AA20">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5145376</v>
+        <v>5145143</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,34 +3387,34 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
         <v>3.25</v>
       </c>
       <c r="M33">
+        <v>2.875</v>
+      </c>
+      <c r="N33">
         <v>2.7</v>
       </c>
-      <c r="N33">
-        <v>2.625</v>
-      </c>
       <c r="O33">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P33">
         <v>2.5</v>
@@ -3441,16 +3441,16 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y33">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
         <v>-0.5</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5145143</v>
+        <v>5145376</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,34 +3476,34 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L34">
         <v>3.25</v>
       </c>
       <c r="M34">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N34">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O34">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P34">
         <v>2.5</v>
@@ -3530,16 +3530,16 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5145379</v>
+        <v>5266291</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K48">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="L48">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5266291</v>
+        <v>5145379</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49">
+        <v>2.35</v>
+      </c>
+      <c r="L49">
+        <v>3.25</v>
+      </c>
+      <c r="M49">
+        <v>2.9</v>
+      </c>
+      <c r="N49">
+        <v>2.7</v>
+      </c>
+      <c r="O49">
+        <v>3.25</v>
+      </c>
+      <c r="P49">
+        <v>2.45</v>
+      </c>
+      <c r="Q49">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K49">
-        <v>1.6</v>
-      </c>
-      <c r="L49">
-        <v>3.9</v>
-      </c>
-      <c r="M49">
-        <v>5</v>
-      </c>
-      <c r="N49">
-        <v>1.666</v>
-      </c>
-      <c r="O49">
-        <v>3.75</v>
-      </c>
-      <c r="P49">
-        <v>4.2</v>
-      </c>
-      <c r="Q49">
-        <v>-0.75</v>
-      </c>
       <c r="R49">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z49">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6404130</v>
+        <v>6404146</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="L103">
         <v>3.5</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="N103">
-        <v>1.45</v>
+        <v>8.5</v>
       </c>
       <c r="O103">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P103">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6404146</v>
+        <v>6404130</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="L105">
         <v>3.5</v>
       </c>
       <c r="M105">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N105">
-        <v>8.5</v>
+        <v>1.45</v>
       </c>
       <c r="O105">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>1.285</v>
+        <v>5.25</v>
       </c>
       <c r="Q105">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6404124</v>
+        <v>6402968</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,73 +10774,73 @@
         <v>45052.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
+        <v>3.1</v>
+      </c>
+      <c r="M116">
+        <v>3.1</v>
+      </c>
+      <c r="N116">
         <v>3.3</v>
-      </c>
-      <c r="M116">
-        <v>3.25</v>
-      </c>
-      <c r="N116">
-        <v>2.45</v>
       </c>
       <c r="O116">
         <v>3.1</v>
       </c>
       <c r="P116">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6402968</v>
+        <v>6404123</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,56 +10863,56 @@
         <v>45052.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>47</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N117">
+        <v>2.7</v>
+      </c>
+      <c r="O117">
         <v>3.3</v>
       </c>
-      <c r="O117">
-        <v>3.1</v>
-      </c>
       <c r="P117">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q117">
         <v>0.25</v>
       </c>
       <c r="R117">
+        <v>1.75</v>
+      </c>
+      <c r="S117">
+        <v>2.125</v>
+      </c>
+      <c r="T117">
+        <v>2.5</v>
+      </c>
+      <c r="U117">
+        <v>1.875</v>
+      </c>
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="S117">
-        <v>1.875</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>1.975</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
@@ -10920,19 +10920,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6404123</v>
+        <v>6404124</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118" t="s">
+        <v>45</v>
+      </c>
+      <c r="K118">
+        <v>2.05</v>
+      </c>
+      <c r="L118">
+        <v>3.3</v>
+      </c>
+      <c r="M118">
+        <v>3.25</v>
+      </c>
+      <c r="N118">
+        <v>2.45</v>
+      </c>
+      <c r="O118">
+        <v>3.1</v>
+      </c>
+      <c r="P118">
+        <v>2.625</v>
+      </c>
+      <c r="Q118">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118" t="s">
-        <v>47</v>
-      </c>
-      <c r="K118">
-        <v>1.833</v>
-      </c>
-      <c r="L118">
-        <v>3.5</v>
-      </c>
-      <c r="M118">
-        <v>3.75</v>
-      </c>
-      <c r="N118">
-        <v>2.7</v>
-      </c>
-      <c r="O118">
-        <v>3.3</v>
-      </c>
-      <c r="P118">
-        <v>2.375</v>
-      </c>
-      <c r="Q118">
-        <v>0.25</v>
-      </c>
       <c r="R118">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y118">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>1.125</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6670416</v>
+        <v>6670415</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,13 +11931,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11946,43 +11946,43 @@
         <v>46</v>
       </c>
       <c r="K129">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
         <v>5</v>
       </c>
-      <c r="M129">
-        <v>7.5</v>
-      </c>
       <c r="N129">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="O129">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P129">
-        <v>8.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q129">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2.05</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
         <v>1.875</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
-      <c r="U129">
-        <v>1.925</v>
-      </c>
-      <c r="V129">
-        <v>1.925</v>
-      </c>
       <c r="W129">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11991,16 +11991,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6670415</v>
+        <v>6670416</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,13 +12020,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12035,43 +12035,43 @@
         <v>46</v>
       </c>
       <c r="K130">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N130">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>0.45</v>
+        <v>0.222</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12080,16 +12080,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7511180</v>
+        <v>7511181</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N174">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q174">
         <v>0</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W174">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7511181</v>
+        <v>7511180</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,76 +16025,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
         <v>0</v>
       </c>
-      <c r="I175">
-        <v>2</v>
-      </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N175">
+        <v>2.5</v>
+      </c>
+      <c r="O175">
+        <v>3.2</v>
+      </c>
+      <c r="P175">
         <v>2.45</v>
-      </c>
-      <c r="O175">
-        <v>3.25</v>
-      </c>
-      <c r="P175">
-        <v>2.7</v>
       </c>
       <c r="Q175">
         <v>0</v>
       </c>
       <c r="R175">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S175">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7542500</v>
+        <v>7542499</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K188">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="L188">
         <v>3.2</v>
       </c>
       <c r="M188">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N188">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P188">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z188">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC188">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7542499</v>
+        <v>7542500</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,76 +17271,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K189">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="L189">
         <v>3.2</v>
       </c>
       <c r="M189">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N189">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P189">
+        <v>2.9</v>
+      </c>
+      <c r="Q189">
+        <v>-0.25</v>
+      </c>
+      <c r="R189">
         <v>2.05</v>
       </c>
-      <c r="Q189">
-        <v>0.25</v>
-      </c>
-      <c r="R189">
-        <v>2</v>
-      </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
         <v>1.05</v>
       </c>
-      <c r="Z189">
-        <v>-1</v>
-      </c>
       <c r="AA189">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7542719</v>
+        <v>7542639</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K202">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L202">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M202">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N202">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O202">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P202">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q202">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R202">
+        <v>1.925</v>
+      </c>
+      <c r="S202">
+        <v>1.925</v>
+      </c>
+      <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
+        <v>2.1</v>
+      </c>
+      <c r="V202">
+        <v>1.775</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
         <v>1.8</v>
       </c>
-      <c r="S202">
-        <v>2.05</v>
-      </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
-      <c r="U202">
-        <v>2</v>
-      </c>
-      <c r="V202">
-        <v>1.85</v>
-      </c>
-      <c r="W202">
-        <v>1.9</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K203">
+        <v>2.6</v>
+      </c>
+      <c r="L203">
+        <v>3.1</v>
+      </c>
+      <c r="M203">
+        <v>2.6</v>
+      </c>
+      <c r="N203">
+        <v>2.9</v>
+      </c>
+      <c r="O203">
+        <v>3.2</v>
+      </c>
+      <c r="P203">
+        <v>2.3</v>
+      </c>
+      <c r="Q203">
+        <v>0.25</v>
+      </c>
+      <c r="R203">
+        <v>1.8</v>
+      </c>
+      <c r="S203">
         <v>2.05</v>
       </c>
-      <c r="L203">
-        <v>3.2</v>
-      </c>
-      <c r="M203">
-        <v>3.5</v>
-      </c>
-      <c r="N203">
-        <v>2.15</v>
-      </c>
-      <c r="O203">
-        <v>3.1</v>
-      </c>
-      <c r="P203">
-        <v>3.2</v>
-      </c>
-      <c r="Q203">
-        <v>-0.25</v>
-      </c>
-      <c r="R203">
-        <v>1.925</v>
-      </c>
-      <c r="S203">
-        <v>1.925</v>
-      </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
+        <v>1.85</v>
+      </c>
+      <c r="W203">
         <v>1.9</v>
       </c>
-      <c r="V203">
-        <v>1.95</v>
-      </c>
-      <c r="W203">
-        <v>-1</v>
-      </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA203">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7542639</v>
+        <v>7542640</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,40 +18606,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L204">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N204">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O204">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P204">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
         <v>1.925</v>
@@ -18648,34 +18648,34 @@
         <v>1.925</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,55 +19674,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
         <v>47</v>
       </c>
       <c r="K216">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L216">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>4.333</v>
+      </c>
+      <c r="O216">
         <v>3.6</v>
       </c>
-      <c r="N216">
-        <v>2.45</v>
-      </c>
-      <c r="O216">
-        <v>3</v>
-      </c>
       <c r="P216">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R216">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19731,19 +19731,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,55 +19763,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>47</v>
       </c>
       <c r="K217">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L217">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N217">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P217">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q217">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V217">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19820,19 +19820,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7542736</v>
+        <v>7542737</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H238">
         <v>0</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M238">
+        <v>2.45</v>
+      </c>
+      <c r="N238">
         <v>3.2</v>
       </c>
-      <c r="N238">
-        <v>2.375</v>
-      </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P238">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S238">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V238">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7542735</v>
+        <v>7542736</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M239">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O239">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V239">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7542737</v>
+        <v>7542735</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,76 +21810,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240">
         <v>0</v>
       </c>
-      <c r="I240">
-        <v>1</v>
-      </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K240">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L240">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M240">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N240">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O240">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U240">
+        <v>1.975</v>
+      </c>
+      <c r="V240">
         <v>1.875</v>
       </c>
-      <c r="V240">
-        <v>1.975</v>
-      </c>
       <c r="W240">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA240">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -24124,22 +24124,22 @@
         <v>2.25</v>
       </c>
       <c r="N266">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O266">
         <v>3.6</v>
       </c>
       <c r="P266">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q266">
         <v>0.75</v>
       </c>
       <c r="R266">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S266">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T266">
         <v>2.5</v>
@@ -24219,10 +24219,10 @@
         <v>2.25</v>
       </c>
       <c r="U267">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V267">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W267">
         <v>0</v>
@@ -24278,16 +24278,16 @@
         <v>3.25</v>
       </c>
       <c r="P268">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q268">
         <v>-0.5</v>
       </c>
       <c r="R268">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S268">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T268">
         <v>2.25</v>
@@ -24358,10 +24358,10 @@
         <v>-0.25</v>
       </c>
       <c r="R269">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S269">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T269">
         <v>2.25</v>
@@ -24423,28 +24423,28 @@
         <v>2.7</v>
       </c>
       <c r="O270">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P270">
         <v>2.3</v>
       </c>
       <c r="Q270">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R270">
+        <v>2.1</v>
+      </c>
+      <c r="S270">
         <v>1.775</v>
-      </c>
-      <c r="S270">
-        <v>2.1</v>
       </c>
       <c r="T270">
         <v>2.25</v>
       </c>
       <c r="U270">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V270">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W270">
         <v>0</v>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC271"/>
+  <dimension ref="A1:AC270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5145143</v>
+        <v>5145376</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,34 +3387,34 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L33">
         <v>3.25</v>
       </c>
       <c r="M33">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N33">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P33">
         <v>2.5</v>
@@ -3441,16 +3441,16 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB33">
         <v>-0.5</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5145376</v>
+        <v>5145143</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,34 +3476,34 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L34">
         <v>3.25</v>
       </c>
       <c r="M34">
+        <v>2.875</v>
+      </c>
+      <c r="N34">
         <v>2.7</v>
       </c>
-      <c r="N34">
-        <v>2.625</v>
-      </c>
       <c r="O34">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P34">
         <v>2.5</v>
@@ -3530,16 +3530,16 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y34">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6404146</v>
+        <v>6404130</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="L103">
         <v>3.5</v>
       </c>
       <c r="M103">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>8.5</v>
+        <v>1.45</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P103">
-        <v>1.285</v>
+        <v>5.25</v>
       </c>
       <c r="Q103">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6404128</v>
+        <v>6404146</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="N104">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P104">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6404130</v>
+        <v>6404128</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,40 +9795,40 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N105">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
         <v>2.05</v>
@@ -9837,19 +9837,19 @@
         <v>1.8</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
+        <v>1.825</v>
+      </c>
+      <c r="V105">
         <v>2.025</v>
       </c>
-      <c r="V105">
-        <v>1.825</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -9861,10 +9861,10 @@
         <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6404139</v>
+        <v>6404140</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,49 +11753,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+      <c r="J127" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127">
+        <v>4.5</v>
+      </c>
+      <c r="L127">
+        <v>4.2</v>
+      </c>
+      <c r="M127">
+        <v>1.533</v>
+      </c>
+      <c r="N127">
+        <v>6</v>
+      </c>
+      <c r="O127">
+        <v>5</v>
+      </c>
+      <c r="P127">
+        <v>1.363</v>
+      </c>
+      <c r="Q127">
+        <v>1.25</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>1.85</v>
+      </c>
+      <c r="T127">
         <v>3</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
-        <v>46</v>
-      </c>
-      <c r="K127">
-        <v>2.2</v>
-      </c>
-      <c r="L127">
-        <v>3.3</v>
-      </c>
-      <c r="M127">
-        <v>2.8</v>
-      </c>
-      <c r="N127">
-        <v>2</v>
-      </c>
-      <c r="O127">
-        <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>3.3</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.975</v>
-      </c>
-      <c r="S127">
-        <v>1.875</v>
-      </c>
-      <c r="T127">
-        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.875</v>
@@ -11804,19 +11804,19 @@
         <v>1.975</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
         <v>0.875</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6404140</v>
+        <v>6404139</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,49 +11842,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N128">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q128">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.875</v>
@@ -11893,19 +11893,19 @@
         <v>1.975</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
         <v>0.875</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6799822</v>
+        <v>6798412</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="N134">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O134">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
         <v>1.95</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.9</v>
       </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>2</v>
-      </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X134">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6798412</v>
+        <v>6799822</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L135">
+        <v>3.3</v>
+      </c>
+      <c r="M135">
+        <v>3.7</v>
+      </c>
+      <c r="N135">
+        <v>1.65</v>
+      </c>
+      <c r="O135">
+        <v>3.5</v>
+      </c>
+      <c r="P135">
         <v>4.5</v>
       </c>
-      <c r="M135">
-        <v>8</v>
-      </c>
-      <c r="N135">
-        <v>1.333</v>
-      </c>
-      <c r="O135">
-        <v>4.333</v>
-      </c>
-      <c r="P135">
-        <v>7</v>
-      </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6799854</v>
+        <v>6799853</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,55 +14779,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L161">
         <v>3.25</v>
       </c>
       <c r="M161">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N161">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P161">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q161">
         <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
         <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14836,19 +14836,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6799853</v>
+        <v>6799854</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,55 +14868,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>47</v>
       </c>
       <c r="K162">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L162">
         <v>3.25</v>
       </c>
       <c r="M162">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N162">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O162">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P162">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q162">
         <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T162">
         <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14925,19 +14925,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -24023,7 +24023,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6799953</v>
+        <v>6799954</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24032,49 +24032,49 @@
         <v>28</v>
       </c>
       <c r="E265" s="2">
-        <v>45325.41666666666</v>
+        <v>45325.52083333334</v>
       </c>
       <c r="F265" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K265">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L265">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M265">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N265">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O265">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P265">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q265">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S265">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T265">
         <v>2.5</v>
       </c>
       <c r="U265">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V265">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
         <v>0</v>
@@ -24097,7 +24097,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6799954</v>
+        <v>6799957</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24106,34 +24106,34 @@
         <v>28</v>
       </c>
       <c r="E266" s="2">
-        <v>45325.52083333334</v>
+        <v>45325.54166666666</v>
       </c>
       <c r="F266" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G266" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K266">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L266">
+        <v>3.4</v>
+      </c>
+      <c r="M266">
+        <v>1.909</v>
+      </c>
+      <c r="N266">
         <v>3.25</v>
       </c>
-      <c r="M266">
-        <v>2.25</v>
-      </c>
-      <c r="N266">
-        <v>4.5</v>
-      </c>
       <c r="O266">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P266">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Q266">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R266">
         <v>2</v>
@@ -24142,13 +24142,13 @@
         <v>1.85</v>
       </c>
       <c r="T266">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U266">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V266">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W266">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6799957</v>
+        <v>6799958</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24180,40 +24180,40 @@
         <v>28</v>
       </c>
       <c r="E267" s="2">
-        <v>45325.54166666666</v>
+        <v>45325.60416666666</v>
       </c>
       <c r="F267" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G267" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K267">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="L267">
         <v>3.4</v>
       </c>
       <c r="M267">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="N267">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="O267">
+        <v>3.2</v>
+      </c>
+      <c r="P267">
         <v>3.4</v>
       </c>
-      <c r="P267">
-        <v>1.909</v>
-      </c>
       <c r="Q267">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R267">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S267">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T267">
         <v>2.25</v>
@@ -24245,7 +24245,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6799958</v>
+        <v>6799959</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24254,49 +24254,49 @@
         <v>28</v>
       </c>
       <c r="E268" s="2">
-        <v>45325.60416666666</v>
+        <v>45326.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G268" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K268">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M268">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N268">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O268">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P268">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q268">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
+        <v>1.825</v>
+      </c>
+      <c r="S268">
         <v>2.025</v>
-      </c>
-      <c r="S268">
-        <v>1.825</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
+        <v>2.025</v>
+      </c>
+      <c r="V268">
         <v>1.825</v>
-      </c>
-      <c r="V268">
-        <v>2.025</v>
       </c>
       <c r="W268">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6799959</v>
+        <v>6799956</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24328,49 +24328,49 @@
         <v>28</v>
       </c>
       <c r="E269" s="2">
-        <v>45326.58333333334</v>
+        <v>45326.625</v>
       </c>
       <c r="F269" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G269" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K269">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L269">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M269">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N269">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="O269">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P269">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R269">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S269">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
+        <v>1.825</v>
+      </c>
+      <c r="V269">
         <v>2.025</v>
-      </c>
-      <c r="V269">
-        <v>1.825</v>
       </c>
       <c r="W269">
         <v>0</v>
@@ -24393,7 +24393,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6799956</v>
+        <v>6799955</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24402,43 +24402,43 @@
         <v>28</v>
       </c>
       <c r="E270" s="2">
-        <v>45326.625</v>
+        <v>45327.64583333334</v>
       </c>
       <c r="F270" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G270" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K270">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L270">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M270">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N270">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="O270">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P270">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q270">
         <v>0</v>
       </c>
       <c r="R270">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S270">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T270">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U270">
         <v>1.85</v>
@@ -24459,80 +24459,6 @@
         <v>0</v>
       </c>
       <c r="AA270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:29">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="B271">
-        <v>6799955</v>
-      </c>
-      <c r="C271" t="s">
-        <v>28</v>
-      </c>
-      <c r="D271" t="s">
-        <v>28</v>
-      </c>
-      <c r="E271" s="2">
-        <v>45327.64583333334</v>
-      </c>
-      <c r="F271" t="s">
-        <v>30</v>
-      </c>
-      <c r="G271" t="s">
-        <v>32</v>
-      </c>
-      <c r="K271">
-        <v>2.25</v>
-      </c>
-      <c r="L271">
-        <v>3.25</v>
-      </c>
-      <c r="M271">
-        <v>2.75</v>
-      </c>
-      <c r="N271">
-        <v>2.55</v>
-      </c>
-      <c r="O271">
-        <v>3.25</v>
-      </c>
-      <c r="P271">
-        <v>2.45</v>
-      </c>
-      <c r="Q271">
-        <v>0</v>
-      </c>
-      <c r="R271">
-        <v>2</v>
-      </c>
-      <c r="S271">
-        <v>1.85</v>
-      </c>
-      <c r="T271">
-        <v>2.5</v>
-      </c>
-      <c r="U271">
-        <v>1.85</v>
-      </c>
-      <c r="V271">
-        <v>2</v>
-      </c>
-      <c r="W271">
-        <v>0</v>
-      </c>
-      <c r="X271">
-        <v>0</v>
-      </c>
-      <c r="Y271">
-        <v>0</v>
-      </c>
-      <c r="Z271">
-        <v>0</v>
-      </c>
-      <c r="AA271">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC270"/>
+  <dimension ref="A1:AC278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5145868</v>
+        <v>5145146</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L41">
+        <v>3.3</v>
+      </c>
+      <c r="M41">
+        <v>2.375</v>
+      </c>
+      <c r="N41">
+        <v>3.1</v>
+      </c>
+      <c r="O41">
         <v>3.4</v>
       </c>
-      <c r="M41">
-        <v>3.1</v>
-      </c>
-      <c r="N41">
-        <v>1.65</v>
-      </c>
-      <c r="O41">
-        <v>3.6</v>
-      </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T41">
         <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5145146</v>
+        <v>5145868</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N42">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
+        <v>4.333</v>
+      </c>
+      <c r="Q42">
+        <v>-0.75</v>
+      </c>
+      <c r="R42">
+        <v>1.9</v>
+      </c>
+      <c r="S42">
         <v>1.95</v>
-      </c>
-      <c r="Q42">
-        <v>0.5</v>
-      </c>
-      <c r="R42">
-        <v>1.85</v>
-      </c>
-      <c r="S42">
-        <v>2</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
         <v>0.95</v>
-      </c>
-      <c r="Z42">
-        <v>-1</v>
-      </c>
-      <c r="AA42">
-        <v>1</v>
       </c>
       <c r="AB42">
         <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5266292</v>
+        <v>5145342</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>2.15</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M62">
         <v>3.4</v>
       </c>
       <c r="N62">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5145342</v>
+        <v>5266292</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>2.15</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
         <v>3.4</v>
       </c>
       <c r="N63">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X63">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6402965</v>
+        <v>6404135</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
+        <v>2.375</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>3.4</v>
+      </c>
+      <c r="P85">
+        <v>3.25</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
+        <v>1.8</v>
+      </c>
+      <c r="S85">
+        <v>2.05</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>1.8</v>
+      </c>
+      <c r="V85">
+        <v>2.05</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
         <v>2.4</v>
       </c>
-      <c r="N85">
-        <v>2.6</v>
-      </c>
-      <c r="O85">
-        <v>3</v>
-      </c>
-      <c r="P85">
-        <v>2.7</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.95</v>
-      </c>
-      <c r="T85">
-        <v>2</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
-      <c r="W85">
-        <v>-1</v>
-      </c>
-      <c r="X85">
-        <v>2</v>
-      </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6404135</v>
+        <v>6402965</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L86">
         <v>3.3</v>
       </c>
       <c r="M86">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6404130</v>
+        <v>6404128</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,40 +9617,40 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N103">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O103">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
         <v>2.05</v>
@@ -9659,19 +9659,19 @@
         <v>1.8</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
         <v>2.025</v>
       </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -9683,10 +9683,10 @@
         <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6404128</v>
+        <v>6404130</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,40 +9795,40 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N105">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O105">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
         <v>2.05</v>
@@ -9837,19 +9837,19 @@
         <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
+        <v>2.025</v>
+      </c>
+      <c r="V105">
         <v>1.825</v>
       </c>
-      <c r="V105">
-        <v>2.025</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -9861,10 +9861,10 @@
         <v>0.8</v>
       </c>
       <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.825</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6402968</v>
+        <v>6404124</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,73 +10774,73 @@
         <v>45052.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N116">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O116">
         <v>3.1</v>
       </c>
       <c r="P116">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6404123</v>
+        <v>6402968</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,56 +10863,56 @@
         <v>45052.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
         <v>47</v>
       </c>
       <c r="K117">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q117">
         <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
+        <v>1.975</v>
+      </c>
+      <c r="V117">
         <v>1.875</v>
       </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
@@ -10920,19 +10920,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6404124</v>
+        <v>6404123</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>3.75</v>
+      </c>
+      <c r="N118">
+        <v>2.7</v>
+      </c>
+      <c r="O118">
         <v>3.3</v>
       </c>
-      <c r="M118">
-        <v>3.25</v>
-      </c>
-      <c r="N118">
-        <v>2.45</v>
-      </c>
-      <c r="O118">
-        <v>3.1</v>
-      </c>
       <c r="P118">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>1.125</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6402969</v>
+        <v>6404121</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,40 +11397,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
         <v>47</v>
       </c>
       <c r="K123">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N123">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O123">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
         <v>1.8</v>
@@ -11442,10 +11442,10 @@
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11454,7 +11454,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11463,7 +11463,7 @@
         <v>1.05</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6404121</v>
+        <v>6402969</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L124">
         <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R124">
         <v>1.8</v>
@@ -11531,10 +11531,10 @@
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11543,7 +11543,7 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
@@ -11552,7 +11552,7 @@
         <v>1.05</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6670415</v>
+        <v>6670414</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>47</v>
+      </c>
+      <c r="K129">
+        <v>5.25</v>
+      </c>
+      <c r="L129">
+        <v>4.333</v>
+      </c>
+      <c r="M129">
+        <v>1.444</v>
+      </c>
+      <c r="N129">
+        <v>7</v>
+      </c>
+      <c r="O129">
+        <v>5.25</v>
+      </c>
+      <c r="P129">
+        <v>1.285</v>
+      </c>
+      <c r="Q129">
+        <v>1.5</v>
+      </c>
+      <c r="R129">
+        <v>1.9</v>
+      </c>
+      <c r="S129">
+        <v>1.95</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
+        <v>1.9</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z129">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
         <v>0</v>
       </c>
-      <c r="J129" t="s">
-        <v>46</v>
-      </c>
-      <c r="K129">
-        <v>1.5</v>
-      </c>
-      <c r="L129">
-        <v>4</v>
-      </c>
-      <c r="M129">
-        <v>5</v>
-      </c>
-      <c r="N129">
-        <v>1.45</v>
-      </c>
-      <c r="O129">
-        <v>4.2</v>
-      </c>
-      <c r="P129">
-        <v>5.25</v>
-      </c>
-      <c r="Q129">
-        <v>-1</v>
-      </c>
-      <c r="R129">
-        <v>1.8</v>
-      </c>
-      <c r="S129">
-        <v>2.05</v>
-      </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>1.875</v>
-      </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
-      <c r="W129">
-        <v>0.45</v>
-      </c>
-      <c r="X129">
-        <v>-1</v>
-      </c>
-      <c r="Y129">
-        <v>-1</v>
-      </c>
-      <c r="Z129">
-        <v>0.8</v>
-      </c>
-      <c r="AA129">
-        <v>-1</v>
-      </c>
-      <c r="AB129">
-        <v>-1</v>
-      </c>
       <c r="AC129">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6670414</v>
+        <v>6670415</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
+        <v>1.5</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
+        <v>5</v>
+      </c>
+      <c r="N131">
+        <v>1.45</v>
+      </c>
+      <c r="O131">
+        <v>4.2</v>
+      </c>
+      <c r="P131">
         <v>5.25</v>
       </c>
-      <c r="L131">
-        <v>4.333</v>
-      </c>
-      <c r="M131">
-        <v>1.444</v>
-      </c>
-      <c r="N131">
-        <v>7</v>
-      </c>
-      <c r="O131">
-        <v>5.25</v>
-      </c>
-      <c r="P131">
-        <v>1.285</v>
-      </c>
       <c r="Q131">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6798412</v>
+        <v>6799822</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L134">
+        <v>3.3</v>
+      </c>
+      <c r="M134">
+        <v>3.7</v>
+      </c>
+      <c r="N134">
+        <v>1.65</v>
+      </c>
+      <c r="O134">
+        <v>3.5</v>
+      </c>
+      <c r="P134">
         <v>4.5</v>
       </c>
-      <c r="M134">
-        <v>8</v>
-      </c>
-      <c r="N134">
-        <v>1.333</v>
-      </c>
-      <c r="O134">
-        <v>4.333</v>
-      </c>
-      <c r="P134">
-        <v>7</v>
-      </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6799822</v>
+        <v>6798412</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="N135">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P135">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
+        <v>2.025</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
         <v>1.95</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>1.9</v>
       </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>2</v>
-      </c>
-      <c r="V135">
-        <v>1.85</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X135">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6799825</v>
+        <v>6799829</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N140">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X140">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6799829</v>
+        <v>6799825</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L141">
+        <v>3.25</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
+      </c>
+      <c r="N141">
+        <v>1.95</v>
+      </c>
+      <c r="O141">
+        <v>3.2</v>
+      </c>
+      <c r="P141">
         <v>3.4</v>
       </c>
-      <c r="M141">
-        <v>2.6</v>
-      </c>
-      <c r="N141">
-        <v>2.625</v>
-      </c>
-      <c r="O141">
-        <v>3.4</v>
-      </c>
-      <c r="P141">
-        <v>2.375</v>
-      </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,58 +13622,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>46</v>
       </c>
       <c r="K148">
+        <v>1.571</v>
+      </c>
+      <c r="L148">
+        <v>3.6</v>
+      </c>
+      <c r="M148">
         <v>5</v>
       </c>
-      <c r="L148">
-        <v>3.75</v>
-      </c>
-      <c r="M148">
-        <v>1.533</v>
-      </c>
       <c r="N148">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O148">
         <v>3.6</v>
       </c>
       <c r="P148">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13682,13 +13682,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,58 +13711,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>46</v>
       </c>
       <c r="K149">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N149">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O149">
         <v>3.6</v>
       </c>
       <c r="P149">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13771,13 +13771,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7542499</v>
+        <v>7542500</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K188">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="L188">
         <v>3.2</v>
       </c>
       <c r="M188">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N188">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P188">
+        <v>2.9</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
         <v>2.05</v>
       </c>
-      <c r="Q188">
-        <v>0.25</v>
-      </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
         <v>1.05</v>
       </c>
-      <c r="Z188">
-        <v>-1</v>
-      </c>
       <c r="AA188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7542500</v>
+        <v>7542748</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,13 +17271,13 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -17286,43 +17286,43 @@
         <v>46</v>
       </c>
       <c r="K189">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
         <v>3.2</v>
       </c>
       <c r="M189">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N189">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O189">
+        <v>2.9</v>
+      </c>
+      <c r="P189">
         <v>3</v>
-      </c>
-      <c r="P189">
-        <v>2.9</v>
       </c>
       <c r="Q189">
         <v>-0.25</v>
       </c>
       <c r="R189">
+        <v>2.125</v>
+      </c>
+      <c r="S189">
+        <v>1.75</v>
+      </c>
+      <c r="T189">
+        <v>2</v>
+      </c>
+      <c r="U189">
         <v>2.05</v>
       </c>
-      <c r="S189">
+      <c r="V189">
         <v>1.8</v>
       </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>1.925</v>
-      </c>
-      <c r="V189">
-        <v>1.925</v>
-      </c>
       <c r="W189">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17331,16 +17331,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.05</v>
+        <v>1.125</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC189">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7542748</v>
+        <v>7542499</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="L190">
         <v>3.2</v>
       </c>
       <c r="M190">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N190">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O190">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P190">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z190">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7542639</v>
+        <v>7542640</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,40 +18428,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K202">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L202">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M202">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N202">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O202">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P202">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q202">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
         <v>1.925</v>
@@ -18470,34 +18470,34 @@
         <v>1.925</v>
       </c>
       <c r="T202">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V202">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7542640</v>
+        <v>7542639</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,40 +18606,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>45</v>
+      </c>
+      <c r="K204">
+        <v>2.5</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>2.75</v>
+      </c>
+      <c r="N204">
+        <v>2.7</v>
+      </c>
+      <c r="O204">
+        <v>2.8</v>
+      </c>
+      <c r="P204">
+        <v>2.75</v>
+      </c>
+      <c r="Q204">
         <v>0</v>
-      </c>
-      <c r="I204">
-        <v>1</v>
-      </c>
-      <c r="J204" t="s">
-        <v>47</v>
-      </c>
-      <c r="K204">
-        <v>2.05</v>
-      </c>
-      <c r="L204">
-        <v>3.2</v>
-      </c>
-      <c r="M204">
-        <v>3.5</v>
-      </c>
-      <c r="N204">
-        <v>2.15</v>
-      </c>
-      <c r="O204">
-        <v>3.1</v>
-      </c>
-      <c r="P204">
-        <v>3.2</v>
-      </c>
-      <c r="Q204">
-        <v>-0.25</v>
       </c>
       <c r="R204">
         <v>1.925</v>
@@ -18648,34 +18648,34 @@
         <v>1.925</v>
       </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V204">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y204">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA204">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC204">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,55 +19674,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>47</v>
       </c>
       <c r="K216">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N216">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O216">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P216">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q216">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19731,19 +19731,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,55 +19763,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
         <v>47</v>
       </c>
       <c r="K217">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L217">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217">
+        <v>4.333</v>
+      </c>
+      <c r="O217">
         <v>3.6</v>
       </c>
-      <c r="N217">
-        <v>2.45</v>
-      </c>
-      <c r="O217">
-        <v>3</v>
-      </c>
       <c r="P217">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R217">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S217">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19820,19 +19820,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC217">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -24023,7 +24023,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6799954</v>
+        <v>6799953</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24032,64 +24032,79 @@
         <v>28</v>
       </c>
       <c r="E265" s="2">
-        <v>45325.52083333334</v>
+        <v>45325.41666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G265" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265" t="s">
+        <v>47</v>
       </c>
       <c r="K265">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L265">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M265">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N265">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="O265">
         <v>3.6</v>
       </c>
       <c r="P265">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q265">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R265">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S265">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T265">
         <v>2.5</v>
       </c>
       <c r="U265">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Z265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB265">
+        <v>-1</v>
+      </c>
+      <c r="AC265">
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24097,7 +24112,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6799957</v>
+        <v>6799954</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24106,34 +24121,43 @@
         <v>28</v>
       </c>
       <c r="E266" s="2">
-        <v>45325.54166666666</v>
+        <v>45325.52083333334</v>
       </c>
       <c r="F266" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G266" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>2</v>
+      </c>
+      <c r="J266" t="s">
+        <v>47</v>
       </c>
       <c r="K266">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L266">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M266">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N266">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O266">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P266">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Q266">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R266">
         <v>2</v>
@@ -24142,28 +24166,34 @@
         <v>1.85</v>
       </c>
       <c r="T266">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U266">
+        <v>1.975</v>
+      </c>
+      <c r="V266">
         <v>1.875</v>
       </c>
-      <c r="V266">
-        <v>1.975</v>
-      </c>
       <c r="W266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB266">
+        <v>-1</v>
+      </c>
+      <c r="AC266">
+        <v>0.875</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24171,7 +24201,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6799958</v>
+        <v>6799957</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24180,40 +24210,49 @@
         <v>28</v>
       </c>
       <c r="E267" s="2">
-        <v>45325.60416666666</v>
+        <v>45325.54166666666</v>
       </c>
       <c r="F267" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G267" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="J267" t="s">
+        <v>47</v>
       </c>
       <c r="K267">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="L267">
         <v>3.4</v>
       </c>
       <c r="M267">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="N267">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O267">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P267">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q267">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R267">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S267">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T267">
         <v>2.25</v>
@@ -24225,19 +24264,25 @@
         <v>1.975</v>
       </c>
       <c r="W267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB267">
+        <v>-0.5</v>
+      </c>
+      <c r="AC267">
+        <v>0.4875</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24245,7 +24290,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6799959</v>
+        <v>6799958</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24254,64 +24299,79 @@
         <v>28</v>
       </c>
       <c r="E268" s="2">
-        <v>45326.58333333334</v>
+        <v>45325.60416666666</v>
       </c>
       <c r="F268" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G268" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="H268">
+        <v>3</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268" t="s">
+        <v>46</v>
       </c>
       <c r="K268">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L268">
+        <v>3.4</v>
+      </c>
+      <c r="M268">
         <v>3.75</v>
       </c>
-      <c r="M268">
-        <v>4</v>
-      </c>
       <c r="N268">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O268">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P268">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q268">
         <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S268">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V268">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W268">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA268">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB268">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC268">
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24319,7 +24379,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6799956</v>
+        <v>6799959</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24328,64 +24388,79 @@
         <v>28</v>
       </c>
       <c r="E269" s="2">
-        <v>45326.625</v>
+        <v>45326.58333333334</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G269" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="H269">
+        <v>2</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269" t="s">
+        <v>46</v>
       </c>
       <c r="K269">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L269">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M269">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N269">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O269">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P269">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q269">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R269">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S269">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V269">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W269">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X269">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA269">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB269">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC269">
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24393,7 +24468,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6799955</v>
+        <v>6799956</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24402,63 +24477,685 @@
         <v>28</v>
       </c>
       <c r="E270" s="2">
-        <v>45327.64583333334</v>
+        <v>45326.625</v>
       </c>
       <c r="F270" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G270" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="H270">
+        <v>2</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270" t="s">
+        <v>46</v>
       </c>
       <c r="K270">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L270">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M270">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N270">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O270">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P270">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q270">
         <v>0</v>
       </c>
       <c r="R270">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S270">
+        <v>1.975</v>
+      </c>
+      <c r="T270">
+        <v>2.25</v>
+      </c>
+      <c r="U270">
+        <v>1.875</v>
+      </c>
+      <c r="V270">
+        <v>1.975</v>
+      </c>
+      <c r="W270">
+        <v>1.45</v>
+      </c>
+      <c r="X270">
+        <v>-1</v>
+      </c>
+      <c r="Y270">
+        <v>-1</v>
+      </c>
+      <c r="Z270">
+        <v>0.875</v>
+      </c>
+      <c r="AA270">
+        <v>-1</v>
+      </c>
+      <c r="AB270">
+        <v>0.875</v>
+      </c>
+      <c r="AC270">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>6799955</v>
+      </c>
+      <c r="C271" t="s">
+        <v>28</v>
+      </c>
+      <c r="D271" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45327.64583333334</v>
+      </c>
+      <c r="F271" t="s">
+        <v>30</v>
+      </c>
+      <c r="G271" t="s">
+        <v>32</v>
+      </c>
+      <c r="H271">
+        <v>2</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271" t="s">
+        <v>46</v>
+      </c>
+      <c r="K271">
+        <v>2.25</v>
+      </c>
+      <c r="L271">
+        <v>3.25</v>
+      </c>
+      <c r="M271">
+        <v>2.75</v>
+      </c>
+      <c r="N271">
+        <v>2.375</v>
+      </c>
+      <c r="O271">
+        <v>3.2</v>
+      </c>
+      <c r="P271">
+        <v>2.625</v>
+      </c>
+      <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271">
+        <v>1.8</v>
+      </c>
+      <c r="S271">
+        <v>2.05</v>
+      </c>
+      <c r="T271">
+        <v>2.5</v>
+      </c>
+      <c r="U271">
+        <v>1.975</v>
+      </c>
+      <c r="V271">
+        <v>1.875</v>
+      </c>
+      <c r="W271">
+        <v>1.375</v>
+      </c>
+      <c r="X271">
+        <v>-1</v>
+      </c>
+      <c r="Y271">
+        <v>-1</v>
+      </c>
+      <c r="Z271">
+        <v>0.8</v>
+      </c>
+      <c r="AA271">
+        <v>-1</v>
+      </c>
+      <c r="AB271">
+        <v>-1</v>
+      </c>
+      <c r="AC271">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>6799965</v>
+      </c>
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45332.41666666666</v>
+      </c>
+      <c r="F272" t="s">
+        <v>32</v>
+      </c>
+      <c r="G272" t="s">
+        <v>42</v>
+      </c>
+      <c r="K272">
+        <v>1.285</v>
+      </c>
+      <c r="L272">
+        <v>5.25</v>
+      </c>
+      <c r="M272">
+        <v>8.5</v>
+      </c>
+      <c r="N272">
+        <v>1.285</v>
+      </c>
+      <c r="O272">
+        <v>5.25</v>
+      </c>
+      <c r="P272">
+        <v>8.5</v>
+      </c>
+      <c r="Q272">
+        <v>-1.5</v>
+      </c>
+      <c r="R272">
+        <v>1.925</v>
+      </c>
+      <c r="S272">
+        <v>1.925</v>
+      </c>
+      <c r="T272">
+        <v>2.75</v>
+      </c>
+      <c r="U272">
+        <v>1.875</v>
+      </c>
+      <c r="V272">
+        <v>1.975</v>
+      </c>
+      <c r="W272">
+        <v>0</v>
+      </c>
+      <c r="X272">
+        <v>0</v>
+      </c>
+      <c r="Y272">
+        <v>0</v>
+      </c>
+      <c r="Z272">
+        <v>0</v>
+      </c>
+      <c r="AA272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>6799961</v>
+      </c>
+      <c r="C273" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45332.52083333334</v>
+      </c>
+      <c r="F273" t="s">
+        <v>29</v>
+      </c>
+      <c r="G273" t="s">
+        <v>38</v>
+      </c>
+      <c r="K273">
+        <v>3.3</v>
+      </c>
+      <c r="L273">
+        <v>3.2</v>
+      </c>
+      <c r="M273">
+        <v>2.15</v>
+      </c>
+      <c r="N273">
+        <v>3.4</v>
+      </c>
+      <c r="O273">
+        <v>3.2</v>
+      </c>
+      <c r="P273">
+        <v>2.1</v>
+      </c>
+      <c r="Q273">
+        <v>0.25</v>
+      </c>
+      <c r="R273">
+        <v>1.975</v>
+      </c>
+      <c r="S273">
+        <v>1.875</v>
+      </c>
+      <c r="T273">
+        <v>2.25</v>
+      </c>
+      <c r="U273">
+        <v>1.825</v>
+      </c>
+      <c r="V273">
+        <v>2.025</v>
+      </c>
+      <c r="W273">
+        <v>0</v>
+      </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
+      <c r="Z273">
+        <v>0</v>
+      </c>
+      <c r="AA273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>6799960</v>
+      </c>
+      <c r="C274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45332.54166666666</v>
+      </c>
+      <c r="F274" t="s">
+        <v>43</v>
+      </c>
+      <c r="G274" t="s">
+        <v>35</v>
+      </c>
+      <c r="K274">
+        <v>2.625</v>
+      </c>
+      <c r="L274">
+        <v>3.25</v>
+      </c>
+      <c r="M274">
+        <v>2.5</v>
+      </c>
+      <c r="N274">
+        <v>2.7</v>
+      </c>
+      <c r="O274">
+        <v>3.25</v>
+      </c>
+      <c r="P274">
+        <v>2.4</v>
+      </c>
+      <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="R274">
+        <v>2.1</v>
+      </c>
+      <c r="S274">
+        <v>1.775</v>
+      </c>
+      <c r="T274">
+        <v>2.25</v>
+      </c>
+      <c r="U274">
         <v>1.85</v>
       </c>
-      <c r="T270">
+      <c r="V274">
+        <v>2</v>
+      </c>
+      <c r="W274">
+        <v>0</v>
+      </c>
+      <c r="X274">
+        <v>0</v>
+      </c>
+      <c r="Y274">
+        <v>0</v>
+      </c>
+      <c r="Z274">
+        <v>0</v>
+      </c>
+      <c r="AA274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>6799962</v>
+      </c>
+      <c r="C275" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45332.54166666666</v>
+      </c>
+      <c r="F275" t="s">
+        <v>40</v>
+      </c>
+      <c r="G275" t="s">
+        <v>44</v>
+      </c>
+      <c r="K275">
+        <v>2.2</v>
+      </c>
+      <c r="L275">
+        <v>3.1</v>
+      </c>
+      <c r="M275">
+        <v>3.2</v>
+      </c>
+      <c r="N275">
+        <v>2.2</v>
+      </c>
+      <c r="O275">
+        <v>3.1</v>
+      </c>
+      <c r="P275">
+        <v>3.2</v>
+      </c>
+      <c r="Q275">
+        <v>-0.25</v>
+      </c>
+      <c r="R275">
+        <v>1.975</v>
+      </c>
+      <c r="S275">
+        <v>1.875</v>
+      </c>
+      <c r="T275">
+        <v>2.25</v>
+      </c>
+      <c r="U275">
+        <v>1.95</v>
+      </c>
+      <c r="V275">
+        <v>1.9</v>
+      </c>
+      <c r="W275">
+        <v>0</v>
+      </c>
+      <c r="X275">
+        <v>0</v>
+      </c>
+      <c r="Y275">
+        <v>0</v>
+      </c>
+      <c r="Z275">
+        <v>0</v>
+      </c>
+      <c r="AA275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>6799964</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45332.625</v>
+      </c>
+      <c r="F276" t="s">
+        <v>41</v>
+      </c>
+      <c r="G276" t="s">
+        <v>30</v>
+      </c>
+      <c r="K276">
+        <v>5</v>
+      </c>
+      <c r="L276">
+        <v>4.333</v>
+      </c>
+      <c r="M276">
+        <v>1.533</v>
+      </c>
+      <c r="N276">
+        <v>4.75</v>
+      </c>
+      <c r="O276">
+        <v>4.2</v>
+      </c>
+      <c r="P276">
+        <v>1.55</v>
+      </c>
+      <c r="Q276">
+        <v>1</v>
+      </c>
+      <c r="R276">
+        <v>1.85</v>
+      </c>
+      <c r="S276">
+        <v>2</v>
+      </c>
+      <c r="T276">
+        <v>3</v>
+      </c>
+      <c r="U276">
+        <v>1.85</v>
+      </c>
+      <c r="V276">
+        <v>2</v>
+      </c>
+      <c r="W276">
+        <v>0</v>
+      </c>
+      <c r="X276">
+        <v>0</v>
+      </c>
+      <c r="Y276">
+        <v>0</v>
+      </c>
+      <c r="Z276">
+        <v>0</v>
+      </c>
+      <c r="AA276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>6799966</v>
+      </c>
+      <c r="C277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45333.625</v>
+      </c>
+      <c r="F277" t="s">
+        <v>37</v>
+      </c>
+      <c r="G277" t="s">
+        <v>31</v>
+      </c>
+      <c r="K277">
+        <v>1.6</v>
+      </c>
+      <c r="L277">
+        <v>3.75</v>
+      </c>
+      <c r="M277">
+        <v>5.25</v>
+      </c>
+      <c r="N277">
+        <v>1.55</v>
+      </c>
+      <c r="O277">
+        <v>3.8</v>
+      </c>
+      <c r="P277">
+        <v>5.5</v>
+      </c>
+      <c r="Q277">
+        <v>-1</v>
+      </c>
+      <c r="R277">
+        <v>2.025</v>
+      </c>
+      <c r="S277">
+        <v>1.825</v>
+      </c>
+      <c r="T277">
         <v>2.5</v>
       </c>
-      <c r="U270">
-        <v>1.85</v>
-      </c>
-      <c r="V270">
-        <v>2</v>
-      </c>
-      <c r="W270">
+      <c r="U277">
+        <v>1.925</v>
+      </c>
+      <c r="V277">
+        <v>1.925</v>
+      </c>
+      <c r="W277">
         <v>0</v>
       </c>
-      <c r="X270">
+      <c r="X277">
         <v>0</v>
       </c>
-      <c r="Y270">
+      <c r="Y277">
         <v>0</v>
       </c>
-      <c r="Z270">
+      <c r="Z277">
         <v>0</v>
       </c>
-      <c r="AA270">
+      <c r="AA277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:27">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>6799963</v>
+      </c>
+      <c r="C278" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45334.625</v>
+      </c>
+      <c r="F278" t="s">
+        <v>33</v>
+      </c>
+      <c r="G278" t="s">
+        <v>34</v>
+      </c>
+      <c r="K278">
+        <v>2.2</v>
+      </c>
+      <c r="L278">
+        <v>3</v>
+      </c>
+      <c r="M278">
+        <v>3.3</v>
+      </c>
+      <c r="N278">
+        <v>2.2</v>
+      </c>
+      <c r="O278">
+        <v>3</v>
+      </c>
+      <c r="P278">
+        <v>3.3</v>
+      </c>
+      <c r="Q278">
+        <v>-0.25</v>
+      </c>
+      <c r="R278">
+        <v>1.9</v>
+      </c>
+      <c r="S278">
+        <v>1.95</v>
+      </c>
+      <c r="T278">
+        <v>2.25</v>
+      </c>
+      <c r="U278">
+        <v>2.1</v>
+      </c>
+      <c r="V278">
+        <v>1.775</v>
+      </c>
+      <c r="W278">
+        <v>0</v>
+      </c>
+      <c r="X278">
+        <v>0</v>
+      </c>
+      <c r="Y278">
+        <v>0</v>
+      </c>
+      <c r="Z278">
+        <v>0</v>
+      </c>
+      <c r="AA278">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC278"/>
+  <dimension ref="A1:AC273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5145339</v>
+        <v>5145373</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>0.4875</v>
+      </c>
+      <c r="AA19">
+        <v>-0.5</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-      <c r="AC19">
-        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5145373</v>
+        <v>5145339</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N20">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z20">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5145376</v>
+        <v>5145143</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,34 +3387,34 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
         <v>3.25</v>
       </c>
       <c r="M33">
+        <v>2.875</v>
+      </c>
+      <c r="N33">
         <v>2.7</v>
       </c>
-      <c r="N33">
-        <v>2.625</v>
-      </c>
       <c r="O33">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P33">
         <v>2.5</v>
@@ -3441,16 +3441,16 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y33">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
         <v>-0.5</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5145143</v>
+        <v>5145376</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,34 +3476,34 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L34">
         <v>3.25</v>
       </c>
       <c r="M34">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N34">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O34">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P34">
         <v>2.5</v>
@@ -3530,16 +3530,16 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5145146</v>
+        <v>5145868</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L41">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
+        <v>4.333</v>
+      </c>
+      <c r="Q41">
+        <v>-0.75</v>
+      </c>
+      <c r="R41">
+        <v>1.9</v>
+      </c>
+      <c r="S41">
         <v>1.95</v>
-      </c>
-      <c r="Q41">
-        <v>0.5</v>
-      </c>
-      <c r="R41">
-        <v>1.85</v>
-      </c>
-      <c r="S41">
-        <v>2</v>
       </c>
       <c r="T41">
         <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
         <v>0.95</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
-      <c r="AA41">
-        <v>1</v>
       </c>
       <c r="AB41">
         <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5145868</v>
+        <v>5145146</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L42">
+        <v>3.3</v>
+      </c>
+      <c r="M42">
+        <v>2.375</v>
+      </c>
+      <c r="N42">
+        <v>3.1</v>
+      </c>
+      <c r="O42">
         <v>3.4</v>
       </c>
-      <c r="M42">
-        <v>3.1</v>
-      </c>
-      <c r="N42">
-        <v>1.65</v>
-      </c>
-      <c r="O42">
-        <v>3.6</v>
-      </c>
       <c r="P42">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5266291</v>
+        <v>5145379</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48">
+        <v>2.35</v>
+      </c>
+      <c r="L48">
+        <v>3.25</v>
+      </c>
+      <c r="M48">
+        <v>2.9</v>
+      </c>
+      <c r="N48">
+        <v>2.7</v>
+      </c>
+      <c r="O48">
+        <v>3.25</v>
+      </c>
+      <c r="P48">
+        <v>2.45</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>46</v>
-      </c>
-      <c r="K48">
-        <v>1.6</v>
-      </c>
-      <c r="L48">
-        <v>3.9</v>
-      </c>
-      <c r="M48">
-        <v>5</v>
-      </c>
-      <c r="N48">
-        <v>1.666</v>
-      </c>
-      <c r="O48">
-        <v>3.75</v>
-      </c>
-      <c r="P48">
-        <v>4.2</v>
-      </c>
-      <c r="Q48">
-        <v>-0.75</v>
-      </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z48">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5145379</v>
+        <v>5266291</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="L49">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M49">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N49">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5145342</v>
+        <v>5266292</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>2.15</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
         <v>3.4</v>
       </c>
       <c r="N62">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P62">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X62">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC62">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5266292</v>
+        <v>5145342</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>2.15</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
         <v>3.4</v>
       </c>
       <c r="N63">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O63">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6402966</v>
+        <v>6404150</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M96">
+        <v>6.5</v>
+      </c>
+      <c r="N96">
+        <v>1.333</v>
+      </c>
+      <c r="O96">
+        <v>4.75</v>
+      </c>
+      <c r="P96">
+        <v>7</v>
+      </c>
+      <c r="Q96">
+        <v>-1.5</v>
+      </c>
+      <c r="R96">
+        <v>2.025</v>
+      </c>
+      <c r="S96">
+        <v>1.825</v>
+      </c>
+      <c r="T96">
         <v>2.75</v>
       </c>
-      <c r="N96">
-        <v>2.875</v>
-      </c>
-      <c r="O96">
-        <v>3.3</v>
-      </c>
-      <c r="P96">
-        <v>2.15</v>
-      </c>
-      <c r="Q96">
-        <v>0.25</v>
-      </c>
-      <c r="R96">
-        <v>1.875</v>
-      </c>
-      <c r="S96">
-        <v>1.975</v>
-      </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y96">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6404150</v>
+        <v>6402966</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N98">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="O98">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6404128</v>
+        <v>6404146</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="N103">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P103">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6404146</v>
+        <v>6404130</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="L104">
         <v>3.5</v>
       </c>
       <c r="M104">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>8.5</v>
+        <v>1.45</v>
       </c>
       <c r="O104">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>1.285</v>
+        <v>5.25</v>
       </c>
       <c r="Q104">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6404130</v>
+        <v>6404128</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,40 +9795,40 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N105">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
         <v>2.05</v>
@@ -9837,19 +9837,19 @@
         <v>1.8</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
+        <v>1.825</v>
+      </c>
+      <c r="V105">
         <v>2.025</v>
       </c>
-      <c r="V105">
-        <v>1.825</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -9861,10 +9861,10 @@
         <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6404144</v>
+        <v>6404125</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="L110">
+        <v>3.6</v>
+      </c>
+      <c r="M110">
+        <v>1.8</v>
+      </c>
+      <c r="N110">
         <v>4.2</v>
       </c>
-      <c r="M110">
-        <v>8</v>
-      </c>
-      <c r="N110">
-        <v>1.363</v>
-      </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB110">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6404125</v>
+        <v>6404144</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M111">
+        <v>8</v>
+      </c>
+      <c r="N111">
+        <v>1.363</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
+        <v>9</v>
+      </c>
+      <c r="Q111">
+        <v>-1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.925</v>
+      </c>
+      <c r="S111">
+        <v>1.925</v>
+      </c>
+      <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
         <v>1.8</v>
       </c>
-      <c r="N111">
-        <v>4.2</v>
-      </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>1.727</v>
-      </c>
-      <c r="Q111">
-        <v>0.75</v>
-      </c>
-      <c r="R111">
-        <v>1.85</v>
-      </c>
-      <c r="S111">
-        <v>2</v>
-      </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.85</v>
-      </c>
       <c r="V111">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6402968</v>
+        <v>6404123</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,56 +10863,56 @@
         <v>45052.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>47</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N117">
+        <v>2.7</v>
+      </c>
+      <c r="O117">
         <v>3.3</v>
       </c>
-      <c r="O117">
-        <v>3.1</v>
-      </c>
       <c r="P117">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q117">
         <v>0.25</v>
       </c>
       <c r="R117">
+        <v>1.75</v>
+      </c>
+      <c r="S117">
+        <v>2.125</v>
+      </c>
+      <c r="T117">
+        <v>2.5</v>
+      </c>
+      <c r="U117">
+        <v>1.875</v>
+      </c>
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="S117">
-        <v>1.875</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>1.975</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
@@ -10920,19 +10920,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6404123</v>
+        <v>6402968</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,56 +10952,56 @@
         <v>45052.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O118">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q118">
         <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
+        <v>1.975</v>
+      </c>
+      <c r="V118">
         <v>1.875</v>
       </c>
-      <c r="V118">
-        <v>1.975</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
@@ -11009,19 +11009,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6404141</v>
+        <v>6404142</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,49 +11130,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M120">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="N120">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
         <v>2.025</v>
@@ -11181,25 +11181,25 @@
         <v>1.825</v>
       </c>
       <c r="W120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z120">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6404142</v>
+        <v>6404141</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,49 +11219,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K121">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N121">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
         <v>2.025</v>
@@ -11270,25 +11270,25 @@
         <v>1.825</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6404121</v>
+        <v>6402969</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,40 +11397,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
         <v>47</v>
       </c>
       <c r="K123">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L123">
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N123">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
         <v>1.8</v>
@@ -11442,10 +11442,10 @@
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11454,7 +11454,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11463,7 +11463,7 @@
         <v>1.05</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6402969</v>
+        <v>6404121</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
         <v>47</v>
       </c>
       <c r="K124">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
         <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N124">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O124">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q124">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
         <v>1.8</v>
@@ -11531,10 +11531,10 @@
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11543,7 +11543,7 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z124">
         <v>-1</v>
@@ -11552,7 +11552,7 @@
         <v>1.05</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6670414</v>
+        <v>6670415</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
+        <v>1.5</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>5</v>
+      </c>
+      <c r="N129">
+        <v>1.45</v>
+      </c>
+      <c r="O129">
+        <v>4.2</v>
+      </c>
+      <c r="P129">
         <v>5.25</v>
       </c>
-      <c r="L129">
-        <v>4.333</v>
-      </c>
-      <c r="M129">
-        <v>1.444</v>
-      </c>
-      <c r="N129">
-        <v>7</v>
-      </c>
-      <c r="O129">
-        <v>5.25</v>
-      </c>
-      <c r="P129">
-        <v>1.285</v>
-      </c>
       <c r="Q129">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6670415</v>
+        <v>6670414</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>47</v>
+      </c>
+      <c r="K131">
+        <v>5.25</v>
+      </c>
+      <c r="L131">
+        <v>4.333</v>
+      </c>
+      <c r="M131">
+        <v>1.444</v>
+      </c>
+      <c r="N131">
+        <v>7</v>
+      </c>
+      <c r="O131">
+        <v>5.25</v>
+      </c>
+      <c r="P131">
+        <v>1.285</v>
+      </c>
+      <c r="Q131">
+        <v>1.5</v>
+      </c>
+      <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
+        <v>1.95</v>
+      </c>
+      <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>1.9</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z131">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
         <v>0</v>
       </c>
-      <c r="J131" t="s">
-        <v>46</v>
-      </c>
-      <c r="K131">
-        <v>1.5</v>
-      </c>
-      <c r="L131">
-        <v>4</v>
-      </c>
-      <c r="M131">
-        <v>5</v>
-      </c>
-      <c r="N131">
-        <v>1.45</v>
-      </c>
-      <c r="O131">
-        <v>4.2</v>
-      </c>
-      <c r="P131">
-        <v>5.25</v>
-      </c>
-      <c r="Q131">
-        <v>-1</v>
-      </c>
-      <c r="R131">
-        <v>1.8</v>
-      </c>
-      <c r="S131">
-        <v>2.05</v>
-      </c>
-      <c r="T131">
-        <v>2.75</v>
-      </c>
-      <c r="U131">
-        <v>1.875</v>
-      </c>
-      <c r="V131">
-        <v>1.975</v>
-      </c>
-      <c r="W131">
-        <v>0.45</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>0.8</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,10 +12732,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12747,61 +12747,61 @@
         <v>45</v>
       </c>
       <c r="K138">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N138">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P138">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,10 +12821,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12836,61 +12836,61 @@
         <v>45</v>
       </c>
       <c r="K139">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N139">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O139">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>-0</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.825</v>
-      </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
-      <c r="AC139">
-        <v>0.875</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7542500</v>
+        <v>7542499</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K188">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="L188">
         <v>3.2</v>
       </c>
       <c r="M188">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N188">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P188">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z188">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC188">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7542748</v>
+        <v>7542500</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,13 +17271,13 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -17286,43 +17286,43 @@
         <v>46</v>
       </c>
       <c r="K189">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L189">
         <v>3.2</v>
       </c>
       <c r="M189">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N189">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O189">
+        <v>3</v>
+      </c>
+      <c r="P189">
         <v>2.9</v>
-      </c>
-      <c r="P189">
-        <v>3</v>
       </c>
       <c r="Q189">
         <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S189">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17331,16 +17331,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.125</v>
+        <v>1.05</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7542499</v>
+        <v>7542748</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K190">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="L190">
         <v>3.2</v>
       </c>
       <c r="M190">
+        <v>2.625</v>
+      </c>
+      <c r="N190">
         <v>2.4</v>
       </c>
-      <c r="N190">
-        <v>3.2</v>
-      </c>
       <c r="O190">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P190">
+        <v>3</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>2.125</v>
+      </c>
+      <c r="S190">
+        <v>1.75</v>
+      </c>
+      <c r="T190">
+        <v>2</v>
+      </c>
+      <c r="U190">
         <v>2.05</v>
       </c>
-      <c r="Q190">
-        <v>0.25</v>
-      </c>
-      <c r="R190">
-        <v>2</v>
-      </c>
-      <c r="S190">
-        <v>1.85</v>
-      </c>
-      <c r="T190">
-        <v>2.25</v>
-      </c>
-      <c r="U190">
-        <v>1.85</v>
-      </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K202">
+        <v>2.6</v>
+      </c>
+      <c r="L202">
+        <v>3.1</v>
+      </c>
+      <c r="M202">
+        <v>2.6</v>
+      </c>
+      <c r="N202">
+        <v>2.9</v>
+      </c>
+      <c r="O202">
+        <v>3.2</v>
+      </c>
+      <c r="P202">
+        <v>2.3</v>
+      </c>
+      <c r="Q202">
+        <v>0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.8</v>
+      </c>
+      <c r="S202">
         <v>2.05</v>
       </c>
-      <c r="L202">
-        <v>3.2</v>
-      </c>
-      <c r="M202">
-        <v>3.5</v>
-      </c>
-      <c r="N202">
-        <v>2.15</v>
-      </c>
-      <c r="O202">
-        <v>3.1</v>
-      </c>
-      <c r="P202">
-        <v>3.2</v>
-      </c>
-      <c r="Q202">
-        <v>-0.25</v>
-      </c>
-      <c r="R202">
-        <v>1.925</v>
-      </c>
-      <c r="S202">
-        <v>1.925</v>
-      </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
+        <v>1.85</v>
+      </c>
+      <c r="W202">
         <v>1.9</v>
       </c>
-      <c r="V202">
-        <v>1.95</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC202">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7542719</v>
+        <v>7542639</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K203">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L203">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M203">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N203">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P203">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q203">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R203">
+        <v>1.925</v>
+      </c>
+      <c r="S203">
+        <v>1.925</v>
+      </c>
+      <c r="T203">
+        <v>2</v>
+      </c>
+      <c r="U203">
+        <v>2.1</v>
+      </c>
+      <c r="V203">
+        <v>1.775</v>
+      </c>
+      <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
         <v>1.8</v>
       </c>
-      <c r="S203">
-        <v>2.05</v>
-      </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
-      <c r="U203">
-        <v>2</v>
-      </c>
-      <c r="V203">
-        <v>1.85</v>
-      </c>
-      <c r="W203">
-        <v>1.9</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7542639</v>
+        <v>7542640</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,40 +18606,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L204">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N204">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O204">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P204">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
         <v>1.925</v>
@@ -18648,34 +18648,34 @@
         <v>1.925</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7542737</v>
+        <v>7542735</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H238">
+        <v>2</v>
+      </c>
+      <c r="I238">
         <v>0</v>
       </c>
-      <c r="I238">
-        <v>1</v>
-      </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M238">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N238">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O238">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P238">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
+        <v>1.975</v>
+      </c>
+      <c r="V238">
         <v>1.875</v>
       </c>
-      <c r="V238">
-        <v>1.975</v>
-      </c>
       <c r="W238">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7542735</v>
+        <v>7542737</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,76 +21810,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K240">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L240">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M240">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N240">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O240">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P240">
+        <v>2.3</v>
+      </c>
+      <c r="Q240">
+        <v>0.25</v>
+      </c>
+      <c r="R240">
         <v>1.85</v>
       </c>
-      <c r="Q240">
-        <v>0.5</v>
-      </c>
-      <c r="R240">
-        <v>1.95</v>
-      </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T240">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
+        <v>1.875</v>
+      </c>
+      <c r="V240">
         <v>1.975</v>
       </c>
-      <c r="V240">
-        <v>1.875</v>
-      </c>
       <c r="W240">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z240">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -24646,7 +24646,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6799965</v>
+        <v>6799966</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24655,49 +24655,49 @@
         <v>28</v>
       </c>
       <c r="E272" s="2">
-        <v>45332.41666666666</v>
+        <v>45333.625</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G272" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K272">
-        <v>1.285</v>
+        <v>1.6</v>
       </c>
       <c r="L272">
+        <v>3.75</v>
+      </c>
+      <c r="M272">
         <v>5.25</v>
       </c>
-      <c r="M272">
-        <v>8.5</v>
-      </c>
       <c r="N272">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="O272">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P272">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q272">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R272">
+        <v>1.85</v>
+      </c>
+      <c r="S272">
+        <v>2</v>
+      </c>
+      <c r="T272">
+        <v>2.5</v>
+      </c>
+      <c r="U272">
         <v>1.925</v>
       </c>
-      <c r="S272">
+      <c r="V272">
         <v>1.925</v>
-      </c>
-      <c r="T272">
-        <v>2.75</v>
-      </c>
-      <c r="U272">
-        <v>1.875</v>
-      </c>
-      <c r="V272">
-        <v>1.975</v>
       </c>
       <c r="W272">
         <v>0</v>
@@ -24720,7 +24720,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6799961</v>
+        <v>6799963</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24729,49 +24729,49 @@
         <v>28</v>
       </c>
       <c r="E273" s="2">
-        <v>45332.52083333334</v>
+        <v>45334.625</v>
       </c>
       <c r="F273" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G273" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K273">
+        <v>2.2</v>
+      </c>
+      <c r="L273">
+        <v>3</v>
+      </c>
+      <c r="M273">
         <v>3.3</v>
       </c>
-      <c r="L273">
-        <v>3.2</v>
-      </c>
-      <c r="M273">
+      <c r="N273">
         <v>2.15</v>
       </c>
-      <c r="N273">
-        <v>3.4</v>
-      </c>
       <c r="O273">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P273">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q273">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R273">
+        <v>1.875</v>
+      </c>
+      <c r="S273">
         <v>1.975</v>
-      </c>
-      <c r="S273">
-        <v>1.875</v>
       </c>
       <c r="T273">
         <v>2.25</v>
       </c>
       <c r="U273">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V273">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W273">
         <v>0</v>
@@ -24786,376 +24786,6 @@
         <v>0</v>
       </c>
       <c r="AA273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:27">
-      <c r="A274" s="1">
-        <v>272</v>
-      </c>
-      <c r="B274">
-        <v>6799960</v>
-      </c>
-      <c r="C274" t="s">
-        <v>28</v>
-      </c>
-      <c r="D274" t="s">
-        <v>28</v>
-      </c>
-      <c r="E274" s="2">
-        <v>45332.54166666666</v>
-      </c>
-      <c r="F274" t="s">
-        <v>43</v>
-      </c>
-      <c r="G274" t="s">
-        <v>35</v>
-      </c>
-      <c r="K274">
-        <v>2.625</v>
-      </c>
-      <c r="L274">
-        <v>3.25</v>
-      </c>
-      <c r="M274">
-        <v>2.5</v>
-      </c>
-      <c r="N274">
-        <v>2.7</v>
-      </c>
-      <c r="O274">
-        <v>3.25</v>
-      </c>
-      <c r="P274">
-        <v>2.4</v>
-      </c>
-      <c r="Q274">
-        <v>0</v>
-      </c>
-      <c r="R274">
-        <v>2.1</v>
-      </c>
-      <c r="S274">
-        <v>1.775</v>
-      </c>
-      <c r="T274">
-        <v>2.25</v>
-      </c>
-      <c r="U274">
-        <v>1.85</v>
-      </c>
-      <c r="V274">
-        <v>2</v>
-      </c>
-      <c r="W274">
-        <v>0</v>
-      </c>
-      <c r="X274">
-        <v>0</v>
-      </c>
-      <c r="Y274">
-        <v>0</v>
-      </c>
-      <c r="Z274">
-        <v>0</v>
-      </c>
-      <c r="AA274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:27">
-      <c r="A275" s="1">
-        <v>273</v>
-      </c>
-      <c r="B275">
-        <v>6799962</v>
-      </c>
-      <c r="C275" t="s">
-        <v>28</v>
-      </c>
-      <c r="D275" t="s">
-        <v>28</v>
-      </c>
-      <c r="E275" s="2">
-        <v>45332.54166666666</v>
-      </c>
-      <c r="F275" t="s">
-        <v>40</v>
-      </c>
-      <c r="G275" t="s">
-        <v>44</v>
-      </c>
-      <c r="K275">
-        <v>2.2</v>
-      </c>
-      <c r="L275">
-        <v>3.1</v>
-      </c>
-      <c r="M275">
-        <v>3.2</v>
-      </c>
-      <c r="N275">
-        <v>2.2</v>
-      </c>
-      <c r="O275">
-        <v>3.1</v>
-      </c>
-      <c r="P275">
-        <v>3.2</v>
-      </c>
-      <c r="Q275">
-        <v>-0.25</v>
-      </c>
-      <c r="R275">
-        <v>1.975</v>
-      </c>
-      <c r="S275">
-        <v>1.875</v>
-      </c>
-      <c r="T275">
-        <v>2.25</v>
-      </c>
-      <c r="U275">
-        <v>1.95</v>
-      </c>
-      <c r="V275">
-        <v>1.9</v>
-      </c>
-      <c r="W275">
-        <v>0</v>
-      </c>
-      <c r="X275">
-        <v>0</v>
-      </c>
-      <c r="Y275">
-        <v>0</v>
-      </c>
-      <c r="Z275">
-        <v>0</v>
-      </c>
-      <c r="AA275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:27">
-      <c r="A276" s="1">
-        <v>274</v>
-      </c>
-      <c r="B276">
-        <v>6799964</v>
-      </c>
-      <c r="C276" t="s">
-        <v>28</v>
-      </c>
-      <c r="D276" t="s">
-        <v>28</v>
-      </c>
-      <c r="E276" s="2">
-        <v>45332.625</v>
-      </c>
-      <c r="F276" t="s">
-        <v>41</v>
-      </c>
-      <c r="G276" t="s">
-        <v>30</v>
-      </c>
-      <c r="K276">
-        <v>5</v>
-      </c>
-      <c r="L276">
-        <v>4.333</v>
-      </c>
-      <c r="M276">
-        <v>1.533</v>
-      </c>
-      <c r="N276">
-        <v>4.75</v>
-      </c>
-      <c r="O276">
-        <v>4.2</v>
-      </c>
-      <c r="P276">
-        <v>1.55</v>
-      </c>
-      <c r="Q276">
-        <v>1</v>
-      </c>
-      <c r="R276">
-        <v>1.85</v>
-      </c>
-      <c r="S276">
-        <v>2</v>
-      </c>
-      <c r="T276">
-        <v>3</v>
-      </c>
-      <c r="U276">
-        <v>1.85</v>
-      </c>
-      <c r="V276">
-        <v>2</v>
-      </c>
-      <c r="W276">
-        <v>0</v>
-      </c>
-      <c r="X276">
-        <v>0</v>
-      </c>
-      <c r="Y276">
-        <v>0</v>
-      </c>
-      <c r="Z276">
-        <v>0</v>
-      </c>
-      <c r="AA276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:27">
-      <c r="A277" s="1">
-        <v>275</v>
-      </c>
-      <c r="B277">
-        <v>6799966</v>
-      </c>
-      <c r="C277" t="s">
-        <v>28</v>
-      </c>
-      <c r="D277" t="s">
-        <v>28</v>
-      </c>
-      <c r="E277" s="2">
-        <v>45333.625</v>
-      </c>
-      <c r="F277" t="s">
-        <v>37</v>
-      </c>
-      <c r="G277" t="s">
-        <v>31</v>
-      </c>
-      <c r="K277">
-        <v>1.6</v>
-      </c>
-      <c r="L277">
-        <v>3.75</v>
-      </c>
-      <c r="M277">
-        <v>5.25</v>
-      </c>
-      <c r="N277">
-        <v>1.55</v>
-      </c>
-      <c r="O277">
-        <v>3.8</v>
-      </c>
-      <c r="P277">
-        <v>5.5</v>
-      </c>
-      <c r="Q277">
-        <v>-1</v>
-      </c>
-      <c r="R277">
-        <v>2.025</v>
-      </c>
-      <c r="S277">
-        <v>1.825</v>
-      </c>
-      <c r="T277">
-        <v>2.5</v>
-      </c>
-      <c r="U277">
-        <v>1.925</v>
-      </c>
-      <c r="V277">
-        <v>1.925</v>
-      </c>
-      <c r="W277">
-        <v>0</v>
-      </c>
-      <c r="X277">
-        <v>0</v>
-      </c>
-      <c r="Y277">
-        <v>0</v>
-      </c>
-      <c r="Z277">
-        <v>0</v>
-      </c>
-      <c r="AA277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:27">
-      <c r="A278" s="1">
-        <v>276</v>
-      </c>
-      <c r="B278">
-        <v>6799963</v>
-      </c>
-      <c r="C278" t="s">
-        <v>28</v>
-      </c>
-      <c r="D278" t="s">
-        <v>28</v>
-      </c>
-      <c r="E278" s="2">
-        <v>45334.625</v>
-      </c>
-      <c r="F278" t="s">
-        <v>33</v>
-      </c>
-      <c r="G278" t="s">
-        <v>34</v>
-      </c>
-      <c r="K278">
-        <v>2.2</v>
-      </c>
-      <c r="L278">
-        <v>3</v>
-      </c>
-      <c r="M278">
-        <v>3.3</v>
-      </c>
-      <c r="N278">
-        <v>2.2</v>
-      </c>
-      <c r="O278">
-        <v>3</v>
-      </c>
-      <c r="P278">
-        <v>3.3</v>
-      </c>
-      <c r="Q278">
-        <v>-0.25</v>
-      </c>
-      <c r="R278">
-        <v>1.9</v>
-      </c>
-      <c r="S278">
-        <v>1.95</v>
-      </c>
-      <c r="T278">
-        <v>2.25</v>
-      </c>
-      <c r="U278">
-        <v>2.1</v>
-      </c>
-      <c r="V278">
-        <v>1.775</v>
-      </c>
-      <c r="W278">
-        <v>0</v>
-      </c>
-      <c r="X278">
-        <v>0</v>
-      </c>
-      <c r="Y278">
-        <v>0</v>
-      </c>
-      <c r="Z278">
-        <v>0</v>
-      </c>
-      <c r="AA278">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC273"/>
+  <dimension ref="A1:AC285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5145143</v>
+        <v>5145376</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,34 +3387,34 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L33">
         <v>3.25</v>
       </c>
       <c r="M33">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N33">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P33">
         <v>2.5</v>
@@ -3441,16 +3441,16 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB33">
         <v>-0.5</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5145376</v>
+        <v>5145143</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,34 +3476,34 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L34">
         <v>3.25</v>
       </c>
       <c r="M34">
+        <v>2.875</v>
+      </c>
+      <c r="N34">
         <v>2.7</v>
       </c>
-      <c r="N34">
-        <v>2.625</v>
-      </c>
       <c r="O34">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P34">
         <v>2.5</v>
@@ -3530,16 +3530,16 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y34">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5145343</v>
+        <v>5145154</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
+        <v>2.75</v>
+      </c>
+      <c r="L70">
+        <v>3.25</v>
+      </c>
+      <c r="M70">
+        <v>2.25</v>
+      </c>
+      <c r="N70">
+        <v>2.7</v>
+      </c>
+      <c r="O70">
+        <v>3.2</v>
+      </c>
+      <c r="P70">
+        <v>2.3</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>1.775</v>
+      </c>
+      <c r="T70">
         <v>2.5</v>
       </c>
-      <c r="L70">
-        <v>3.2</v>
-      </c>
-      <c r="M70">
-        <v>2.5</v>
-      </c>
-      <c r="N70">
-        <v>2.25</v>
-      </c>
-      <c r="O70">
-        <v>3.1</v>
-      </c>
-      <c r="P70">
-        <v>2.9</v>
-      </c>
-      <c r="Q70">
-        <v>-0.25</v>
-      </c>
-      <c r="R70">
+      <c r="U70">
         <v>1.975</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.875</v>
       </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.9</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.875</v>
-      </c>
-      <c r="AB70">
-        <v>-0.5</v>
-      </c>
-      <c r="AC70">
-        <v>0.475</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5145154</v>
+        <v>5145343</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L71">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
+        <v>2.5</v>
+      </c>
+      <c r="N71">
         <v>2.25</v>
       </c>
-      <c r="N71">
-        <v>2.7</v>
-      </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P71">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z71">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6404155</v>
+        <v>6402973</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,58 +7837,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>46</v>
       </c>
       <c r="K83">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W83">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,16 +7897,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6402973</v>
+        <v>6404155</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>46</v>
       </c>
       <c r="K84">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L84">
+        <v>3.75</v>
+      </c>
+      <c r="M84">
+        <v>5</v>
+      </c>
+      <c r="N84">
+        <v>1.833</v>
+      </c>
+      <c r="O84">
         <v>3.3</v>
       </c>
-      <c r="M84">
-        <v>3.1</v>
-      </c>
-      <c r="N84">
-        <v>2.15</v>
-      </c>
-      <c r="O84">
-        <v>3.2</v>
-      </c>
       <c r="P84">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,16 +7986,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6404135</v>
+        <v>6402965</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6402965</v>
+        <v>6404135</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L86">
         <v>3.3</v>
       </c>
       <c r="M86">
+        <v>2.375</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>3.4</v>
+      </c>
+      <c r="P86">
+        <v>3.25</v>
+      </c>
+      <c r="Q86">
+        <v>-0.25</v>
+      </c>
+      <c r="R86">
+        <v>1.8</v>
+      </c>
+      <c r="S86">
+        <v>2.05</v>
+      </c>
+      <c r="T86">
+        <v>2.25</v>
+      </c>
+      <c r="U86">
+        <v>1.8</v>
+      </c>
+      <c r="V86">
+        <v>2.05</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
         <v>2.4</v>
       </c>
-      <c r="N86">
-        <v>2.6</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>2.7</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.95</v>
-      </c>
-      <c r="T86">
-        <v>2</v>
-      </c>
-      <c r="U86">
-        <v>1.875</v>
-      </c>
-      <c r="V86">
-        <v>1.975</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>2</v>
-      </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6404146</v>
+        <v>6404128</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="N103">
-        <v>8.5</v>
+        <v>1.95</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="Q103">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6404128</v>
+        <v>6404146</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="N105">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="O105">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P105">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6404124</v>
+        <v>6404123</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L116">
+        <v>3.5</v>
+      </c>
+      <c r="M116">
+        <v>3.75</v>
+      </c>
+      <c r="N116">
+        <v>2.7</v>
+      </c>
+      <c r="O116">
         <v>3.3</v>
       </c>
-      <c r="M116">
-        <v>3.25</v>
-      </c>
-      <c r="N116">
-        <v>2.45</v>
-      </c>
-      <c r="O116">
-        <v>3.1</v>
-      </c>
       <c r="P116">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>1.125</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6404123</v>
+        <v>6402968</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,56 +10863,56 @@
         <v>45052.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
         <v>47</v>
       </c>
       <c r="K117">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q117">
         <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
+        <v>1.975</v>
+      </c>
+      <c r="V117">
         <v>1.875</v>
       </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
@@ -10920,19 +10920,19 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6402968</v>
+        <v>6404124</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,73 +10952,73 @@
         <v>45052.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N118">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
         <v>3.1</v>
       </c>
       <c r="P118">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y118">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6404142</v>
+        <v>6404141</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,49 +11130,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N120">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
         <v>2.025</v>
@@ -11181,25 +11181,25 @@
         <v>1.825</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6404141</v>
+        <v>6404142</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,49 +11219,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M121">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="N121">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
         <v>2.025</v>
@@ -11270,25 +11270,25 @@
         <v>1.825</v>
       </c>
       <c r="W121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z121">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6670415</v>
+        <v>6670416</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,13 +11931,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11946,43 +11946,43 @@
         <v>46</v>
       </c>
       <c r="K129">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M129">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N129">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O129">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P129">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
-        <v>0.45</v>
+        <v>0.222</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11991,16 +11991,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6670416</v>
+        <v>6670414</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130" t="s">
+        <v>47</v>
+      </c>
+      <c r="K130">
+        <v>5.25</v>
+      </c>
+      <c r="L130">
+        <v>4.333</v>
+      </c>
+      <c r="M130">
+        <v>1.444</v>
+      </c>
+      <c r="N130">
+        <v>7</v>
+      </c>
+      <c r="O130">
+        <v>5.25</v>
+      </c>
+      <c r="P130">
+        <v>1.285</v>
+      </c>
+      <c r="Q130">
+        <v>1.5</v>
+      </c>
+      <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
+        <v>1.95</v>
+      </c>
+      <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
+        <v>1.9</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z130">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
         <v>0</v>
       </c>
-      <c r="J130" t="s">
-        <v>46</v>
-      </c>
-      <c r="K130">
-        <v>1.285</v>
-      </c>
-      <c r="L130">
-        <v>5</v>
-      </c>
-      <c r="M130">
-        <v>7.5</v>
-      </c>
-      <c r="N130">
-        <v>1.222</v>
-      </c>
-      <c r="O130">
-        <v>5.75</v>
-      </c>
-      <c r="P130">
-        <v>8.5</v>
-      </c>
-      <c r="Q130">
-        <v>-1.75</v>
-      </c>
-      <c r="R130">
-        <v>1.875</v>
-      </c>
-      <c r="S130">
-        <v>1.975</v>
-      </c>
-      <c r="T130">
-        <v>3.25</v>
-      </c>
-      <c r="U130">
-        <v>1.925</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
-      <c r="W130">
-        <v>0.222</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
-      <c r="Z130">
-        <v>0.875</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>0.925</v>
-      </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6670414</v>
+        <v>6670415</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
+        <v>1.5</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
+        <v>5</v>
+      </c>
+      <c r="N131">
+        <v>1.45</v>
+      </c>
+      <c r="O131">
+        <v>4.2</v>
+      </c>
+      <c r="P131">
         <v>5.25</v>
       </c>
-      <c r="L131">
-        <v>4.333</v>
-      </c>
-      <c r="M131">
-        <v>1.444</v>
-      </c>
-      <c r="N131">
-        <v>7</v>
-      </c>
-      <c r="O131">
-        <v>5.25</v>
-      </c>
-      <c r="P131">
-        <v>1.285</v>
-      </c>
       <c r="Q131">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,10 +12732,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12747,61 +12747,61 @@
         <v>45</v>
       </c>
       <c r="K138">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N138">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O138">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>-0</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
         <v>0.825</v>
-      </c>
-      <c r="AA138">
-        <v>-1</v>
-      </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
-      <c r="AC138">
-        <v>0.875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,10 +12821,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12836,61 +12836,61 @@
         <v>45</v>
       </c>
       <c r="K139">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M139">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N139">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P139">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,58 +13622,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>46</v>
       </c>
       <c r="K148">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N148">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O148">
         <v>3.6</v>
       </c>
       <c r="P148">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13682,13 +13682,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,58 +13711,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
         <v>46</v>
       </c>
       <c r="K149">
+        <v>1.571</v>
+      </c>
+      <c r="L149">
+        <v>3.6</v>
+      </c>
+      <c r="M149">
         <v>5</v>
       </c>
-      <c r="L149">
-        <v>3.75</v>
-      </c>
-      <c r="M149">
-        <v>1.533</v>
-      </c>
       <c r="N149">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O149">
         <v>3.6</v>
       </c>
       <c r="P149">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q149">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13771,13 +13771,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7511181</v>
+        <v>7511180</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
-      <c r="I174">
-        <v>2</v>
-      </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K174">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M174">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N174">
+        <v>2.5</v>
+      </c>
+      <c r="O174">
+        <v>3.2</v>
+      </c>
+      <c r="P174">
         <v>2.45</v>
-      </c>
-      <c r="O174">
-        <v>3.25</v>
-      </c>
-      <c r="P174">
-        <v>2.7</v>
       </c>
       <c r="Q174">
         <v>0</v>
       </c>
       <c r="R174">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA174">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7511180</v>
+        <v>7511181</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,76 +16025,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K175">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N175">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P175">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q175">
         <v>0</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z175">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7542719</v>
+        <v>7542639</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K202">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L202">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M202">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N202">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O202">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P202">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q202">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R202">
+        <v>1.925</v>
+      </c>
+      <c r="S202">
+        <v>1.925</v>
+      </c>
+      <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
+        <v>2.1</v>
+      </c>
+      <c r="V202">
+        <v>1.775</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
         <v>1.8</v>
       </c>
-      <c r="S202">
-        <v>2.05</v>
-      </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
-      <c r="U202">
-        <v>2</v>
-      </c>
-      <c r="V202">
-        <v>1.85</v>
-      </c>
-      <c r="W202">
-        <v>1.9</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7542639</v>
+        <v>7542640</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,40 +18517,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K203">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L203">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N203">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O203">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P203">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
         <v>1.925</v>
@@ -18559,34 +18559,34 @@
         <v>1.925</v>
       </c>
       <c r="T203">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,76 +18606,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204">
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K204">
+        <v>2.6</v>
+      </c>
+      <c r="L204">
+        <v>3.1</v>
+      </c>
+      <c r="M204">
+        <v>2.6</v>
+      </c>
+      <c r="N204">
+        <v>2.9</v>
+      </c>
+      <c r="O204">
+        <v>3.2</v>
+      </c>
+      <c r="P204">
+        <v>2.3</v>
+      </c>
+      <c r="Q204">
+        <v>0.25</v>
+      </c>
+      <c r="R204">
+        <v>1.8</v>
+      </c>
+      <c r="S204">
         <v>2.05</v>
       </c>
-      <c r="L204">
-        <v>3.2</v>
-      </c>
-      <c r="M204">
-        <v>3.5</v>
-      </c>
-      <c r="N204">
-        <v>2.15</v>
-      </c>
-      <c r="O204">
-        <v>3.1</v>
-      </c>
-      <c r="P204">
-        <v>3.2</v>
-      </c>
-      <c r="Q204">
-        <v>-0.25</v>
-      </c>
-      <c r="R204">
-        <v>1.925</v>
-      </c>
-      <c r="S204">
-        <v>1.925</v>
-      </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
+        <v>2</v>
+      </c>
+      <c r="V204">
+        <v>1.85</v>
+      </c>
+      <c r="W204">
         <v>1.9</v>
       </c>
-      <c r="V204">
-        <v>1.95</v>
-      </c>
-      <c r="W204">
-        <v>-1</v>
-      </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA204">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC204">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,55 +19674,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
         <v>47</v>
       </c>
       <c r="K216">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L216">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>4.333</v>
+      </c>
+      <c r="O216">
         <v>3.6</v>
       </c>
-      <c r="N216">
-        <v>2.45</v>
-      </c>
-      <c r="O216">
-        <v>3</v>
-      </c>
       <c r="P216">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R216">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19731,19 +19731,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,55 +19763,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>47</v>
       </c>
       <c r="K217">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L217">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N217">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P217">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q217">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V217">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19820,19 +19820,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7542735</v>
+        <v>7542737</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L238">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M238">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N238">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O238">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P238">
+        <v>2.3</v>
+      </c>
+      <c r="Q238">
+        <v>0.25</v>
+      </c>
+      <c r="R238">
         <v>1.85</v>
       </c>
-      <c r="Q238">
-        <v>0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.95</v>
-      </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
+        <v>1.875</v>
+      </c>
+      <c r="V238">
         <v>1.975</v>
       </c>
-      <c r="V238">
-        <v>1.875</v>
-      </c>
       <c r="W238">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z238">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7542736</v>
+        <v>7542735</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N239">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O239">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P239">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R239">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V239">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X239">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA239">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7542737</v>
+        <v>7542736</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,76 +21810,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H240">
         <v>0</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L240">
+        <v>3.4</v>
+      </c>
+      <c r="M240">
         <v>3.2</v>
       </c>
-      <c r="M240">
-        <v>2.45</v>
-      </c>
       <c r="N240">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P240">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U240">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y240">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA240">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -24646,7 +24646,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6799966</v>
+        <v>6799965</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24655,72 +24655,87 @@
         <v>28</v>
       </c>
       <c r="E272" s="2">
-        <v>45333.625</v>
+        <v>45332.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G272" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>45</v>
       </c>
       <c r="K272">
-        <v>1.6</v>
+        <v>1.285</v>
       </c>
       <c r="L272">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M272">
+        <v>8.5</v>
+      </c>
+      <c r="N272">
+        <v>1.285</v>
+      </c>
+      <c r="O272">
         <v>5.25</v>
       </c>
-      <c r="N272">
-        <v>1.5</v>
-      </c>
-      <c r="O272">
-        <v>4</v>
-      </c>
       <c r="P272">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q272">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R272">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S272">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U272">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V272">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W272">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X272">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Y272">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:27">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB272">
+        <v>-1</v>
+      </c>
+      <c r="AC272">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6799963</v>
+        <v>6799961</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24729,63 +24744,1041 @@
         <v>28</v>
       </c>
       <c r="E273" s="2">
-        <v>45334.625</v>
+        <v>45332.52083333334</v>
       </c>
       <c r="F273" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G273" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273" t="s">
+        <v>46</v>
       </c>
       <c r="K273">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L273">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M273">
+        <v>2.15</v>
+      </c>
+      <c r="N273">
+        <v>3.8</v>
+      </c>
+      <c r="O273">
         <v>3.3</v>
       </c>
-      <c r="N273">
-        <v>2.15</v>
-      </c>
-      <c r="O273">
-        <v>3</v>
-      </c>
       <c r="P273">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q273">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R273">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S273">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T273">
         <v>2.25</v>
       </c>
       <c r="U273">
+        <v>1.85</v>
+      </c>
+      <c r="V273">
+        <v>2</v>
+      </c>
+      <c r="W273">
+        <v>2.8</v>
+      </c>
+      <c r="X273">
+        <v>-1</v>
+      </c>
+      <c r="Y273">
+        <v>-1</v>
+      </c>
+      <c r="Z273">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA273">
+        <v>-1</v>
+      </c>
+      <c r="AB273">
+        <v>-1</v>
+      </c>
+      <c r="AC273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>6799960</v>
+      </c>
+      <c r="C274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45332.54166666666</v>
+      </c>
+      <c r="F274" t="s">
+        <v>43</v>
+      </c>
+      <c r="G274" t="s">
+        <v>35</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274" t="s">
+        <v>46</v>
+      </c>
+      <c r="K274">
+        <v>2.625</v>
+      </c>
+      <c r="L274">
+        <v>3.25</v>
+      </c>
+      <c r="M274">
+        <v>2.5</v>
+      </c>
+      <c r="N274">
+        <v>2.8</v>
+      </c>
+      <c r="O274">
+        <v>3.25</v>
+      </c>
+      <c r="P274">
+        <v>2.375</v>
+      </c>
+      <c r="Q274">
+        <v>0.25</v>
+      </c>
+      <c r="R274">
+        <v>1.775</v>
+      </c>
+      <c r="S274">
+        <v>2.1</v>
+      </c>
+      <c r="T274">
+        <v>2.25</v>
+      </c>
+      <c r="U274">
+        <v>1.875</v>
+      </c>
+      <c r="V274">
+        <v>1.975</v>
+      </c>
+      <c r="W274">
+        <v>1.8</v>
+      </c>
+      <c r="X274">
+        <v>-1</v>
+      </c>
+      <c r="Y274">
+        <v>-1</v>
+      </c>
+      <c r="Z274">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA274">
+        <v>-1</v>
+      </c>
+      <c r="AB274">
+        <v>-1</v>
+      </c>
+      <c r="AC274">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>6799962</v>
+      </c>
+      <c r="C275" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45332.54166666666</v>
+      </c>
+      <c r="F275" t="s">
+        <v>40</v>
+      </c>
+      <c r="G275" t="s">
+        <v>44</v>
+      </c>
+      <c r="H275">
+        <v>2</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275" t="s">
+        <v>46</v>
+      </c>
+      <c r="K275">
+        <v>2.2</v>
+      </c>
+      <c r="L275">
+        <v>3.1</v>
+      </c>
+      <c r="M275">
+        <v>3.2</v>
+      </c>
+      <c r="N275">
+        <v>2.2</v>
+      </c>
+      <c r="O275">
+        <v>3.1</v>
+      </c>
+      <c r="P275">
+        <v>3.2</v>
+      </c>
+      <c r="Q275">
+        <v>-0.25</v>
+      </c>
+      <c r="R275">
+        <v>2</v>
+      </c>
+      <c r="S275">
+        <v>1.85</v>
+      </c>
+      <c r="T275">
+        <v>2.25</v>
+      </c>
+      <c r="U275">
+        <v>2</v>
+      </c>
+      <c r="V275">
+        <v>1.85</v>
+      </c>
+      <c r="W275">
+        <v>1.2</v>
+      </c>
+      <c r="X275">
+        <v>-1</v>
+      </c>
+      <c r="Y275">
+        <v>-1</v>
+      </c>
+      <c r="Z275">
+        <v>1</v>
+      </c>
+      <c r="AA275">
+        <v>-1</v>
+      </c>
+      <c r="AB275">
+        <v>-0.5</v>
+      </c>
+      <c r="AC275">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>6799964</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45332.625</v>
+      </c>
+      <c r="F276" t="s">
+        <v>41</v>
+      </c>
+      <c r="G276" t="s">
+        <v>30</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>2</v>
+      </c>
+      <c r="J276" t="s">
+        <v>47</v>
+      </c>
+      <c r="K276">
+        <v>5</v>
+      </c>
+      <c r="L276">
+        <v>4.333</v>
+      </c>
+      <c r="M276">
+        <v>1.533</v>
+      </c>
+      <c r="N276">
+        <v>4.75</v>
+      </c>
+      <c r="O276">
+        <v>4.2</v>
+      </c>
+      <c r="P276">
+        <v>1.571</v>
+      </c>
+      <c r="Q276">
+        <v>1</v>
+      </c>
+      <c r="R276">
+        <v>1.825</v>
+      </c>
+      <c r="S276">
+        <v>2.025</v>
+      </c>
+      <c r="T276">
+        <v>3</v>
+      </c>
+      <c r="U276">
+        <v>1.875</v>
+      </c>
+      <c r="V276">
+        <v>1.975</v>
+      </c>
+      <c r="W276">
+        <v>-1</v>
+      </c>
+      <c r="X276">
+        <v>-1</v>
+      </c>
+      <c r="Y276">
+        <v>0.571</v>
+      </c>
+      <c r="Z276">
+        <v>-1</v>
+      </c>
+      <c r="AA276">
+        <v>1.025</v>
+      </c>
+      <c r="AB276">
+        <v>-1</v>
+      </c>
+      <c r="AC276">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:29">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>6799966</v>
+      </c>
+      <c r="C277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45333.625</v>
+      </c>
+      <c r="F277" t="s">
+        <v>37</v>
+      </c>
+      <c r="G277" t="s">
+        <v>31</v>
+      </c>
+      <c r="H277">
+        <v>2</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277" t="s">
+        <v>46</v>
+      </c>
+      <c r="K277">
+        <v>1.6</v>
+      </c>
+      <c r="L277">
+        <v>3.75</v>
+      </c>
+      <c r="M277">
+        <v>5.25</v>
+      </c>
+      <c r="N277">
+        <v>1.5</v>
+      </c>
+      <c r="O277">
+        <v>4</v>
+      </c>
+      <c r="P277">
+        <v>5.75</v>
+      </c>
+      <c r="Q277">
+        <v>-1</v>
+      </c>
+      <c r="R277">
+        <v>1.875</v>
+      </c>
+      <c r="S277">
+        <v>1.975</v>
+      </c>
+      <c r="T277">
+        <v>2.75</v>
+      </c>
+      <c r="U277">
+        <v>2</v>
+      </c>
+      <c r="V277">
+        <v>1.85</v>
+      </c>
+      <c r="W277">
+        <v>0.5</v>
+      </c>
+      <c r="X277">
+        <v>-1</v>
+      </c>
+      <c r="Y277">
+        <v>-1</v>
+      </c>
+      <c r="Z277">
+        <v>0.875</v>
+      </c>
+      <c r="AA277">
+        <v>-1</v>
+      </c>
+      <c r="AB277">
+        <v>-1</v>
+      </c>
+      <c r="AC277">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>6799963</v>
+      </c>
+      <c r="C278" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45334.625</v>
+      </c>
+      <c r="F278" t="s">
+        <v>33</v>
+      </c>
+      <c r="G278" t="s">
+        <v>34</v>
+      </c>
+      <c r="H278">
+        <v>2</v>
+      </c>
+      <c r="I278">
+        <v>3</v>
+      </c>
+      <c r="J278" t="s">
+        <v>47</v>
+      </c>
+      <c r="K278">
+        <v>2.2</v>
+      </c>
+      <c r="L278">
+        <v>3</v>
+      </c>
+      <c r="M278">
+        <v>3.3</v>
+      </c>
+      <c r="N278">
+        <v>2.15</v>
+      </c>
+      <c r="O278">
+        <v>3</v>
+      </c>
+      <c r="P278">
+        <v>3.4</v>
+      </c>
+      <c r="Q278">
+        <v>-0.25</v>
+      </c>
+      <c r="R278">
+        <v>1.9</v>
+      </c>
+      <c r="S278">
+        <v>1.95</v>
+      </c>
+      <c r="T278">
+        <v>2.25</v>
+      </c>
+      <c r="U278">
+        <v>2</v>
+      </c>
+      <c r="V278">
+        <v>1.85</v>
+      </c>
+      <c r="W278">
+        <v>-1</v>
+      </c>
+      <c r="X278">
+        <v>-1</v>
+      </c>
+      <c r="Y278">
+        <v>2.4</v>
+      </c>
+      <c r="Z278">
+        <v>-1</v>
+      </c>
+      <c r="AA278">
+        <v>0.95</v>
+      </c>
+      <c r="AB278">
+        <v>1</v>
+      </c>
+      <c r="AC278">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>6799973</v>
+      </c>
+      <c r="C279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45339.41666666666</v>
+      </c>
+      <c r="F279" t="s">
+        <v>38</v>
+      </c>
+      <c r="G279" t="s">
+        <v>35</v>
+      </c>
+      <c r="K279">
+        <v>2.3</v>
+      </c>
+      <c r="L279">
+        <v>3.25</v>
+      </c>
+      <c r="M279">
+        <v>3</v>
+      </c>
+      <c r="N279">
+        <v>2.2</v>
+      </c>
+      <c r="O279">
+        <v>3.2</v>
+      </c>
+      <c r="P279">
+        <v>3.3</v>
+      </c>
+      <c r="Q279">
+        <v>-0.25</v>
+      </c>
+      <c r="R279">
+        <v>1.925</v>
+      </c>
+      <c r="S279">
+        <v>1.925</v>
+      </c>
+      <c r="T279">
+        <v>2.25</v>
+      </c>
+      <c r="U279">
+        <v>2.025</v>
+      </c>
+      <c r="V279">
+        <v>1.825</v>
+      </c>
+      <c r="W279">
+        <v>0</v>
+      </c>
+      <c r="X279">
+        <v>0</v>
+      </c>
+      <c r="Y279">
+        <v>0</v>
+      </c>
+      <c r="Z279">
+        <v>0</v>
+      </c>
+      <c r="AA279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>6799967</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45339.52083333334</v>
+      </c>
+      <c r="F280" t="s">
+        <v>37</v>
+      </c>
+      <c r="G280" t="s">
+        <v>43</v>
+      </c>
+      <c r="K280">
+        <v>1.3</v>
+      </c>
+      <c r="L280">
+        <v>5</v>
+      </c>
+      <c r="M280">
+        <v>9</v>
+      </c>
+      <c r="N280">
+        <v>1.4</v>
+      </c>
+      <c r="O280">
+        <v>5</v>
+      </c>
+      <c r="P280">
+        <v>6.5</v>
+      </c>
+      <c r="Q280">
+        <v>-1.25</v>
+      </c>
+      <c r="R280">
+        <v>1.875</v>
+      </c>
+      <c r="S280">
+        <v>1.975</v>
+      </c>
+      <c r="T280">
+        <v>2.75</v>
+      </c>
+      <c r="U280">
+        <v>1.925</v>
+      </c>
+      <c r="V280">
+        <v>1.925</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>0</v>
+      </c>
+      <c r="Z280">
+        <v>0</v>
+      </c>
+      <c r="AA280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>6799972</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45339.5625</v>
+      </c>
+      <c r="F281" t="s">
+        <v>44</v>
+      </c>
+      <c r="G281" t="s">
+        <v>29</v>
+      </c>
+      <c r="K281">
+        <v>2.1</v>
+      </c>
+      <c r="L281">
+        <v>3.3</v>
+      </c>
+      <c r="M281">
+        <v>3.3</v>
+      </c>
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281">
+        <v>3.3</v>
+      </c>
+      <c r="P281">
+        <v>3.5</v>
+      </c>
+      <c r="Q281">
+        <v>-0.25</v>
+      </c>
+      <c r="R281">
+        <v>1.775</v>
+      </c>
+      <c r="S281">
+        <v>2.1</v>
+      </c>
+      <c r="T281">
+        <v>2.25</v>
+      </c>
+      <c r="U281">
+        <v>1.9</v>
+      </c>
+      <c r="V281">
+        <v>1.95</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0</v>
+      </c>
+      <c r="Z281">
+        <v>0</v>
+      </c>
+      <c r="AA281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>6799971</v>
+      </c>
+      <c r="C282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45339.5625</v>
+      </c>
+      <c r="F282" t="s">
+        <v>34</v>
+      </c>
+      <c r="G282" t="s">
+        <v>40</v>
+      </c>
+      <c r="K282">
         <v>2.05</v>
       </c>
-      <c r="V273">
+      <c r="L282">
+        <v>3.25</v>
+      </c>
+      <c r="M282">
+        <v>3.5</v>
+      </c>
+      <c r="N282">
+        <v>2.05</v>
+      </c>
+      <c r="O282">
+        <v>3.2</v>
+      </c>
+      <c r="P282">
+        <v>3.5</v>
+      </c>
+      <c r="Q282">
+        <v>-0.25</v>
+      </c>
+      <c r="R282">
         <v>1.8</v>
       </c>
-      <c r="W273">
+      <c r="S282">
+        <v>2.05</v>
+      </c>
+      <c r="T282">
+        <v>2.25</v>
+      </c>
+      <c r="U282">
+        <v>2.025</v>
+      </c>
+      <c r="V282">
+        <v>1.825</v>
+      </c>
+      <c r="W282">
         <v>0</v>
       </c>
-      <c r="X273">
+      <c r="X282">
         <v>0</v>
       </c>
-      <c r="Y273">
+      <c r="Y282">
         <v>0</v>
       </c>
-      <c r="Z273">
+      <c r="Z282">
         <v>0</v>
       </c>
-      <c r="AA273">
+      <c r="AA282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>6799969</v>
+      </c>
+      <c r="C283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45339.60416666666</v>
+      </c>
+      <c r="F283" t="s">
+        <v>42</v>
+      </c>
+      <c r="G283" t="s">
+        <v>41</v>
+      </c>
+      <c r="K283">
+        <v>2.6</v>
+      </c>
+      <c r="L283">
+        <v>3.2</v>
+      </c>
+      <c r="M283">
+        <v>2.55</v>
+      </c>
+      <c r="N283">
+        <v>2.6</v>
+      </c>
+      <c r="O283">
+        <v>3.2</v>
+      </c>
+      <c r="P283">
+        <v>2.6</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <v>1.975</v>
+      </c>
+      <c r="S283">
+        <v>1.875</v>
+      </c>
+      <c r="T283">
+        <v>2.5</v>
+      </c>
+      <c r="U283">
+        <v>2</v>
+      </c>
+      <c r="V283">
+        <v>1.85</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>0</v>
+      </c>
+      <c r="Z283">
+        <v>0</v>
+      </c>
+      <c r="AA283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>6799970</v>
+      </c>
+      <c r="C284" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45340.64583333334</v>
+      </c>
+      <c r="F284" t="s">
+        <v>30</v>
+      </c>
+      <c r="G284" t="s">
+        <v>33</v>
+      </c>
+      <c r="K284">
+        <v>1.363</v>
+      </c>
+      <c r="L284">
+        <v>4.6</v>
+      </c>
+      <c r="M284">
+        <v>7.5</v>
+      </c>
+      <c r="N284">
+        <v>1.363</v>
+      </c>
+      <c r="O284">
+        <v>4.75</v>
+      </c>
+      <c r="P284">
+        <v>7</v>
+      </c>
+      <c r="Q284">
+        <v>-1.25</v>
+      </c>
+      <c r="R284">
+        <v>1.925</v>
+      </c>
+      <c r="S284">
+        <v>1.925</v>
+      </c>
+      <c r="T284">
+        <v>2.75</v>
+      </c>
+      <c r="U284">
+        <v>1.875</v>
+      </c>
+      <c r="V284">
+        <v>1.975</v>
+      </c>
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>0</v>
+      </c>
+      <c r="Z284">
+        <v>0</v>
+      </c>
+      <c r="AA284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>6799968</v>
+      </c>
+      <c r="C285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D285" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45341.625</v>
+      </c>
+      <c r="F285" t="s">
+        <v>31</v>
+      </c>
+      <c r="G285" t="s">
+        <v>32</v>
+      </c>
+      <c r="K285">
+        <v>6</v>
+      </c>
+      <c r="L285">
+        <v>4</v>
+      </c>
+      <c r="M285">
+        <v>1.5</v>
+      </c>
+      <c r="N285">
+        <v>6.5</v>
+      </c>
+      <c r="O285">
+        <v>4</v>
+      </c>
+      <c r="P285">
+        <v>1.5</v>
+      </c>
+      <c r="Q285">
+        <v>1</v>
+      </c>
+      <c r="R285">
+        <v>1.975</v>
+      </c>
+      <c r="S285">
+        <v>1.875</v>
+      </c>
+      <c r="T285">
+        <v>2.75</v>
+      </c>
+      <c r="U285">
+        <v>1.95</v>
+      </c>
+      <c r="V285">
+        <v>1.9</v>
+      </c>
+      <c r="W285">
+        <v>0</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <v>0</v>
+      </c>
+      <c r="Z285">
+        <v>0</v>
+      </c>
+      <c r="AA285">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5145373</v>
+        <v>5145339</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N19">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5145339</v>
+        <v>5145373</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P20">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>0.4875</v>
+      </c>
+      <c r="AA20">
+        <v>-0.5</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
-      <c r="AA20">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5145379</v>
+        <v>5266291</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K48">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="L48">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5266291</v>
+        <v>5145379</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49">
+        <v>2.35</v>
+      </c>
+      <c r="L49">
+        <v>3.25</v>
+      </c>
+      <c r="M49">
+        <v>2.9</v>
+      </c>
+      <c r="N49">
+        <v>2.7</v>
+      </c>
+      <c r="O49">
+        <v>3.25</v>
+      </c>
+      <c r="P49">
+        <v>2.45</v>
+      </c>
+      <c r="Q49">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K49">
-        <v>1.6</v>
-      </c>
-      <c r="L49">
-        <v>3.9</v>
-      </c>
-      <c r="M49">
-        <v>5</v>
-      </c>
-      <c r="N49">
-        <v>1.666</v>
-      </c>
-      <c r="O49">
-        <v>3.75</v>
-      </c>
-      <c r="P49">
-        <v>4.2</v>
-      </c>
-      <c r="Q49">
-        <v>-0.75</v>
-      </c>
       <c r="R49">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z49">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5266292</v>
+        <v>5145342</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>2.15</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M62">
         <v>3.4</v>
       </c>
       <c r="N62">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5145342</v>
+        <v>5266292</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>2.15</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
         <v>3.4</v>
       </c>
       <c r="N63">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X63">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5145154</v>
+        <v>5145343</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
+        <v>2.5</v>
+      </c>
+      <c r="N70">
         <v>2.25</v>
       </c>
-      <c r="N70">
-        <v>2.7</v>
-      </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P70">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z70">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5145343</v>
+        <v>5145154</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
+        <v>2.75</v>
+      </c>
+      <c r="L71">
+        <v>3.25</v>
+      </c>
+      <c r="M71">
+        <v>2.25</v>
+      </c>
+      <c r="N71">
+        <v>2.7</v>
+      </c>
+      <c r="O71">
+        <v>3.2</v>
+      </c>
+      <c r="P71">
+        <v>2.3</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>2.1</v>
+      </c>
+      <c r="S71">
+        <v>1.775</v>
+      </c>
+      <c r="T71">
         <v>2.5</v>
       </c>
-      <c r="L71">
-        <v>3.2</v>
-      </c>
-      <c r="M71">
-        <v>2.5</v>
-      </c>
-      <c r="N71">
-        <v>2.25</v>
-      </c>
-      <c r="O71">
-        <v>3.1</v>
-      </c>
-      <c r="P71">
-        <v>2.9</v>
-      </c>
-      <c r="Q71">
-        <v>-0.25</v>
-      </c>
-      <c r="R71">
+      <c r="U71">
         <v>1.975</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.875</v>
       </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.9</v>
-      </c>
-      <c r="V71">
-        <v>1.95</v>
-      </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>0.875</v>
-      </c>
-      <c r="AB71">
-        <v>-0.5</v>
-      </c>
-      <c r="AC71">
-        <v>0.475</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6402973</v>
+        <v>6404155</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,58 +7837,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>46</v>
       </c>
       <c r="K83">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>5</v>
+      </c>
+      <c r="N83">
+        <v>1.833</v>
+      </c>
+      <c r="O83">
         <v>3.3</v>
       </c>
-      <c r="M83">
-        <v>3.1</v>
-      </c>
-      <c r="N83">
-        <v>2.15</v>
-      </c>
-      <c r="O83">
-        <v>3.2</v>
-      </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,16 +7897,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6404155</v>
+        <v>6402973</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>46</v>
       </c>
       <c r="K84">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N84">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W84">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,16 +7986,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6402965</v>
+        <v>6404135</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
+        <v>2.375</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>3.4</v>
+      </c>
+      <c r="P85">
+        <v>3.25</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
+        <v>1.8</v>
+      </c>
+      <c r="S85">
+        <v>2.05</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>1.8</v>
+      </c>
+      <c r="V85">
+        <v>2.05</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
         <v>2.4</v>
       </c>
-      <c r="N85">
-        <v>2.6</v>
-      </c>
-      <c r="O85">
-        <v>3</v>
-      </c>
-      <c r="P85">
-        <v>2.7</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.95</v>
-      </c>
-      <c r="T85">
-        <v>2</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
-      <c r="W85">
-        <v>-1</v>
-      </c>
-      <c r="X85">
-        <v>2</v>
-      </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6404135</v>
+        <v>6402965</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L86">
         <v>3.3</v>
       </c>
       <c r="M86">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6404128</v>
+        <v>6404130</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,40 +9617,40 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P103">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
         <v>2.05</v>
@@ -9659,19 +9659,19 @@
         <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
+        <v>2.025</v>
+      </c>
+      <c r="V103">
         <v>1.825</v>
       </c>
-      <c r="V103">
-        <v>2.025</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -9683,10 +9683,10 @@
         <v>0.8</v>
       </c>
       <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.825</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6404130</v>
+        <v>6404128</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,40 +9706,40 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N104">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
         <v>2.05</v>
@@ -9748,19 +9748,19 @@
         <v>1.8</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
+        <v>1.825</v>
+      </c>
+      <c r="V104">
         <v>2.025</v>
       </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -9772,10 +9772,10 @@
         <v>0.8</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6404123</v>
+        <v>6404124</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116">
+        <v>2.05</v>
+      </c>
+      <c r="L116">
+        <v>3.3</v>
+      </c>
+      <c r="M116">
+        <v>3.25</v>
+      </c>
+      <c r="N116">
+        <v>2.45</v>
+      </c>
+      <c r="O116">
+        <v>3.1</v>
+      </c>
+      <c r="P116">
+        <v>2.625</v>
+      </c>
+      <c r="Q116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116" t="s">
-        <v>47</v>
-      </c>
-      <c r="K116">
-        <v>1.833</v>
-      </c>
-      <c r="L116">
-        <v>3.5</v>
-      </c>
-      <c r="M116">
-        <v>3.75</v>
-      </c>
-      <c r="N116">
-        <v>2.7</v>
-      </c>
-      <c r="O116">
-        <v>3.3</v>
-      </c>
-      <c r="P116">
-        <v>2.375</v>
-      </c>
-      <c r="Q116">
-        <v>0.25</v>
-      </c>
       <c r="R116">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>1.125</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6404124</v>
+        <v>6404123</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>3.75</v>
+      </c>
+      <c r="N118">
+        <v>2.7</v>
+      </c>
+      <c r="O118">
         <v>3.3</v>
       </c>
-      <c r="M118">
-        <v>3.25</v>
-      </c>
-      <c r="N118">
-        <v>2.45</v>
-      </c>
-      <c r="O118">
-        <v>3.1</v>
-      </c>
       <c r="P118">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="T118">
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>1.125</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6404140</v>
+        <v>6404139</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,49 +11753,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L127">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N127">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O127">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q127">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.875</v>
@@ -11804,19 +11804,19 @@
         <v>1.975</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>0.875</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6404139</v>
+        <v>6404140</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,49 +11842,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>5</v>
+      </c>
+      <c r="J128" t="s">
+        <v>47</v>
+      </c>
+      <c r="K128">
+        <v>4.5</v>
+      </c>
+      <c r="L128">
+        <v>4.2</v>
+      </c>
+      <c r="M128">
+        <v>1.533</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128">
+        <v>5</v>
+      </c>
+      <c r="P128">
+        <v>1.363</v>
+      </c>
+      <c r="Q128">
+        <v>1.25</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>1.85</v>
+      </c>
+      <c r="T128">
         <v>3</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>46</v>
-      </c>
-      <c r="K128">
-        <v>2.2</v>
-      </c>
-      <c r="L128">
-        <v>3.3</v>
-      </c>
-      <c r="M128">
-        <v>2.8</v>
-      </c>
-      <c r="N128">
-        <v>2</v>
-      </c>
-      <c r="O128">
-        <v>3.5</v>
-      </c>
-      <c r="P128">
-        <v>3.3</v>
-      </c>
-      <c r="Q128">
-        <v>-0.5</v>
-      </c>
-      <c r="R128">
-        <v>1.975</v>
-      </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.875</v>
@@ -11893,19 +11893,19 @@
         <v>1.975</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB128">
         <v>0.875</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6670416</v>
+        <v>6670415</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,13 +11931,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11946,43 +11946,43 @@
         <v>46</v>
       </c>
       <c r="K129">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
         <v>5</v>
       </c>
-      <c r="M129">
-        <v>7.5</v>
-      </c>
       <c r="N129">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="O129">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P129">
-        <v>8.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q129">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2.05</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
         <v>1.875</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
-      <c r="U129">
-        <v>1.925</v>
-      </c>
-      <c r="V129">
-        <v>1.925</v>
-      </c>
       <c r="W129">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11991,16 +11991,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6670415</v>
+        <v>6670416</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,13 +12109,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12124,43 +12124,43 @@
         <v>46</v>
       </c>
       <c r="K131">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N131">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P131">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.45</v>
+        <v>0.222</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12169,16 +12169,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6799822</v>
+        <v>6798412</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="N134">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O134">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
         <v>1.95</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.9</v>
       </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>2</v>
-      </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X134">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6798412</v>
+        <v>6799822</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L135">
+        <v>3.3</v>
+      </c>
+      <c r="M135">
+        <v>3.7</v>
+      </c>
+      <c r="N135">
+        <v>1.65</v>
+      </c>
+      <c r="O135">
+        <v>3.5</v>
+      </c>
+      <c r="P135">
         <v>4.5</v>
       </c>
-      <c r="M135">
-        <v>8</v>
-      </c>
-      <c r="N135">
-        <v>1.333</v>
-      </c>
-      <c r="O135">
-        <v>4.333</v>
-      </c>
-      <c r="P135">
-        <v>7</v>
-      </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,10 +12732,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12747,61 +12747,61 @@
         <v>45</v>
       </c>
       <c r="K138">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N138">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P138">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,10 +12821,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12836,61 +12836,61 @@
         <v>45</v>
       </c>
       <c r="K139">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N139">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O139">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>-0</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.825</v>
-      </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
-      <c r="AC139">
-        <v>0.875</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6799829</v>
+        <v>6799825</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L140">
+        <v>3.25</v>
+      </c>
+      <c r="M140">
+        <v>4</v>
+      </c>
+      <c r="N140">
+        <v>1.95</v>
+      </c>
+      <c r="O140">
+        <v>3.2</v>
+      </c>
+      <c r="P140">
         <v>3.4</v>
       </c>
-      <c r="M140">
-        <v>2.6</v>
-      </c>
-      <c r="N140">
-        <v>2.625</v>
-      </c>
-      <c r="O140">
-        <v>3.4</v>
-      </c>
-      <c r="P140">
-        <v>2.375</v>
-      </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6799825</v>
+        <v>6799829</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K141">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N141">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X141">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA141">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6799836</v>
+        <v>6799838</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M146">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N146">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O146">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P146">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q146">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
         <v>1.85</v>
       </c>
-      <c r="V146">
-        <v>2</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X146">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA146">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6799838</v>
+        <v>6799836</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K147">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="L147">
+        <v>6</v>
+      </c>
+      <c r="M147">
+        <v>11</v>
+      </c>
+      <c r="N147">
+        <v>1.2</v>
+      </c>
+      <c r="O147">
+        <v>6</v>
+      </c>
+      <c r="P147">
+        <v>10</v>
+      </c>
+      <c r="Q147">
+        <v>-1.75</v>
+      </c>
+      <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
+        <v>2.025</v>
+      </c>
+      <c r="T147">
         <v>3</v>
       </c>
-      <c r="M147">
-        <v>3.2</v>
-      </c>
-      <c r="N147">
-        <v>2.15</v>
-      </c>
-      <c r="O147">
-        <v>3.1</v>
-      </c>
-      <c r="P147">
-        <v>3.1</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
-      <c r="R147">
-        <v>2</v>
-      </c>
-      <c r="S147">
+      <c r="U147">
         <v>1.85</v>
       </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>2</v>
-      </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6799841</v>
+        <v>6799846</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,10 +14156,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14171,46 +14171,46 @@
         <v>45</v>
       </c>
       <c r="K154">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L154">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M154">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N154">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O154">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P154">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T154">
         <v>2.5</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14225,7 +14225,7 @@
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6799846</v>
+        <v>6799841</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,10 +14245,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14260,46 +14260,46 @@
         <v>45</v>
       </c>
       <c r="K155">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L155">
+        <v>3.25</v>
+      </c>
+      <c r="M155">
+        <v>2.75</v>
+      </c>
+      <c r="N155">
+        <v>2.3</v>
+      </c>
+      <c r="O155">
         <v>3.3</v>
       </c>
-      <c r="M155">
-        <v>2.3</v>
-      </c>
-      <c r="N155">
-        <v>2.5</v>
-      </c>
-      <c r="O155">
-        <v>3.2</v>
-      </c>
       <c r="P155">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q155">
         <v>0</v>
       </c>
       <c r="R155">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T155">
         <v>2.5</v>
       </c>
       <c r="U155">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y155">
         <v>-1</v>
@@ -14314,7 +14314,7 @@
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7542499</v>
+        <v>7542748</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K188">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="L188">
         <v>3.2</v>
       </c>
       <c r="M188">
+        <v>2.625</v>
+      </c>
+      <c r="N188">
         <v>2.4</v>
       </c>
-      <c r="N188">
-        <v>3.2</v>
-      </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P188">
+        <v>3</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>2.125</v>
+      </c>
+      <c r="S188">
+        <v>1.75</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
         <v>2.05</v>
       </c>
-      <c r="Q188">
-        <v>0.25</v>
-      </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
-      <c r="S188">
-        <v>1.85</v>
-      </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>1.85</v>
-      </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7542748</v>
+        <v>7542499</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="L190">
         <v>3.2</v>
       </c>
       <c r="M190">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N190">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O190">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P190">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z190">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7542639</v>
+        <v>7542719</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K202">
+        <v>2.6</v>
+      </c>
+      <c r="L202">
+        <v>3.1</v>
+      </c>
+      <c r="M202">
+        <v>2.6</v>
+      </c>
+      <c r="N202">
+        <v>2.9</v>
+      </c>
+      <c r="O202">
+        <v>3.2</v>
+      </c>
+      <c r="P202">
+        <v>2.3</v>
+      </c>
+      <c r="Q202">
+        <v>0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.8</v>
+      </c>
+      <c r="S202">
+        <v>2.05</v>
+      </c>
+      <c r="T202">
         <v>2.5</v>
       </c>
-      <c r="L202">
-        <v>3</v>
-      </c>
-      <c r="M202">
-        <v>2.75</v>
-      </c>
-      <c r="N202">
-        <v>2.7</v>
-      </c>
-      <c r="O202">
-        <v>2.8</v>
-      </c>
-      <c r="P202">
-        <v>2.75</v>
-      </c>
-      <c r="Q202">
-        <v>0</v>
-      </c>
-      <c r="R202">
-        <v>1.925</v>
-      </c>
-      <c r="S202">
-        <v>1.925</v>
-      </c>
-      <c r="T202">
-        <v>2</v>
-      </c>
       <c r="U202">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X202">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA202">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC202">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7542719</v>
+        <v>7542639</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,76 +18606,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K204">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L204">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M204">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N204">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O204">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P204">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q204">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R204">
+        <v>1.925</v>
+      </c>
+      <c r="S204">
+        <v>1.925</v>
+      </c>
+      <c r="T204">
+        <v>2</v>
+      </c>
+      <c r="U204">
+        <v>2.1</v>
+      </c>
+      <c r="V204">
+        <v>1.775</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
         <v>1.8</v>
       </c>
-      <c r="S204">
-        <v>2.05</v>
-      </c>
-      <c r="T204">
-        <v>2.5</v>
-      </c>
-      <c r="U204">
-        <v>2</v>
-      </c>
-      <c r="V204">
-        <v>1.85</v>
-      </c>
-      <c r="W204">
-        <v>1.9</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -24824,7 +24824,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6799960</v>
+        <v>6799962</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24836,13 +24836,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F274" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G274" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -24851,43 +24851,43 @@
         <v>46</v>
       </c>
       <c r="K274">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L274">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M274">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N274">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O274">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P274">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q274">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R274">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S274">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T274">
         <v>2.25</v>
       </c>
       <c r="U274">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V274">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W274">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X274">
         <v>-1</v>
@@ -24896,16 +24896,16 @@
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC274">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24913,7 +24913,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6799962</v>
+        <v>6799960</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24925,13 +24925,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F275" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G275" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -24940,43 +24940,43 @@
         <v>46</v>
       </c>
       <c r="K275">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L275">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M275">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N275">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O275">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P275">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R275">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S275">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T275">
         <v>2.25</v>
       </c>
       <c r="U275">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V275">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W275">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X275">
         <v>-1</v>
@@ -24985,16 +24985,16 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA275">
         <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC275">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25308,10 +25308,10 @@
         <v>-0.25</v>
       </c>
       <c r="R279">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S279">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T279">
         <v>2.25</v>
@@ -25370,31 +25370,31 @@
         <v>9</v>
       </c>
       <c r="N280">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O280">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P280">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q280">
         <v>-1.25</v>
       </c>
       <c r="R280">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S280">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T280">
         <v>2.75</v>
       </c>
       <c r="U280">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V280">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W280">
         <v>0</v>
@@ -25444,31 +25444,31 @@
         <v>3.3</v>
       </c>
       <c r="N281">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O281">
         <v>3.3</v>
       </c>
       <c r="P281">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S281">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
         <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V281">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W281">
         <v>0</v>
@@ -25518,22 +25518,22 @@
         <v>3.5</v>
       </c>
       <c r="N282">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O282">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P282">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T282">
         <v>2.25</v>
@@ -25592,13 +25592,13 @@
         <v>2.55</v>
       </c>
       <c r="N283">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O283">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P283">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q283">
         <v>0</v>
@@ -25613,10 +25613,10 @@
         <v>2.5</v>
       </c>
       <c r="U283">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V283">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W283">
         <v>0</v>
@@ -25666,31 +25666,31 @@
         <v>7.5</v>
       </c>
       <c r="N284">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O284">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P284">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q284">
         <v>-1.25</v>
       </c>
       <c r="R284">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S284">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T284">
         <v>2.75</v>
       </c>
       <c r="U284">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V284">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W284">
         <v>0</v>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC285"/>
+  <dimension ref="A1:AC284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5145343</v>
+        <v>5145154</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
+        <v>2.75</v>
+      </c>
+      <c r="L70">
+        <v>3.25</v>
+      </c>
+      <c r="M70">
+        <v>2.25</v>
+      </c>
+      <c r="N70">
+        <v>2.7</v>
+      </c>
+      <c r="O70">
+        <v>3.2</v>
+      </c>
+      <c r="P70">
+        <v>2.3</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>1.775</v>
+      </c>
+      <c r="T70">
         <v>2.5</v>
       </c>
-      <c r="L70">
-        <v>3.2</v>
-      </c>
-      <c r="M70">
-        <v>2.5</v>
-      </c>
-      <c r="N70">
-        <v>2.25</v>
-      </c>
-      <c r="O70">
-        <v>3.1</v>
-      </c>
-      <c r="P70">
-        <v>2.9</v>
-      </c>
-      <c r="Q70">
-        <v>-0.25</v>
-      </c>
-      <c r="R70">
+      <c r="U70">
         <v>1.975</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.875</v>
       </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.9</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.875</v>
-      </c>
-      <c r="AB70">
-        <v>-0.5</v>
-      </c>
-      <c r="AC70">
-        <v>0.475</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5145154</v>
+        <v>5145343</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L71">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
+        <v>2.5</v>
+      </c>
+      <c r="N71">
         <v>2.25</v>
       </c>
-      <c r="N71">
-        <v>2.7</v>
-      </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P71">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z71">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6799846</v>
+        <v>6799841</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,10 +14156,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14171,46 +14171,46 @@
         <v>45</v>
       </c>
       <c r="K154">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L154">
+        <v>3.25</v>
+      </c>
+      <c r="M154">
+        <v>2.75</v>
+      </c>
+      <c r="N154">
+        <v>2.3</v>
+      </c>
+      <c r="O154">
         <v>3.3</v>
       </c>
-      <c r="M154">
-        <v>2.3</v>
-      </c>
-      <c r="N154">
-        <v>2.5</v>
-      </c>
-      <c r="O154">
-        <v>3.2</v>
-      </c>
       <c r="P154">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S154">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T154">
         <v>2.5</v>
       </c>
       <c r="U154">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14225,7 +14225,7 @@
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6799841</v>
+        <v>6799846</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,10 +14245,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14260,46 +14260,46 @@
         <v>45</v>
       </c>
       <c r="K155">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L155">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M155">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N155">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P155">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q155">
         <v>0</v>
       </c>
       <c r="R155">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S155">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T155">
         <v>2.5</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y155">
         <v>-1</v>
@@ -14314,7 +14314,7 @@
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6799853</v>
+        <v>6799854</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,55 +14779,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L161">
         <v>3.25</v>
       </c>
       <c r="M161">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N161">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O161">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P161">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q161">
         <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
         <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14836,19 +14836,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6799854</v>
+        <v>6799853</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,55 +14868,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>47</v>
       </c>
       <c r="K162">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L162">
         <v>3.25</v>
       </c>
       <c r="M162">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N162">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O162">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P162">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q162">
         <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S162">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T162">
         <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V162">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14925,19 +14925,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC162">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7542748</v>
+        <v>7542500</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,13 +17182,13 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -17197,43 +17197,43 @@
         <v>46</v>
       </c>
       <c r="K188">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L188">
         <v>3.2</v>
       </c>
       <c r="M188">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N188">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O188">
+        <v>3</v>
+      </c>
+      <c r="P188">
         <v>2.9</v>
-      </c>
-      <c r="P188">
-        <v>3</v>
       </c>
       <c r="Q188">
         <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S188">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V188">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W188">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17242,16 +17242,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1.125</v>
+        <v>1.05</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7542500</v>
+        <v>7542748</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,13 +17271,13 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -17286,43 +17286,43 @@
         <v>46</v>
       </c>
       <c r="K189">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
         <v>3.2</v>
       </c>
       <c r="M189">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N189">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O189">
+        <v>2.9</v>
+      </c>
+      <c r="P189">
         <v>3</v>
-      </c>
-      <c r="P189">
-        <v>2.9</v>
       </c>
       <c r="Q189">
         <v>-0.25</v>
       </c>
       <c r="R189">
+        <v>2.125</v>
+      </c>
+      <c r="S189">
+        <v>1.75</v>
+      </c>
+      <c r="T189">
+        <v>2</v>
+      </c>
+      <c r="U189">
         <v>2.05</v>
       </c>
-      <c r="S189">
+      <c r="V189">
         <v>1.8</v>
       </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>1.925</v>
-      </c>
-      <c r="V189">
-        <v>1.925</v>
-      </c>
       <c r="W189">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17331,16 +17331,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.05</v>
+        <v>1.125</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC189">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7542719</v>
+        <v>7542639</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K202">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L202">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M202">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N202">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O202">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P202">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q202">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R202">
+        <v>1.925</v>
+      </c>
+      <c r="S202">
+        <v>1.925</v>
+      </c>
+      <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
+        <v>2.1</v>
+      </c>
+      <c r="V202">
+        <v>1.775</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
         <v>1.8</v>
       </c>
-      <c r="S202">
-        <v>2.05</v>
-      </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
-      <c r="U202">
-        <v>2</v>
-      </c>
-      <c r="V202">
-        <v>1.85</v>
-      </c>
-      <c r="W202">
-        <v>1.9</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K203">
+        <v>2.6</v>
+      </c>
+      <c r="L203">
+        <v>3.1</v>
+      </c>
+      <c r="M203">
+        <v>2.6</v>
+      </c>
+      <c r="N203">
+        <v>2.9</v>
+      </c>
+      <c r="O203">
+        <v>3.2</v>
+      </c>
+      <c r="P203">
+        <v>2.3</v>
+      </c>
+      <c r="Q203">
+        <v>0.25</v>
+      </c>
+      <c r="R203">
+        <v>1.8</v>
+      </c>
+      <c r="S203">
         <v>2.05</v>
       </c>
-      <c r="L203">
-        <v>3.2</v>
-      </c>
-      <c r="M203">
-        <v>3.5</v>
-      </c>
-      <c r="N203">
-        <v>2.15</v>
-      </c>
-      <c r="O203">
-        <v>3.1</v>
-      </c>
-      <c r="P203">
-        <v>3.2</v>
-      </c>
-      <c r="Q203">
-        <v>-0.25</v>
-      </c>
-      <c r="R203">
-        <v>1.925</v>
-      </c>
-      <c r="S203">
-        <v>1.925</v>
-      </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
+        <v>1.85</v>
+      </c>
+      <c r="W203">
         <v>1.9</v>
       </c>
-      <c r="V203">
-        <v>1.95</v>
-      </c>
-      <c r="W203">
-        <v>-1</v>
-      </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA203">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7542639</v>
+        <v>7542640</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,40 +18606,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L204">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N204">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O204">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P204">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
         <v>1.925</v>
@@ -18648,34 +18648,34 @@
         <v>1.925</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,55 +19674,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>47</v>
       </c>
       <c r="K216">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N216">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O216">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P216">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q216">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19731,19 +19731,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,55 +19763,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
         <v>47</v>
       </c>
       <c r="K217">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L217">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217">
+        <v>4.333</v>
+      </c>
+      <c r="O217">
         <v>3.6</v>
       </c>
-      <c r="N217">
-        <v>2.45</v>
-      </c>
-      <c r="O217">
-        <v>3</v>
-      </c>
       <c r="P217">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R217">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S217">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19820,19 +19820,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC217">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -25269,7 +25269,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6799973</v>
+        <v>6799967</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25278,49 +25278,49 @@
         <v>28</v>
       </c>
       <c r="E279" s="2">
-        <v>45339.41666666666</v>
+        <v>45339.52083333334</v>
       </c>
       <c r="F279" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K279">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L279">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M279">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N279">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O279">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P279">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q279">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R279">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S279">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T279">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U279">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V279">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W279">
         <v>0</v>
@@ -25343,7 +25343,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6799967</v>
+        <v>6799972</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25352,49 +25352,49 @@
         <v>28</v>
       </c>
       <c r="E280" s="2">
-        <v>45339.52083333334</v>
+        <v>45339.5625</v>
       </c>
       <c r="F280" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G280" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K280">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L280">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M280">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="N280">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O280">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P280">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q280">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S280">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T280">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U280">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V280">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W280">
         <v>0</v>
@@ -25417,7 +25417,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6799972</v>
+        <v>6799971</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25429,46 +25429,46 @@
         <v>45339.5625</v>
       </c>
       <c r="F281" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G281" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K281">
+        <v>2.05</v>
+      </c>
+      <c r="L281">
+        <v>3.25</v>
+      </c>
+      <c r="M281">
+        <v>3.5</v>
+      </c>
+      <c r="N281">
         <v>2.1</v>
       </c>
-      <c r="L281">
-        <v>3.3</v>
-      </c>
-      <c r="M281">
-        <v>3.3</v>
-      </c>
-      <c r="N281">
-        <v>2.05</v>
-      </c>
       <c r="O281">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P281">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S281">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T281">
         <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V281">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W281">
         <v>0</v>
@@ -25491,7 +25491,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6799971</v>
+        <v>6799969</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25500,49 +25500,49 @@
         <v>28</v>
       </c>
       <c r="E282" s="2">
-        <v>45339.5625</v>
+        <v>45339.60416666666</v>
       </c>
       <c r="F282" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G282" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K282">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L282">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M282">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N282">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O282">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P282">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V282">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W282">
         <v>0</v>
@@ -25565,7 +25565,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6799969</v>
+        <v>6799970</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25574,34 +25574,34 @@
         <v>28</v>
       </c>
       <c r="E283" s="2">
-        <v>45339.60416666666</v>
+        <v>45340.64583333334</v>
       </c>
       <c r="F283" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G283" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K283">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L283">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="M283">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="N283">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O283">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P283">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q283">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R283">
         <v>1.975</v>
@@ -25610,7 +25610,7 @@
         <v>1.875</v>
       </c>
       <c r="T283">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U283">
         <v>1.925</v>
@@ -25639,7 +25639,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6799970</v>
+        <v>6799968</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25648,34 +25648,34 @@
         <v>28</v>
       </c>
       <c r="E284" s="2">
-        <v>45340.64583333334</v>
+        <v>45341.625</v>
       </c>
       <c r="F284" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G284" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K284">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L284">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="M284">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="N284">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="O284">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P284">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q284">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R284">
         <v>1.975</v>
@@ -25687,10 +25687,10 @@
         <v>2.75</v>
       </c>
       <c r="U284">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V284">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W284">
         <v>0</v>
@@ -25705,80 +25705,6 @@
         <v>0</v>
       </c>
       <c r="AA284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:29">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285">
-        <v>6799968</v>
-      </c>
-      <c r="C285" t="s">
-        <v>28</v>
-      </c>
-      <c r="D285" t="s">
-        <v>28</v>
-      </c>
-      <c r="E285" s="2">
-        <v>45341.625</v>
-      </c>
-      <c r="F285" t="s">
-        <v>31</v>
-      </c>
-      <c r="G285" t="s">
-        <v>32</v>
-      </c>
-      <c r="K285">
-        <v>6</v>
-      </c>
-      <c r="L285">
-        <v>4</v>
-      </c>
-      <c r="M285">
-        <v>1.5</v>
-      </c>
-      <c r="N285">
-        <v>6.5</v>
-      </c>
-      <c r="O285">
-        <v>4</v>
-      </c>
-      <c r="P285">
-        <v>1.5</v>
-      </c>
-      <c r="Q285">
-        <v>1</v>
-      </c>
-      <c r="R285">
-        <v>1.975</v>
-      </c>
-      <c r="S285">
-        <v>1.875</v>
-      </c>
-      <c r="T285">
-        <v>2.75</v>
-      </c>
-      <c r="U285">
-        <v>1.95</v>
-      </c>
-      <c r="V285">
-        <v>1.9</v>
-      </c>
-      <c r="W285">
-        <v>0</v>
-      </c>
-      <c r="X285">
-        <v>0</v>
-      </c>
-      <c r="Y285">
-        <v>0</v>
-      </c>
-      <c r="Z285">
-        <v>0</v>
-      </c>
-      <c r="AA285">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC284"/>
+  <dimension ref="A1:AC280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6404135</v>
+        <v>6402965</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6402965</v>
+        <v>6404135</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L86">
         <v>3.3</v>
       </c>
       <c r="M86">
+        <v>2.375</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>3.4</v>
+      </c>
+      <c r="P86">
+        <v>3.25</v>
+      </c>
+      <c r="Q86">
+        <v>-0.25</v>
+      </c>
+      <c r="R86">
+        <v>1.8</v>
+      </c>
+      <c r="S86">
+        <v>2.05</v>
+      </c>
+      <c r="T86">
+        <v>2.25</v>
+      </c>
+      <c r="U86">
+        <v>1.8</v>
+      </c>
+      <c r="V86">
+        <v>2.05</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
         <v>2.4</v>
       </c>
-      <c r="N86">
-        <v>2.6</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>2.7</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.95</v>
-      </c>
-      <c r="T86">
-        <v>2</v>
-      </c>
-      <c r="U86">
-        <v>1.875</v>
-      </c>
-      <c r="V86">
-        <v>1.975</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>2</v>
-      </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7511180</v>
+        <v>7511181</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N174">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q174">
         <v>0</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W174">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7511181</v>
+        <v>7511180</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,76 +16025,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
         <v>0</v>
       </c>
-      <c r="I175">
-        <v>2</v>
-      </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N175">
+        <v>2.5</v>
+      </c>
+      <c r="O175">
+        <v>3.2</v>
+      </c>
+      <c r="P175">
         <v>2.45</v>
-      </c>
-      <c r="O175">
-        <v>3.25</v>
-      </c>
-      <c r="P175">
-        <v>2.7</v>
       </c>
       <c r="Q175">
         <v>0</v>
       </c>
       <c r="R175">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S175">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7542639</v>
+        <v>7542719</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K202">
+        <v>2.6</v>
+      </c>
+      <c r="L202">
+        <v>3.1</v>
+      </c>
+      <c r="M202">
+        <v>2.6</v>
+      </c>
+      <c r="N202">
+        <v>2.9</v>
+      </c>
+      <c r="O202">
+        <v>3.2</v>
+      </c>
+      <c r="P202">
+        <v>2.3</v>
+      </c>
+      <c r="Q202">
+        <v>0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.8</v>
+      </c>
+      <c r="S202">
+        <v>2.05</v>
+      </c>
+      <c r="T202">
         <v>2.5</v>
       </c>
-      <c r="L202">
-        <v>3</v>
-      </c>
-      <c r="M202">
-        <v>2.75</v>
-      </c>
-      <c r="N202">
-        <v>2.7</v>
-      </c>
-      <c r="O202">
-        <v>2.8</v>
-      </c>
-      <c r="P202">
-        <v>2.75</v>
-      </c>
-      <c r="Q202">
-        <v>0</v>
-      </c>
-      <c r="R202">
-        <v>1.925</v>
-      </c>
-      <c r="S202">
-        <v>1.925</v>
-      </c>
-      <c r="T202">
-        <v>2</v>
-      </c>
       <c r="U202">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X202">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA202">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC202">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7542719</v>
+        <v>7542640</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K203">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L203">
+        <v>3.2</v>
+      </c>
+      <c r="M203">
+        <v>3.5</v>
+      </c>
+      <c r="N203">
+        <v>2.15</v>
+      </c>
+      <c r="O203">
         <v>3.1</v>
       </c>
-      <c r="M203">
-        <v>2.6</v>
-      </c>
-      <c r="N203">
-        <v>2.9</v>
-      </c>
-      <c r="O203">
+      <c r="P203">
         <v>3.2</v>
       </c>
-      <c r="P203">
-        <v>2.3</v>
-      </c>
       <c r="Q203">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S203">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W203">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z203">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB203">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7542640</v>
+        <v>7542639</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,40 +18606,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>45</v>
+      </c>
+      <c r="K204">
+        <v>2.5</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>2.75</v>
+      </c>
+      <c r="N204">
+        <v>2.7</v>
+      </c>
+      <c r="O204">
+        <v>2.8</v>
+      </c>
+      <c r="P204">
+        <v>2.75</v>
+      </c>
+      <c r="Q204">
         <v>0</v>
-      </c>
-      <c r="I204">
-        <v>1</v>
-      </c>
-      <c r="J204" t="s">
-        <v>47</v>
-      </c>
-      <c r="K204">
-        <v>2.05</v>
-      </c>
-      <c r="L204">
-        <v>3.2</v>
-      </c>
-      <c r="M204">
-        <v>3.5</v>
-      </c>
-      <c r="N204">
-        <v>2.15</v>
-      </c>
-      <c r="O204">
-        <v>3.1</v>
-      </c>
-      <c r="P204">
-        <v>3.2</v>
-      </c>
-      <c r="Q204">
-        <v>-0.25</v>
       </c>
       <c r="R204">
         <v>1.925</v>
@@ -18648,34 +18648,34 @@
         <v>1.925</v>
       </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V204">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y204">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA204">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC204">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,55 +19674,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
         <v>47</v>
       </c>
       <c r="K216">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L216">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>4.333</v>
+      </c>
+      <c r="O216">
         <v>3.6</v>
       </c>
-      <c r="N216">
-        <v>2.45</v>
-      </c>
-      <c r="O216">
-        <v>3</v>
-      </c>
       <c r="P216">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R216">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19731,19 +19731,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,55 +19763,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>47</v>
       </c>
       <c r="K217">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L217">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N217">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P217">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q217">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V217">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19820,19 +19820,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -25269,7 +25269,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6799967</v>
+        <v>6799970</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25278,49 +25278,49 @@
         <v>28</v>
       </c>
       <c r="E279" s="2">
-        <v>45339.52083333334</v>
+        <v>45340.64583333334</v>
       </c>
       <c r="F279" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G279" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K279">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L279">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="M279">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="N279">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O279">
         <v>4.75</v>
       </c>
       <c r="P279">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Q279">
         <v>-1.25</v>
       </c>
       <c r="R279">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S279">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T279">
         <v>2.75</v>
       </c>
       <c r="U279">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V279">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W279">
         <v>0</v>
@@ -25343,7 +25343,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6799972</v>
+        <v>6799968</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25352,43 +25352,43 @@
         <v>28</v>
       </c>
       <c r="E280" s="2">
-        <v>45339.5625</v>
+        <v>45341.625</v>
       </c>
       <c r="F280" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G280" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K280">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="L280">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M280">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N280">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O280">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P280">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q280">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R280">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S280">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T280">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U280">
         <v>1.95</v>
@@ -25409,302 +25409,6 @@
         <v>0</v>
       </c>
       <c r="AA280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:29">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281">
-        <v>6799971</v>
-      </c>
-      <c r="C281" t="s">
-        <v>28</v>
-      </c>
-      <c r="D281" t="s">
-        <v>28</v>
-      </c>
-      <c r="E281" s="2">
-        <v>45339.5625</v>
-      </c>
-      <c r="F281" t="s">
-        <v>34</v>
-      </c>
-      <c r="G281" t="s">
-        <v>40</v>
-      </c>
-      <c r="K281">
-        <v>2.05</v>
-      </c>
-      <c r="L281">
-        <v>3.25</v>
-      </c>
-      <c r="M281">
-        <v>3.5</v>
-      </c>
-      <c r="N281">
-        <v>2.1</v>
-      </c>
-      <c r="O281">
-        <v>3.1</v>
-      </c>
-      <c r="P281">
-        <v>3.5</v>
-      </c>
-      <c r="Q281">
-        <v>-0.25</v>
-      </c>
-      <c r="R281">
-        <v>1.8</v>
-      </c>
-      <c r="S281">
-        <v>2.05</v>
-      </c>
-      <c r="T281">
-        <v>2.25</v>
-      </c>
-      <c r="U281">
-        <v>2.05</v>
-      </c>
-      <c r="V281">
-        <v>1.8</v>
-      </c>
-      <c r="W281">
-        <v>0</v>
-      </c>
-      <c r="X281">
-        <v>0</v>
-      </c>
-      <c r="Y281">
-        <v>0</v>
-      </c>
-      <c r="Z281">
-        <v>0</v>
-      </c>
-      <c r="AA281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:29">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="B282">
-        <v>6799969</v>
-      </c>
-      <c r="C282" t="s">
-        <v>28</v>
-      </c>
-      <c r="D282" t="s">
-        <v>28</v>
-      </c>
-      <c r="E282" s="2">
-        <v>45339.60416666666</v>
-      </c>
-      <c r="F282" t="s">
-        <v>42</v>
-      </c>
-      <c r="G282" t="s">
-        <v>41</v>
-      </c>
-      <c r="K282">
-        <v>2.6</v>
-      </c>
-      <c r="L282">
-        <v>3.2</v>
-      </c>
-      <c r="M282">
-        <v>2.55</v>
-      </c>
-      <c r="N282">
-        <v>2.7</v>
-      </c>
-      <c r="O282">
-        <v>3.2</v>
-      </c>
-      <c r="P282">
-        <v>2.5</v>
-      </c>
-      <c r="Q282">
-        <v>0</v>
-      </c>
-      <c r="R282">
-        <v>2</v>
-      </c>
-      <c r="S282">
-        <v>1.85</v>
-      </c>
-      <c r="T282">
-        <v>2.5</v>
-      </c>
-      <c r="U282">
-        <v>1.975</v>
-      </c>
-      <c r="V282">
-        <v>1.875</v>
-      </c>
-      <c r="W282">
-        <v>0</v>
-      </c>
-      <c r="X282">
-        <v>0</v>
-      </c>
-      <c r="Y282">
-        <v>0</v>
-      </c>
-      <c r="Z282">
-        <v>0</v>
-      </c>
-      <c r="AA282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:29">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="B283">
-        <v>6799970</v>
-      </c>
-      <c r="C283" t="s">
-        <v>28</v>
-      </c>
-      <c r="D283" t="s">
-        <v>28</v>
-      </c>
-      <c r="E283" s="2">
-        <v>45340.64583333334</v>
-      </c>
-      <c r="F283" t="s">
-        <v>30</v>
-      </c>
-      <c r="G283" t="s">
-        <v>33</v>
-      </c>
-      <c r="K283">
-        <v>1.363</v>
-      </c>
-      <c r="L283">
-        <v>4.6</v>
-      </c>
-      <c r="M283">
-        <v>7.5</v>
-      </c>
-      <c r="N283">
-        <v>1.4</v>
-      </c>
-      <c r="O283">
-        <v>4.5</v>
-      </c>
-      <c r="P283">
-        <v>6.5</v>
-      </c>
-      <c r="Q283">
-        <v>-1.25</v>
-      </c>
-      <c r="R283">
-        <v>1.975</v>
-      </c>
-      <c r="S283">
-        <v>1.875</v>
-      </c>
-      <c r="T283">
-        <v>2.75</v>
-      </c>
-      <c r="U283">
-        <v>1.925</v>
-      </c>
-      <c r="V283">
-        <v>1.925</v>
-      </c>
-      <c r="W283">
-        <v>0</v>
-      </c>
-      <c r="X283">
-        <v>0</v>
-      </c>
-      <c r="Y283">
-        <v>0</v>
-      </c>
-      <c r="Z283">
-        <v>0</v>
-      </c>
-      <c r="AA283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:29">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="B284">
-        <v>6799968</v>
-      </c>
-      <c r="C284" t="s">
-        <v>28</v>
-      </c>
-      <c r="D284" t="s">
-        <v>28</v>
-      </c>
-      <c r="E284" s="2">
-        <v>45341.625</v>
-      </c>
-      <c r="F284" t="s">
-        <v>31</v>
-      </c>
-      <c r="G284" t="s">
-        <v>32</v>
-      </c>
-      <c r="K284">
-        <v>6</v>
-      </c>
-      <c r="L284">
-        <v>4</v>
-      </c>
-      <c r="M284">
-        <v>1.5</v>
-      </c>
-      <c r="N284">
-        <v>6.5</v>
-      </c>
-      <c r="O284">
-        <v>4</v>
-      </c>
-      <c r="P284">
-        <v>1.5</v>
-      </c>
-      <c r="Q284">
-        <v>1</v>
-      </c>
-      <c r="R284">
-        <v>1.975</v>
-      </c>
-      <c r="S284">
-        <v>1.875</v>
-      </c>
-      <c r="T284">
-        <v>2.75</v>
-      </c>
-      <c r="U284">
-        <v>1.95</v>
-      </c>
-      <c r="V284">
-        <v>1.9</v>
-      </c>
-      <c r="W284">
-        <v>0</v>
-      </c>
-      <c r="X284">
-        <v>0</v>
-      </c>
-      <c r="Y284">
-        <v>0</v>
-      </c>
-      <c r="Z284">
-        <v>0</v>
-      </c>
-      <c r="AA284">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC280"/>
+  <dimension ref="A1:AC285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5145342</v>
+        <v>5266292</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>2.15</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
         <v>3.4</v>
       </c>
       <c r="N62">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P62">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X62">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC62">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5266292</v>
+        <v>5145342</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>2.15</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
         <v>3.4</v>
       </c>
       <c r="N63">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O63">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6404128</v>
+        <v>6404146</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="N104">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P104">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6404146</v>
+        <v>6404128</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="N105">
-        <v>8.5</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="Q105">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6404125</v>
+        <v>6404144</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M110">
+        <v>8</v>
+      </c>
+      <c r="N110">
+        <v>1.363</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>9</v>
+      </c>
+      <c r="Q110">
+        <v>-1.25</v>
+      </c>
+      <c r="R110">
+        <v>1.925</v>
+      </c>
+      <c r="S110">
+        <v>1.925</v>
+      </c>
+      <c r="T110">
+        <v>2.25</v>
+      </c>
+      <c r="U110">
         <v>1.8</v>
       </c>
-      <c r="N110">
-        <v>4.2</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>1.727</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.85</v>
-      </c>
-      <c r="S110">
-        <v>2</v>
-      </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
       <c r="V110">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6404144</v>
+        <v>6404125</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="L111">
+        <v>3.6</v>
+      </c>
+      <c r="M111">
+        <v>1.8</v>
+      </c>
+      <c r="N111">
         <v>4.2</v>
       </c>
-      <c r="M111">
-        <v>8</v>
-      </c>
-      <c r="N111">
-        <v>1.363</v>
-      </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R111">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W111">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB111">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6404124</v>
+        <v>6404123</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L116">
+        <v>3.5</v>
+      </c>
+      <c r="M116">
+        <v>3.75</v>
+      </c>
+      <c r="N116">
+        <v>2.7</v>
+      </c>
+      <c r="O116">
         <v>3.3</v>
       </c>
-      <c r="M116">
-        <v>3.25</v>
-      </c>
-      <c r="N116">
-        <v>2.45</v>
-      </c>
-      <c r="O116">
-        <v>3.1</v>
-      </c>
       <c r="P116">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>1.125</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6402968</v>
+        <v>6404124</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,73 +10863,73 @@
         <v>45052.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N117">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O117">
         <v>3.1</v>
       </c>
       <c r="P117">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6404123</v>
+        <v>6402968</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,56 +10952,56 @@
         <v>45052.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O118">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q118">
         <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
+        <v>1.975</v>
+      </c>
+      <c r="V118">
         <v>1.875</v>
       </c>
-      <c r="V118">
-        <v>1.975</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
@@ -11009,19 +11009,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6404139</v>
+        <v>6404140</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,49 +11753,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+      <c r="J127" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127">
+        <v>4.5</v>
+      </c>
+      <c r="L127">
+        <v>4.2</v>
+      </c>
+      <c r="M127">
+        <v>1.533</v>
+      </c>
+      <c r="N127">
+        <v>6</v>
+      </c>
+      <c r="O127">
+        <v>5</v>
+      </c>
+      <c r="P127">
+        <v>1.363</v>
+      </c>
+      <c r="Q127">
+        <v>1.25</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>1.85</v>
+      </c>
+      <c r="T127">
         <v>3</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
-        <v>46</v>
-      </c>
-      <c r="K127">
-        <v>2.2</v>
-      </c>
-      <c r="L127">
-        <v>3.3</v>
-      </c>
-      <c r="M127">
-        <v>2.8</v>
-      </c>
-      <c r="N127">
-        <v>2</v>
-      </c>
-      <c r="O127">
-        <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>3.3</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.975</v>
-      </c>
-      <c r="S127">
-        <v>1.875</v>
-      </c>
-      <c r="T127">
-        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.875</v>
@@ -11804,19 +11804,19 @@
         <v>1.975</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
         <v>0.875</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6404140</v>
+        <v>6404139</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,49 +11842,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N128">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q128">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.875</v>
@@ -11893,19 +11893,19 @@
         <v>1.975</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
         <v>0.875</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6670415</v>
+        <v>6670416</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,13 +11931,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11946,43 +11946,43 @@
         <v>46</v>
       </c>
       <c r="K129">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M129">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N129">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O129">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P129">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
-        <v>0.45</v>
+        <v>0.222</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11991,16 +11991,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6670414</v>
+        <v>6670415</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K130">
+        <v>1.5</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>5</v>
+      </c>
+      <c r="N130">
+        <v>1.45</v>
+      </c>
+      <c r="O130">
+        <v>4.2</v>
+      </c>
+      <c r="P130">
         <v>5.25</v>
       </c>
-      <c r="L130">
-        <v>4.333</v>
-      </c>
-      <c r="M130">
-        <v>1.444</v>
-      </c>
-      <c r="N130">
-        <v>7</v>
-      </c>
-      <c r="O130">
-        <v>5.25</v>
-      </c>
-      <c r="P130">
-        <v>1.285</v>
-      </c>
       <c r="Q130">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6670416</v>
+        <v>6670414</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>47</v>
+      </c>
+      <c r="K131">
+        <v>5.25</v>
+      </c>
+      <c r="L131">
+        <v>4.333</v>
+      </c>
+      <c r="M131">
+        <v>1.444</v>
+      </c>
+      <c r="N131">
+        <v>7</v>
+      </c>
+      <c r="O131">
+        <v>5.25</v>
+      </c>
+      <c r="P131">
+        <v>1.285</v>
+      </c>
+      <c r="Q131">
+        <v>1.5</v>
+      </c>
+      <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
+        <v>1.95</v>
+      </c>
+      <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>1.9</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z131">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
         <v>0</v>
       </c>
-      <c r="J131" t="s">
-        <v>46</v>
-      </c>
-      <c r="K131">
-        <v>1.285</v>
-      </c>
-      <c r="L131">
-        <v>5</v>
-      </c>
-      <c r="M131">
-        <v>7.5</v>
-      </c>
-      <c r="N131">
-        <v>1.222</v>
-      </c>
-      <c r="O131">
-        <v>5.75</v>
-      </c>
-      <c r="P131">
-        <v>8.5</v>
-      </c>
-      <c r="Q131">
-        <v>-1.75</v>
-      </c>
-      <c r="R131">
-        <v>1.875</v>
-      </c>
-      <c r="S131">
-        <v>1.975</v>
-      </c>
-      <c r="T131">
-        <v>3.25</v>
-      </c>
-      <c r="U131">
-        <v>1.925</v>
-      </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
-      <c r="W131">
-        <v>0.222</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>0.875</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>0.925</v>
-      </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6799838</v>
+        <v>6799836</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K146">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="L146">
+        <v>6</v>
+      </c>
+      <c r="M146">
+        <v>11</v>
+      </c>
+      <c r="N146">
+        <v>1.2</v>
+      </c>
+      <c r="O146">
+        <v>6</v>
+      </c>
+      <c r="P146">
+        <v>10</v>
+      </c>
+      <c r="Q146">
+        <v>-1.75</v>
+      </c>
+      <c r="R146">
+        <v>1.825</v>
+      </c>
+      <c r="S146">
+        <v>2.025</v>
+      </c>
+      <c r="T146">
         <v>3</v>
       </c>
-      <c r="M146">
-        <v>3.2</v>
-      </c>
-      <c r="N146">
-        <v>2.15</v>
-      </c>
-      <c r="O146">
-        <v>3.1</v>
-      </c>
-      <c r="P146">
-        <v>3.1</v>
-      </c>
-      <c r="Q146">
-        <v>-0.25</v>
-      </c>
-      <c r="R146">
-        <v>2</v>
-      </c>
-      <c r="S146">
+      <c r="U146">
         <v>1.85</v>
       </c>
-      <c r="T146">
-        <v>2.5</v>
-      </c>
-      <c r="U146">
-        <v>2</v>
-      </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6799836</v>
+        <v>6799838</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="L147">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M147">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N147">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O147">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q147">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
         <v>1.85</v>
       </c>
-      <c r="V147">
-        <v>2</v>
-      </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X147">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7542500</v>
+        <v>7542499</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K188">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="L188">
         <v>3.2</v>
       </c>
       <c r="M188">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N188">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P188">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z188">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC188">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7542499</v>
+        <v>7542500</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K190">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="L190">
         <v>3.2</v>
       </c>
       <c r="M190">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N190">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O190">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P190">
+        <v>2.9</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
         <v>2.05</v>
       </c>
-      <c r="Q190">
-        <v>0.25</v>
-      </c>
-      <c r="R190">
-        <v>2</v>
-      </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T190">
         <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
         <v>1.05</v>
       </c>
-      <c r="Z190">
-        <v>-1</v>
-      </c>
       <c r="AA190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7542719</v>
+        <v>7542640</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K202">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L202">
+        <v>3.2</v>
+      </c>
+      <c r="M202">
+        <v>3.5</v>
+      </c>
+      <c r="N202">
+        <v>2.15</v>
+      </c>
+      <c r="O202">
         <v>3.1</v>
       </c>
-      <c r="M202">
-        <v>2.6</v>
-      </c>
-      <c r="N202">
-        <v>2.9</v>
-      </c>
-      <c r="O202">
+      <c r="P202">
         <v>3.2</v>
       </c>
-      <c r="P202">
-        <v>2.3</v>
-      </c>
       <c r="Q202">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V202">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z202">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K203">
+        <v>2.6</v>
+      </c>
+      <c r="L203">
+        <v>3.1</v>
+      </c>
+      <c r="M203">
+        <v>2.6</v>
+      </c>
+      <c r="N203">
+        <v>2.9</v>
+      </c>
+      <c r="O203">
+        <v>3.2</v>
+      </c>
+      <c r="P203">
+        <v>2.3</v>
+      </c>
+      <c r="Q203">
+        <v>0.25</v>
+      </c>
+      <c r="R203">
+        <v>1.8</v>
+      </c>
+      <c r="S203">
         <v>2.05</v>
       </c>
-      <c r="L203">
-        <v>3.2</v>
-      </c>
-      <c r="M203">
-        <v>3.5</v>
-      </c>
-      <c r="N203">
-        <v>2.15</v>
-      </c>
-      <c r="O203">
-        <v>3.1</v>
-      </c>
-      <c r="P203">
-        <v>3.2</v>
-      </c>
-      <c r="Q203">
-        <v>-0.25</v>
-      </c>
-      <c r="R203">
-        <v>1.925</v>
-      </c>
-      <c r="S203">
-        <v>1.925</v>
-      </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
+        <v>1.85</v>
+      </c>
+      <c r="W203">
         <v>1.9</v>
       </c>
-      <c r="V203">
-        <v>1.95</v>
-      </c>
-      <c r="W203">
-        <v>-1</v>
-      </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA203">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7542737</v>
+        <v>7542735</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H238">
+        <v>2</v>
+      </c>
+      <c r="I238">
         <v>0</v>
       </c>
-      <c r="I238">
-        <v>1</v>
-      </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M238">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N238">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O238">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P238">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
+        <v>1.975</v>
+      </c>
+      <c r="V238">
         <v>1.875</v>
       </c>
-      <c r="V238">
-        <v>1.975</v>
-      </c>
       <c r="W238">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7542735</v>
+        <v>7542737</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K239">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M239">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N239">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O239">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P239">
+        <v>2.3</v>
+      </c>
+      <c r="Q239">
+        <v>0.25</v>
+      </c>
+      <c r="R239">
         <v>1.85</v>
       </c>
-      <c r="Q239">
-        <v>0.5</v>
-      </c>
-      <c r="R239">
-        <v>1.95</v>
-      </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U239">
+        <v>1.875</v>
+      </c>
+      <c r="V239">
         <v>1.975</v>
       </c>
-      <c r="V239">
-        <v>1.875</v>
-      </c>
       <c r="W239">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z239">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -25269,7 +25269,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6799970</v>
+        <v>6799973</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25278,34 +25278,43 @@
         <v>28</v>
       </c>
       <c r="E279" s="2">
-        <v>45340.64583333334</v>
+        <v>45339.41666666666</v>
       </c>
       <c r="F279" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G279" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279" t="s">
+        <v>45</v>
       </c>
       <c r="K279">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L279">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="M279">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N279">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O279">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P279">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q279">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R279">
         <v>1.925</v>
@@ -25314,28 +25323,34 @@
         <v>1.925</v>
       </c>
       <c r="T279">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U279">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V279">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X279">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA279">
-        <v>0</v>
+        <v>0.4625</v>
+      </c>
+      <c r="AB279">
+        <v>-1</v>
+      </c>
+      <c r="AC279">
+        <v>1.025</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25343,7 +25358,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6799968</v>
+        <v>6799967</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25352,63 +25367,508 @@
         <v>28</v>
       </c>
       <c r="E280" s="2">
-        <v>45341.625</v>
+        <v>45339.52083333334</v>
       </c>
       <c r="F280" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G280" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280" t="s">
+        <v>45</v>
       </c>
       <c r="K280">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L280">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M280">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="N280">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="O280">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P280">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q280">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R280">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S280">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T280">
         <v>2.75</v>
       </c>
       <c r="U280">
+        <v>1.975</v>
+      </c>
+      <c r="V280">
+        <v>1.875</v>
+      </c>
+      <c r="W280">
+        <v>-1</v>
+      </c>
+      <c r="X280">
+        <v>3.75</v>
+      </c>
+      <c r="Y280">
+        <v>-1</v>
+      </c>
+      <c r="Z280">
+        <v>-1</v>
+      </c>
+      <c r="AA280">
+        <v>0.8</v>
+      </c>
+      <c r="AB280">
+        <v>-1</v>
+      </c>
+      <c r="AC280">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>6799972</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45339.5625</v>
+      </c>
+      <c r="F281" t="s">
+        <v>44</v>
+      </c>
+      <c r="G281" t="s">
+        <v>29</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281" t="s">
+        <v>47</v>
+      </c>
+      <c r="K281">
+        <v>2.1</v>
+      </c>
+      <c r="L281">
+        <v>3.3</v>
+      </c>
+      <c r="M281">
+        <v>3.3</v>
+      </c>
+      <c r="N281">
+        <v>2.05</v>
+      </c>
+      <c r="O281">
+        <v>3.3</v>
+      </c>
+      <c r="P281">
+        <v>3.4</v>
+      </c>
+      <c r="Q281">
+        <v>-0.25</v>
+      </c>
+      <c r="R281">
+        <v>1.825</v>
+      </c>
+      <c r="S281">
+        <v>2.025</v>
+      </c>
+      <c r="T281">
+        <v>2.25</v>
+      </c>
+      <c r="U281">
         <v>1.95</v>
       </c>
-      <c r="V280">
+      <c r="V281">
         <v>1.9</v>
       </c>
-      <c r="W280">
+      <c r="W281">
+        <v>-1</v>
+      </c>
+      <c r="X281">
+        <v>-1</v>
+      </c>
+      <c r="Y281">
+        <v>2.4</v>
+      </c>
+      <c r="Z281">
+        <v>-1</v>
+      </c>
+      <c r="AA281">
+        <v>1.025</v>
+      </c>
+      <c r="AB281">
+        <v>-0.5</v>
+      </c>
+      <c r="AC281">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>6799971</v>
+      </c>
+      <c r="C282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45339.5625</v>
+      </c>
+      <c r="F282" t="s">
+        <v>34</v>
+      </c>
+      <c r="G282" t="s">
+        <v>40</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282" t="s">
+        <v>45</v>
+      </c>
+      <c r="K282">
+        <v>2.05</v>
+      </c>
+      <c r="L282">
+        <v>3.25</v>
+      </c>
+      <c r="M282">
+        <v>3.5</v>
+      </c>
+      <c r="N282">
+        <v>2.1</v>
+      </c>
+      <c r="O282">
+        <v>3.1</v>
+      </c>
+      <c r="P282">
+        <v>3.5</v>
+      </c>
+      <c r="Q282">
+        <v>-0.25</v>
+      </c>
+      <c r="R282">
+        <v>1.875</v>
+      </c>
+      <c r="S282">
+        <v>1.975</v>
+      </c>
+      <c r="T282">
+        <v>2</v>
+      </c>
+      <c r="U282">
+        <v>1.8</v>
+      </c>
+      <c r="V282">
+        <v>2.05</v>
+      </c>
+      <c r="W282">
+        <v>-1</v>
+      </c>
+      <c r="X282">
+        <v>2.1</v>
+      </c>
+      <c r="Y282">
+        <v>-1</v>
+      </c>
+      <c r="Z282">
+        <v>-0.5</v>
+      </c>
+      <c r="AA282">
+        <v>0.4875</v>
+      </c>
+      <c r="AB282">
         <v>0</v>
       </c>
-      <c r="X280">
+      <c r="AC282">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>6799969</v>
+      </c>
+      <c r="C283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45339.60416666666</v>
+      </c>
+      <c r="F283" t="s">
+        <v>42</v>
+      </c>
+      <c r="G283" t="s">
+        <v>41</v>
+      </c>
+      <c r="H283">
+        <v>2</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283" t="s">
+        <v>46</v>
+      </c>
+      <c r="K283">
+        <v>2.6</v>
+      </c>
+      <c r="L283">
+        <v>3.2</v>
+      </c>
+      <c r="M283">
+        <v>2.55</v>
+      </c>
+      <c r="N283">
+        <v>2.6</v>
+      </c>
+      <c r="O283">
+        <v>3.2</v>
+      </c>
+      <c r="P283">
+        <v>2.6</v>
+      </c>
+      <c r="Q283">
         <v>0</v>
       </c>
-      <c r="Y280">
+      <c r="R283">
+        <v>1.925</v>
+      </c>
+      <c r="S283">
+        <v>1.925</v>
+      </c>
+      <c r="T283">
+        <v>2.5</v>
+      </c>
+      <c r="U283">
+        <v>1.975</v>
+      </c>
+      <c r="V283">
+        <v>1.875</v>
+      </c>
+      <c r="W283">
+        <v>1.6</v>
+      </c>
+      <c r="X283">
+        <v>-1</v>
+      </c>
+      <c r="Y283">
+        <v>-1</v>
+      </c>
+      <c r="Z283">
+        <v>0.925</v>
+      </c>
+      <c r="AA283">
+        <v>-1</v>
+      </c>
+      <c r="AB283">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC283">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>6799970</v>
+      </c>
+      <c r="C284" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45340.64583333334</v>
+      </c>
+      <c r="F284" t="s">
+        <v>30</v>
+      </c>
+      <c r="G284" t="s">
+        <v>33</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284" t="s">
+        <v>45</v>
+      </c>
+      <c r="K284">
+        <v>1.363</v>
+      </c>
+      <c r="L284">
+        <v>4.6</v>
+      </c>
+      <c r="M284">
+        <v>7.5</v>
+      </c>
+      <c r="N284">
+        <v>1.45</v>
+      </c>
+      <c r="O284">
+        <v>4.5</v>
+      </c>
+      <c r="P284">
+        <v>6</v>
+      </c>
+      <c r="Q284">
+        <v>-1.25</v>
+      </c>
+      <c r="R284">
+        <v>2.05</v>
+      </c>
+      <c r="S284">
+        <v>1.8</v>
+      </c>
+      <c r="T284">
+        <v>2.75</v>
+      </c>
+      <c r="U284">
+        <v>1.95</v>
+      </c>
+      <c r="V284">
+        <v>1.9</v>
+      </c>
+      <c r="W284">
+        <v>-1</v>
+      </c>
+      <c r="X284">
+        <v>3.5</v>
+      </c>
+      <c r="Y284">
+        <v>-1</v>
+      </c>
+      <c r="Z284">
+        <v>-1</v>
+      </c>
+      <c r="AA284">
+        <v>0.8</v>
+      </c>
+      <c r="AB284">
+        <v>-1</v>
+      </c>
+      <c r="AC284">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>6799968</v>
+      </c>
+      <c r="C285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D285" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45341.625</v>
+      </c>
+      <c r="F285" t="s">
+        <v>31</v>
+      </c>
+      <c r="G285" t="s">
+        <v>32</v>
+      </c>
+      <c r="K285">
+        <v>6</v>
+      </c>
+      <c r="L285">
+        <v>4</v>
+      </c>
+      <c r="M285">
+        <v>1.5</v>
+      </c>
+      <c r="N285">
+        <v>6</v>
+      </c>
+      <c r="O285">
+        <v>3.8</v>
+      </c>
+      <c r="P285">
+        <v>1.533</v>
+      </c>
+      <c r="Q285">
+        <v>1</v>
+      </c>
+      <c r="R285">
+        <v>1.95</v>
+      </c>
+      <c r="S285">
+        <v>1.9</v>
+      </c>
+      <c r="T285">
+        <v>2.75</v>
+      </c>
+      <c r="U285">
+        <v>1.975</v>
+      </c>
+      <c r="V285">
+        <v>1.875</v>
+      </c>
+      <c r="W285">
         <v>0</v>
       </c>
-      <c r="Z280">
+      <c r="X285">
         <v>0</v>
       </c>
-      <c r="AA280">
+      <c r="Y285">
+        <v>0</v>
+      </c>
+      <c r="Z285">
+        <v>0</v>
+      </c>
+      <c r="AA285">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5145376</v>
+        <v>5145143</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,34 +3387,34 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
         <v>3.25</v>
       </c>
       <c r="M33">
+        <v>2.875</v>
+      </c>
+      <c r="N33">
         <v>2.7</v>
       </c>
-      <c r="N33">
-        <v>2.625</v>
-      </c>
       <c r="O33">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P33">
         <v>2.5</v>
@@ -3441,16 +3441,16 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y33">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
         <v>-0.5</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5145143</v>
+        <v>5145376</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,34 +3476,34 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L34">
         <v>3.25</v>
       </c>
       <c r="M34">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N34">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O34">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P34">
         <v>2.5</v>
@@ -3530,16 +3530,16 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5266292</v>
+        <v>5145342</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>2.15</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M62">
         <v>3.4</v>
       </c>
       <c r="N62">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5145342</v>
+        <v>5266292</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>2.15</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
         <v>3.4</v>
       </c>
       <c r="N63">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X63">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6404155</v>
+        <v>6402973</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,58 +7837,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>46</v>
       </c>
       <c r="K83">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W83">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,16 +7897,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6402973</v>
+        <v>6404155</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>46</v>
       </c>
       <c r="K84">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L84">
+        <v>3.75</v>
+      </c>
+      <c r="M84">
+        <v>5</v>
+      </c>
+      <c r="N84">
+        <v>1.833</v>
+      </c>
+      <c r="O84">
         <v>3.3</v>
       </c>
-      <c r="M84">
-        <v>3.1</v>
-      </c>
-      <c r="N84">
-        <v>2.15</v>
-      </c>
-      <c r="O84">
-        <v>3.2</v>
-      </c>
       <c r="P84">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,16 +7986,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6402965</v>
+        <v>6404135</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
+        <v>2.375</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>3.4</v>
+      </c>
+      <c r="P85">
+        <v>3.25</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
+        <v>1.8</v>
+      </c>
+      <c r="S85">
+        <v>2.05</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>1.8</v>
+      </c>
+      <c r="V85">
+        <v>2.05</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
         <v>2.4</v>
       </c>
-      <c r="N85">
-        <v>2.6</v>
-      </c>
-      <c r="O85">
-        <v>3</v>
-      </c>
-      <c r="P85">
-        <v>2.7</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.95</v>
-      </c>
-      <c r="T85">
-        <v>2</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
-      <c r="W85">
-        <v>-1</v>
-      </c>
-      <c r="X85">
-        <v>2</v>
-      </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6404135</v>
+        <v>6402965</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L86">
         <v>3.3</v>
       </c>
       <c r="M86">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6404130</v>
+        <v>6404128</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,40 +9617,40 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N103">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O103">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
         <v>2.05</v>
@@ -9659,19 +9659,19 @@
         <v>1.8</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
         <v>2.025</v>
       </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -9683,10 +9683,10 @@
         <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6404128</v>
+        <v>6404130</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,40 +9795,40 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N105">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O105">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
         <v>2.05</v>
@@ -9837,19 +9837,19 @@
         <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
+        <v>2.025</v>
+      </c>
+      <c r="V105">
         <v>1.825</v>
       </c>
-      <c r="V105">
-        <v>2.025</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -9861,10 +9861,10 @@
         <v>0.8</v>
       </c>
       <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.825</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6404144</v>
+        <v>6404125</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="L110">
+        <v>3.6</v>
+      </c>
+      <c r="M110">
+        <v>1.8</v>
+      </c>
+      <c r="N110">
         <v>4.2</v>
       </c>
-      <c r="M110">
-        <v>8</v>
-      </c>
-      <c r="N110">
-        <v>1.363</v>
-      </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB110">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6404125</v>
+        <v>6404144</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M111">
+        <v>8</v>
+      </c>
+      <c r="N111">
+        <v>1.363</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
+        <v>9</v>
+      </c>
+      <c r="Q111">
+        <v>-1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.925</v>
+      </c>
+      <c r="S111">
+        <v>1.925</v>
+      </c>
+      <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
         <v>1.8</v>
       </c>
-      <c r="N111">
-        <v>4.2</v>
-      </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>1.727</v>
-      </c>
-      <c r="Q111">
-        <v>0.75</v>
-      </c>
-      <c r="R111">
-        <v>1.85</v>
-      </c>
-      <c r="S111">
-        <v>2</v>
-      </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.85</v>
-      </c>
       <c r="V111">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6404123</v>
+        <v>6404124</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116">
+        <v>2.05</v>
+      </c>
+      <c r="L116">
+        <v>3.3</v>
+      </c>
+      <c r="M116">
+        <v>3.25</v>
+      </c>
+      <c r="N116">
+        <v>2.45</v>
+      </c>
+      <c r="O116">
+        <v>3.1</v>
+      </c>
+      <c r="P116">
+        <v>2.625</v>
+      </c>
+      <c r="Q116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116" t="s">
-        <v>47</v>
-      </c>
-      <c r="K116">
-        <v>1.833</v>
-      </c>
-      <c r="L116">
-        <v>3.5</v>
-      </c>
-      <c r="M116">
-        <v>3.75</v>
-      </c>
-      <c r="N116">
-        <v>2.7</v>
-      </c>
-      <c r="O116">
-        <v>3.3</v>
-      </c>
-      <c r="P116">
-        <v>2.375</v>
-      </c>
-      <c r="Q116">
-        <v>0.25</v>
-      </c>
       <c r="R116">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>1.125</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6404124</v>
+        <v>6404123</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>3.75</v>
+      </c>
+      <c r="N117">
+        <v>2.7</v>
+      </c>
+      <c r="O117">
         <v>3.3</v>
       </c>
-      <c r="M117">
-        <v>3.25</v>
-      </c>
-      <c r="N117">
-        <v>2.45</v>
-      </c>
-      <c r="O117">
-        <v>3.1</v>
-      </c>
       <c r="P117">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>1.125</v>
       </c>
       <c r="AB117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6404141</v>
+        <v>6404142</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,49 +11130,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M120">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="N120">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
         <v>2.025</v>
@@ -11181,25 +11181,25 @@
         <v>1.825</v>
       </c>
       <c r="W120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z120">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6404142</v>
+        <v>6404141</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,49 +11219,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K121">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N121">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
         <v>2.025</v>
@@ -11270,25 +11270,25 @@
         <v>1.825</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6402969</v>
+        <v>6404121</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,40 +11397,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
         <v>47</v>
       </c>
       <c r="K123">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N123">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O123">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
         <v>1.8</v>
@@ -11442,10 +11442,10 @@
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11454,7 +11454,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11463,7 +11463,7 @@
         <v>1.05</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6404121</v>
+        <v>6402969</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L124">
         <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R124">
         <v>1.8</v>
@@ -11531,10 +11531,10 @@
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11543,7 +11543,7 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
@@ -11552,7 +11552,7 @@
         <v>1.05</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6404140</v>
+        <v>6404139</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,49 +11753,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L127">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N127">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O127">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q127">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.875</v>
@@ -11804,19 +11804,19 @@
         <v>1.975</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>0.875</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6404139</v>
+        <v>6404140</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,49 +11842,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>5</v>
+      </c>
+      <c r="J128" t="s">
+        <v>47</v>
+      </c>
+      <c r="K128">
+        <v>4.5</v>
+      </c>
+      <c r="L128">
+        <v>4.2</v>
+      </c>
+      <c r="M128">
+        <v>1.533</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128">
+        <v>5</v>
+      </c>
+      <c r="P128">
+        <v>1.363</v>
+      </c>
+      <c r="Q128">
+        <v>1.25</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>1.85</v>
+      </c>
+      <c r="T128">
         <v>3</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>46</v>
-      </c>
-      <c r="K128">
-        <v>2.2</v>
-      </c>
-      <c r="L128">
-        <v>3.3</v>
-      </c>
-      <c r="M128">
-        <v>2.8</v>
-      </c>
-      <c r="N128">
-        <v>2</v>
-      </c>
-      <c r="O128">
-        <v>3.5</v>
-      </c>
-      <c r="P128">
-        <v>3.3</v>
-      </c>
-      <c r="Q128">
-        <v>-0.5</v>
-      </c>
-      <c r="R128">
-        <v>1.975</v>
-      </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.875</v>
@@ -11893,19 +11893,19 @@
         <v>1.975</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB128">
         <v>0.875</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6670416</v>
+        <v>6670414</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>47</v>
+      </c>
+      <c r="K129">
+        <v>5.25</v>
+      </c>
+      <c r="L129">
+        <v>4.333</v>
+      </c>
+      <c r="M129">
+        <v>1.444</v>
+      </c>
+      <c r="N129">
+        <v>7</v>
+      </c>
+      <c r="O129">
+        <v>5.25</v>
+      </c>
+      <c r="P129">
+        <v>1.285</v>
+      </c>
+      <c r="Q129">
+        <v>1.5</v>
+      </c>
+      <c r="R129">
+        <v>1.9</v>
+      </c>
+      <c r="S129">
+        <v>1.95</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
+        <v>1.9</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z129">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
         <v>0</v>
       </c>
-      <c r="J129" t="s">
-        <v>46</v>
-      </c>
-      <c r="K129">
-        <v>1.285</v>
-      </c>
-      <c r="L129">
-        <v>5</v>
-      </c>
-      <c r="M129">
-        <v>7.5</v>
-      </c>
-      <c r="N129">
-        <v>1.222</v>
-      </c>
-      <c r="O129">
-        <v>5.75</v>
-      </c>
-      <c r="P129">
-        <v>8.5</v>
-      </c>
-      <c r="Q129">
-        <v>-1.75</v>
-      </c>
-      <c r="R129">
-        <v>1.875</v>
-      </c>
-      <c r="S129">
-        <v>1.975</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
-      <c r="U129">
-        <v>1.925</v>
-      </c>
-      <c r="V129">
-        <v>1.925</v>
-      </c>
-      <c r="W129">
-        <v>0.222</v>
-      </c>
-      <c r="X129">
-        <v>-1</v>
-      </c>
-      <c r="Y129">
-        <v>-1</v>
-      </c>
-      <c r="Z129">
-        <v>0.875</v>
-      </c>
-      <c r="AA129">
-        <v>-1</v>
-      </c>
-      <c r="AB129">
-        <v>0.925</v>
-      </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6670414</v>
+        <v>6670416</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="L131">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N131">
-        <v>7</v>
+        <v>1.222</v>
       </c>
       <c r="O131">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P131">
-        <v>1.285</v>
+        <v>8.5</v>
       </c>
       <c r="Q131">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6798412</v>
+        <v>6799822</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L134">
+        <v>3.3</v>
+      </c>
+      <c r="M134">
+        <v>3.7</v>
+      </c>
+      <c r="N134">
+        <v>1.65</v>
+      </c>
+      <c r="O134">
+        <v>3.5</v>
+      </c>
+      <c r="P134">
         <v>4.5</v>
       </c>
-      <c r="M134">
-        <v>8</v>
-      </c>
-      <c r="N134">
-        <v>1.333</v>
-      </c>
-      <c r="O134">
-        <v>4.333</v>
-      </c>
-      <c r="P134">
-        <v>7</v>
-      </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6799822</v>
+        <v>6798412</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="N135">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P135">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
+        <v>2.025</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
         <v>1.95</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>1.9</v>
       </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>2</v>
-      </c>
-      <c r="V135">
-        <v>1.85</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X135">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,10 +12732,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12747,61 +12747,61 @@
         <v>45</v>
       </c>
       <c r="K138">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N138">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O138">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>-0</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
         <v>0.825</v>
-      </c>
-      <c r="AA138">
-        <v>-1</v>
-      </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
-      <c r="AC138">
-        <v>0.875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,10 +12821,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12836,61 +12836,61 @@
         <v>45</v>
       </c>
       <c r="K139">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M139">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N139">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P139">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6799836</v>
+        <v>6799838</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M146">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N146">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O146">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P146">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q146">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
         <v>1.85</v>
       </c>
-      <c r="V146">
-        <v>2</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X146">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA146">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6799838</v>
+        <v>6799836</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K147">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="L147">
+        <v>6</v>
+      </c>
+      <c r="M147">
+        <v>11</v>
+      </c>
+      <c r="N147">
+        <v>1.2</v>
+      </c>
+      <c r="O147">
+        <v>6</v>
+      </c>
+      <c r="P147">
+        <v>10</v>
+      </c>
+      <c r="Q147">
+        <v>-1.75</v>
+      </c>
+      <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
+        <v>2.025</v>
+      </c>
+      <c r="T147">
         <v>3</v>
       </c>
-      <c r="M147">
-        <v>3.2</v>
-      </c>
-      <c r="N147">
-        <v>2.15</v>
-      </c>
-      <c r="O147">
-        <v>3.1</v>
-      </c>
-      <c r="P147">
-        <v>3.1</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
-      <c r="R147">
-        <v>2</v>
-      </c>
-      <c r="S147">
+      <c r="U147">
         <v>1.85</v>
       </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>2</v>
-      </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,58 +13622,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>46</v>
       </c>
       <c r="K148">
+        <v>1.571</v>
+      </c>
+      <c r="L148">
+        <v>3.6</v>
+      </c>
+      <c r="M148">
         <v>5</v>
       </c>
-      <c r="L148">
-        <v>3.75</v>
-      </c>
-      <c r="M148">
-        <v>1.533</v>
-      </c>
       <c r="N148">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O148">
         <v>3.6</v>
       </c>
       <c r="P148">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13682,13 +13682,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,58 +13711,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>46</v>
       </c>
       <c r="K149">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N149">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O149">
         <v>3.6</v>
       </c>
       <c r="P149">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13771,13 +13771,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6799841</v>
+        <v>6799846</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,10 +14156,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14171,46 +14171,46 @@
         <v>45</v>
       </c>
       <c r="K154">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L154">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M154">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N154">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O154">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P154">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T154">
         <v>2.5</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14225,7 +14225,7 @@
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6799846</v>
+        <v>6799841</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,10 +14245,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14260,46 +14260,46 @@
         <v>45</v>
       </c>
       <c r="K155">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L155">
+        <v>3.25</v>
+      </c>
+      <c r="M155">
+        <v>2.75</v>
+      </c>
+      <c r="N155">
+        <v>2.3</v>
+      </c>
+      <c r="O155">
         <v>3.3</v>
       </c>
-      <c r="M155">
-        <v>2.3</v>
-      </c>
-      <c r="N155">
-        <v>2.5</v>
-      </c>
-      <c r="O155">
-        <v>3.2</v>
-      </c>
       <c r="P155">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q155">
         <v>0</v>
       </c>
       <c r="R155">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T155">
         <v>2.5</v>
       </c>
       <c r="U155">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y155">
         <v>-1</v>
@@ -14314,7 +14314,7 @@
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7542499</v>
+        <v>7542748</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K188">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="L188">
         <v>3.2</v>
       </c>
       <c r="M188">
+        <v>2.625</v>
+      </c>
+      <c r="N188">
         <v>2.4</v>
       </c>
-      <c r="N188">
-        <v>3.2</v>
-      </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P188">
+        <v>3</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>2.125</v>
+      </c>
+      <c r="S188">
+        <v>1.75</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
         <v>2.05</v>
       </c>
-      <c r="Q188">
-        <v>0.25</v>
-      </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
-      <c r="S188">
-        <v>1.85</v>
-      </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>1.85</v>
-      </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7542748</v>
+        <v>7542500</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,13 +17271,13 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -17286,43 +17286,43 @@
         <v>46</v>
       </c>
       <c r="K189">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L189">
         <v>3.2</v>
       </c>
       <c r="M189">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N189">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O189">
+        <v>3</v>
+      </c>
+      <c r="P189">
         <v>2.9</v>
-      </c>
-      <c r="P189">
-        <v>3</v>
       </c>
       <c r="Q189">
         <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S189">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17331,16 +17331,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.125</v>
+        <v>1.05</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7542500</v>
+        <v>7542499</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="L190">
         <v>3.2</v>
       </c>
       <c r="M190">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N190">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O190">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P190">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
         <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K202">
+        <v>2.6</v>
+      </c>
+      <c r="L202">
+        <v>3.1</v>
+      </c>
+      <c r="M202">
+        <v>2.6</v>
+      </c>
+      <c r="N202">
+        <v>2.9</v>
+      </c>
+      <c r="O202">
+        <v>3.2</v>
+      </c>
+      <c r="P202">
+        <v>2.3</v>
+      </c>
+      <c r="Q202">
+        <v>0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.8</v>
+      </c>
+      <c r="S202">
         <v>2.05</v>
       </c>
-      <c r="L202">
-        <v>3.2</v>
-      </c>
-      <c r="M202">
-        <v>3.5</v>
-      </c>
-      <c r="N202">
-        <v>2.15</v>
-      </c>
-      <c r="O202">
-        <v>3.1</v>
-      </c>
-      <c r="P202">
-        <v>3.2</v>
-      </c>
-      <c r="Q202">
-        <v>-0.25</v>
-      </c>
-      <c r="R202">
-        <v>1.925</v>
-      </c>
-      <c r="S202">
-        <v>1.925</v>
-      </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
+        <v>1.85</v>
+      </c>
+      <c r="W202">
         <v>1.9</v>
       </c>
-      <c r="V202">
-        <v>1.95</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC202">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7542719</v>
+        <v>7542639</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K203">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L203">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M203">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N203">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P203">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q203">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R203">
+        <v>1.925</v>
+      </c>
+      <c r="S203">
+        <v>1.925</v>
+      </c>
+      <c r="T203">
+        <v>2</v>
+      </c>
+      <c r="U203">
+        <v>2.1</v>
+      </c>
+      <c r="V203">
+        <v>1.775</v>
+      </c>
+      <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
         <v>1.8</v>
       </c>
-      <c r="S203">
-        <v>2.05</v>
-      </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
-      <c r="U203">
-        <v>2</v>
-      </c>
-      <c r="V203">
-        <v>1.85</v>
-      </c>
-      <c r="W203">
-        <v>1.9</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7542639</v>
+        <v>7542640</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,40 +18606,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L204">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N204">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O204">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P204">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
         <v>1.925</v>
@@ -18648,34 +18648,34 @@
         <v>1.925</v>
       </c>
       <c r="T204">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7542735</v>
+        <v>7542736</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L238">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N238">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O238">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q238">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W238">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7542737</v>
+        <v>7542735</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239">
         <v>0</v>
       </c>
-      <c r="I239">
-        <v>1</v>
-      </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L239">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N239">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O239">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P239">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R239">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
+        <v>1.975</v>
+      </c>
+      <c r="V239">
         <v>1.875</v>
       </c>
-      <c r="V239">
-        <v>1.975</v>
-      </c>
       <c r="W239">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA239">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7542736</v>
+        <v>7542737</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,76 +21810,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H240">
         <v>0</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K240">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L240">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M240">
+        <v>2.45</v>
+      </c>
+      <c r="N240">
         <v>3.2</v>
       </c>
-      <c r="N240">
-        <v>2.375</v>
-      </c>
       <c r="O240">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T240">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V240">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -25447,7 +25447,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6799972</v>
+        <v>6799971</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25459,76 +25459,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F281" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G281" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K281">
+        <v>2.05</v>
+      </c>
+      <c r="L281">
+        <v>3.25</v>
+      </c>
+      <c r="M281">
+        <v>3.5</v>
+      </c>
+      <c r="N281">
         <v>2.1</v>
       </c>
-      <c r="L281">
-        <v>3.3</v>
-      </c>
-      <c r="M281">
-        <v>3.3</v>
-      </c>
-      <c r="N281">
-        <v>2.05</v>
-      </c>
       <c r="O281">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P281">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S281">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T281">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U281">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V281">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y281">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA281">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB281">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC281">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25536,7 +25536,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6799971</v>
+        <v>6799972</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25548,76 +25548,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F282" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G282" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K282">
+        <v>2.1</v>
+      </c>
+      <c r="L282">
+        <v>3.3</v>
+      </c>
+      <c r="M282">
+        <v>3.3</v>
+      </c>
+      <c r="N282">
         <v>2.05</v>
       </c>
-      <c r="L282">
-        <v>3.25</v>
-      </c>
-      <c r="M282">
-        <v>3.5</v>
-      </c>
-      <c r="N282">
-        <v>2.1</v>
-      </c>
       <c r="O282">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P282">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V282">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z282">
+        <v>-1</v>
+      </c>
+      <c r="AA282">
+        <v>1.025</v>
+      </c>
+      <c r="AB282">
         <v>-0.5</v>
       </c>
-      <c r="AA282">
-        <v>0.4875</v>
-      </c>
-      <c r="AB282">
-        <v>0</v>
-      </c>
       <c r="AC282">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25820,6 +25820,15 @@
       <c r="G285" t="s">
         <v>32</v>
       </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+      <c r="I285">
+        <v>5</v>
+      </c>
+      <c r="J285" t="s">
+        <v>47</v>
+      </c>
       <c r="K285">
         <v>6</v>
       </c>
@@ -25830,46 +25839,52 @@
         <v>1.5</v>
       </c>
       <c r="N285">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O285">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P285">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="Q285">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R285">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S285">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T285">
         <v>2.75</v>
       </c>
       <c r="U285">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V285">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="Z285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB285">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC285">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5145339</v>
+        <v>5145373</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>0.4875</v>
+      </c>
+      <c r="AA19">
+        <v>-0.5</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-      <c r="AC19">
-        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5145373</v>
+        <v>5145339</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N20">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z20">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5145143</v>
+        <v>5145376</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,34 +3387,34 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L33">
         <v>3.25</v>
       </c>
       <c r="M33">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N33">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P33">
         <v>2.5</v>
@@ -3441,16 +3441,16 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB33">
         <v>-0.5</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5145376</v>
+        <v>5145143</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,34 +3476,34 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L34">
         <v>3.25</v>
       </c>
       <c r="M34">
+        <v>2.875</v>
+      </c>
+      <c r="N34">
         <v>2.7</v>
       </c>
-      <c r="N34">
-        <v>2.625</v>
-      </c>
       <c r="O34">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P34">
         <v>2.5</v>
@@ -3530,16 +3530,16 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y34">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5145868</v>
+        <v>5145146</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L41">
+        <v>3.3</v>
+      </c>
+      <c r="M41">
+        <v>2.375</v>
+      </c>
+      <c r="N41">
+        <v>3.1</v>
+      </c>
+      <c r="O41">
         <v>3.4</v>
       </c>
-      <c r="M41">
-        <v>3.1</v>
-      </c>
-      <c r="N41">
-        <v>1.65</v>
-      </c>
-      <c r="O41">
-        <v>3.6</v>
-      </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T41">
         <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5145146</v>
+        <v>5145868</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N42">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
+        <v>4.333</v>
+      </c>
+      <c r="Q42">
+        <v>-0.75</v>
+      </c>
+      <c r="R42">
+        <v>1.9</v>
+      </c>
+      <c r="S42">
         <v>1.95</v>
-      </c>
-      <c r="Q42">
-        <v>0.5</v>
-      </c>
-      <c r="R42">
-        <v>1.85</v>
-      </c>
-      <c r="S42">
-        <v>2</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
         <v>0.95</v>
-      </c>
-      <c r="Z42">
-        <v>-1</v>
-      </c>
-      <c r="AA42">
-        <v>1</v>
       </c>
       <c r="AB42">
         <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5266291</v>
+        <v>5145379</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48">
+        <v>2.35</v>
+      </c>
+      <c r="L48">
+        <v>3.25</v>
+      </c>
+      <c r="M48">
+        <v>2.9</v>
+      </c>
+      <c r="N48">
+        <v>2.7</v>
+      </c>
+      <c r="O48">
+        <v>3.25</v>
+      </c>
+      <c r="P48">
+        <v>2.45</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>46</v>
-      </c>
-      <c r="K48">
-        <v>1.6</v>
-      </c>
-      <c r="L48">
-        <v>3.9</v>
-      </c>
-      <c r="M48">
-        <v>5</v>
-      </c>
-      <c r="N48">
-        <v>1.666</v>
-      </c>
-      <c r="O48">
-        <v>3.75</v>
-      </c>
-      <c r="P48">
-        <v>4.2</v>
-      </c>
-      <c r="Q48">
-        <v>-0.75</v>
-      </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z48">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5145379</v>
+        <v>5266291</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="L49">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M49">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N49">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5145154</v>
+        <v>5145343</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
+        <v>2.5</v>
+      </c>
+      <c r="N70">
         <v>2.25</v>
       </c>
-      <c r="N70">
-        <v>2.7</v>
-      </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P70">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z70">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5145343</v>
+        <v>5145154</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
+        <v>2.75</v>
+      </c>
+      <c r="L71">
+        <v>3.25</v>
+      </c>
+      <c r="M71">
+        <v>2.25</v>
+      </c>
+      <c r="N71">
+        <v>2.7</v>
+      </c>
+      <c r="O71">
+        <v>3.2</v>
+      </c>
+      <c r="P71">
+        <v>2.3</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>2.1</v>
+      </c>
+      <c r="S71">
+        <v>1.775</v>
+      </c>
+      <c r="T71">
         <v>2.5</v>
       </c>
-      <c r="L71">
-        <v>3.2</v>
-      </c>
-      <c r="M71">
-        <v>2.5</v>
-      </c>
-      <c r="N71">
-        <v>2.25</v>
-      </c>
-      <c r="O71">
-        <v>3.1</v>
-      </c>
-      <c r="P71">
-        <v>2.9</v>
-      </c>
-      <c r="Q71">
-        <v>-0.25</v>
-      </c>
-      <c r="R71">
+      <c r="U71">
         <v>1.975</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.875</v>
       </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.9</v>
-      </c>
-      <c r="V71">
-        <v>1.95</v>
-      </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>0.875</v>
-      </c>
-      <c r="AB71">
-        <v>-0.5</v>
-      </c>
-      <c r="AC71">
-        <v>0.475</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6402973</v>
+        <v>6404155</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,58 +7837,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>46</v>
       </c>
       <c r="K83">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>5</v>
+      </c>
+      <c r="N83">
+        <v>1.833</v>
+      </c>
+      <c r="O83">
         <v>3.3</v>
       </c>
-      <c r="M83">
-        <v>3.1</v>
-      </c>
-      <c r="N83">
-        <v>2.15</v>
-      </c>
-      <c r="O83">
-        <v>3.2</v>
-      </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,16 +7897,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6404155</v>
+        <v>6402973</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>46</v>
       </c>
       <c r="K84">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N84">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W84">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,16 +7986,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6404131</v>
+        <v>6402966</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,46 +9083,46 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N97">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O97">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q97">
         <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T97">
         <v>2.25</v>
@@ -9137,22 +9137,22 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z97">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB97">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC97">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6402966</v>
+        <v>6404131</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,46 +9172,46 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M98">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N98">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O98">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P98">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q98">
         <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T98">
         <v>2.25</v>
@@ -9226,22 +9226,22 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y98">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6404128</v>
+        <v>6404146</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="N103">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P103">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6404146</v>
+        <v>6404130</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="L104">
         <v>3.5</v>
       </c>
       <c r="M104">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>8.5</v>
+        <v>1.45</v>
       </c>
       <c r="O104">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>1.285</v>
+        <v>5.25</v>
       </c>
       <c r="Q104">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6404130</v>
+        <v>6404128</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,40 +9795,40 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N105">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
         <v>2.05</v>
@@ -9837,19 +9837,19 @@
         <v>1.8</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
+        <v>1.825</v>
+      </c>
+      <c r="V105">
         <v>2.025</v>
       </c>
-      <c r="V105">
-        <v>1.825</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -9861,10 +9861,10 @@
         <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6404125</v>
+        <v>6404144</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M110">
+        <v>8</v>
+      </c>
+      <c r="N110">
+        <v>1.363</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>9</v>
+      </c>
+      <c r="Q110">
+        <v>-1.25</v>
+      </c>
+      <c r="R110">
+        <v>1.925</v>
+      </c>
+      <c r="S110">
+        <v>1.925</v>
+      </c>
+      <c r="T110">
+        <v>2.25</v>
+      </c>
+      <c r="U110">
         <v>1.8</v>
       </c>
-      <c r="N110">
-        <v>4.2</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>1.727</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.85</v>
-      </c>
-      <c r="S110">
-        <v>2</v>
-      </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
       <c r="V110">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6404144</v>
+        <v>6404125</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="L111">
+        <v>3.6</v>
+      </c>
+      <c r="M111">
+        <v>1.8</v>
+      </c>
+      <c r="N111">
         <v>4.2</v>
       </c>
-      <c r="M111">
-        <v>8</v>
-      </c>
-      <c r="N111">
-        <v>1.363</v>
-      </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R111">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W111">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB111">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6404124</v>
+        <v>6402968</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,73 +10774,73 @@
         <v>45052.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
+        <v>3.1</v>
+      </c>
+      <c r="M116">
+        <v>3.1</v>
+      </c>
+      <c r="N116">
         <v>3.3</v>
-      </c>
-      <c r="M116">
-        <v>3.25</v>
-      </c>
-      <c r="N116">
-        <v>2.45</v>
       </c>
       <c r="O116">
         <v>3.1</v>
       </c>
       <c r="P116">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6404123</v>
+        <v>6404124</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>45</v>
+      </c>
+      <c r="K117">
+        <v>2.05</v>
+      </c>
+      <c r="L117">
+        <v>3.3</v>
+      </c>
+      <c r="M117">
+        <v>3.25</v>
+      </c>
+      <c r="N117">
+        <v>2.45</v>
+      </c>
+      <c r="O117">
+        <v>3.1</v>
+      </c>
+      <c r="P117">
+        <v>2.625</v>
+      </c>
+      <c r="Q117">
         <v>0</v>
       </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117" t="s">
-        <v>47</v>
-      </c>
-      <c r="K117">
-        <v>1.833</v>
-      </c>
-      <c r="L117">
-        <v>3.5</v>
-      </c>
-      <c r="M117">
-        <v>3.75</v>
-      </c>
-      <c r="N117">
-        <v>2.7</v>
-      </c>
-      <c r="O117">
-        <v>3.3</v>
-      </c>
-      <c r="P117">
-        <v>2.375</v>
-      </c>
-      <c r="Q117">
-        <v>0.25</v>
-      </c>
       <c r="R117">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>1.125</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6402968</v>
+        <v>6404123</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,56 +10952,56 @@
         <v>45052.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N118">
+        <v>2.7</v>
+      </c>
+      <c r="O118">
         <v>3.3</v>
       </c>
-      <c r="O118">
-        <v>3.1</v>
-      </c>
       <c r="P118">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
         <v>0.25</v>
       </c>
       <c r="R118">
+        <v>1.75</v>
+      </c>
+      <c r="S118">
+        <v>2.125</v>
+      </c>
+      <c r="T118">
+        <v>2.5</v>
+      </c>
+      <c r="U118">
+        <v>1.875</v>
+      </c>
+      <c r="V118">
         <v>1.975</v>
       </c>
-      <c r="S118">
-        <v>1.875</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
-      <c r="U118">
-        <v>1.975</v>
-      </c>
-      <c r="V118">
-        <v>1.875</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
@@ -11009,19 +11009,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6404142</v>
+        <v>6404141</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,49 +11130,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N120">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
         <v>2.025</v>
@@ -11181,25 +11181,25 @@
         <v>1.825</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6404141</v>
+        <v>6404142</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,49 +11219,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M121">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="N121">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
         <v>2.025</v>
@@ -11270,25 +11270,25 @@
         <v>1.825</v>
       </c>
       <c r="W121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z121">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6404121</v>
+        <v>6402969</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,40 +11397,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
         <v>47</v>
       </c>
       <c r="K123">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L123">
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N123">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
         <v>1.8</v>
@@ -11442,10 +11442,10 @@
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11454,7 +11454,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11463,7 +11463,7 @@
         <v>1.05</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6402969</v>
+        <v>6404121</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
         <v>47</v>
       </c>
       <c r="K124">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
         <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N124">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O124">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q124">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
         <v>1.8</v>
@@ -11531,10 +11531,10 @@
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11543,7 +11543,7 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z124">
         <v>-1</v>
@@ -11552,7 +11552,7 @@
         <v>1.05</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6404139</v>
+        <v>6404140</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,49 +11753,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+      <c r="J127" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127">
+        <v>4.5</v>
+      </c>
+      <c r="L127">
+        <v>4.2</v>
+      </c>
+      <c r="M127">
+        <v>1.533</v>
+      </c>
+      <c r="N127">
+        <v>6</v>
+      </c>
+      <c r="O127">
+        <v>5</v>
+      </c>
+      <c r="P127">
+        <v>1.363</v>
+      </c>
+      <c r="Q127">
+        <v>1.25</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>1.85</v>
+      </c>
+      <c r="T127">
         <v>3</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
-        <v>46</v>
-      </c>
-      <c r="K127">
-        <v>2.2</v>
-      </c>
-      <c r="L127">
-        <v>3.3</v>
-      </c>
-      <c r="M127">
-        <v>2.8</v>
-      </c>
-      <c r="N127">
-        <v>2</v>
-      </c>
-      <c r="O127">
-        <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>3.3</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.975</v>
-      </c>
-      <c r="S127">
-        <v>1.875</v>
-      </c>
-      <c r="T127">
-        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.875</v>
@@ -11804,19 +11804,19 @@
         <v>1.975</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
         <v>0.875</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6404140</v>
+        <v>6404139</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,49 +11842,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N128">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q128">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.875</v>
@@ -11893,19 +11893,19 @@
         <v>1.975</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
         <v>0.875</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6670415</v>
+        <v>6670416</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,13 +12020,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12035,43 +12035,43 @@
         <v>46</v>
       </c>
       <c r="K130">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N130">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>0.45</v>
+        <v>0.222</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12080,16 +12080,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6670416</v>
+        <v>6670415</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,13 +12109,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12124,43 +12124,43 @@
         <v>46</v>
       </c>
       <c r="K131">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
         <v>5</v>
       </c>
-      <c r="M131">
-        <v>7.5</v>
-      </c>
       <c r="N131">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="O131">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P131">
-        <v>8.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
+        <v>2.05</v>
+      </c>
+      <c r="T131">
+        <v>2.75</v>
+      </c>
+      <c r="U131">
         <v>1.875</v>
       </c>
-      <c r="S131">
+      <c r="V131">
         <v>1.975</v>
       </c>
-      <c r="T131">
-        <v>3.25</v>
-      </c>
-      <c r="U131">
-        <v>1.925</v>
-      </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
       <c r="W131">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12169,16 +12169,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,10 +12732,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12747,61 +12747,61 @@
         <v>45</v>
       </c>
       <c r="K138">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N138">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P138">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,10 +12821,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12836,61 +12836,61 @@
         <v>45</v>
       </c>
       <c r="K139">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N139">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O139">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>-0</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.825</v>
-      </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
-      <c r="AC139">
-        <v>0.875</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,58 +13622,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>46</v>
       </c>
       <c r="K148">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N148">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O148">
         <v>3.6</v>
       </c>
       <c r="P148">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13682,13 +13682,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,58 +13711,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
         <v>46</v>
       </c>
       <c r="K149">
+        <v>1.571</v>
+      </c>
+      <c r="L149">
+        <v>3.6</v>
+      </c>
+      <c r="M149">
         <v>5</v>
       </c>
-      <c r="L149">
-        <v>3.75</v>
-      </c>
-      <c r="M149">
-        <v>1.533</v>
-      </c>
       <c r="N149">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O149">
         <v>3.6</v>
       </c>
       <c r="P149">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q149">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13771,13 +13771,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7542719</v>
+        <v>7542639</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K202">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L202">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M202">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N202">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O202">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P202">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q202">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R202">
+        <v>1.925</v>
+      </c>
+      <c r="S202">
+        <v>1.925</v>
+      </c>
+      <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
+        <v>2.1</v>
+      </c>
+      <c r="V202">
+        <v>1.775</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
         <v>1.8</v>
       </c>
-      <c r="S202">
-        <v>2.05</v>
-      </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
-      <c r="U202">
-        <v>2</v>
-      </c>
-      <c r="V202">
-        <v>1.85</v>
-      </c>
-      <c r="W202">
-        <v>1.9</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7542639</v>
+        <v>7542640</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,40 +18517,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K203">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L203">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N203">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O203">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P203">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
         <v>1.925</v>
@@ -18559,34 +18559,34 @@
         <v>1.925</v>
       </c>
       <c r="T203">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,76 +18606,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204">
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K204">
+        <v>2.6</v>
+      </c>
+      <c r="L204">
+        <v>3.1</v>
+      </c>
+      <c r="M204">
+        <v>2.6</v>
+      </c>
+      <c r="N204">
+        <v>2.9</v>
+      </c>
+      <c r="O204">
+        <v>3.2</v>
+      </c>
+      <c r="P204">
+        <v>2.3</v>
+      </c>
+      <c r="Q204">
+        <v>0.25</v>
+      </c>
+      <c r="R204">
+        <v>1.8</v>
+      </c>
+      <c r="S204">
         <v>2.05</v>
       </c>
-      <c r="L204">
-        <v>3.2</v>
-      </c>
-      <c r="M204">
-        <v>3.5</v>
-      </c>
-      <c r="N204">
-        <v>2.15</v>
-      </c>
-      <c r="O204">
-        <v>3.1</v>
-      </c>
-      <c r="P204">
-        <v>3.2</v>
-      </c>
-      <c r="Q204">
-        <v>-0.25</v>
-      </c>
-      <c r="R204">
-        <v>1.925</v>
-      </c>
-      <c r="S204">
-        <v>1.925</v>
-      </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
+        <v>2</v>
+      </c>
+      <c r="V204">
+        <v>1.85</v>
+      </c>
+      <c r="W204">
         <v>1.9</v>
       </c>
-      <c r="V204">
-        <v>1.95</v>
-      </c>
-      <c r="W204">
-        <v>-1</v>
-      </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA204">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC204">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,55 +19674,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>47</v>
       </c>
       <c r="K216">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N216">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O216">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P216">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q216">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19731,19 +19731,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,55 +19763,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
         <v>47</v>
       </c>
       <c r="K217">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L217">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217">
+        <v>4.333</v>
+      </c>
+      <c r="O217">
         <v>3.6</v>
       </c>
-      <c r="N217">
-        <v>2.45</v>
-      </c>
-      <c r="O217">
-        <v>3</v>
-      </c>
       <c r="P217">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R217">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S217">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19820,19 +19820,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC217">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7542736</v>
+        <v>7542735</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M238">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N238">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P238">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R238">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X238">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA238">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7542735</v>
+        <v>7542736</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M239">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O239">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V239">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="240" spans="1:29">

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC285"/>
+  <dimension ref="A1:AC292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5145146</v>
+        <v>5145868</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L41">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
+        <v>4.333</v>
+      </c>
+      <c r="Q41">
+        <v>-0.75</v>
+      </c>
+      <c r="R41">
+        <v>1.9</v>
+      </c>
+      <c r="S41">
         <v>1.95</v>
-      </c>
-      <c r="Q41">
-        <v>0.5</v>
-      </c>
-      <c r="R41">
-        <v>1.85</v>
-      </c>
-      <c r="S41">
-        <v>2</v>
       </c>
       <c r="T41">
         <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
         <v>0.95</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
-      <c r="AA41">
-        <v>1</v>
       </c>
       <c r="AB41">
         <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5145868</v>
+        <v>5145146</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L42">
+        <v>3.3</v>
+      </c>
+      <c r="M42">
+        <v>2.375</v>
+      </c>
+      <c r="N42">
+        <v>3.1</v>
+      </c>
+      <c r="O42">
         <v>3.4</v>
       </c>
-      <c r="M42">
-        <v>3.1</v>
-      </c>
-      <c r="N42">
-        <v>1.65</v>
-      </c>
-      <c r="O42">
-        <v>3.6</v>
-      </c>
       <c r="P42">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5145379</v>
+        <v>5266291</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K48">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="L48">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5266291</v>
+        <v>5145379</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49">
+        <v>2.35</v>
+      </c>
+      <c r="L49">
+        <v>3.25</v>
+      </c>
+      <c r="M49">
+        <v>2.9</v>
+      </c>
+      <c r="N49">
+        <v>2.7</v>
+      </c>
+      <c r="O49">
+        <v>3.25</v>
+      </c>
+      <c r="P49">
+        <v>2.45</v>
+      </c>
+      <c r="Q49">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K49">
-        <v>1.6</v>
-      </c>
-      <c r="L49">
-        <v>3.9</v>
-      </c>
-      <c r="M49">
-        <v>5</v>
-      </c>
-      <c r="N49">
-        <v>1.666</v>
-      </c>
-      <c r="O49">
-        <v>3.75</v>
-      </c>
-      <c r="P49">
-        <v>4.2</v>
-      </c>
-      <c r="Q49">
-        <v>-0.75</v>
-      </c>
       <c r="R49">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z49">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5145342</v>
+        <v>5266292</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>2.15</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
         <v>3.4</v>
       </c>
       <c r="N62">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P62">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X62">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC62">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5266292</v>
+        <v>5145342</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>44989.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>2.15</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
         <v>3.4</v>
       </c>
       <c r="N63">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O63">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6404135</v>
+        <v>6402965</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6402965</v>
+        <v>6404135</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L86">
         <v>3.3</v>
       </c>
       <c r="M86">
+        <v>2.375</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>3.4</v>
+      </c>
+      <c r="P86">
+        <v>3.25</v>
+      </c>
+      <c r="Q86">
+        <v>-0.25</v>
+      </c>
+      <c r="R86">
+        <v>1.8</v>
+      </c>
+      <c r="S86">
+        <v>2.05</v>
+      </c>
+      <c r="T86">
+        <v>2.25</v>
+      </c>
+      <c r="U86">
+        <v>1.8</v>
+      </c>
+      <c r="V86">
+        <v>2.05</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
         <v>2.4</v>
       </c>
-      <c r="N86">
-        <v>2.6</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>2.7</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.95</v>
-      </c>
-      <c r="T86">
-        <v>2</v>
-      </c>
-      <c r="U86">
-        <v>1.875</v>
-      </c>
-      <c r="V86">
-        <v>1.975</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>2</v>
-      </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6402966</v>
+        <v>6404131</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,46 +9083,46 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N97">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O97">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P97">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q97">
         <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T97">
         <v>2.25</v>
@@ -9137,22 +9137,22 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y97">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6404131</v>
+        <v>6402966</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,46 +9172,46 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N98">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O98">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q98">
         <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
         <v>2.25</v>
@@ -9226,22 +9226,22 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z98">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC98">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6404144</v>
+        <v>6404125</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="L110">
+        <v>3.6</v>
+      </c>
+      <c r="M110">
+        <v>1.8</v>
+      </c>
+      <c r="N110">
         <v>4.2</v>
       </c>
-      <c r="M110">
-        <v>8</v>
-      </c>
-      <c r="N110">
-        <v>1.363</v>
-      </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB110">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6404125</v>
+        <v>6404144</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M111">
+        <v>8</v>
+      </c>
+      <c r="N111">
+        <v>1.363</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
+        <v>9</v>
+      </c>
+      <c r="Q111">
+        <v>-1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.925</v>
+      </c>
+      <c r="S111">
+        <v>1.925</v>
+      </c>
+      <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
         <v>1.8</v>
       </c>
-      <c r="N111">
-        <v>4.2</v>
-      </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>1.727</v>
-      </c>
-      <c r="Q111">
-        <v>0.75</v>
-      </c>
-      <c r="R111">
-        <v>1.85</v>
-      </c>
-      <c r="S111">
-        <v>2</v>
-      </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.85</v>
-      </c>
       <c r="V111">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6402968</v>
+        <v>6404124</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,73 +10774,73 @@
         <v>45052.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N116">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O116">
         <v>3.1</v>
       </c>
       <c r="P116">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6404124</v>
+        <v>6404123</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>3.75</v>
+      </c>
+      <c r="N117">
+        <v>2.7</v>
+      </c>
+      <c r="O117">
         <v>3.3</v>
       </c>
-      <c r="M117">
-        <v>3.25</v>
-      </c>
-      <c r="N117">
-        <v>2.45</v>
-      </c>
-      <c r="O117">
-        <v>3.1</v>
-      </c>
       <c r="P117">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>1.125</v>
       </c>
       <c r="AB117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6404123</v>
+        <v>6402968</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,56 +10952,56 @@
         <v>45052.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O118">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q118">
         <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
+        <v>1.975</v>
+      </c>
+      <c r="V118">
         <v>1.875</v>
       </c>
-      <c r="V118">
-        <v>1.975</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
@@ -11009,19 +11009,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6404141</v>
+        <v>6404142</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,49 +11130,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M120">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="N120">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
         <v>2.025</v>
@@ -11181,25 +11181,25 @@
         <v>1.825</v>
       </c>
       <c r="W120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z120">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6404142</v>
+        <v>6404141</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,49 +11219,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K121">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N121">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
         <v>2.025</v>
@@ -11270,25 +11270,25 @@
         <v>1.825</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6402969</v>
+        <v>6404121</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,40 +11397,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
         <v>47</v>
       </c>
       <c r="K123">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N123">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O123">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
         <v>1.8</v>
@@ -11442,10 +11442,10 @@
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11454,7 +11454,7 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z123">
         <v>-1</v>
@@ -11463,7 +11463,7 @@
         <v>1.05</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6404121</v>
+        <v>6402969</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L124">
         <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R124">
         <v>1.8</v>
@@ -11531,10 +11531,10 @@
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11543,7 +11543,7 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
@@ -11552,7 +11552,7 @@
         <v>1.05</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6404140</v>
+        <v>6404139</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,49 +11753,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L127">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N127">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O127">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q127">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.875</v>
@@ -11804,19 +11804,19 @@
         <v>1.975</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>0.875</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6404139</v>
+        <v>6404140</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,49 +11842,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>5</v>
+      </c>
+      <c r="J128" t="s">
+        <v>47</v>
+      </c>
+      <c r="K128">
+        <v>4.5</v>
+      </c>
+      <c r="L128">
+        <v>4.2</v>
+      </c>
+      <c r="M128">
+        <v>1.533</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128">
+        <v>5</v>
+      </c>
+      <c r="P128">
+        <v>1.363</v>
+      </c>
+      <c r="Q128">
+        <v>1.25</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>1.85</v>
+      </c>
+      <c r="T128">
         <v>3</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>46</v>
-      </c>
-      <c r="K128">
-        <v>2.2</v>
-      </c>
-      <c r="L128">
-        <v>3.3</v>
-      </c>
-      <c r="M128">
-        <v>2.8</v>
-      </c>
-      <c r="N128">
-        <v>2</v>
-      </c>
-      <c r="O128">
-        <v>3.5</v>
-      </c>
-      <c r="P128">
-        <v>3.3</v>
-      </c>
-      <c r="Q128">
-        <v>-0.5</v>
-      </c>
-      <c r="R128">
-        <v>1.975</v>
-      </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.875</v>
@@ -11893,19 +11893,19 @@
         <v>1.975</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB128">
         <v>0.875</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6799822</v>
+        <v>6798412</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="N134">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O134">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
         <v>1.95</v>
       </c>
-      <c r="S134">
+      <c r="V134">
         <v>1.9</v>
       </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>2</v>
-      </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X134">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6798412</v>
+        <v>6799822</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L135">
+        <v>3.3</v>
+      </c>
+      <c r="M135">
+        <v>3.7</v>
+      </c>
+      <c r="N135">
+        <v>1.65</v>
+      </c>
+      <c r="O135">
+        <v>3.5</v>
+      </c>
+      <c r="P135">
         <v>4.5</v>
       </c>
-      <c r="M135">
-        <v>8</v>
-      </c>
-      <c r="N135">
-        <v>1.333</v>
-      </c>
-      <c r="O135">
-        <v>4.333</v>
-      </c>
-      <c r="P135">
-        <v>7</v>
-      </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6799825</v>
+        <v>6799829</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N140">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X140">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6799829</v>
+        <v>6799825</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L141">
+        <v>3.25</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
+      </c>
+      <c r="N141">
+        <v>1.95</v>
+      </c>
+      <c r="O141">
+        <v>3.2</v>
+      </c>
+      <c r="P141">
         <v>3.4</v>
       </c>
-      <c r="M141">
-        <v>2.6</v>
-      </c>
-      <c r="N141">
-        <v>2.625</v>
-      </c>
-      <c r="O141">
-        <v>3.4</v>
-      </c>
-      <c r="P141">
-        <v>2.375</v>
-      </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,58 +13622,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>46</v>
       </c>
       <c r="K148">
+        <v>1.571</v>
+      </c>
+      <c r="L148">
+        <v>3.6</v>
+      </c>
+      <c r="M148">
         <v>5</v>
       </c>
-      <c r="L148">
-        <v>3.75</v>
-      </c>
-      <c r="M148">
-        <v>1.533</v>
-      </c>
       <c r="N148">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O148">
         <v>3.6</v>
       </c>
       <c r="P148">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13682,13 +13682,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,58 +13711,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>46</v>
       </c>
       <c r="K149">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N149">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O149">
         <v>3.6</v>
       </c>
       <c r="P149">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13771,13 +13771,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7511181</v>
+        <v>7511180</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
-      <c r="I174">
-        <v>2</v>
-      </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K174">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M174">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N174">
+        <v>2.5</v>
+      </c>
+      <c r="O174">
+        <v>3.2</v>
+      </c>
+      <c r="P174">
         <v>2.45</v>
-      </c>
-      <c r="O174">
-        <v>3.25</v>
-      </c>
-      <c r="P174">
-        <v>2.7</v>
       </c>
       <c r="Q174">
         <v>0</v>
       </c>
       <c r="R174">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA174">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7511180</v>
+        <v>7511181</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,76 +16025,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K175">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N175">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P175">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q175">
         <v>0</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z175">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7542748</v>
+        <v>7542499</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K188">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="L188">
         <v>3.2</v>
       </c>
       <c r="M188">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N188">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O188">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P188">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z188">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7542499</v>
+        <v>7542748</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K190">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="L190">
         <v>3.2</v>
       </c>
       <c r="M190">
+        <v>2.625</v>
+      </c>
+      <c r="N190">
         <v>2.4</v>
       </c>
-      <c r="N190">
-        <v>3.2</v>
-      </c>
       <c r="O190">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P190">
+        <v>3</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>2.125</v>
+      </c>
+      <c r="S190">
+        <v>1.75</v>
+      </c>
+      <c r="T190">
+        <v>2</v>
+      </c>
+      <c r="U190">
         <v>2.05</v>
       </c>
-      <c r="Q190">
-        <v>0.25</v>
-      </c>
-      <c r="R190">
-        <v>2</v>
-      </c>
-      <c r="S190">
-        <v>1.85</v>
-      </c>
-      <c r="T190">
-        <v>2.25</v>
-      </c>
-      <c r="U190">
-        <v>1.85</v>
-      </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,55 +19674,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
         <v>47</v>
       </c>
       <c r="K216">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L216">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>4.333</v>
+      </c>
+      <c r="O216">
         <v>3.6</v>
       </c>
-      <c r="N216">
-        <v>2.45</v>
-      </c>
-      <c r="O216">
-        <v>3</v>
-      </c>
       <c r="P216">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R216">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19731,19 +19731,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,55 +19763,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>47</v>
       </c>
       <c r="K217">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L217">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N217">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P217">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q217">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V217">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19820,19 +19820,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7542735</v>
+        <v>7542737</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L238">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M238">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N238">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O238">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P238">
+        <v>2.3</v>
+      </c>
+      <c r="Q238">
+        <v>0.25</v>
+      </c>
+      <c r="R238">
         <v>1.85</v>
       </c>
-      <c r="Q238">
-        <v>0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.95</v>
-      </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
+        <v>1.875</v>
+      </c>
+      <c r="V238">
         <v>1.975</v>
       </c>
-      <c r="V238">
-        <v>1.875</v>
-      </c>
       <c r="W238">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z238">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7542736</v>
+        <v>7542735</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N239">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O239">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P239">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R239">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V239">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X239">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA239">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7542737</v>
+        <v>7542736</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,76 +21810,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H240">
         <v>0</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L240">
+        <v>3.4</v>
+      </c>
+      <c r="M240">
         <v>3.2</v>
       </c>
-      <c r="M240">
-        <v>2.45</v>
-      </c>
       <c r="N240">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P240">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U240">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y240">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA240">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -25447,7 +25447,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6799971</v>
+        <v>6799972</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25459,76 +25459,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F281" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G281" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K281">
+        <v>2.1</v>
+      </c>
+      <c r="L281">
+        <v>3.3</v>
+      </c>
+      <c r="M281">
+        <v>3.3</v>
+      </c>
+      <c r="N281">
         <v>2.05</v>
       </c>
-      <c r="L281">
-        <v>3.25</v>
-      </c>
-      <c r="M281">
-        <v>3.5</v>
-      </c>
-      <c r="N281">
-        <v>2.1</v>
-      </c>
       <c r="O281">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P281">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V281">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z281">
+        <v>-1</v>
+      </c>
+      <c r="AA281">
+        <v>1.025</v>
+      </c>
+      <c r="AB281">
         <v>-0.5</v>
       </c>
-      <c r="AA281">
-        <v>0.4875</v>
-      </c>
-      <c r="AB281">
-        <v>0</v>
-      </c>
       <c r="AC281">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25536,7 +25536,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6799972</v>
+        <v>6799971</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25548,76 +25548,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F282" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G282" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K282">
+        <v>2.05</v>
+      </c>
+      <c r="L282">
+        <v>3.25</v>
+      </c>
+      <c r="M282">
+        <v>3.5</v>
+      </c>
+      <c r="N282">
         <v>2.1</v>
       </c>
-      <c r="L282">
-        <v>3.3</v>
-      </c>
-      <c r="M282">
-        <v>3.3</v>
-      </c>
-      <c r="N282">
-        <v>2.05</v>
-      </c>
       <c r="O282">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P282">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V282">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y282">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA282">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB282">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC282">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25885,6 +25885,524 @@
       </c>
       <c r="AC285">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>6799974</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45346.41666666666</v>
+      </c>
+      <c r="F286" t="s">
+        <v>43</v>
+      </c>
+      <c r="G286" t="s">
+        <v>38</v>
+      </c>
+      <c r="K286">
+        <v>2.7</v>
+      </c>
+      <c r="L286">
+        <v>3.1</v>
+      </c>
+      <c r="M286">
+        <v>2.5</v>
+      </c>
+      <c r="N286">
+        <v>2.625</v>
+      </c>
+      <c r="O286">
+        <v>3.1</v>
+      </c>
+      <c r="P286">
+        <v>2.55</v>
+      </c>
+      <c r="Q286">
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <v>1.975</v>
+      </c>
+      <c r="S286">
+        <v>1.875</v>
+      </c>
+      <c r="T286">
+        <v>2.25</v>
+      </c>
+      <c r="U286">
+        <v>1.8</v>
+      </c>
+      <c r="V286">
+        <v>2.05</v>
+      </c>
+      <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <v>0</v>
+      </c>
+      <c r="Z286">
+        <v>0</v>
+      </c>
+      <c r="AA286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>6799978</v>
+      </c>
+      <c r="C287" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45346.52083333334</v>
+      </c>
+      <c r="F287" t="s">
+        <v>33</v>
+      </c>
+      <c r="G287" t="s">
+        <v>42</v>
+      </c>
+      <c r="K287">
+        <v>1.909</v>
+      </c>
+      <c r="L287">
+        <v>3.3</v>
+      </c>
+      <c r="M287">
+        <v>3.75</v>
+      </c>
+      <c r="N287">
+        <v>1.85</v>
+      </c>
+      <c r="O287">
+        <v>3.3</v>
+      </c>
+      <c r="P287">
+        <v>3.8</v>
+      </c>
+      <c r="Q287">
+        <v>-0.5</v>
+      </c>
+      <c r="R287">
+        <v>1.925</v>
+      </c>
+      <c r="S287">
+        <v>1.925</v>
+      </c>
+      <c r="T287">
+        <v>2.25</v>
+      </c>
+      <c r="U287">
+        <v>1.875</v>
+      </c>
+      <c r="V287">
+        <v>1.975</v>
+      </c>
+      <c r="W287">
+        <v>0</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+      <c r="Y287">
+        <v>0</v>
+      </c>
+      <c r="Z287">
+        <v>0</v>
+      </c>
+      <c r="AA287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>6799976</v>
+      </c>
+      <c r="C288" t="s">
+        <v>28</v>
+      </c>
+      <c r="D288" t="s">
+        <v>28</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45346.5625</v>
+      </c>
+      <c r="F288" t="s">
+        <v>29</v>
+      </c>
+      <c r="G288" t="s">
+        <v>34</v>
+      </c>
+      <c r="K288">
+        <v>3.3</v>
+      </c>
+      <c r="L288">
+        <v>3.1</v>
+      </c>
+      <c r="M288">
+        <v>2.15</v>
+      </c>
+      <c r="N288">
+        <v>3.1</v>
+      </c>
+      <c r="O288">
+        <v>3.1</v>
+      </c>
+      <c r="P288">
+        <v>2.25</v>
+      </c>
+      <c r="Q288">
+        <v>0.25</v>
+      </c>
+      <c r="R288">
+        <v>1.875</v>
+      </c>
+      <c r="S288">
+        <v>1.975</v>
+      </c>
+      <c r="T288">
+        <v>2.25</v>
+      </c>
+      <c r="U288">
+        <v>2.05</v>
+      </c>
+      <c r="V288">
+        <v>1.8</v>
+      </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <v>0</v>
+      </c>
+      <c r="Z288">
+        <v>0</v>
+      </c>
+      <c r="AA288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>6799979</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45346.60416666666</v>
+      </c>
+      <c r="F289" t="s">
+        <v>41</v>
+      </c>
+      <c r="G289" t="s">
+        <v>31</v>
+      </c>
+      <c r="K289">
+        <v>2.4</v>
+      </c>
+      <c r="L289">
+        <v>3.4</v>
+      </c>
+      <c r="M289">
+        <v>2.6</v>
+      </c>
+      <c r="N289">
+        <v>2.25</v>
+      </c>
+      <c r="O289">
+        <v>3.4</v>
+      </c>
+      <c r="P289">
+        <v>2.8</v>
+      </c>
+      <c r="Q289">
+        <v>-0.25</v>
+      </c>
+      <c r="R289">
+        <v>2</v>
+      </c>
+      <c r="S289">
+        <v>1.85</v>
+      </c>
+      <c r="T289">
+        <v>2.75</v>
+      </c>
+      <c r="U289">
+        <v>1.85</v>
+      </c>
+      <c r="V289">
+        <v>2</v>
+      </c>
+      <c r="W289">
+        <v>0</v>
+      </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <v>0</v>
+      </c>
+      <c r="Z289">
+        <v>0</v>
+      </c>
+      <c r="AA289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>6799980</v>
+      </c>
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45346.625</v>
+      </c>
+      <c r="F290" t="s">
+        <v>32</v>
+      </c>
+      <c r="G290" t="s">
+        <v>37</v>
+      </c>
+      <c r="K290">
+        <v>1.85</v>
+      </c>
+      <c r="L290">
+        <v>3.5</v>
+      </c>
+      <c r="M290">
+        <v>3.75</v>
+      </c>
+      <c r="N290">
+        <v>1.85</v>
+      </c>
+      <c r="O290">
+        <v>3.5</v>
+      </c>
+      <c r="P290">
+        <v>3.75</v>
+      </c>
+      <c r="Q290">
+        <v>-0.5</v>
+      </c>
+      <c r="R290">
+        <v>1.925</v>
+      </c>
+      <c r="S290">
+        <v>1.925</v>
+      </c>
+      <c r="T290">
+        <v>2.5</v>
+      </c>
+      <c r="U290">
+        <v>2.025</v>
+      </c>
+      <c r="V290">
+        <v>1.825</v>
+      </c>
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>0</v>
+      </c>
+      <c r="Z290">
+        <v>0</v>
+      </c>
+      <c r="AA290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>6799977</v>
+      </c>
+      <c r="C291" t="s">
+        <v>28</v>
+      </c>
+      <c r="D291" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45347.625</v>
+      </c>
+      <c r="F291" t="s">
+        <v>40</v>
+      </c>
+      <c r="G291" t="s">
+        <v>30</v>
+      </c>
+      <c r="K291">
+        <v>6.5</v>
+      </c>
+      <c r="L291">
+        <v>4.5</v>
+      </c>
+      <c r="M291">
+        <v>1.4</v>
+      </c>
+      <c r="N291">
+        <v>6.5</v>
+      </c>
+      <c r="O291">
+        <v>4.5</v>
+      </c>
+      <c r="P291">
+        <v>1.4</v>
+      </c>
+      <c r="Q291">
+        <v>1.25</v>
+      </c>
+      <c r="R291">
+        <v>1.925</v>
+      </c>
+      <c r="S291">
+        <v>1.925</v>
+      </c>
+      <c r="T291">
+        <v>2.75</v>
+      </c>
+      <c r="U291">
+        <v>1.875</v>
+      </c>
+      <c r="V291">
+        <v>1.975</v>
+      </c>
+      <c r="W291">
+        <v>0</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+      <c r="Y291">
+        <v>0</v>
+      </c>
+      <c r="Z291">
+        <v>0</v>
+      </c>
+      <c r="AA291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>6799975</v>
+      </c>
+      <c r="C292" t="s">
+        <v>28</v>
+      </c>
+      <c r="D292" t="s">
+        <v>28</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45348.625</v>
+      </c>
+      <c r="F292" t="s">
+        <v>35</v>
+      </c>
+      <c r="G292" t="s">
+        <v>44</v>
+      </c>
+      <c r="K292">
+        <v>1.95</v>
+      </c>
+      <c r="L292">
+        <v>3.3</v>
+      </c>
+      <c r="M292">
+        <v>3.6</v>
+      </c>
+      <c r="N292">
+        <v>2</v>
+      </c>
+      <c r="O292">
+        <v>3.3</v>
+      </c>
+      <c r="P292">
+        <v>3.4</v>
+      </c>
+      <c r="Q292">
+        <v>-0.25</v>
+      </c>
+      <c r="R292">
+        <v>1.8</v>
+      </c>
+      <c r="S292">
+        <v>2.05</v>
+      </c>
+      <c r="T292">
+        <v>2.25</v>
+      </c>
+      <c r="U292">
+        <v>1.925</v>
+      </c>
+      <c r="V292">
+        <v>1.925</v>
+      </c>
+      <c r="W292">
+        <v>0</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+      <c r="Y292">
+        <v>0</v>
+      </c>
+      <c r="Z292">
+        <v>0</v>
+      </c>
+      <c r="AA292">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5145373</v>
+        <v>5145339</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N19">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5145339</v>
+        <v>5145373</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P20">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>0.4875</v>
+      </c>
+      <c r="AA20">
+        <v>-0.5</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
-      <c r="AA20">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5145868</v>
+        <v>5145146</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L41">
+        <v>3.3</v>
+      </c>
+      <c r="M41">
+        <v>2.375</v>
+      </c>
+      <c r="N41">
+        <v>3.1</v>
+      </c>
+      <c r="O41">
         <v>3.4</v>
       </c>
-      <c r="M41">
-        <v>3.1</v>
-      </c>
-      <c r="N41">
-        <v>1.65</v>
-      </c>
-      <c r="O41">
-        <v>3.6</v>
-      </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T41">
         <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5145146</v>
+        <v>5145868</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N42">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
+        <v>4.333</v>
+      </c>
+      <c r="Q42">
+        <v>-0.75</v>
+      </c>
+      <c r="R42">
+        <v>1.9</v>
+      </c>
+      <c r="S42">
         <v>1.95</v>
-      </c>
-      <c r="Q42">
-        <v>0.5</v>
-      </c>
-      <c r="R42">
-        <v>1.85</v>
-      </c>
-      <c r="S42">
-        <v>2</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
         <v>0.95</v>
-      </c>
-      <c r="Z42">
-        <v>-1</v>
-      </c>
-      <c r="AA42">
-        <v>1</v>
       </c>
       <c r="AB42">
         <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5266291</v>
+        <v>5145379</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48">
+        <v>2.35</v>
+      </c>
+      <c r="L48">
+        <v>3.25</v>
+      </c>
+      <c r="M48">
+        <v>2.9</v>
+      </c>
+      <c r="N48">
+        <v>2.7</v>
+      </c>
+      <c r="O48">
+        <v>3.25</v>
+      </c>
+      <c r="P48">
+        <v>2.45</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>46</v>
-      </c>
-      <c r="K48">
-        <v>1.6</v>
-      </c>
-      <c r="L48">
-        <v>3.9</v>
-      </c>
-      <c r="M48">
-        <v>5</v>
-      </c>
-      <c r="N48">
-        <v>1.666</v>
-      </c>
-      <c r="O48">
-        <v>3.75</v>
-      </c>
-      <c r="P48">
-        <v>4.2</v>
-      </c>
-      <c r="Q48">
-        <v>-0.75</v>
-      </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z48">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5145379</v>
+        <v>5266291</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="L49">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M49">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N49">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6404155</v>
+        <v>6402973</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,58 +7837,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>46</v>
       </c>
       <c r="K83">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W83">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,16 +7897,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6402973</v>
+        <v>6404155</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>46</v>
       </c>
       <c r="K84">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L84">
+        <v>3.75</v>
+      </c>
+      <c r="M84">
+        <v>5</v>
+      </c>
+      <c r="N84">
+        <v>1.833</v>
+      </c>
+      <c r="O84">
         <v>3.3</v>
       </c>
-      <c r="M84">
-        <v>3.1</v>
-      </c>
-      <c r="N84">
-        <v>2.15</v>
-      </c>
-      <c r="O84">
-        <v>3.2</v>
-      </c>
       <c r="P84">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,16 +7986,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6404125</v>
+        <v>6404144</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M110">
+        <v>8</v>
+      </c>
+      <c r="N110">
+        <v>1.363</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>9</v>
+      </c>
+      <c r="Q110">
+        <v>-1.25</v>
+      </c>
+      <c r="R110">
+        <v>1.925</v>
+      </c>
+      <c r="S110">
+        <v>1.925</v>
+      </c>
+      <c r="T110">
+        <v>2.25</v>
+      </c>
+      <c r="U110">
         <v>1.8</v>
       </c>
-      <c r="N110">
-        <v>4.2</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>1.727</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.85</v>
-      </c>
-      <c r="S110">
-        <v>2</v>
-      </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
       <c r="V110">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6404144</v>
+        <v>6404125</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="L111">
+        <v>3.6</v>
+      </c>
+      <c r="M111">
+        <v>1.8</v>
+      </c>
+      <c r="N111">
         <v>4.2</v>
       </c>
-      <c r="M111">
-        <v>8</v>
-      </c>
-      <c r="N111">
-        <v>1.363</v>
-      </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R111">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W111">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB111">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6404124</v>
+        <v>6402968</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,73 +10774,73 @@
         <v>45052.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
+        <v>3.1</v>
+      </c>
+      <c r="M116">
+        <v>3.1</v>
+      </c>
+      <c r="N116">
         <v>3.3</v>
-      </c>
-      <c r="M116">
-        <v>3.25</v>
-      </c>
-      <c r="N116">
-        <v>2.45</v>
       </c>
       <c r="O116">
         <v>3.1</v>
       </c>
       <c r="P116">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6402968</v>
+        <v>6404124</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,73 +10952,73 @@
         <v>45052.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N118">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
         <v>3.1</v>
       </c>
       <c r="P118">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y118">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6404139</v>
+        <v>6404140</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,49 +11753,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+      <c r="J127" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127">
+        <v>4.5</v>
+      </c>
+      <c r="L127">
+        <v>4.2</v>
+      </c>
+      <c r="M127">
+        <v>1.533</v>
+      </c>
+      <c r="N127">
+        <v>6</v>
+      </c>
+      <c r="O127">
+        <v>5</v>
+      </c>
+      <c r="P127">
+        <v>1.363</v>
+      </c>
+      <c r="Q127">
+        <v>1.25</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>1.85</v>
+      </c>
+      <c r="T127">
         <v>3</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
-        <v>46</v>
-      </c>
-      <c r="K127">
-        <v>2.2</v>
-      </c>
-      <c r="L127">
-        <v>3.3</v>
-      </c>
-      <c r="M127">
-        <v>2.8</v>
-      </c>
-      <c r="N127">
-        <v>2</v>
-      </c>
-      <c r="O127">
-        <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>3.3</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.975</v>
-      </c>
-      <c r="S127">
-        <v>1.875</v>
-      </c>
-      <c r="T127">
-        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.875</v>
@@ -11804,19 +11804,19 @@
         <v>1.975</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
         <v>0.875</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6404140</v>
+        <v>6404139</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,49 +11842,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N128">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q128">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.875</v>
@@ -11893,19 +11893,19 @@
         <v>1.975</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
         <v>0.875</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6670414</v>
+        <v>6670415</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
+        <v>1.5</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>5</v>
+      </c>
+      <c r="N129">
+        <v>1.45</v>
+      </c>
+      <c r="O129">
+        <v>4.2</v>
+      </c>
+      <c r="P129">
         <v>5.25</v>
       </c>
-      <c r="L129">
-        <v>4.333</v>
-      </c>
-      <c r="M129">
-        <v>1.444</v>
-      </c>
-      <c r="N129">
-        <v>7</v>
-      </c>
-      <c r="O129">
-        <v>5.25</v>
-      </c>
-      <c r="P129">
-        <v>1.285</v>
-      </c>
       <c r="Q129">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6670415</v>
+        <v>6670414</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>47</v>
+      </c>
+      <c r="K131">
+        <v>5.25</v>
+      </c>
+      <c r="L131">
+        <v>4.333</v>
+      </c>
+      <c r="M131">
+        <v>1.444</v>
+      </c>
+      <c r="N131">
+        <v>7</v>
+      </c>
+      <c r="O131">
+        <v>5.25</v>
+      </c>
+      <c r="P131">
+        <v>1.285</v>
+      </c>
+      <c r="Q131">
+        <v>1.5</v>
+      </c>
+      <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
+        <v>1.95</v>
+      </c>
+      <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>1.9</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z131">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
         <v>0</v>
       </c>
-      <c r="J131" t="s">
-        <v>46</v>
-      </c>
-      <c r="K131">
-        <v>1.5</v>
-      </c>
-      <c r="L131">
-        <v>4</v>
-      </c>
-      <c r="M131">
-        <v>5</v>
-      </c>
-      <c r="N131">
-        <v>1.45</v>
-      </c>
-      <c r="O131">
-        <v>4.2</v>
-      </c>
-      <c r="P131">
-        <v>5.25</v>
-      </c>
-      <c r="Q131">
-        <v>-1</v>
-      </c>
-      <c r="R131">
-        <v>1.8</v>
-      </c>
-      <c r="S131">
-        <v>2.05</v>
-      </c>
-      <c r="T131">
-        <v>2.75</v>
-      </c>
-      <c r="U131">
-        <v>1.875</v>
-      </c>
-      <c r="V131">
-        <v>1.975</v>
-      </c>
-      <c r="W131">
-        <v>0.45</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>0.8</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,10 +12732,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12747,61 +12747,61 @@
         <v>45</v>
       </c>
       <c r="K138">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N138">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O138">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>-0</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
         <v>0.825</v>
-      </c>
-      <c r="AA138">
-        <v>-1</v>
-      </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
-      <c r="AC138">
-        <v>0.875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,10 +12821,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12836,61 +12836,61 @@
         <v>45</v>
       </c>
       <c r="K139">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M139">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N139">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P139">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6799838</v>
+        <v>6799836</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K146">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="L146">
+        <v>6</v>
+      </c>
+      <c r="M146">
+        <v>11</v>
+      </c>
+      <c r="N146">
+        <v>1.2</v>
+      </c>
+      <c r="O146">
+        <v>6</v>
+      </c>
+      <c r="P146">
+        <v>10</v>
+      </c>
+      <c r="Q146">
+        <v>-1.75</v>
+      </c>
+      <c r="R146">
+        <v>1.825</v>
+      </c>
+      <c r="S146">
+        <v>2.025</v>
+      </c>
+      <c r="T146">
         <v>3</v>
       </c>
-      <c r="M146">
-        <v>3.2</v>
-      </c>
-      <c r="N146">
-        <v>2.15</v>
-      </c>
-      <c r="O146">
-        <v>3.1</v>
-      </c>
-      <c r="P146">
-        <v>3.1</v>
-      </c>
-      <c r="Q146">
-        <v>-0.25</v>
-      </c>
-      <c r="R146">
-        <v>2</v>
-      </c>
-      <c r="S146">
+      <c r="U146">
         <v>1.85</v>
       </c>
-      <c r="T146">
-        <v>2.5</v>
-      </c>
-      <c r="U146">
-        <v>2</v>
-      </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6799836</v>
+        <v>6799838</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="L147">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M147">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N147">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O147">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q147">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
         <v>1.85</v>
       </c>
-      <c r="V147">
-        <v>2</v>
-      </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X147">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6799854</v>
+        <v>6799853</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,55 +14779,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L161">
         <v>3.25</v>
       </c>
       <c r="M161">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N161">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P161">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q161">
         <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
         <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14836,19 +14836,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6799853</v>
+        <v>6799854</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,55 +14868,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>47</v>
       </c>
       <c r="K162">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L162">
         <v>3.25</v>
       </c>
       <c r="M162">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N162">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O162">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P162">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q162">
         <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T162">
         <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14925,19 +14925,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7511180</v>
+        <v>7511181</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N174">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q174">
         <v>0</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W174">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7511181</v>
+        <v>7511180</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,76 +16025,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
         <v>0</v>
       </c>
-      <c r="I175">
-        <v>2</v>
-      </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N175">
+        <v>2.5</v>
+      </c>
+      <c r="O175">
+        <v>3.2</v>
+      </c>
+      <c r="P175">
         <v>2.45</v>
-      </c>
-      <c r="O175">
-        <v>3.25</v>
-      </c>
-      <c r="P175">
-        <v>2.7</v>
       </c>
       <c r="Q175">
         <v>0</v>
       </c>
       <c r="R175">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S175">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K203">
+        <v>2.6</v>
+      </c>
+      <c r="L203">
+        <v>3.1</v>
+      </c>
+      <c r="M203">
+        <v>2.6</v>
+      </c>
+      <c r="N203">
+        <v>2.9</v>
+      </c>
+      <c r="O203">
+        <v>3.2</v>
+      </c>
+      <c r="P203">
+        <v>2.3</v>
+      </c>
+      <c r="Q203">
+        <v>0.25</v>
+      </c>
+      <c r="R203">
+        <v>1.8</v>
+      </c>
+      <c r="S203">
         <v>2.05</v>
       </c>
-      <c r="L203">
-        <v>3.2</v>
-      </c>
-      <c r="M203">
-        <v>3.5</v>
-      </c>
-      <c r="N203">
-        <v>2.15</v>
-      </c>
-      <c r="O203">
-        <v>3.1</v>
-      </c>
-      <c r="P203">
-        <v>3.2</v>
-      </c>
-      <c r="Q203">
-        <v>-0.25</v>
-      </c>
-      <c r="R203">
-        <v>1.925</v>
-      </c>
-      <c r="S203">
-        <v>1.925</v>
-      </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
+        <v>1.85</v>
+      </c>
+      <c r="W203">
         <v>1.9</v>
       </c>
-      <c r="V203">
-        <v>1.95</v>
-      </c>
-      <c r="W203">
-        <v>-1</v>
-      </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA203">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7542719</v>
+        <v>7542640</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,76 +18606,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L204">
+        <v>3.2</v>
+      </c>
+      <c r="M204">
+        <v>3.5</v>
+      </c>
+      <c r="N204">
+        <v>2.15</v>
+      </c>
+      <c r="O204">
         <v>3.1</v>
       </c>
-      <c r="M204">
-        <v>2.6</v>
-      </c>
-      <c r="N204">
-        <v>2.9</v>
-      </c>
-      <c r="O204">
+      <c r="P204">
         <v>3.2</v>
       </c>
-      <c r="P204">
-        <v>2.3</v>
-      </c>
       <c r="Q204">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB204">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7542737</v>
+        <v>7542735</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H238">
+        <v>2</v>
+      </c>
+      <c r="I238">
         <v>0</v>
       </c>
-      <c r="I238">
-        <v>1</v>
-      </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M238">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N238">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O238">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P238">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
+        <v>1.975</v>
+      </c>
+      <c r="V238">
         <v>1.875</v>
       </c>
-      <c r="V238">
-        <v>1.975</v>
-      </c>
       <c r="W238">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7542735</v>
+        <v>7542736</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M239">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O239">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V239">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7542736</v>
+        <v>7542737</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,76 +21810,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H240">
         <v>0</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K240">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L240">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M240">
+        <v>2.45</v>
+      </c>
+      <c r="N240">
         <v>3.2</v>
       </c>
-      <c r="N240">
-        <v>2.375</v>
-      </c>
       <c r="O240">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T240">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V240">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -24824,7 +24824,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6799962</v>
+        <v>6799960</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24836,13 +24836,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F274" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G274" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -24851,43 +24851,43 @@
         <v>46</v>
       </c>
       <c r="K274">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L274">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M274">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N274">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O274">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P274">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q274">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R274">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S274">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T274">
         <v>2.25</v>
       </c>
       <c r="U274">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V274">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W274">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X274">
         <v>-1</v>
@@ -24896,16 +24896,16 @@
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24913,7 +24913,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6799960</v>
+        <v>6799962</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24925,13 +24925,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F275" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G275" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -24940,43 +24940,43 @@
         <v>46</v>
       </c>
       <c r="K275">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L275">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M275">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N275">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O275">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P275">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q275">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R275">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S275">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T275">
         <v>2.25</v>
       </c>
       <c r="U275">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V275">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W275">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X275">
         <v>-1</v>
@@ -24985,16 +24985,16 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA275">
         <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC275">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25447,7 +25447,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6799972</v>
+        <v>6799971</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25459,76 +25459,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F281" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G281" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K281">
+        <v>2.05</v>
+      </c>
+      <c r="L281">
+        <v>3.25</v>
+      </c>
+      <c r="M281">
+        <v>3.5</v>
+      </c>
+      <c r="N281">
         <v>2.1</v>
       </c>
-      <c r="L281">
-        <v>3.3</v>
-      </c>
-      <c r="M281">
-        <v>3.3</v>
-      </c>
-      <c r="N281">
-        <v>2.05</v>
-      </c>
       <c r="O281">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P281">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S281">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T281">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U281">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V281">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y281">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA281">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB281">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC281">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25536,7 +25536,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6799971</v>
+        <v>6799972</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25548,76 +25548,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F282" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G282" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K282">
+        <v>2.1</v>
+      </c>
+      <c r="L282">
+        <v>3.3</v>
+      </c>
+      <c r="M282">
+        <v>3.3</v>
+      </c>
+      <c r="N282">
         <v>2.05</v>
       </c>
-      <c r="L282">
-        <v>3.25</v>
-      </c>
-      <c r="M282">
-        <v>3.5</v>
-      </c>
-      <c r="N282">
-        <v>2.1</v>
-      </c>
       <c r="O282">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P282">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V282">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z282">
+        <v>-1</v>
+      </c>
+      <c r="AA282">
+        <v>1.025</v>
+      </c>
+      <c r="AB282">
         <v>-0.5</v>
       </c>
-      <c r="AA282">
-        <v>0.4875</v>
-      </c>
-      <c r="AB282">
-        <v>0</v>
-      </c>
       <c r="AC282">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25919,22 +25919,22 @@
         <v>2.5</v>
       </c>
       <c r="N286">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O286">
         <v>3.1</v>
       </c>
       <c r="P286">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q286">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R286">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S286">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T286">
         <v>2.25</v>
@@ -26014,10 +26014,10 @@
         <v>2.25</v>
       </c>
       <c r="U287">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V287">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W287">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>2.15</v>
       </c>
       <c r="N288">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O288">
         <v>3.1</v>
       </c>
       <c r="P288">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q288">
         <v>0.25</v>
       </c>
       <c r="R288">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S288">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T288">
         <v>2.25</v>
       </c>
       <c r="U288">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V288">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W288">
         <v>0</v>
@@ -26162,10 +26162,10 @@
         <v>2.75</v>
       </c>
       <c r="U289">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V289">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W289">
         <v>0</v>
@@ -26215,31 +26215,31 @@
         <v>3.75</v>
       </c>
       <c r="N290">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O290">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P290">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q290">
         <v>-0.5</v>
       </c>
       <c r="R290">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S290">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T290">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U290">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V290">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W290">
         <v>0</v>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5145339</v>
+        <v>5145373</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>0.4875</v>
+      </c>
+      <c r="AA19">
+        <v>-0.5</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-      <c r="AC19">
-        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5145373</v>
+        <v>5145339</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>44947.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L20">
         <v>3.25</v>
       </c>
       <c r="M20">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N20">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
         <v>2.5</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z20">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5145146</v>
+        <v>5145868</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L41">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
+        <v>4.333</v>
+      </c>
+      <c r="Q41">
+        <v>-0.75</v>
+      </c>
+      <c r="R41">
+        <v>1.9</v>
+      </c>
+      <c r="S41">
         <v>1.95</v>
-      </c>
-      <c r="Q41">
-        <v>0.5</v>
-      </c>
-      <c r="R41">
-        <v>1.85</v>
-      </c>
-      <c r="S41">
-        <v>2</v>
       </c>
       <c r="T41">
         <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
         <v>0.95</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
-      <c r="AA41">
-        <v>1</v>
       </c>
       <c r="AB41">
         <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5145868</v>
+        <v>5145146</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L42">
+        <v>3.3</v>
+      </c>
+      <c r="M42">
+        <v>2.375</v>
+      </c>
+      <c r="N42">
+        <v>3.1</v>
+      </c>
+      <c r="O42">
         <v>3.4</v>
       </c>
-      <c r="M42">
-        <v>3.1</v>
-      </c>
-      <c r="N42">
-        <v>1.65</v>
-      </c>
-      <c r="O42">
-        <v>3.6</v>
-      </c>
       <c r="P42">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5145379</v>
+        <v>5266291</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K48">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="L48">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5266291</v>
+        <v>5145379</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>44975.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49">
+        <v>2.35</v>
+      </c>
+      <c r="L49">
+        <v>3.25</v>
+      </c>
+      <c r="M49">
+        <v>2.9</v>
+      </c>
+      <c r="N49">
+        <v>2.7</v>
+      </c>
+      <c r="O49">
+        <v>3.25</v>
+      </c>
+      <c r="P49">
+        <v>2.45</v>
+      </c>
+      <c r="Q49">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K49">
-        <v>1.6</v>
-      </c>
-      <c r="L49">
-        <v>3.9</v>
-      </c>
-      <c r="M49">
-        <v>5</v>
-      </c>
-      <c r="N49">
-        <v>1.666</v>
-      </c>
-      <c r="O49">
-        <v>3.75</v>
-      </c>
-      <c r="P49">
-        <v>4.2</v>
-      </c>
-      <c r="Q49">
-        <v>-0.75</v>
-      </c>
       <c r="R49">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z49">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6402973</v>
+        <v>6404155</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,58 +7837,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>46</v>
       </c>
       <c r="K83">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>5</v>
+      </c>
+      <c r="N83">
+        <v>1.833</v>
+      </c>
+      <c r="O83">
         <v>3.3</v>
       </c>
-      <c r="M83">
-        <v>3.1</v>
-      </c>
-      <c r="N83">
-        <v>2.15</v>
-      </c>
-      <c r="O83">
-        <v>3.2</v>
-      </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,16 +7897,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6404155</v>
+        <v>6402973</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>46</v>
       </c>
       <c r="K84">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N84">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W84">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,16 +7986,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6404150</v>
+        <v>6402966</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L96">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N96">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="O96">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6404131</v>
+        <v>6404150</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,10 +9083,10 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9098,61 +9098,61 @@
         <v>45</v>
       </c>
       <c r="K97">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M97">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N97">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="O97">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P97">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6402966</v>
+        <v>6404131</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,46 +9172,46 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M98">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N98">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O98">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P98">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q98">
         <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T98">
         <v>2.25</v>
@@ -9226,22 +9226,22 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y98">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6404130</v>
+        <v>6404128</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,40 +9706,40 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N104">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
         <v>2.05</v>
@@ -9748,19 +9748,19 @@
         <v>1.8</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
+        <v>1.825</v>
+      </c>
+      <c r="V104">
         <v>2.025</v>
       </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -9772,10 +9772,10 @@
         <v>0.8</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6404128</v>
+        <v>6404130</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,40 +9795,40 @@
         <v>45038.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N105">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O105">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P105">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
         <v>2.05</v>
@@ -9837,19 +9837,19 @@
         <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
+        <v>2.025</v>
+      </c>
+      <c r="V105">
         <v>1.825</v>
       </c>
-      <c r="V105">
-        <v>2.025</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -9861,10 +9861,10 @@
         <v>0.8</v>
       </c>
       <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.825</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6404144</v>
+        <v>6404125</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="L110">
+        <v>3.6</v>
+      </c>
+      <c r="M110">
+        <v>1.8</v>
+      </c>
+      <c r="N110">
         <v>4.2</v>
       </c>
-      <c r="M110">
-        <v>8</v>
-      </c>
-      <c r="N110">
-        <v>1.363</v>
-      </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB110">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6404125</v>
+        <v>6404144</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M111">
+        <v>8</v>
+      </c>
+      <c r="N111">
+        <v>1.363</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
+        <v>9</v>
+      </c>
+      <c r="Q111">
+        <v>-1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.925</v>
+      </c>
+      <c r="S111">
+        <v>1.925</v>
+      </c>
+      <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
         <v>1.8</v>
       </c>
-      <c r="N111">
-        <v>4.2</v>
-      </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>1.727</v>
-      </c>
-      <c r="Q111">
-        <v>0.75</v>
-      </c>
-      <c r="R111">
-        <v>1.85</v>
-      </c>
-      <c r="S111">
-        <v>2</v>
-      </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.85</v>
-      </c>
       <c r="V111">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6402968</v>
+        <v>6404124</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,73 +10774,73 @@
         <v>45052.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N116">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O116">
         <v>3.1</v>
       </c>
       <c r="P116">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6404124</v>
+        <v>6402968</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,73 +10952,73 @@
         <v>45052.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
+        <v>3.1</v>
+      </c>
+      <c r="M118">
+        <v>3.1</v>
+      </c>
+      <c r="N118">
         <v>3.3</v>
-      </c>
-      <c r="M118">
-        <v>3.25</v>
-      </c>
-      <c r="N118">
-        <v>2.45</v>
       </c>
       <c r="O118">
         <v>3.1</v>
       </c>
       <c r="P118">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6404142</v>
+        <v>6404141</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,49 +11130,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N120">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
         <v>2.025</v>
@@ -11181,25 +11181,25 @@
         <v>1.825</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6404141</v>
+        <v>6404142</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,49 +11219,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M121">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="N121">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
         <v>2.025</v>
@@ -11270,25 +11270,25 @@
         <v>1.825</v>
       </c>
       <c r="W121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z121">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6404140</v>
+        <v>6404139</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,49 +11753,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L127">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N127">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O127">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q127">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.875</v>
@@ -11804,19 +11804,19 @@
         <v>1.975</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>0.875</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6404139</v>
+        <v>6404140</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,49 +11842,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>5</v>
+      </c>
+      <c r="J128" t="s">
+        <v>47</v>
+      </c>
+      <c r="K128">
+        <v>4.5</v>
+      </c>
+      <c r="L128">
+        <v>4.2</v>
+      </c>
+      <c r="M128">
+        <v>1.533</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128">
+        <v>5</v>
+      </c>
+      <c r="P128">
+        <v>1.363</v>
+      </c>
+      <c r="Q128">
+        <v>1.25</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>1.85</v>
+      </c>
+      <c r="T128">
         <v>3</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>46</v>
-      </c>
-      <c r="K128">
-        <v>2.2</v>
-      </c>
-      <c r="L128">
-        <v>3.3</v>
-      </c>
-      <c r="M128">
-        <v>2.8</v>
-      </c>
-      <c r="N128">
-        <v>2</v>
-      </c>
-      <c r="O128">
-        <v>3.5</v>
-      </c>
-      <c r="P128">
-        <v>3.3</v>
-      </c>
-      <c r="Q128">
-        <v>-0.5</v>
-      </c>
-      <c r="R128">
-        <v>1.975</v>
-      </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.875</v>
@@ -11893,19 +11893,19 @@
         <v>1.975</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB128">
         <v>0.875</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6670415</v>
+        <v>6670414</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>47</v>
+      </c>
+      <c r="K129">
+        <v>5.25</v>
+      </c>
+      <c r="L129">
+        <v>4.333</v>
+      </c>
+      <c r="M129">
+        <v>1.444</v>
+      </c>
+      <c r="N129">
+        <v>7</v>
+      </c>
+      <c r="O129">
+        <v>5.25</v>
+      </c>
+      <c r="P129">
+        <v>1.285</v>
+      </c>
+      <c r="Q129">
+        <v>1.5</v>
+      </c>
+      <c r="R129">
+        <v>1.9</v>
+      </c>
+      <c r="S129">
+        <v>1.95</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
+        <v>1.9</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z129">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
         <v>0</v>
       </c>
-      <c r="J129" t="s">
-        <v>46</v>
-      </c>
-      <c r="K129">
-        <v>1.5</v>
-      </c>
-      <c r="L129">
-        <v>4</v>
-      </c>
-      <c r="M129">
-        <v>5</v>
-      </c>
-      <c r="N129">
-        <v>1.45</v>
-      </c>
-      <c r="O129">
-        <v>4.2</v>
-      </c>
-      <c r="P129">
-        <v>5.25</v>
-      </c>
-      <c r="Q129">
-        <v>-1</v>
-      </c>
-      <c r="R129">
-        <v>1.8</v>
-      </c>
-      <c r="S129">
-        <v>2.05</v>
-      </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>1.875</v>
-      </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
-      <c r="W129">
-        <v>0.45</v>
-      </c>
-      <c r="X129">
-        <v>-1</v>
-      </c>
-      <c r="Y129">
-        <v>-1</v>
-      </c>
-      <c r="Z129">
-        <v>0.8</v>
-      </c>
-      <c r="AA129">
-        <v>-1</v>
-      </c>
-      <c r="AB129">
-        <v>-1</v>
-      </c>
       <c r="AC129">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6670414</v>
+        <v>6670415</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
+        <v>1.5</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
+        <v>5</v>
+      </c>
+      <c r="N131">
+        <v>1.45</v>
+      </c>
+      <c r="O131">
+        <v>4.2</v>
+      </c>
+      <c r="P131">
         <v>5.25</v>
       </c>
-      <c r="L131">
-        <v>4.333</v>
-      </c>
-      <c r="M131">
-        <v>1.444</v>
-      </c>
-      <c r="N131">
-        <v>7</v>
-      </c>
-      <c r="O131">
-        <v>5.25</v>
-      </c>
-      <c r="P131">
-        <v>1.285</v>
-      </c>
       <c r="Q131">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6799829</v>
+        <v>6799825</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L140">
+        <v>3.25</v>
+      </c>
+      <c r="M140">
+        <v>4</v>
+      </c>
+      <c r="N140">
+        <v>1.95</v>
+      </c>
+      <c r="O140">
+        <v>3.2</v>
+      </c>
+      <c r="P140">
         <v>3.4</v>
       </c>
-      <c r="M140">
-        <v>2.6</v>
-      </c>
-      <c r="N140">
-        <v>2.625</v>
-      </c>
-      <c r="O140">
-        <v>3.4</v>
-      </c>
-      <c r="P140">
-        <v>2.375</v>
-      </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6799825</v>
+        <v>6799829</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K141">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N141">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X141">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA141">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,58 +13622,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>46</v>
       </c>
       <c r="K148">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N148">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O148">
         <v>3.6</v>
       </c>
       <c r="P148">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13682,13 +13682,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,58 +13711,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
         <v>46</v>
       </c>
       <c r="K149">
+        <v>1.571</v>
+      </c>
+      <c r="L149">
+        <v>3.6</v>
+      </c>
+      <c r="M149">
         <v>5</v>
       </c>
-      <c r="L149">
-        <v>3.75</v>
-      </c>
-      <c r="M149">
-        <v>1.533</v>
-      </c>
       <c r="N149">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O149">
         <v>3.6</v>
       </c>
       <c r="P149">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q149">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13771,13 +13771,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6799853</v>
+        <v>6799854</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,55 +14779,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L161">
         <v>3.25</v>
       </c>
       <c r="M161">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N161">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O161">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P161">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q161">
         <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
         <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14836,19 +14836,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6799854</v>
+        <v>6799853</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,55 +14868,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>47</v>
       </c>
       <c r="K162">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L162">
         <v>3.25</v>
       </c>
       <c r="M162">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N162">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O162">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P162">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q162">
         <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S162">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T162">
         <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V162">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14925,19 +14925,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC162">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7542499</v>
+        <v>7542500</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K188">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="L188">
         <v>3.2</v>
       </c>
       <c r="M188">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N188">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P188">
+        <v>2.9</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
         <v>2.05</v>
       </c>
-      <c r="Q188">
-        <v>0.25</v>
-      </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
         <v>1.05</v>
       </c>
-      <c r="Z188">
-        <v>-1</v>
-      </c>
       <c r="AA188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7542500</v>
+        <v>7542748</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,13 +17271,13 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -17286,43 +17286,43 @@
         <v>46</v>
       </c>
       <c r="K189">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
         <v>3.2</v>
       </c>
       <c r="M189">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N189">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O189">
+        <v>2.9</v>
+      </c>
+      <c r="P189">
         <v>3</v>
-      </c>
-      <c r="P189">
-        <v>2.9</v>
       </c>
       <c r="Q189">
         <v>-0.25</v>
       </c>
       <c r="R189">
+        <v>2.125</v>
+      </c>
+      <c r="S189">
+        <v>1.75</v>
+      </c>
+      <c r="T189">
+        <v>2</v>
+      </c>
+      <c r="U189">
         <v>2.05</v>
       </c>
-      <c r="S189">
+      <c r="V189">
         <v>1.8</v>
       </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>1.925</v>
-      </c>
-      <c r="V189">
-        <v>1.925</v>
-      </c>
       <c r="W189">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17331,16 +17331,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.05</v>
+        <v>1.125</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC189">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7542748</v>
+        <v>7542499</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="L190">
         <v>3.2</v>
       </c>
       <c r="M190">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N190">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O190">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P190">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z190">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,55 +19674,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>47</v>
       </c>
       <c r="K216">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N216">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O216">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P216">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q216">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19731,19 +19731,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,55 +19763,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J217" t="s">
         <v>47</v>
       </c>
       <c r="K217">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L217">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217">
+        <v>4.333</v>
+      </c>
+      <c r="O217">
         <v>3.6</v>
       </c>
-      <c r="N217">
-        <v>2.45</v>
-      </c>
-      <c r="O217">
-        <v>3</v>
-      </c>
       <c r="P217">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R217">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S217">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19820,19 +19820,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC217">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7542736</v>
+        <v>7542737</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K239">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M239">
+        <v>2.45</v>
+      </c>
+      <c r="N239">
         <v>3.2</v>
       </c>
-      <c r="N239">
-        <v>2.375</v>
-      </c>
       <c r="O239">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P239">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T239">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7542737</v>
+        <v>7542736</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,76 +21810,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H240">
         <v>0</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L240">
+        <v>3.4</v>
+      </c>
+      <c r="M240">
         <v>3.2</v>
       </c>
-      <c r="M240">
-        <v>2.45</v>
-      </c>
       <c r="N240">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P240">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U240">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y240">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA240">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -25919,31 +25919,31 @@
         <v>2.5</v>
       </c>
       <c r="N286">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O286">
         <v>3.1</v>
       </c>
       <c r="P286">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q286">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R286">
+        <v>2.1</v>
+      </c>
+      <c r="S286">
         <v>1.775</v>
       </c>
-      <c r="S286">
-        <v>2.1</v>
-      </c>
       <c r="T286">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U286">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V286">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W286">
         <v>0</v>
@@ -26014,10 +26014,10 @@
         <v>2.25</v>
       </c>
       <c r="U287">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V287">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W287">
         <v>0</v>
@@ -26153,19 +26153,19 @@
         <v>-0.25</v>
       </c>
       <c r="R289">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S289">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T289">
         <v>2.75</v>
       </c>
       <c r="U289">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V289">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W289">
         <v>0</v>
@@ -26218,7 +26218,7 @@
         <v>1.8</v>
       </c>
       <c r="O290">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P290">
         <v>4</v>
@@ -26227,19 +26227,19 @@
         <v>-0.5</v>
       </c>
       <c r="R290">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S290">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T290">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U290">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V290">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W290">
         <v>0</v>
@@ -26301,10 +26301,10 @@
         <v>1.25</v>
       </c>
       <c r="R291">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S291">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T291">
         <v>2.75</v>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC292"/>
+  <dimension ref="A1:AC291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6404124</v>
+        <v>6404123</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L116">
+        <v>3.5</v>
+      </c>
+      <c r="M116">
+        <v>3.75</v>
+      </c>
+      <c r="N116">
+        <v>2.7</v>
+      </c>
+      <c r="O116">
         <v>3.3</v>
       </c>
-      <c r="M116">
-        <v>3.25</v>
-      </c>
-      <c r="N116">
-        <v>2.45</v>
-      </c>
-      <c r="O116">
-        <v>3.1</v>
-      </c>
       <c r="P116">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>1.125</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6404123</v>
+        <v>6404124</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>45</v>
+      </c>
+      <c r="K117">
+        <v>2.05</v>
+      </c>
+      <c r="L117">
+        <v>3.3</v>
+      </c>
+      <c r="M117">
+        <v>3.25</v>
+      </c>
+      <c r="N117">
+        <v>2.45</v>
+      </c>
+      <c r="O117">
+        <v>3.1</v>
+      </c>
+      <c r="P117">
+        <v>2.625</v>
+      </c>
+      <c r="Q117">
         <v>0</v>
       </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117" t="s">
-        <v>47</v>
-      </c>
-      <c r="K117">
-        <v>1.833</v>
-      </c>
-      <c r="L117">
-        <v>3.5</v>
-      </c>
-      <c r="M117">
-        <v>3.75</v>
-      </c>
-      <c r="N117">
-        <v>2.7</v>
-      </c>
-      <c r="O117">
-        <v>3.3</v>
-      </c>
-      <c r="P117">
-        <v>2.375</v>
-      </c>
-      <c r="Q117">
-        <v>0.25</v>
-      </c>
       <c r="R117">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>1.125</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6670414</v>
+        <v>6670415</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
+        <v>1.5</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>5</v>
+      </c>
+      <c r="N129">
+        <v>1.45</v>
+      </c>
+      <c r="O129">
+        <v>4.2</v>
+      </c>
+      <c r="P129">
         <v>5.25</v>
       </c>
-      <c r="L129">
-        <v>4.333</v>
-      </c>
-      <c r="M129">
-        <v>1.444</v>
-      </c>
-      <c r="N129">
-        <v>7</v>
-      </c>
-      <c r="O129">
-        <v>5.25</v>
-      </c>
-      <c r="P129">
-        <v>1.285</v>
-      </c>
       <c r="Q129">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6670416</v>
+        <v>6670414</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130" t="s">
+        <v>47</v>
+      </c>
+      <c r="K130">
+        <v>5.25</v>
+      </c>
+      <c r="L130">
+        <v>4.333</v>
+      </c>
+      <c r="M130">
+        <v>1.444</v>
+      </c>
+      <c r="N130">
+        <v>7</v>
+      </c>
+      <c r="O130">
+        <v>5.25</v>
+      </c>
+      <c r="P130">
+        <v>1.285</v>
+      </c>
+      <c r="Q130">
+        <v>1.5</v>
+      </c>
+      <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
+        <v>1.95</v>
+      </c>
+      <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
+        <v>1.9</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z130">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
         <v>0</v>
       </c>
-      <c r="J130" t="s">
-        <v>46</v>
-      </c>
-      <c r="K130">
-        <v>1.285</v>
-      </c>
-      <c r="L130">
-        <v>5</v>
-      </c>
-      <c r="M130">
-        <v>7.5</v>
-      </c>
-      <c r="N130">
-        <v>1.222</v>
-      </c>
-      <c r="O130">
-        <v>5.75</v>
-      </c>
-      <c r="P130">
-        <v>8.5</v>
-      </c>
-      <c r="Q130">
-        <v>-1.75</v>
-      </c>
-      <c r="R130">
-        <v>1.875</v>
-      </c>
-      <c r="S130">
-        <v>1.975</v>
-      </c>
-      <c r="T130">
-        <v>3.25</v>
-      </c>
-      <c r="U130">
-        <v>1.925</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
-      <c r="W130">
-        <v>0.222</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
-      <c r="Z130">
-        <v>0.875</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>0.925</v>
-      </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6670415</v>
+        <v>6670416</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,13 +12109,13 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12124,43 +12124,43 @@
         <v>46</v>
       </c>
       <c r="K131">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N131">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P131">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.45</v>
+        <v>0.222</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12169,16 +12169,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6799854</v>
+        <v>6799853</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,55 +14779,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L161">
         <v>3.25</v>
       </c>
       <c r="M161">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N161">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P161">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q161">
         <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
         <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14836,19 +14836,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6799853</v>
+        <v>6799854</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,55 +14868,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
         <v>47</v>
       </c>
       <c r="K162">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L162">
         <v>3.25</v>
       </c>
       <c r="M162">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N162">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O162">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P162">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q162">
         <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T162">
         <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14925,19 +14925,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7542737</v>
+        <v>7542736</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L239">
+        <v>3.4</v>
+      </c>
+      <c r="M239">
         <v>3.2</v>
       </c>
-      <c r="M239">
-        <v>2.45</v>
-      </c>
       <c r="N239">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O239">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y239">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7542736</v>
+        <v>7542737</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,76 +21810,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H240">
         <v>0</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K240">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L240">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M240">
+        <v>2.45</v>
+      </c>
+      <c r="N240">
         <v>3.2</v>
       </c>
-      <c r="N240">
-        <v>2.375</v>
-      </c>
       <c r="O240">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S240">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T240">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V240">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -25447,7 +25447,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6799971</v>
+        <v>6799972</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25459,76 +25459,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F281" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G281" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K281">
+        <v>2.1</v>
+      </c>
+      <c r="L281">
+        <v>3.3</v>
+      </c>
+      <c r="M281">
+        <v>3.3</v>
+      </c>
+      <c r="N281">
         <v>2.05</v>
       </c>
-      <c r="L281">
-        <v>3.25</v>
-      </c>
-      <c r="M281">
-        <v>3.5</v>
-      </c>
-      <c r="N281">
-        <v>2.1</v>
-      </c>
       <c r="O281">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P281">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V281">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z281">
+        <v>-1</v>
+      </c>
+      <c r="AA281">
+        <v>1.025</v>
+      </c>
+      <c r="AB281">
         <v>-0.5</v>
       </c>
-      <c r="AA281">
-        <v>0.4875</v>
-      </c>
-      <c r="AB281">
-        <v>0</v>
-      </c>
       <c r="AC281">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25536,7 +25536,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6799972</v>
+        <v>6799971</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25548,76 +25548,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F282" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G282" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K282">
+        <v>2.05</v>
+      </c>
+      <c r="L282">
+        <v>3.25</v>
+      </c>
+      <c r="M282">
+        <v>3.5</v>
+      </c>
+      <c r="N282">
         <v>2.1</v>
       </c>
-      <c r="L282">
-        <v>3.3</v>
-      </c>
-      <c r="M282">
-        <v>3.3</v>
-      </c>
-      <c r="N282">
-        <v>2.05</v>
-      </c>
       <c r="O282">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P282">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V282">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y282">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA282">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB282">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC282">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25892,7 +25892,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6799974</v>
+        <v>6799978</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25901,49 +25901,49 @@
         <v>28</v>
       </c>
       <c r="E286" s="2">
-        <v>45346.41666666666</v>
+        <v>45346.52083333334</v>
       </c>
       <c r="F286" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G286" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K286">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L286">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M286">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N286">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O286">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P286">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q286">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R286">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S286">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T286">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U286">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V286">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W286">
         <v>0</v>
@@ -25966,7 +25966,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6799978</v>
+        <v>6799976</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -25975,49 +25975,49 @@
         <v>28</v>
       </c>
       <c r="E287" s="2">
-        <v>45346.52083333334</v>
+        <v>45346.5625</v>
       </c>
       <c r="F287" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G287" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K287">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="L287">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M287">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N287">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="O287">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P287">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q287">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R287">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S287">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T287">
         <v>2.25</v>
       </c>
       <c r="U287">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V287">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W287">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6799976</v>
+        <v>6799979</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26049,43 +26049,43 @@
         <v>28</v>
       </c>
       <c r="E288" s="2">
-        <v>45346.5625</v>
+        <v>45346.60416666666</v>
       </c>
       <c r="F288" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G288" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K288">
+        <v>2.4</v>
+      </c>
+      <c r="L288">
+        <v>3.4</v>
+      </c>
+      <c r="M288">
+        <v>2.6</v>
+      </c>
+      <c r="N288">
+        <v>2.375</v>
+      </c>
+      <c r="O288">
         <v>3.3</v>
       </c>
-      <c r="L288">
-        <v>3.1</v>
-      </c>
-      <c r="M288">
-        <v>2.15</v>
-      </c>
-      <c r="N288">
-        <v>3.25</v>
-      </c>
-      <c r="O288">
-        <v>3.1</v>
-      </c>
       <c r="P288">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q288">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R288">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S288">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T288">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U288">
         <v>2.025</v>
@@ -26114,7 +26114,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6799979</v>
+        <v>6799980</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26123,43 +26123,43 @@
         <v>28</v>
       </c>
       <c r="E289" s="2">
-        <v>45346.60416666666</v>
+        <v>45346.625</v>
       </c>
       <c r="F289" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G289" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K289">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L289">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M289">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N289">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O289">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P289">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q289">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R289">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S289">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T289">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U289">
         <v>1.875</v>
@@ -26188,7 +26188,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6799980</v>
+        <v>6799977</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26197,49 +26197,49 @@
         <v>28</v>
       </c>
       <c r="E290" s="2">
-        <v>45346.625</v>
+        <v>45347.625</v>
       </c>
       <c r="F290" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G290" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K290">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="L290">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M290">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="N290">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="O290">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P290">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="Q290">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R290">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S290">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T290">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U290">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V290">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W290">
         <v>0</v>
@@ -26262,7 +26262,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6799977</v>
+        <v>6799975</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26271,49 +26271,49 @@
         <v>28</v>
       </c>
       <c r="E291" s="2">
-        <v>45347.625</v>
+        <v>45348.625</v>
       </c>
       <c r="F291" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G291" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K291">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="L291">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M291">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="N291">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="O291">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P291">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q291">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S291">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T291">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U291">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V291">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W291">
         <v>0</v>
@@ -26328,80 +26328,6 @@
         <v>0</v>
       </c>
       <c r="AA291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:27">
-      <c r="A292" s="1">
-        <v>290</v>
-      </c>
-      <c r="B292">
-        <v>6799975</v>
-      </c>
-      <c r="C292" t="s">
-        <v>28</v>
-      </c>
-      <c r="D292" t="s">
-        <v>28</v>
-      </c>
-      <c r="E292" s="2">
-        <v>45348.625</v>
-      </c>
-      <c r="F292" t="s">
-        <v>35</v>
-      </c>
-      <c r="G292" t="s">
-        <v>44</v>
-      </c>
-      <c r="K292">
-        <v>1.95</v>
-      </c>
-      <c r="L292">
-        <v>3.3</v>
-      </c>
-      <c r="M292">
-        <v>3.6</v>
-      </c>
-      <c r="N292">
-        <v>2</v>
-      </c>
-      <c r="O292">
-        <v>3.3</v>
-      </c>
-      <c r="P292">
-        <v>3.4</v>
-      </c>
-      <c r="Q292">
-        <v>-0.25</v>
-      </c>
-      <c r="R292">
-        <v>1.8</v>
-      </c>
-      <c r="S292">
-        <v>2.05</v>
-      </c>
-      <c r="T292">
-        <v>2.25</v>
-      </c>
-      <c r="U292">
-        <v>1.925</v>
-      </c>
-      <c r="V292">
-        <v>1.925</v>
-      </c>
-      <c r="W292">
-        <v>0</v>
-      </c>
-      <c r="X292">
-        <v>0</v>
-      </c>
-      <c r="Y292">
-        <v>0</v>
-      </c>
-      <c r="Z292">
-        <v>0</v>
-      </c>
-      <c r="AA292">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC291"/>
+  <dimension ref="A1:AC292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5145868</v>
+        <v>5145146</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L41">
+        <v>3.3</v>
+      </c>
+      <c r="M41">
+        <v>2.375</v>
+      </c>
+      <c r="N41">
+        <v>3.1</v>
+      </c>
+      <c r="O41">
         <v>3.4</v>
       </c>
-      <c r="M41">
-        <v>3.1</v>
-      </c>
-      <c r="N41">
-        <v>1.65</v>
-      </c>
-      <c r="O41">
-        <v>3.6</v>
-      </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T41">
         <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5145146</v>
+        <v>5145868</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>44968.5625</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N42">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
+        <v>4.333</v>
+      </c>
+      <c r="Q42">
+        <v>-0.75</v>
+      </c>
+      <c r="R42">
+        <v>1.9</v>
+      </c>
+      <c r="S42">
         <v>1.95</v>
-      </c>
-      <c r="Q42">
-        <v>0.5</v>
-      </c>
-      <c r="R42">
-        <v>1.85</v>
-      </c>
-      <c r="S42">
-        <v>2</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
         <v>0.95</v>
-      </c>
-      <c r="Z42">
-        <v>-1</v>
-      </c>
-      <c r="AA42">
-        <v>1</v>
       </c>
       <c r="AB42">
         <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5145343</v>
+        <v>5145154</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
+        <v>2.75</v>
+      </c>
+      <c r="L70">
+        <v>3.25</v>
+      </c>
+      <c r="M70">
+        <v>2.25</v>
+      </c>
+      <c r="N70">
+        <v>2.7</v>
+      </c>
+      <c r="O70">
+        <v>3.2</v>
+      </c>
+      <c r="P70">
+        <v>2.3</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>1.775</v>
+      </c>
+      <c r="T70">
         <v>2.5</v>
       </c>
-      <c r="L70">
-        <v>3.2</v>
-      </c>
-      <c r="M70">
-        <v>2.5</v>
-      </c>
-      <c r="N70">
-        <v>2.25</v>
-      </c>
-      <c r="O70">
-        <v>3.1</v>
-      </c>
-      <c r="P70">
-        <v>2.9</v>
-      </c>
-      <c r="Q70">
-        <v>-0.25</v>
-      </c>
-      <c r="R70">
+      <c r="U70">
         <v>1.975</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.875</v>
       </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.9</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.875</v>
-      </c>
-      <c r="AB70">
-        <v>-0.5</v>
-      </c>
-      <c r="AC70">
-        <v>0.475</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5145154</v>
+        <v>5145343</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L71">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
+        <v>2.5</v>
+      </c>
+      <c r="N71">
         <v>2.25</v>
       </c>
-      <c r="N71">
-        <v>2.7</v>
-      </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P71">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z71">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6404155</v>
+        <v>6402973</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,58 +7837,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>46</v>
       </c>
       <c r="K83">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W83">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,16 +7897,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6402973</v>
+        <v>6404155</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45017.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>46</v>
       </c>
       <c r="K84">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L84">
+        <v>3.75</v>
+      </c>
+      <c r="M84">
+        <v>5</v>
+      </c>
+      <c r="N84">
+        <v>1.833</v>
+      </c>
+      <c r="O84">
         <v>3.3</v>
       </c>
-      <c r="M84">
-        <v>3.1</v>
-      </c>
-      <c r="N84">
-        <v>2.15</v>
-      </c>
-      <c r="O84">
-        <v>3.2</v>
-      </c>
       <c r="P84">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,16 +7986,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6402965</v>
+        <v>6404135</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
+        <v>2.375</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>3.4</v>
+      </c>
+      <c r="P85">
+        <v>3.25</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
+        <v>1.8</v>
+      </c>
+      <c r="S85">
+        <v>2.05</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>1.8</v>
+      </c>
+      <c r="V85">
+        <v>2.05</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
         <v>2.4</v>
       </c>
-      <c r="N85">
-        <v>2.6</v>
-      </c>
-      <c r="O85">
-        <v>3</v>
-      </c>
-      <c r="P85">
-        <v>2.7</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.95</v>
-      </c>
-      <c r="T85">
-        <v>2</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
-      <c r="W85">
-        <v>-1</v>
-      </c>
-      <c r="X85">
-        <v>2</v>
-      </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6404135</v>
+        <v>6402965</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45018.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L86">
         <v>3.3</v>
       </c>
       <c r="M86">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6404150</v>
+        <v>6404131</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,10 +9083,10 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9098,61 +9098,61 @@
         <v>45</v>
       </c>
       <c r="K97">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L97">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N97">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O97">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P97">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6404131</v>
+        <v>6404150</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45031.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9187,61 +9187,61 @@
         <v>45</v>
       </c>
       <c r="K98">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M98">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N98">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="O98">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P98">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6404125</v>
+        <v>6404144</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M110">
+        <v>8</v>
+      </c>
+      <c r="N110">
+        <v>1.363</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>9</v>
+      </c>
+      <c r="Q110">
+        <v>-1.25</v>
+      </c>
+      <c r="R110">
+        <v>1.925</v>
+      </c>
+      <c r="S110">
+        <v>1.925</v>
+      </c>
+      <c r="T110">
+        <v>2.25</v>
+      </c>
+      <c r="U110">
         <v>1.8</v>
       </c>
-      <c r="N110">
-        <v>4.2</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>1.727</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.85</v>
-      </c>
-      <c r="S110">
-        <v>2</v>
-      </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
       <c r="V110">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6404144</v>
+        <v>6404125</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45045.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="L111">
+        <v>3.6</v>
+      </c>
+      <c r="M111">
+        <v>1.8</v>
+      </c>
+      <c r="N111">
         <v>4.2</v>
       </c>
-      <c r="M111">
-        <v>8</v>
-      </c>
-      <c r="N111">
-        <v>1.363</v>
-      </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R111">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W111">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB111">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6404123</v>
+        <v>6404124</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45052.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116">
+        <v>2.05</v>
+      </c>
+      <c r="L116">
+        <v>3.3</v>
+      </c>
+      <c r="M116">
+        <v>3.25</v>
+      </c>
+      <c r="N116">
+        <v>2.45</v>
+      </c>
+      <c r="O116">
+        <v>3.1</v>
+      </c>
+      <c r="P116">
+        <v>2.625</v>
+      </c>
+      <c r="Q116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116" t="s">
-        <v>47</v>
-      </c>
-      <c r="K116">
-        <v>1.833</v>
-      </c>
-      <c r="L116">
-        <v>3.5</v>
-      </c>
-      <c r="M116">
-        <v>3.75</v>
-      </c>
-      <c r="N116">
-        <v>2.7</v>
-      </c>
-      <c r="O116">
-        <v>3.3</v>
-      </c>
-      <c r="P116">
-        <v>2.375</v>
-      </c>
-      <c r="Q116">
-        <v>0.25</v>
-      </c>
       <c r="R116">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>1.125</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6404124</v>
+        <v>6402968</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,73 +10863,73 @@
         <v>45052.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
+        <v>3.1</v>
+      </c>
+      <c r="M117">
+        <v>3.1</v>
+      </c>
+      <c r="N117">
         <v>3.3</v>
-      </c>
-      <c r="M117">
-        <v>3.25</v>
-      </c>
-      <c r="N117">
-        <v>2.45</v>
       </c>
       <c r="O117">
         <v>3.1</v>
       </c>
       <c r="P117">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB117">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6402968</v>
+        <v>6404123</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,56 +10952,56 @@
         <v>45052.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N118">
+        <v>2.7</v>
+      </c>
+      <c r="O118">
         <v>3.3</v>
       </c>
-      <c r="O118">
-        <v>3.1</v>
-      </c>
       <c r="P118">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
         <v>0.25</v>
       </c>
       <c r="R118">
+        <v>1.75</v>
+      </c>
+      <c r="S118">
+        <v>2.125</v>
+      </c>
+      <c r="T118">
+        <v>2.5</v>
+      </c>
+      <c r="U118">
+        <v>1.875</v>
+      </c>
+      <c r="V118">
         <v>1.975</v>
       </c>
-      <c r="S118">
-        <v>1.875</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
-      <c r="U118">
-        <v>1.975</v>
-      </c>
-      <c r="V118">
-        <v>1.875</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
@@ -11009,19 +11009,19 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6404141</v>
+        <v>6404142</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,49 +11130,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M120">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="N120">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R120">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
         <v>2.025</v>
@@ -11181,25 +11181,25 @@
         <v>1.825</v>
       </c>
       <c r="W120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z120">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6404142</v>
+        <v>6404141</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,49 +11219,49 @@
         <v>45054.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K121">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N121">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
         <v>2.025</v>
@@ -11270,25 +11270,25 @@
         <v>1.825</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6404139</v>
+        <v>6404140</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,49 +11753,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+      <c r="J127" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127">
+        <v>4.5</v>
+      </c>
+      <c r="L127">
+        <v>4.2</v>
+      </c>
+      <c r="M127">
+        <v>1.533</v>
+      </c>
+      <c r="N127">
+        <v>6</v>
+      </c>
+      <c r="O127">
+        <v>5</v>
+      </c>
+      <c r="P127">
+        <v>1.363</v>
+      </c>
+      <c r="Q127">
+        <v>1.25</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>1.85</v>
+      </c>
+      <c r="T127">
         <v>3</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
-        <v>46</v>
-      </c>
-      <c r="K127">
-        <v>2.2</v>
-      </c>
-      <c r="L127">
-        <v>3.3</v>
-      </c>
-      <c r="M127">
-        <v>2.8</v>
-      </c>
-      <c r="N127">
-        <v>2</v>
-      </c>
-      <c r="O127">
-        <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>3.3</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.975</v>
-      </c>
-      <c r="S127">
-        <v>1.875</v>
-      </c>
-      <c r="T127">
-        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.875</v>
@@ -11804,19 +11804,19 @@
         <v>1.975</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
         <v>0.875</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6404140</v>
+        <v>6404139</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,49 +11842,49 @@
         <v>45061.60416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N128">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="Q128">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.875</v>
@@ -11893,19 +11893,19 @@
         <v>1.975</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
         <v>0.875</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6670414</v>
+        <v>6670416</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K130">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="L130">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N130">
-        <v>7</v>
+        <v>1.222</v>
       </c>
       <c r="O130">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P130">
-        <v>1.285</v>
+        <v>8.5</v>
       </c>
       <c r="Q130">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6670416</v>
+        <v>6670414</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45066.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>47</v>
+      </c>
+      <c r="K131">
+        <v>5.25</v>
+      </c>
+      <c r="L131">
+        <v>4.333</v>
+      </c>
+      <c r="M131">
+        <v>1.444</v>
+      </c>
+      <c r="N131">
+        <v>7</v>
+      </c>
+      <c r="O131">
+        <v>5.25</v>
+      </c>
+      <c r="P131">
+        <v>1.285</v>
+      </c>
+      <c r="Q131">
+        <v>1.5</v>
+      </c>
+      <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
+        <v>1.95</v>
+      </c>
+      <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>1.9</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z131">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
         <v>0</v>
       </c>
-      <c r="J131" t="s">
-        <v>46</v>
-      </c>
-      <c r="K131">
-        <v>1.285</v>
-      </c>
-      <c r="L131">
-        <v>5</v>
-      </c>
-      <c r="M131">
-        <v>7.5</v>
-      </c>
-      <c r="N131">
-        <v>1.222</v>
-      </c>
-      <c r="O131">
-        <v>5.75</v>
-      </c>
-      <c r="P131">
-        <v>8.5</v>
-      </c>
-      <c r="Q131">
-        <v>-1.75</v>
-      </c>
-      <c r="R131">
-        <v>1.875</v>
-      </c>
-      <c r="S131">
-        <v>1.975</v>
-      </c>
-      <c r="T131">
-        <v>3.25</v>
-      </c>
-      <c r="U131">
-        <v>1.925</v>
-      </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
-      <c r="W131">
-        <v>0.222</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>0.875</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>0.925</v>
-      </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,10 +12732,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12747,61 +12747,61 @@
         <v>45</v>
       </c>
       <c r="K138">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N138">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P138">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,10 +12821,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12836,61 +12836,61 @@
         <v>45</v>
       </c>
       <c r="K139">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N139">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O139">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>-0</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.825</v>
-      </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
-      <c r="AC139">
-        <v>0.875</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6799836</v>
+        <v>6799838</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M146">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N146">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O146">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P146">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q146">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
         <v>1.85</v>
       </c>
-      <c r="V146">
-        <v>2</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X146">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA146">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6799838</v>
+        <v>6799836</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K147">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="L147">
+        <v>6</v>
+      </c>
+      <c r="M147">
+        <v>11</v>
+      </c>
+      <c r="N147">
+        <v>1.2</v>
+      </c>
+      <c r="O147">
+        <v>6</v>
+      </c>
+      <c r="P147">
+        <v>10</v>
+      </c>
+      <c r="Q147">
+        <v>-1.75</v>
+      </c>
+      <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
+        <v>2.025</v>
+      </c>
+      <c r="T147">
         <v>3</v>
       </c>
-      <c r="M147">
-        <v>3.2</v>
-      </c>
-      <c r="N147">
-        <v>2.15</v>
-      </c>
-      <c r="O147">
-        <v>3.1</v>
-      </c>
-      <c r="P147">
-        <v>3.1</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
-      <c r="R147">
-        <v>2</v>
-      </c>
-      <c r="S147">
+      <c r="U147">
         <v>1.85</v>
       </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>2</v>
-      </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,58 +13622,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>46</v>
       </c>
       <c r="K148">
+        <v>1.571</v>
+      </c>
+      <c r="L148">
+        <v>3.6</v>
+      </c>
+      <c r="M148">
         <v>5</v>
       </c>
-      <c r="L148">
-        <v>3.75</v>
-      </c>
-      <c r="M148">
-        <v>1.533</v>
-      </c>
       <c r="N148">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O148">
         <v>3.6</v>
       </c>
       <c r="P148">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q148">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13682,13 +13682,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,58 +13711,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>46</v>
       </c>
       <c r="K149">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N149">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O149">
         <v>3.6</v>
       </c>
       <c r="P149">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13771,13 +13771,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7511181</v>
+        <v>7511180</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
-      <c r="I174">
-        <v>2</v>
-      </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K174">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M174">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N174">
+        <v>2.5</v>
+      </c>
+      <c r="O174">
+        <v>3.2</v>
+      </c>
+      <c r="P174">
         <v>2.45</v>
-      </c>
-      <c r="O174">
-        <v>3.25</v>
-      </c>
-      <c r="P174">
-        <v>2.7</v>
       </c>
       <c r="Q174">
         <v>0</v>
       </c>
       <c r="R174">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA174">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7511180</v>
+        <v>7511181</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,76 +16025,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K175">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N175">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P175">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q175">
         <v>0</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z175">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,55 +19674,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J216" t="s">
         <v>47</v>
       </c>
       <c r="K216">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L216">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>4.333</v>
+      </c>
+      <c r="O216">
         <v>3.6</v>
       </c>
-      <c r="N216">
-        <v>2.45</v>
-      </c>
-      <c r="O216">
-        <v>3</v>
-      </c>
       <c r="P216">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R216">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19731,19 +19731,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,55 +19763,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
         <v>47</v>
       </c>
       <c r="K217">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L217">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N217">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P217">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q217">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V217">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19820,19 +19820,19 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -25447,7 +25447,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6799972</v>
+        <v>6799971</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25459,76 +25459,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F281" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G281" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K281">
+        <v>2.05</v>
+      </c>
+      <c r="L281">
+        <v>3.25</v>
+      </c>
+      <c r="M281">
+        <v>3.5</v>
+      </c>
+      <c r="N281">
         <v>2.1</v>
       </c>
-      <c r="L281">
-        <v>3.3</v>
-      </c>
-      <c r="M281">
-        <v>3.3</v>
-      </c>
-      <c r="N281">
-        <v>2.05</v>
-      </c>
       <c r="O281">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P281">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S281">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T281">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U281">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V281">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W281">
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y281">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA281">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB281">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC281">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25536,7 +25536,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6799971</v>
+        <v>6799972</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25548,76 +25548,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F282" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G282" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K282">
+        <v>2.1</v>
+      </c>
+      <c r="L282">
+        <v>3.3</v>
+      </c>
+      <c r="M282">
+        <v>3.3</v>
+      </c>
+      <c r="N282">
         <v>2.05</v>
       </c>
-      <c r="L282">
-        <v>3.25</v>
-      </c>
-      <c r="M282">
-        <v>3.5</v>
-      </c>
-      <c r="N282">
-        <v>2.1</v>
-      </c>
       <c r="O282">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P282">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V282">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z282">
+        <v>-1</v>
+      </c>
+      <c r="AA282">
+        <v>1.025</v>
+      </c>
+      <c r="AB282">
         <v>-0.5</v>
       </c>
-      <c r="AA282">
-        <v>0.4875</v>
-      </c>
-      <c r="AB282">
-        <v>0</v>
-      </c>
       <c r="AC282">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25892,7 +25892,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6799978</v>
+        <v>6799974</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25901,64 +25901,79 @@
         <v>28</v>
       </c>
       <c r="E286" s="2">
-        <v>45346.52083333334</v>
+        <v>45346.41666666666</v>
       </c>
       <c r="F286" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G286" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="H286">
+        <v>3</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286" t="s">
+        <v>46</v>
       </c>
       <c r="K286">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L286">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M286">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N286">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O286">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P286">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q286">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R286">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S286">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T286">
         <v>2.25</v>
       </c>
       <c r="U286">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V286">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W286">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA286">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB286">
+        <v>0.8</v>
+      </c>
+      <c r="AC286">
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25966,7 +25981,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6799976</v>
+        <v>6799978</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -25975,64 +25990,79 @@
         <v>28</v>
       </c>
       <c r="E287" s="2">
-        <v>45346.5625</v>
+        <v>45346.52083333334</v>
       </c>
       <c r="F287" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G287" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>2</v>
+      </c>
+      <c r="J287" t="s">
+        <v>47</v>
       </c>
       <c r="K287">
+        <v>1.909</v>
+      </c>
+      <c r="L287">
         <v>3.3</v>
       </c>
-      <c r="L287">
-        <v>3.1</v>
-      </c>
       <c r="M287">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N287">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O287">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P287">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q287">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R287">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S287">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T287">
         <v>2.25</v>
       </c>
       <c r="U287">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V287">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB287">
+        <v>0.925</v>
+      </c>
+      <c r="AC287">
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26040,7 +26070,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6799979</v>
+        <v>6799976</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26049,72 +26079,87 @@
         <v>28</v>
       </c>
       <c r="E288" s="2">
-        <v>45346.60416666666</v>
+        <v>45346.5625</v>
       </c>
       <c r="F288" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G288" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288" t="s">
+        <v>45</v>
       </c>
       <c r="K288">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="L288">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M288">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="N288">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O288">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P288">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="Q288">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R288">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S288">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T288">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U288">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V288">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W288">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y288">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB288">
+        <v>-0.5</v>
+      </c>
+      <c r="AC288">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:29">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6799980</v>
+        <v>6799979</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26123,72 +26168,87 @@
         <v>28</v>
       </c>
       <c r="E289" s="2">
-        <v>45346.625</v>
+        <v>45346.60416666666</v>
       </c>
       <c r="F289" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G289" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289" t="s">
+        <v>45</v>
       </c>
       <c r="K289">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L289">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M289">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N289">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O289">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P289">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q289">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R289">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S289">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T289">
         <v>2.5</v>
       </c>
       <c r="U289">
+        <v>1.975</v>
+      </c>
+      <c r="V289">
         <v>1.875</v>
       </c>
-      <c r="V289">
-        <v>1.975</v>
-      </c>
       <c r="W289">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X289">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y289">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
         <v>0</v>
       </c>
       <c r="AA289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB289">
+        <v>-1</v>
+      </c>
+      <c r="AC289">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="290" spans="1:29">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6799977</v>
+        <v>6799980</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26197,72 +26257,87 @@
         <v>28</v>
       </c>
       <c r="E290" s="2">
-        <v>45347.625</v>
+        <v>45346.625</v>
       </c>
       <c r="F290" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G290" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290" t="s">
+        <v>46</v>
       </c>
       <c r="K290">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="L290">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M290">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="N290">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O290">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P290">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q290">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R290">
+        <v>1.85</v>
+      </c>
+      <c r="S290">
+        <v>2</v>
+      </c>
+      <c r="T290">
+        <v>2.5</v>
+      </c>
+      <c r="U290">
         <v>1.9</v>
       </c>
-      <c r="S290">
+      <c r="V290">
         <v>1.95</v>
       </c>
-      <c r="T290">
-        <v>2.75</v>
-      </c>
-      <c r="U290">
-        <v>1.875</v>
-      </c>
-      <c r="V290">
-        <v>1.975</v>
-      </c>
       <c r="W290">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB290">
+        <v>-1</v>
+      </c>
+      <c r="AC290">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="291" spans="1:29">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6799975</v>
+        <v>6799977</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26271,49 +26346,49 @@
         <v>28</v>
       </c>
       <c r="E291" s="2">
-        <v>45348.625</v>
+        <v>45347.625</v>
       </c>
       <c r="F291" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G291" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K291">
+        <v>6.5</v>
+      </c>
+      <c r="L291">
+        <v>4.5</v>
+      </c>
+      <c r="M291">
+        <v>1.4</v>
+      </c>
+      <c r="N291">
+        <v>6.5</v>
+      </c>
+      <c r="O291">
+        <v>4.5</v>
+      </c>
+      <c r="P291">
+        <v>1.4</v>
+      </c>
+      <c r="Q291">
+        <v>1.25</v>
+      </c>
+      <c r="R291">
+        <v>1.9</v>
+      </c>
+      <c r="S291">
         <v>1.95</v>
       </c>
-      <c r="L291">
-        <v>3.3</v>
-      </c>
-      <c r="M291">
-        <v>3.6</v>
-      </c>
-      <c r="N291">
-        <v>2</v>
-      </c>
-      <c r="O291">
-        <v>3.3</v>
-      </c>
-      <c r="P291">
-        <v>3.4</v>
-      </c>
-      <c r="Q291">
-        <v>-0.25</v>
-      </c>
-      <c r="R291">
-        <v>1.8</v>
-      </c>
-      <c r="S291">
-        <v>2.05</v>
-      </c>
       <c r="T291">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U291">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V291">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W291">
         <v>0</v>
@@ -26328,6 +26403,80 @@
         <v>0</v>
       </c>
       <c r="AA291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:29">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>6799975</v>
+      </c>
+      <c r="C292" t="s">
+        <v>28</v>
+      </c>
+      <c r="D292" t="s">
+        <v>28</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45348.625</v>
+      </c>
+      <c r="F292" t="s">
+        <v>35</v>
+      </c>
+      <c r="G292" t="s">
+        <v>44</v>
+      </c>
+      <c r="K292">
+        <v>1.95</v>
+      </c>
+      <c r="L292">
+        <v>3.3</v>
+      </c>
+      <c r="M292">
+        <v>3.6</v>
+      </c>
+      <c r="N292">
+        <v>2</v>
+      </c>
+      <c r="O292">
+        <v>3.3</v>
+      </c>
+      <c r="P292">
+        <v>3.4</v>
+      </c>
+      <c r="Q292">
+        <v>-0.25</v>
+      </c>
+      <c r="R292">
+        <v>1.8</v>
+      </c>
+      <c r="S292">
+        <v>2.05</v>
+      </c>
+      <c r="T292">
+        <v>2.25</v>
+      </c>
+      <c r="U292">
+        <v>1.925</v>
+      </c>
+      <c r="V292">
+        <v>1.925</v>
+      </c>
+      <c r="W292">
+        <v>0</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+      <c r="Y292">
+        <v>0</v>
+      </c>
+      <c r="Z292">
+        <v>0</v>
+      </c>
+      <c r="AA292">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7511180</v>
+        <v>7511181</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L174">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N174">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q174">
         <v>0</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W174">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7511181</v>
+        <v>7511180</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,76 +16025,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
         <v>0</v>
       </c>
-      <c r="I175">
-        <v>2</v>
-      </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N175">
+        <v>2.5</v>
+      </c>
+      <c r="O175">
+        <v>3.2</v>
+      </c>
+      <c r="P175">
         <v>2.45</v>
-      </c>
-      <c r="O175">
-        <v>3.25</v>
-      </c>
-      <c r="P175">
-        <v>2.7</v>
       </c>
       <c r="Q175">
         <v>0</v>
       </c>
       <c r="R175">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S175">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Maccabi Petach Tikva</t>
   </si>
   <si>
-    <t>Maccabi Netanya</t>
+    <t>Hapoel Beer Sheva</t>
   </si>
   <si>
-    <t>Hapoel Beer Sheva</t>
+    <t>Maccabi Netanya</t>
   </si>
   <si>
     <t>Maccabi Tel Aviv</t>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6799822</v>
+        <v>6798412</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R4">
+        <v>1.825</v>
+      </c>
+      <c r="S4">
+        <v>2.025</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
         <v>1.95</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>1.9</v>
       </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>1.85</v>
-      </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6798412</v>
+        <v>6799822</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L5">
+        <v>3.3</v>
+      </c>
+      <c r="M5">
+        <v>3.7</v>
+      </c>
+      <c r="N5">
+        <v>1.65</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
         <v>4.5</v>
       </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.333</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
       <c r="Q5">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6799838</v>
+        <v>6799836</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,76 +1868,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>1.2</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>-1.75</v>
+      </c>
+      <c r="R16">
+        <v>1.825</v>
+      </c>
+      <c r="S16">
+        <v>2.025</v>
+      </c>
+      <c r="T16">
         <v>3</v>
       </c>
-      <c r="M16">
-        <v>3.2</v>
-      </c>
-      <c r="N16">
-        <v>2.15</v>
-      </c>
-      <c r="O16">
-        <v>3.1</v>
-      </c>
-      <c r="P16">
-        <v>3.1</v>
-      </c>
-      <c r="Q16">
-        <v>-0.25</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
+      <c r="U16">
         <v>1.85</v>
       </c>
-      <c r="T16">
-        <v>2.5</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6799836</v>
+        <v>6799838</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,76 +1957,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N17">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O17">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q17">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.85</v>
       </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X17">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2313,7 +2313,7 @@
         <v>45187.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2405,7 +2405,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6799846</v>
+        <v>6799841</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,10 +2580,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2595,46 +2595,46 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
+        <v>3.25</v>
+      </c>
+      <c r="M24">
+        <v>2.75</v>
+      </c>
+      <c r="N24">
+        <v>2.3</v>
+      </c>
+      <c r="O24">
         <v>3.3</v>
       </c>
-      <c r="M24">
-        <v>2.3</v>
-      </c>
-      <c r="N24">
-        <v>2.5</v>
-      </c>
-      <c r="O24">
-        <v>3.2</v>
-      </c>
       <c r="P24">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2649,7 +2649,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6799841</v>
+        <v>6799846</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,10 +2669,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2684,46 +2684,46 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
@@ -2738,7 +2738,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3470,7 +3470,7 @@
         <v>45200.59375</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3918,7 +3918,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7511180</v>
+        <v>7511181</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,76 +4360,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7511181</v>
+        <v>7511180</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,76 +4449,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
+        <v>2.5</v>
+      </c>
+      <c r="O45">
+        <v>3.2</v>
+      </c>
+      <c r="P45">
         <v>2.45</v>
-      </c>
-      <c r="O45">
-        <v>3.25</v>
-      </c>
-      <c r="P45">
-        <v>2.7</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA45">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>45266.61458333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -5428,10 +5428,10 @@
         <v>45271.625</v>
       </c>
       <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
         <v>31</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7542499</v>
+        <v>7542500</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="L58">
         <v>3.2</v>
       </c>
       <c r="M58">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P58">
+        <v>2.9</v>
+      </c>
+      <c r="Q58">
+        <v>-0.25</v>
+      </c>
+      <c r="R58">
         <v>2.05</v>
       </c>
-      <c r="Q58">
-        <v>0.25</v>
-      </c>
-      <c r="R58">
-        <v>2</v>
-      </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
         <v>1.05</v>
       </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7542500</v>
+        <v>7542499</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="L59">
         <v>3.2</v>
       </c>
       <c r="M59">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N59">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6496,7 +6496,7 @@
         <v>45280.61458333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>34</v>
@@ -6674,7 +6674,7 @@
         <v>45280.64583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6840,7 +6840,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7542639</v>
+        <v>7542719</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6852,76 +6852,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K72">
+        <v>2.6</v>
+      </c>
+      <c r="L72">
+        <v>3.1</v>
+      </c>
+      <c r="M72">
+        <v>2.6</v>
+      </c>
+      <c r="N72">
+        <v>2.9</v>
+      </c>
+      <c r="O72">
+        <v>3.2</v>
+      </c>
+      <c r="P72">
+        <v>2.3</v>
+      </c>
+      <c r="Q72">
+        <v>0.25</v>
+      </c>
+      <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
+        <v>2.05</v>
+      </c>
+      <c r="T72">
         <v>2.5</v>
       </c>
-      <c r="L72">
-        <v>3</v>
-      </c>
-      <c r="M72">
-        <v>2.75</v>
-      </c>
-      <c r="N72">
-        <v>2.7</v>
-      </c>
-      <c r="O72">
-        <v>2.8</v>
-      </c>
-      <c r="P72">
-        <v>2.75</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>1.925</v>
-      </c>
-      <c r="S72">
-        <v>1.925</v>
-      </c>
-      <c r="T72">
-        <v>2</v>
-      </c>
       <c r="U72">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X72">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7542640</v>
+        <v>7542639</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,40 +6941,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>43</v>
+      </c>
+      <c r="K73">
+        <v>2.5</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>2.75</v>
+      </c>
+      <c r="N73">
+        <v>2.7</v>
+      </c>
+      <c r="O73">
+        <v>2.8</v>
+      </c>
+      <c r="P73">
+        <v>2.75</v>
+      </c>
+      <c r="Q73">
         <v>0</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73" t="s">
-        <v>45</v>
-      </c>
-      <c r="K73">
-        <v>2.05</v>
-      </c>
-      <c r="L73">
-        <v>3.2</v>
-      </c>
-      <c r="M73">
-        <v>3.5</v>
-      </c>
-      <c r="N73">
-        <v>2.15</v>
-      </c>
-      <c r="O73">
-        <v>3.1</v>
-      </c>
-      <c r="P73">
-        <v>3.2</v>
-      </c>
-      <c r="Q73">
-        <v>-0.25</v>
       </c>
       <c r="R73">
         <v>1.925</v>
@@ -6983,34 +6983,34 @@
         <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y73">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7542719</v>
+        <v>7542640</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,76 +7030,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L74">
+        <v>3.2</v>
+      </c>
+      <c r="M74">
+        <v>3.5</v>
+      </c>
+      <c r="N74">
+        <v>2.15</v>
+      </c>
+      <c r="O74">
         <v>3.1</v>
       </c>
-      <c r="M74">
-        <v>2.6</v>
-      </c>
-      <c r="N74">
-        <v>2.9</v>
-      </c>
-      <c r="O74">
+      <c r="P74">
         <v>3.2</v>
       </c>
-      <c r="P74">
-        <v>2.3</v>
-      </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -7386,7 +7386,7 @@
         <v>45286.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>41</v>
@@ -7564,7 +7564,7 @@
         <v>45286.625</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
         <v>38</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,55 +8098,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L86">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>4.333</v>
+      </c>
+      <c r="O86">
         <v>3.6</v>
       </c>
-      <c r="N86">
-        <v>2.45</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
       <c r="P86">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R86">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8155,19 +8155,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,55 +8187,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>45</v>
       </c>
       <c r="K87">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N87">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P87">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q87">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8244,19 +8244,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8635,7 +8635,7 @@
         <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>45297.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
         <v>36</v>
@@ -9433,7 +9433,7 @@
         <v>45297.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>37</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7542737</v>
+        <v>7542736</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
         <v>3.2</v>
       </c>
-      <c r="M108">
-        <v>2.45</v>
-      </c>
       <c r="N108">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y108">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7542735</v>
+        <v>7542737</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,76 +10145,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O109">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P109">
+        <v>2.3</v>
+      </c>
+      <c r="Q109">
+        <v>0.25</v>
+      </c>
+      <c r="R109">
         <v>1.85</v>
       </c>
-      <c r="Q109">
-        <v>0.5</v>
-      </c>
-      <c r="R109">
-        <v>1.95</v>
-      </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
+        <v>1.875</v>
+      </c>
+      <c r="V109">
         <v>1.975</v>
       </c>
-      <c r="V109">
-        <v>1.875</v>
-      </c>
       <c r="W109">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7542736</v>
+        <v>7542735</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O110">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X110">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA110">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10326,7 +10326,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>45307.61458333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10768,7 +10768,7 @@
         <v>45307.625</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
         <v>35</v>
@@ -11394,7 +11394,7 @@
         <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11661,7 +11661,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -11925,7 +11925,7 @@
         <v>45321.61458333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12370,7 +12370,7 @@
         <v>45322.64583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12459,7 +12459,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12551,7 +12551,7 @@
         <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -13527,10 +13527,10 @@
         <v>45333.625</v>
       </c>
       <c r="F147" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" t="s">
         <v>32</v>
-      </c>
-      <c r="G147" t="s">
-        <v>31</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13794,7 +13794,7 @@
         <v>45339.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>30</v>
@@ -13871,7 +13871,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6799971</v>
+        <v>6799972</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13883,76 +13883,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K151">
+        <v>2.1</v>
+      </c>
+      <c r="L151">
+        <v>3.3</v>
+      </c>
+      <c r="M151">
+        <v>3.3</v>
+      </c>
+      <c r="N151">
         <v>2.05</v>
       </c>
-      <c r="L151">
-        <v>3.25</v>
-      </c>
-      <c r="M151">
-        <v>3.5</v>
-      </c>
-      <c r="N151">
-        <v>2.1</v>
-      </c>
       <c r="O151">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P151">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q151">
         <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>1.025</v>
+      </c>
+      <c r="AB151">
         <v>-0.5</v>
       </c>
-      <c r="AA151">
-        <v>0.4875</v>
-      </c>
-      <c r="AB151">
-        <v>0</v>
-      </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13960,7 +13960,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6799972</v>
+        <v>6799971</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13972,76 +13972,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K152">
+        <v>2.05</v>
+      </c>
+      <c r="L152">
+        <v>3.25</v>
+      </c>
+      <c r="M152">
+        <v>3.5</v>
+      </c>
+      <c r="N152">
         <v>2.1</v>
       </c>
-      <c r="L152">
-        <v>3.3</v>
-      </c>
-      <c r="M152">
-        <v>3.3</v>
-      </c>
-      <c r="N152">
-        <v>2.05</v>
-      </c>
       <c r="O152">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P152">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q152">
         <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y152">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA152">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>45341.625</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14598,7 +14598,7 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14687,7 +14687,7 @@
         <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14867,6 +14867,15 @@
       <c r="G162" t="s">
         <v>35</v>
       </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162" t="s">
+        <v>43</v>
+      </c>
       <c r="K162">
         <v>1.95</v>
       </c>
@@ -14877,46 +14886,52 @@
         <v>3.6</v>
       </c>
       <c r="N162">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O162">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P162">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q162">
         <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
         <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>0</v>
+        <v>0.4375</v>
+      </c>
+      <c r="AB162">
+        <v>-0.5</v>
+      </c>
+      <c r="AC162">
+        <v>0.425</v>
       </c>
     </row>
   </sheetData>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Maccabi Petach Tikva</t>
   </si>
   <si>
-    <t>Hapoel Beer Sheva</t>
+    <t>Maccabi Netanya</t>
   </si>
   <si>
-    <t>Maccabi Netanya</t>
+    <t>Hapoel Beer Sheva</t>
   </si>
   <si>
     <t>Maccabi Tel Aviv</t>
@@ -121,16 +121,16 @@
     <t>Beitar Jerusalem</t>
   </si>
   <si>
+    <t>Maccabi Bnei Raina</t>
+  </si>
+  <si>
     <t>Hapoel Petah Tikva</t>
   </si>
   <si>
-    <t>Maccabi Bnei Raina</t>
+    <t>Hapoel Haifa</t>
   </si>
   <si>
     <t>Hapoel TelAviv</t>
-  </si>
-  <si>
-    <t>Hapoel Haifa</t>
   </si>
   <si>
     <t>Hapoel Jerusalem FC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC162"/>
+  <dimension ref="A1:AC169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6798412</v>
+        <v>6799822</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L4">
+        <v>3.3</v>
+      </c>
+      <c r="M4">
+        <v>3.7</v>
+      </c>
+      <c r="N4">
+        <v>1.65</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
         <v>4.5</v>
       </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>1.333</v>
-      </c>
-      <c r="O4">
-        <v>4.333</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
       <c r="Q4">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6799822</v>
+        <v>6798412</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L5">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R5">
+        <v>1.825</v>
+      </c>
+      <c r="S5">
+        <v>2.025</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
         <v>1.95</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>1.9</v>
       </c>
-      <c r="T5">
-        <v>2.5</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>1.85</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1070,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1171,61 +1171,61 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1260,61 +1260,61 @@
         <v>43</v>
       </c>
       <c r="K9">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N9">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>-0</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.825</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
-      <c r="AC9">
-        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6799829</v>
+        <v>6799825</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L10">
+        <v>3.25</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1.95</v>
+      </c>
+      <c r="O10">
+        <v>3.2</v>
+      </c>
+      <c r="P10">
         <v>3.4</v>
       </c>
-      <c r="M10">
-        <v>2.6</v>
-      </c>
-      <c r="N10">
-        <v>2.625</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>2.375</v>
-      </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6799825</v>
+        <v>6799829</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q11">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X11">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1871,7 +1871,7 @@
         <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -2135,10 +2135,10 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2313,10 +2313,10 @@
         <v>45187.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2402,10 +2402,10 @@
         <v>45192.5</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2494,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2672,7 +2672,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2847,7 +2847,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -3028,7 +3028,7 @@
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6799853</v>
+        <v>6799854</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,55 +3203,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>45</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
         <v>3.25</v>
       </c>
       <c r="M31">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O31">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3260,19 +3260,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3280,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6799854</v>
+        <v>6799853</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3292,55 +3292,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>45</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>3.25</v>
       </c>
       <c r="M32">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N32">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q32">
         <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3349,19 +3349,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3470,7 +3470,7 @@
         <v>45200.59375</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3562,7 +3562,7 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3737,10 +3737,10 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
         <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4004,7 +4004,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -4093,7 +4093,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4274,7 +4274,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7511181</v>
+        <v>7511180</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,76 +4360,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
+        <v>2.5</v>
+      </c>
+      <c r="O44">
+        <v>3.2</v>
+      </c>
+      <c r="P44">
         <v>2.45</v>
       </c>
-      <c r="O44">
-        <v>3.25</v>
-      </c>
-      <c r="P44">
-        <v>2.7</v>
-      </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA44">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7511180</v>
+        <v>7511181</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,76 +4449,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N45">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,10 +4538,10 @@
         <v>45265.61458333334</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4630,7 +4630,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>45266.61458333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -4894,7 +4894,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -4983,7 +4983,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5072,7 +5072,7 @@
         <v>45269.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5164,7 +5164,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5428,10 +5428,10 @@
         <v>45271.625</v>
       </c>
       <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
         <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>31</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5517,10 +5517,10 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7542500</v>
+        <v>7542748</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,13 +5606,13 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -5621,43 +5621,43 @@
         <v>44</v>
       </c>
       <c r="K58">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L58">
         <v>3.2</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N58">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O58">
+        <v>2.9</v>
+      </c>
+      <c r="P58">
         <v>3</v>
-      </c>
-      <c r="P58">
-        <v>2.9</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>2.125</v>
+      </c>
+      <c r="S58">
+        <v>1.75</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
         <v>2.05</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>1.8</v>
       </c>
-      <c r="T58">
-        <v>2.25</v>
-      </c>
-      <c r="U58">
-        <v>1.925</v>
-      </c>
-      <c r="V58">
-        <v>1.925</v>
-      </c>
       <c r="W58">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5666,16 +5666,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1.05</v>
+        <v>1.125</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5698,7 +5698,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5772,7 +5772,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7542748</v>
+        <v>7542500</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5784,13 +5784,13 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5799,43 +5799,43 @@
         <v>44</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L60">
         <v>3.2</v>
       </c>
       <c r="M60">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N60">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O60">
+        <v>3</v>
+      </c>
+      <c r="P60">
         <v>2.9</v>
-      </c>
-      <c r="P60">
-        <v>3</v>
       </c>
       <c r="Q60">
         <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5844,16 +5844,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.125</v>
+        <v>1.05</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6051,7 +6051,7 @@
         <v>45277.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -6140,10 +6140,10 @@
         <v>45279.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" t="s">
         <v>35</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>45279.625</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6410,7 +6410,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>45280.61458333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>34</v>
@@ -6674,7 +6674,7 @@
         <v>45280.64583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6763,10 +6763,10 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6852,10 +6852,10 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7542639</v>
+        <v>7542640</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,40 +6941,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N73">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O73">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P73">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
         <v>1.925</v>
@@ -6983,34 +6983,34 @@
         <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7542640</v>
+        <v>7542639</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,40 +7030,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L74">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O74">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P74">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
         <v>1.925</v>
@@ -7072,34 +7072,34 @@
         <v>1.925</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y74">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -7386,7 +7386,7 @@
         <v>45286.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>41</v>
@@ -7478,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7564,10 +7564,10 @@
         <v>45286.625</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7745,7 +7745,7 @@
         <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7834,7 +7834,7 @@
         <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>45290.41666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8101,7 +8101,7 @@
         <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8187,7 +8187,7 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
         <v>29</v>
@@ -8279,7 +8279,7 @@
         <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8454,7 +8454,7 @@
         <v>45291.625</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
         <v>33</v>
@@ -8543,7 +8543,7 @@
         <v>45291.64583333334</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>42</v>
@@ -8632,10 +8632,10 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8899,7 +8899,7 @@
         <v>45294.61458333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9077,7 +9077,7 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>42</v>
@@ -9166,7 +9166,7 @@
         <v>45295.64583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9255,10 +9255,10 @@
         <v>45297.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -9347,7 +9347,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9433,10 +9433,10 @@
         <v>45297.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9703,7 +9703,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7542736</v>
+        <v>7542735</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N108">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O108">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P108">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X108">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA108">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10148,7 +10148,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7542735</v>
+        <v>7542736</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N110">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P110">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,10 +10323,10 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10412,7 +10412,7 @@
         <v>45305.625</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10590,7 +10590,7 @@
         <v>45307.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
         <v>40</v>
@@ -10679,7 +10679,7 @@
         <v>45307.61458333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10768,10 +10768,10 @@
         <v>45307.625</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10949,7 +10949,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11127,7 +11127,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -11302,10 +11302,10 @@
         <v>45311.52083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>45312.625</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>33</v>
@@ -11661,7 +11661,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -11747,7 +11747,7 @@
         <v>45313.625</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
         <v>34</v>
@@ -11839,7 +11839,7 @@
         <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>45321.61458333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12017,7 +12017,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12192,10 +12192,10 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F132" t="s">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s">
         <v>38</v>
-      </c>
-      <c r="G132" t="s">
-        <v>37</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -12370,7 +12370,7 @@
         <v>45322.64583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12459,7 +12459,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12551,7 +12551,7 @@
         <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12637,10 +12637,10 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12726,7 +12726,7 @@
         <v>45325.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
         <v>41</v>
@@ -12815,7 +12815,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>40</v>
@@ -13174,7 +13174,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6799960</v>
+        <v>6799962</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,13 +13260,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G144" t="s">
         <v>36</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -13275,43 +13275,43 @@
         <v>44</v>
       </c>
       <c r="K144">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M144">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13320,16 +13320,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6799962</v>
+        <v>6799960</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,13 +13349,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>35</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13364,43 +13364,43 @@
         <v>44</v>
       </c>
       <c r="K145">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N145">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13409,16 +13409,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13527,10 +13527,10 @@
         <v>45333.625</v>
       </c>
       <c r="F147" t="s">
+        <v>32</v>
+      </c>
+      <c r="G147" t="s">
         <v>31</v>
-      </c>
-      <c r="G147" t="s">
-        <v>32</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13616,7 +13616,7 @@
         <v>45334.625</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
         <v>39</v>
@@ -13705,10 +13705,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13794,7 +13794,7 @@
         <v>45339.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>30</v>
@@ -13871,7 +13871,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6799972</v>
+        <v>6799971</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13883,76 +13883,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K151">
+        <v>2.05</v>
+      </c>
+      <c r="L151">
+        <v>3.25</v>
+      </c>
+      <c r="M151">
+        <v>3.5</v>
+      </c>
+      <c r="N151">
         <v>2.1</v>
       </c>
-      <c r="L151">
-        <v>3.3</v>
-      </c>
-      <c r="M151">
-        <v>3.3</v>
-      </c>
-      <c r="N151">
-        <v>2.05</v>
-      </c>
       <c r="O151">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P151">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q151">
         <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y151">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA151">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB151">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13960,7 +13960,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6799971</v>
+        <v>6799972</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13972,76 +13972,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K152">
+        <v>2.1</v>
+      </c>
+      <c r="L152">
+        <v>3.3</v>
+      </c>
+      <c r="M152">
+        <v>3.3</v>
+      </c>
+      <c r="N152">
         <v>2.05</v>
       </c>
-      <c r="L152">
-        <v>3.25</v>
-      </c>
-      <c r="M152">
-        <v>3.5</v>
-      </c>
-      <c r="N152">
-        <v>2.1</v>
-      </c>
       <c r="O152">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P152">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q152">
         <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
+        <v>1.025</v>
+      </c>
+      <c r="AB152">
         <v>-0.5</v>
       </c>
-      <c r="AA152">
-        <v>0.4875</v>
-      </c>
-      <c r="AB152">
-        <v>0</v>
-      </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14153,7 +14153,7 @@
         <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14239,7 +14239,7 @@
         <v>45341.625</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14331,7 +14331,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14417,7 +14417,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14598,7 +14598,7 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14687,7 +14687,7 @@
         <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14862,10 +14862,10 @@
         <v>45348.625</v>
       </c>
       <c r="F162" t="s">
+        <v>35</v>
+      </c>
+      <c r="G162" t="s">
         <v>36</v>
-      </c>
-      <c r="G162" t="s">
-        <v>35</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14932,6 +14932,524 @@
       </c>
       <c r="AC162">
         <v>0.425</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>6799983</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F163" t="s">
+        <v>31</v>
+      </c>
+      <c r="G163" t="s">
+        <v>37</v>
+      </c>
+      <c r="K163">
+        <v>2.2</v>
+      </c>
+      <c r="L163">
+        <v>3.2</v>
+      </c>
+      <c r="M163">
+        <v>2.9</v>
+      </c>
+      <c r="N163">
+        <v>2.2</v>
+      </c>
+      <c r="O163">
+        <v>3.2</v>
+      </c>
+      <c r="P163">
+        <v>2.9</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>1.85</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>6799984</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45353.5625</v>
+      </c>
+      <c r="F164" t="s">
+        <v>29</v>
+      </c>
+      <c r="G164" t="s">
+        <v>41</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>3.25</v>
+      </c>
+      <c r="M164">
+        <v>3.25</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164">
+        <v>3.25</v>
+      </c>
+      <c r="P164">
+        <v>3.25</v>
+      </c>
+      <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>1.8</v>
+      </c>
+      <c r="S164">
+        <v>2.05</v>
+      </c>
+      <c r="T164">
+        <v>2.25</v>
+      </c>
+      <c r="U164">
+        <v>1.875</v>
+      </c>
+      <c r="V164">
+        <v>1.975</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>6799986</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45353.5625</v>
+      </c>
+      <c r="F165" t="s">
+        <v>39</v>
+      </c>
+      <c r="G165" t="s">
+        <v>35</v>
+      </c>
+      <c r="K165">
+        <v>2.2</v>
+      </c>
+      <c r="L165">
+        <v>3.2</v>
+      </c>
+      <c r="M165">
+        <v>2.9</v>
+      </c>
+      <c r="N165">
+        <v>2.2</v>
+      </c>
+      <c r="O165">
+        <v>3.2</v>
+      </c>
+      <c r="P165">
+        <v>2.9</v>
+      </c>
+      <c r="Q165">
+        <v>-0.25</v>
+      </c>
+      <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
+        <v>1.85</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>1.875</v>
+      </c>
+      <c r="V165">
+        <v>1.975</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>6799981</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45353.60416666666</v>
+      </c>
+      <c r="F166" t="s">
+        <v>33</v>
+      </c>
+      <c r="G166" t="s">
+        <v>30</v>
+      </c>
+      <c r="K166">
+        <v>1.333</v>
+      </c>
+      <c r="L166">
+        <v>4.333</v>
+      </c>
+      <c r="M166">
+        <v>7.5</v>
+      </c>
+      <c r="N166">
+        <v>1.285</v>
+      </c>
+      <c r="O166">
+        <v>4.5</v>
+      </c>
+      <c r="P166">
+        <v>8.5</v>
+      </c>
+      <c r="Q166">
+        <v>-1.5</v>
+      </c>
+      <c r="R166">
+        <v>1.9</v>
+      </c>
+      <c r="S166">
+        <v>1.95</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>2.025</v>
+      </c>
+      <c r="V166">
+        <v>1.825</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>6799985</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45354.625</v>
+      </c>
+      <c r="F167" t="s">
+        <v>42</v>
+      </c>
+      <c r="G167" t="s">
+        <v>40</v>
+      </c>
+      <c r="K167">
+        <v>1.25</v>
+      </c>
+      <c r="L167">
+        <v>5.5</v>
+      </c>
+      <c r="M167">
+        <v>7.5</v>
+      </c>
+      <c r="N167">
+        <v>1.2</v>
+      </c>
+      <c r="O167">
+        <v>5.5</v>
+      </c>
+      <c r="P167">
+        <v>10</v>
+      </c>
+      <c r="Q167">
+        <v>-1.75</v>
+      </c>
+      <c r="R167">
+        <v>1.85</v>
+      </c>
+      <c r="S167">
+        <v>2</v>
+      </c>
+      <c r="T167">
+        <v>3</v>
+      </c>
+      <c r="U167">
+        <v>1.8</v>
+      </c>
+      <c r="V167">
+        <v>2.05</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>6799987</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45355.625</v>
+      </c>
+      <c r="F168" t="s">
+        <v>36</v>
+      </c>
+      <c r="G168" t="s">
+        <v>38</v>
+      </c>
+      <c r="K168">
+        <v>2.6</v>
+      </c>
+      <c r="L168">
+        <v>3.2</v>
+      </c>
+      <c r="M168">
+        <v>2.4</v>
+      </c>
+      <c r="N168">
+        <v>2.5</v>
+      </c>
+      <c r="O168">
+        <v>3.2</v>
+      </c>
+      <c r="P168">
+        <v>2.5</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>1.925</v>
+      </c>
+      <c r="S168">
+        <v>1.925</v>
+      </c>
+      <c r="T168">
+        <v>2.25</v>
+      </c>
+      <c r="U168">
+        <v>1.925</v>
+      </c>
+      <c r="V168">
+        <v>1.925</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>6799982</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45355.64583333334</v>
+      </c>
+      <c r="F169" t="s">
+        <v>32</v>
+      </c>
+      <c r="G169" t="s">
+        <v>34</v>
+      </c>
+      <c r="K169">
+        <v>1.5</v>
+      </c>
+      <c r="L169">
+        <v>3.6</v>
+      </c>
+      <c r="M169">
+        <v>6</v>
+      </c>
+      <c r="N169">
+        <v>1.533</v>
+      </c>
+      <c r="O169">
+        <v>3.6</v>
+      </c>
+      <c r="P169">
+        <v>5.75</v>
+      </c>
+      <c r="Q169">
+        <v>-1</v>
+      </c>
+      <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
+        <v>1.875</v>
+      </c>
+      <c r="T169">
+        <v>2.5</v>
+      </c>
+      <c r="U169">
+        <v>1.825</v>
+      </c>
+      <c r="V169">
+        <v>2.025</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -109,10 +109,10 @@
     <t>Maccabi Petach Tikva</t>
   </si>
   <si>
-    <t>Maccabi Netanya</t>
+    <t>Hapoel Beer Sheva</t>
   </si>
   <si>
-    <t>Hapoel Beer Sheva</t>
+    <t>Maccabi Netanya</t>
   </si>
   <si>
     <t>Maccabi Tel Aviv</t>
@@ -127,10 +127,10 @@
     <t>Hapoel Petah Tikva</t>
   </si>
   <si>
-    <t>Hapoel Haifa</t>
+    <t>Hapoel TelAviv</t>
   </si>
   <si>
-    <t>Hapoel TelAviv</t>
+    <t>Hapoel Haifa</t>
   </si>
   <si>
     <t>Hapoel Jerusalem FC</t>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6799822</v>
+        <v>6798412</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R4">
+        <v>1.825</v>
+      </c>
+      <c r="S4">
+        <v>2.025</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
         <v>1.95</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>1.9</v>
       </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>1.85</v>
-      </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6798412</v>
+        <v>6799822</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L5">
+        <v>3.3</v>
+      </c>
+      <c r="M5">
+        <v>3.7</v>
+      </c>
+      <c r="N5">
+        <v>1.65</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
         <v>4.5</v>
       </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.333</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
       <c r="Q5">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1070,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6799825</v>
+        <v>6799829</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O10">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X10">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6799829</v>
+        <v>6799825</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
+        <v>3.25</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>1.95</v>
+      </c>
+      <c r="O11">
+        <v>3.2</v>
+      </c>
+      <c r="P11">
         <v>3.4</v>
       </c>
-      <c r="M11">
-        <v>2.6</v>
-      </c>
-      <c r="N11">
-        <v>2.625</v>
-      </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
-        <v>2.375</v>
-      </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1957,7 +1957,7 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,58 +2046,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18">
+        <v>1.571</v>
+      </c>
+      <c r="L18">
+        <v>3.6</v>
+      </c>
+      <c r="M18">
         <v>5</v>
       </c>
-      <c r="L18">
-        <v>3.75</v>
-      </c>
-      <c r="M18">
-        <v>1.533</v>
-      </c>
       <c r="N18">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
         <v>3.6</v>
       </c>
       <c r="P18">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,13 +2106,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,58 +2135,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>44</v>
       </c>
       <c r="K19">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N19">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O19">
         <v>3.6</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2195,13 +2195,13 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2313,10 +2313,10 @@
         <v>45187.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2494,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6799841</v>
+        <v>6799846</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,10 +2580,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2595,46 +2595,46 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L24">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2649,7 +2649,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6799846</v>
+        <v>6799841</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,10 +2669,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2684,46 +2684,46 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
+        <v>3.25</v>
+      </c>
+      <c r="M25">
+        <v>2.75</v>
+      </c>
+      <c r="N25">
+        <v>2.3</v>
+      </c>
+      <c r="O25">
         <v>3.3</v>
       </c>
-      <c r="M25">
-        <v>2.3</v>
-      </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>3.2</v>
-      </c>
       <c r="P25">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y25">
         <v>-1</v>
@@ -2738,7 +2738,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -3292,7 +3292,7 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3381,7 +3381,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3470,7 +3470,7 @@
         <v>45200.59375</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3562,7 +3562,7 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
         <v>38</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7511180</v>
+        <v>7511181</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,76 +4360,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7511181</v>
+        <v>7511180</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,76 +4449,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
+        <v>2.5</v>
+      </c>
+      <c r="O45">
+        <v>3.2</v>
+      </c>
+      <c r="P45">
         <v>2.45</v>
       </c>
-      <c r="O45">
-        <v>3.25</v>
-      </c>
-      <c r="P45">
-        <v>2.7</v>
-      </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA45">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>45265.61458333334</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4630,7 +4630,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>45266.61458333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -5072,7 +5072,7 @@
         <v>45269.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5164,7 +5164,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5428,10 +5428,10 @@
         <v>45271.625</v>
       </c>
       <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
         <v>31</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5520,7 +5520,7 @@
         <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5698,7 +5698,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5965,7 +5965,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6051,7 +6051,7 @@
         <v>45277.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -6318,7 +6318,7 @@
         <v>45279.625</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6410,7 +6410,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>45280.61458333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>34</v>
@@ -6674,7 +6674,7 @@
         <v>45280.64583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6763,7 +6763,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>36</v>
@@ -6840,7 +6840,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7542719</v>
+        <v>7542640</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6852,76 +6852,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K72">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L72">
+        <v>3.2</v>
+      </c>
+      <c r="M72">
+        <v>3.5</v>
+      </c>
+      <c r="N72">
+        <v>2.15</v>
+      </c>
+      <c r="O72">
         <v>3.1</v>
       </c>
-      <c r="M72">
-        <v>2.6</v>
-      </c>
-      <c r="N72">
-        <v>2.9</v>
-      </c>
-      <c r="O72">
+      <c r="P72">
         <v>3.2</v>
       </c>
-      <c r="P72">
-        <v>2.3</v>
-      </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,76 +6941,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K73">
+        <v>2.6</v>
+      </c>
+      <c r="L73">
+        <v>3.1</v>
+      </c>
+      <c r="M73">
+        <v>2.6</v>
+      </c>
+      <c r="N73">
+        <v>2.9</v>
+      </c>
+      <c r="O73">
+        <v>3.2</v>
+      </c>
+      <c r="P73">
+        <v>2.3</v>
+      </c>
+      <c r="Q73">
+        <v>0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
         <v>2.05</v>
       </c>
-      <c r="L73">
-        <v>3.2</v>
-      </c>
-      <c r="M73">
-        <v>3.5</v>
-      </c>
-      <c r="N73">
-        <v>2.15</v>
-      </c>
-      <c r="O73">
-        <v>3.1</v>
-      </c>
-      <c r="P73">
-        <v>3.2</v>
-      </c>
-      <c r="Q73">
-        <v>-0.25</v>
-      </c>
-      <c r="R73">
-        <v>1.925</v>
-      </c>
-      <c r="S73">
-        <v>1.925</v>
-      </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>1.85</v>
+      </c>
+      <c r="W73">
         <v>1.9</v>
       </c>
-      <c r="V73">
-        <v>1.95</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -7386,7 +7386,7 @@
         <v>45286.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>41</v>
@@ -7478,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7564,10 +7564,10 @@
         <v>45286.625</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,55 +8098,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N86">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8155,19 +8155,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,55 +8187,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="s">
         <v>45</v>
       </c>
       <c r="K87">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L87">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4.333</v>
+      </c>
+      <c r="O87">
         <v>3.6</v>
       </c>
-      <c r="N87">
-        <v>2.45</v>
-      </c>
-      <c r="O87">
-        <v>3</v>
-      </c>
       <c r="P87">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8244,19 +8244,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8454,7 +8454,7 @@
         <v>45291.625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
         <v>33</v>
@@ -8543,7 +8543,7 @@
         <v>45291.64583333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
         <v>42</v>
@@ -8635,7 +8635,7 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8899,7 +8899,7 @@
         <v>45294.61458333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9166,7 +9166,7 @@
         <v>45295.64583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9255,7 +9255,7 @@
         <v>45297.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9433,10 +9433,10 @@
         <v>45297.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9703,7 +9703,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7542735</v>
+        <v>7542737</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N108">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O108">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P108">
+        <v>2.3</v>
+      </c>
+      <c r="Q108">
+        <v>0.25</v>
+      </c>
+      <c r="R108">
         <v>1.85</v>
       </c>
-      <c r="Q108">
-        <v>0.5</v>
-      </c>
-      <c r="R108">
-        <v>1.95</v>
-      </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
+        <v>1.875</v>
+      </c>
+      <c r="V108">
         <v>1.975</v>
       </c>
-      <c r="V108">
-        <v>1.875</v>
-      </c>
       <c r="W108">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7542737</v>
+        <v>7542735</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,76 +10145,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L109">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O109">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P109">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T109">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
+        <v>1.975</v>
+      </c>
+      <c r="V109">
         <v>1.875</v>
       </c>
-      <c r="V109">
-        <v>1.975</v>
-      </c>
       <c r="W109">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10323,10 +10323,10 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>45307.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
         <v>40</v>
@@ -10679,7 +10679,7 @@
         <v>45307.61458333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10768,7 +10768,7 @@
         <v>45307.625</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
         <v>36</v>
@@ -11127,7 +11127,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -11305,7 +11305,7 @@
         <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11661,7 +11661,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -11747,7 +11747,7 @@
         <v>45313.625</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
         <v>34</v>
@@ -11925,7 +11925,7 @@
         <v>45321.61458333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12192,10 +12192,10 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F132" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" t="s">
         <v>37</v>
-      </c>
-      <c r="G132" t="s">
-        <v>38</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -12370,7 +12370,7 @@
         <v>45322.64583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12459,7 +12459,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12551,7 +12551,7 @@
         <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12640,7 +12640,7 @@
         <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12726,7 +12726,7 @@
         <v>45325.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>41</v>
@@ -13174,7 +13174,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13527,10 +13527,10 @@
         <v>45333.625</v>
       </c>
       <c r="F147" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" t="s">
         <v>32</v>
-      </c>
-      <c r="G147" t="s">
-        <v>31</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13616,7 +13616,7 @@
         <v>45334.625</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
         <v>39</v>
@@ -13705,7 +13705,7 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
         <v>35</v>
@@ -13794,7 +13794,7 @@
         <v>45339.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>30</v>
@@ -13871,7 +13871,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6799971</v>
+        <v>6799972</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13883,76 +13883,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K151">
+        <v>2.1</v>
+      </c>
+      <c r="L151">
+        <v>3.3</v>
+      </c>
+      <c r="M151">
+        <v>3.3</v>
+      </c>
+      <c r="N151">
         <v>2.05</v>
       </c>
-      <c r="L151">
-        <v>3.25</v>
-      </c>
-      <c r="M151">
-        <v>3.5</v>
-      </c>
-      <c r="N151">
-        <v>2.1</v>
-      </c>
       <c r="O151">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P151">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q151">
         <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>1.025</v>
+      </c>
+      <c r="AB151">
         <v>-0.5</v>
       </c>
-      <c r="AA151">
-        <v>0.4875</v>
-      </c>
-      <c r="AB151">
-        <v>0</v>
-      </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13960,7 +13960,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6799972</v>
+        <v>6799971</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13972,76 +13972,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K152">
+        <v>2.05</v>
+      </c>
+      <c r="L152">
+        <v>3.25</v>
+      </c>
+      <c r="M152">
+        <v>3.5</v>
+      </c>
+      <c r="N152">
         <v>2.1</v>
       </c>
-      <c r="L152">
-        <v>3.3</v>
-      </c>
-      <c r="M152">
-        <v>3.3</v>
-      </c>
-      <c r="N152">
-        <v>2.05</v>
-      </c>
       <c r="O152">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P152">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q152">
         <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y152">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA152">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14153,7 +14153,7 @@
         <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14239,7 +14239,7 @@
         <v>45341.625</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14331,7 +14331,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14417,7 +14417,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14598,7 +14598,7 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14687,7 +14687,7 @@
         <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14951,10 +14951,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -14966,22 +14966,22 @@
         <v>2.9</v>
       </c>
       <c r="N163">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O163">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P163">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q163">
         <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S163">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T163">
         <v>2.5</v>
@@ -15013,7 +15013,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6799984</v>
+        <v>6799986</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15025,46 +15025,46 @@
         <v>45353.5625</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S164">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -15087,7 +15087,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6799986</v>
+        <v>6799984</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15099,46 +15099,46 @@
         <v>45353.5625</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K165">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M165">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N165">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O165">
         <v>3.2</v>
       </c>
       <c r="P165">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15188,31 +15188,31 @@
         <v>7.5</v>
       </c>
       <c r="N166">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="O166">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P166">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R166">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15274,19 +15274,19 @@
         <v>-1.75</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V167">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15324,7 +15324,7 @@
         <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K168">
         <v>2.6</v>
@@ -15395,7 +15395,7 @@
         <v>45355.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Beitar Jerusalem</t>
   </si>
   <si>
-    <t>Maccabi Bnei Raina</t>
+    <t>Hapoel Petah Tikva</t>
   </si>
   <si>
-    <t>Hapoel Petah Tikva</t>
+    <t>Maccabi Bnei Raina</t>
   </si>
   <si>
     <t>Hapoel TelAviv</t>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1171,61 +1171,61 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N8">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>-0</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.825</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
-        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1260,61 +1260,61 @@
         <v>43</v>
       </c>
       <c r="K9">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N9">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1871,7 +1871,7 @@
         <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,58 +2046,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O18">
         <v>3.6</v>
       </c>
       <c r="P18">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,13 +2106,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,58 +2135,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>44</v>
       </c>
       <c r="K19">
+        <v>1.571</v>
+      </c>
+      <c r="L19">
+        <v>3.6</v>
+      </c>
+      <c r="M19">
         <v>5</v>
       </c>
-      <c r="L19">
-        <v>3.75</v>
-      </c>
-      <c r="M19">
-        <v>1.533</v>
-      </c>
       <c r="N19">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O19">
         <v>3.6</v>
       </c>
       <c r="P19">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q19">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2195,13 +2195,13 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2402,7 +2402,7 @@
         <v>45192.5</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6799846</v>
+        <v>6799841</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,10 +2580,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2595,46 +2595,46 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
+        <v>3.25</v>
+      </c>
+      <c r="M24">
+        <v>2.75</v>
+      </c>
+      <c r="N24">
+        <v>2.3</v>
+      </c>
+      <c r="O24">
         <v>3.3</v>
       </c>
-      <c r="M24">
-        <v>2.3</v>
-      </c>
-      <c r="N24">
-        <v>2.5</v>
-      </c>
-      <c r="O24">
-        <v>3.2</v>
-      </c>
       <c r="P24">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2649,7 +2649,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6799841</v>
+        <v>6799846</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,10 +2669,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2684,46 +2684,46 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
@@ -2738,7 +2738,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3028,7 +3028,7 @@
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3295,7 +3295,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -4004,7 +4004,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -4093,7 +4093,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4363,7 +4363,7 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -4983,7 +4983,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5517,7 +5517,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>37</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7542748</v>
+        <v>7542499</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K58">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="L58">
         <v>3.2</v>
       </c>
       <c r="M58">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N58">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z58">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7542499</v>
+        <v>7542500</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="L59">
         <v>3.2</v>
       </c>
       <c r="M59">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N59">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P59">
+        <v>2.9</v>
+      </c>
+      <c r="Q59">
+        <v>-0.25</v>
+      </c>
+      <c r="R59">
         <v>2.05</v>
       </c>
-      <c r="Q59">
-        <v>0.25</v>
-      </c>
-      <c r="R59">
-        <v>2</v>
-      </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
         <v>1.05</v>
       </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5772,7 +5772,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7542500</v>
+        <v>7542748</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5784,13 +5784,13 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5799,43 +5799,43 @@
         <v>44</v>
       </c>
       <c r="K60">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
         <v>3.2</v>
       </c>
       <c r="M60">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N60">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O60">
+        <v>2.9</v>
+      </c>
+      <c r="P60">
         <v>3</v>
-      </c>
-      <c r="P60">
-        <v>2.9</v>
       </c>
       <c r="Q60">
         <v>-0.25</v>
       </c>
       <c r="R60">
+        <v>2.125</v>
+      </c>
+      <c r="S60">
+        <v>1.75</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
         <v>2.05</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>1.8</v>
       </c>
-      <c r="T60">
-        <v>2.25</v>
-      </c>
-      <c r="U60">
-        <v>1.925</v>
-      </c>
-      <c r="V60">
-        <v>1.925</v>
-      </c>
       <c r="W60">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5844,16 +5844,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.05</v>
+        <v>1.125</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6140,10 +6140,10 @@
         <v>45279.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s">
         <v>36</v>
-      </c>
-      <c r="G64" t="s">
-        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6840,7 +6840,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7542640</v>
+        <v>7542639</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6852,40 +6852,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72">
+        <v>2.5</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>2.75</v>
+      </c>
+      <c r="N72">
+        <v>2.7</v>
+      </c>
+      <c r="O72">
+        <v>2.8</v>
+      </c>
+      <c r="P72">
+        <v>2.75</v>
+      </c>
+      <c r="Q72">
         <v>0</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72" t="s">
-        <v>45</v>
-      </c>
-      <c r="K72">
-        <v>2.05</v>
-      </c>
-      <c r="L72">
-        <v>3.2</v>
-      </c>
-      <c r="M72">
-        <v>3.5</v>
-      </c>
-      <c r="N72">
-        <v>2.15</v>
-      </c>
-      <c r="O72">
-        <v>3.1</v>
-      </c>
-      <c r="P72">
-        <v>3.2</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
       </c>
       <c r="R72">
         <v>1.925</v>
@@ -6894,34 +6894,34 @@
         <v>1.925</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y72">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7542719</v>
+        <v>7542640</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,76 +6941,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L73">
+        <v>3.2</v>
+      </c>
+      <c r="M73">
+        <v>3.5</v>
+      </c>
+      <c r="N73">
+        <v>2.15</v>
+      </c>
+      <c r="O73">
         <v>3.1</v>
       </c>
-      <c r="M73">
-        <v>2.6</v>
-      </c>
-      <c r="N73">
-        <v>2.9</v>
-      </c>
-      <c r="O73">
+      <c r="P73">
         <v>3.2</v>
       </c>
-      <c r="P73">
-        <v>2.3</v>
-      </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S73">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7542639</v>
+        <v>7542719</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,76 +7030,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K74">
+        <v>2.6</v>
+      </c>
+      <c r="L74">
+        <v>3.1</v>
+      </c>
+      <c r="M74">
+        <v>2.6</v>
+      </c>
+      <c r="N74">
+        <v>2.9</v>
+      </c>
+      <c r="O74">
+        <v>3.2</v>
+      </c>
+      <c r="P74">
+        <v>2.3</v>
+      </c>
+      <c r="Q74">
+        <v>0.25</v>
+      </c>
+      <c r="R74">
+        <v>1.8</v>
+      </c>
+      <c r="S74">
+        <v>2.05</v>
+      </c>
+      <c r="T74">
         <v>2.5</v>
       </c>
-      <c r="L74">
-        <v>3</v>
-      </c>
-      <c r="M74">
-        <v>2.75</v>
-      </c>
-      <c r="N74">
-        <v>2.7</v>
-      </c>
-      <c r="O74">
-        <v>2.8</v>
-      </c>
-      <c r="P74">
-        <v>2.75</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>1.925</v>
-      </c>
-      <c r="S74">
-        <v>1.925</v>
-      </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
       <c r="U74">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X74">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7745,7 +7745,7 @@
         <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7834,7 +7834,7 @@
         <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>45290.41666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8098,7 +8098,7 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>29</v>
@@ -8632,7 +8632,7 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -9077,7 +9077,7 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>42</v>
@@ -9258,7 +9258,7 @@
         <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -9347,7 +9347,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7542735</v>
+        <v>7542736</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,76 +10145,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N109">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O109">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P109">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7542736</v>
+        <v>7542735</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O110">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X110">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA110">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>45305.625</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10771,7 +10771,7 @@
         <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10949,7 +10949,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>45311.52083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>38</v>
@@ -11569,7 +11569,7 @@
         <v>45312.625</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>33</v>
@@ -11839,7 +11839,7 @@
         <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12017,7 +12017,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12637,7 +12637,7 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12815,7 +12815,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>40</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6799962</v>
+        <v>6799960</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,13 +13260,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>36</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -13275,43 +13275,43 @@
         <v>44</v>
       </c>
       <c r="K144">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N144">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13320,16 +13320,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6799960</v>
+        <v>6799962</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,13 +13349,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
         <v>35</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13364,43 +13364,43 @@
         <v>44</v>
       </c>
       <c r="K145">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M145">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O145">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13409,16 +13409,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13708,7 +13708,7 @@
         <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>45339.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>40</v>
@@ -14862,10 +14862,10 @@
         <v>45348.625</v>
       </c>
       <c r="F162" t="s">
+        <v>36</v>
+      </c>
+      <c r="G162" t="s">
         <v>35</v>
-      </c>
-      <c r="G162" t="s">
-        <v>36</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14956,6 +14956,15 @@
       <c r="G163" t="s">
         <v>38</v>
       </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163" t="s">
+        <v>45</v>
+      </c>
       <c r="K163">
         <v>2.2</v>
       </c>
@@ -14966,22 +14975,22 @@
         <v>2.9</v>
       </c>
       <c r="N163">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O163">
         <v>3.25</v>
       </c>
       <c r="P163">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q163">
         <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T163">
         <v>2.5</v>
@@ -14993,19 +15002,25 @@
         <v>1.85</v>
       </c>
       <c r="W163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB163">
+        <v>1</v>
+      </c>
+      <c r="AC163">
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15013,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6799986</v>
+        <v>6799984</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15025,61 +15040,76 @@
         <v>45353.5625</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>43</v>
       </c>
       <c r="K164">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M164">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N164">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>1.825</v>
+      </c>
+      <c r="S164">
         <v>2.025</v>
       </c>
-      <c r="S164">
-        <v>1.825</v>
-      </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>0</v>
+        <v>0.5125</v>
+      </c>
+      <c r="AB164">
+        <v>-0.5</v>
+      </c>
+      <c r="AC164">
+        <v>0.4625</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15087,7 +15117,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6799984</v>
+        <v>6799986</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15099,61 +15129,76 @@
         <v>45353.5625</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165" t="s">
+        <v>44</v>
       </c>
       <c r="K165">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L165">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N165">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W165">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA165">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
+        <v>0.825</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15178,6 +15223,15 @@
       <c r="G166" t="s">
         <v>30</v>
       </c>
+      <c r="H166">
+        <v>4</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>44</v>
+      </c>
       <c r="K166">
         <v>1.333</v>
       </c>
@@ -15188,22 +15242,22 @@
         <v>7.5</v>
       </c>
       <c r="N166">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P166">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q166">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T166">
         <v>3</v>
@@ -15215,19 +15269,25 @@
         <v>1.925</v>
       </c>
       <c r="W166">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA166">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB166">
+        <v>0.925</v>
+      </c>
+      <c r="AC166">
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15274,10 +15334,10 @@
         <v>-1.75</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T167">
         <v>3.25</v>
@@ -15321,7 +15381,7 @@
         <v>45355.625</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>37</v>
@@ -15348,10 +15408,10 @@
         <v>0</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
         <v>2.25</v>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Beitar Jerusalem</t>
   </si>
   <si>
-    <t>Hapoel Petah Tikva</t>
+    <t>Maccabi Bnei Raina</t>
   </si>
   <si>
-    <t>Maccabi Bnei Raina</t>
+    <t>Hapoel Petah Tikva</t>
   </si>
   <si>
     <t>Hapoel TelAviv</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC169"/>
+  <dimension ref="A1:AC176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1171,61 +1171,61 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1260,61 +1260,61 @@
         <v>43</v>
       </c>
       <c r="K9">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N9">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>-0</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.825</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
-      <c r="AC9">
-        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1871,7 +1871,7 @@
         <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,58 +2046,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18">
+        <v>1.571</v>
+      </c>
+      <c r="L18">
+        <v>3.6</v>
+      </c>
+      <c r="M18">
         <v>5</v>
       </c>
-      <c r="L18">
-        <v>3.75</v>
-      </c>
-      <c r="M18">
-        <v>1.533</v>
-      </c>
       <c r="N18">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
         <v>3.6</v>
       </c>
       <c r="P18">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,13 +2106,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,58 +2135,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>44</v>
       </c>
       <c r="K19">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N19">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O19">
         <v>3.6</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2195,13 +2195,13 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2402,7 +2402,7 @@
         <v>45192.5</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -2758,7 +2758,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3028,7 +3028,7 @@
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3295,7 +3295,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -4004,7 +4004,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -4093,7 +4093,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4348,7 +4348,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7511181</v>
+        <v>7511180</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,76 +4360,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
+        <v>2.5</v>
+      </c>
+      <c r="O44">
+        <v>3.2</v>
+      </c>
+      <c r="P44">
         <v>2.45</v>
       </c>
-      <c r="O44">
-        <v>3.25</v>
-      </c>
-      <c r="P44">
-        <v>2.7</v>
-      </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA44">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7511180</v>
+        <v>7511181</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,76 +4449,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N45">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4541,7 +4541,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -4983,7 +4983,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5517,7 +5517,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>37</v>
@@ -5698,7 +5698,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6140,10 +6140,10 @@
         <v>45279.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" t="s">
         <v>35</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6840,7 +6840,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7542639</v>
+        <v>7542640</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6852,40 +6852,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N72">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O72">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P72">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
         <v>1.925</v>
@@ -6894,34 +6894,34 @@
         <v>1.925</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7542640</v>
+        <v>7542639</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,40 +6941,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N73">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O73">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P73">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
         <v>1.925</v>
@@ -6983,34 +6983,34 @@
         <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y73">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7745,7 +7745,7 @@
         <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7834,7 +7834,7 @@
         <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>45290.41666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8098,7 +8098,7 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
         <v>29</v>
@@ -8632,7 +8632,7 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -9077,7 +9077,7 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>42</v>
@@ -9258,7 +9258,7 @@
         <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -9347,7 +9347,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7542737</v>
+        <v>7542735</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N108">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
+        <v>1.975</v>
+      </c>
+      <c r="V108">
         <v>1.875</v>
       </c>
-      <c r="V108">
-        <v>1.975</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7542736</v>
+        <v>7542737</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,76 +10145,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
+        <v>2.45</v>
+      </c>
+      <c r="N109">
         <v>3.2</v>
       </c>
-      <c r="N109">
-        <v>2.375</v>
-      </c>
       <c r="O109">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P109">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7542735</v>
+        <v>7542736</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N110">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P110">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>45305.625</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10771,7 +10771,7 @@
         <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10949,7 +10949,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>45311.52083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>38</v>
@@ -11569,7 +11569,7 @@
         <v>45312.625</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>33</v>
@@ -11839,7 +11839,7 @@
         <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12017,7 +12017,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12637,7 +12637,7 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12815,7 +12815,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>40</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6799960</v>
+        <v>6799962</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,13 +13260,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G144" t="s">
         <v>36</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -13275,43 +13275,43 @@
         <v>44</v>
       </c>
       <c r="K144">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M144">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13320,16 +13320,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6799962</v>
+        <v>6799960</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,13 +13349,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>35</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13364,43 +13364,43 @@
         <v>44</v>
       </c>
       <c r="K145">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N145">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13409,16 +13409,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13708,7 +13708,7 @@
         <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>45339.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G151" t="s">
         <v>40</v>
@@ -14862,10 +14862,10 @@
         <v>45348.625</v>
       </c>
       <c r="F162" t="s">
+        <v>35</v>
+      </c>
+      <c r="G162" t="s">
         <v>36</v>
-      </c>
-      <c r="G162" t="s">
-        <v>35</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15028,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6799984</v>
+        <v>6799986</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15040,76 +15040,76 @@
         <v>45353.5625</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N164">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>1.775</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>2.025</v>
+      </c>
+      <c r="V164">
         <v>1.825</v>
       </c>
-      <c r="S164">
-        <v>2.025</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
-      <c r="U164">
-        <v>1.925</v>
-      </c>
-      <c r="V164">
-        <v>1.925</v>
-      </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X164">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA164">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15117,7 +15117,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6799986</v>
+        <v>6799984</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15129,76 +15129,76 @@
         <v>45353.5625</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K165">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M165">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N165">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P165">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15312,6 +15312,15 @@
       <c r="G167" t="s">
         <v>40</v>
       </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167" t="s">
+        <v>44</v>
+      </c>
       <c r="K167">
         <v>1.25</v>
       </c>
@@ -15322,46 +15331,52 @@
         <v>7.5</v>
       </c>
       <c r="N167">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="O167">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P167">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q167">
         <v>-1.75</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S167">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB167">
+        <v>-1</v>
+      </c>
+      <c r="AC167">
+        <v>0.925</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15381,11 +15396,20 @@
         <v>45355.625</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>37</v>
       </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168" t="s">
+        <v>43</v>
+      </c>
       <c r="K168">
         <v>2.6</v>
       </c>
@@ -15396,46 +15420,52 @@
         <v>2.4</v>
       </c>
       <c r="N168">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O168">
         <v>3.2</v>
       </c>
       <c r="P168">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q168">
         <v>0</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S168">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
         <v>0</v>
       </c>
       <c r="AA168">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+      <c r="AC168">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15460,6 +15490,15 @@
       <c r="G169" t="s">
         <v>34</v>
       </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>44</v>
+      </c>
       <c r="K169">
         <v>1.5</v>
       </c>
@@ -15470,45 +15509,569 @@
         <v>6</v>
       </c>
       <c r="N169">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q169">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S169">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T169">
         <v>2.5</v>
       </c>
       <c r="U169">
+        <v>1.875</v>
+      </c>
+      <c r="V169">
+        <v>1.975</v>
+      </c>
+      <c r="W169">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>0.4</v>
+      </c>
+      <c r="AA169">
+        <v>-0.5</v>
+      </c>
+      <c r="AB169">
+        <v>-1</v>
+      </c>
+      <c r="AC169">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>6799988</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F170" t="s">
+        <v>36</v>
+      </c>
+      <c r="G170" t="s">
+        <v>30</v>
+      </c>
+      <c r="K170">
+        <v>2.625</v>
+      </c>
+      <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170">
+        <v>2.875</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170">
+        <v>3</v>
+      </c>
+      <c r="P170">
+        <v>2.5</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>2.125</v>
+      </c>
+      <c r="S170">
+        <v>1.75</v>
+      </c>
+      <c r="T170">
+        <v>2.25</v>
+      </c>
+      <c r="U170">
+        <v>1.875</v>
+      </c>
+      <c r="V170">
+        <v>1.975</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>6799991</v>
+      </c>
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45360.52083333334</v>
+      </c>
+      <c r="F171" t="s">
+        <v>40</v>
+      </c>
+      <c r="G171" t="s">
+        <v>29</v>
+      </c>
+      <c r="K171">
+        <v>3.2</v>
+      </c>
+      <c r="L171">
+        <v>3.1</v>
+      </c>
+      <c r="M171">
+        <v>2.375</v>
+      </c>
+      <c r="N171">
+        <v>3.3</v>
+      </c>
+      <c r="O171">
+        <v>3.1</v>
+      </c>
+      <c r="P171">
+        <v>2.25</v>
+      </c>
+      <c r="Q171">
+        <v>0.25</v>
+      </c>
+      <c r="R171">
+        <v>1.875</v>
+      </c>
+      <c r="S171">
+        <v>1.975</v>
+      </c>
+      <c r="T171">
+        <v>2.25</v>
+      </c>
+      <c r="U171">
+        <v>1.925</v>
+      </c>
+      <c r="V171">
+        <v>1.925</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>6799992</v>
+      </c>
+      <c r="C172" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45360.5625</v>
+      </c>
+      <c r="F172" t="s">
+        <v>41</v>
+      </c>
+      <c r="G172" t="s">
+        <v>32</v>
+      </c>
+      <c r="K172">
+        <v>3.75</v>
+      </c>
+      <c r="L172">
+        <v>3.5</v>
+      </c>
+      <c r="M172">
+        <v>1.95</v>
+      </c>
+      <c r="N172">
+        <v>3.5</v>
+      </c>
+      <c r="O172">
+        <v>3.5</v>
+      </c>
+      <c r="P172">
+        <v>2.05</v>
+      </c>
+      <c r="Q172">
+        <v>0.5</v>
+      </c>
+      <c r="R172">
+        <v>1.8</v>
+      </c>
+      <c r="S172">
+        <v>2.05</v>
+      </c>
+      <c r="T172">
+        <v>2.5</v>
+      </c>
+      <c r="U172">
+        <v>2</v>
+      </c>
+      <c r="V172">
+        <v>1.85</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <v>0</v>
+      </c>
+      <c r="AA172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>6799989</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45360.60416666666</v>
+      </c>
+      <c r="F173" t="s">
+        <v>37</v>
+      </c>
+      <c r="G173" t="s">
+        <v>39</v>
+      </c>
+      <c r="K173">
+        <v>2.75</v>
+      </c>
+      <c r="L173">
+        <v>2.875</v>
+      </c>
+      <c r="M173">
+        <v>2.875</v>
+      </c>
+      <c r="N173">
+        <v>2.625</v>
+      </c>
+      <c r="O173">
+        <v>2.875</v>
+      </c>
+      <c r="P173">
+        <v>3</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>1.8</v>
+      </c>
+      <c r="S173">
+        <v>2.05</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
+      <c r="U173">
+        <v>1.925</v>
+      </c>
+      <c r="V173">
+        <v>1.925</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>6799990</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45361.625</v>
+      </c>
+      <c r="F174" t="s">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s">
+        <v>42</v>
+      </c>
+      <c r="K174">
+        <v>6.5</v>
+      </c>
+      <c r="L174">
+        <v>4.333</v>
+      </c>
+      <c r="M174">
+        <v>1.45</v>
+      </c>
+      <c r="N174">
+        <v>6.5</v>
+      </c>
+      <c r="O174">
+        <v>4.333</v>
+      </c>
+      <c r="P174">
+        <v>1.45</v>
+      </c>
+      <c r="Q174">
+        <v>1.25</v>
+      </c>
+      <c r="R174">
+        <v>1.8</v>
+      </c>
+      <c r="S174">
+        <v>2.05</v>
+      </c>
+      <c r="T174">
+        <v>2.75</v>
+      </c>
+      <c r="U174">
+        <v>1.925</v>
+      </c>
+      <c r="V174">
+        <v>1.925</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>6799994</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45361.64583333334</v>
+      </c>
+      <c r="F175" t="s">
+        <v>34</v>
+      </c>
+      <c r="G175" t="s">
+        <v>33</v>
+      </c>
+      <c r="K175">
+        <v>7.5</v>
+      </c>
+      <c r="L175">
+        <v>4.333</v>
+      </c>
+      <c r="M175">
+        <v>1.444</v>
+      </c>
+      <c r="N175">
+        <v>8</v>
+      </c>
+      <c r="O175">
+        <v>4.75</v>
+      </c>
+      <c r="P175">
+        <v>1.4</v>
+      </c>
+      <c r="Q175">
+        <v>1.25</v>
+      </c>
+      <c r="R175">
+        <v>2.025</v>
+      </c>
+      <c r="S175">
         <v>1.825</v>
       </c>
-      <c r="V169">
+      <c r="T175">
+        <v>3</v>
+      </c>
+      <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
+        <v>1.85</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>6799993</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45362.625</v>
+      </c>
+      <c r="F176" t="s">
+        <v>38</v>
+      </c>
+      <c r="G176" t="s">
+        <v>31</v>
+      </c>
+      <c r="K176">
+        <v>4.5</v>
+      </c>
+      <c r="L176">
+        <v>3.5</v>
+      </c>
+      <c r="M176">
+        <v>1.8</v>
+      </c>
+      <c r="N176">
+        <v>4.5</v>
+      </c>
+      <c r="O176">
+        <v>3.5</v>
+      </c>
+      <c r="P176">
+        <v>1.8</v>
+      </c>
+      <c r="Q176">
+        <v>0.75</v>
+      </c>
+      <c r="R176">
+        <v>1.825</v>
+      </c>
+      <c r="S176">
         <v>2.025</v>
       </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <v>0</v>
-      </c>
-      <c r="Y169">
-        <v>0</v>
-      </c>
-      <c r="Z169">
-        <v>0</v>
-      </c>
-      <c r="AA169">
+      <c r="T176">
+        <v>2.5</v>
+      </c>
+      <c r="U176">
+        <v>2</v>
+      </c>
+      <c r="V176">
+        <v>1.85</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AA176">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -121,16 +121,16 @@
     <t>Beitar Jerusalem</t>
   </si>
   <si>
+    <t>Hapoel Petah Tikva</t>
+  </si>
+  <si>
     <t>Maccabi Bnei Raina</t>
   </si>
   <si>
-    <t>Hapoel Petah Tikva</t>
+    <t>Hapoel Haifa</t>
   </si>
   <si>
     <t>Hapoel TelAviv</t>
-  </si>
-  <si>
-    <t>Hapoel Haifa</t>
   </si>
   <si>
     <t>Hapoel Jerusalem FC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC176"/>
+  <dimension ref="A1:AC175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1171,61 +1171,61 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N8">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>-0</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.825</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
-        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1260,61 +1260,61 @@
         <v>43</v>
       </c>
       <c r="K9">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N9">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6799829</v>
+        <v>6799825</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L10">
+        <v>3.25</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1.95</v>
+      </c>
+      <c r="O10">
+        <v>3.2</v>
+      </c>
+      <c r="P10">
         <v>3.4</v>
       </c>
-      <c r="M10">
-        <v>2.6</v>
-      </c>
-      <c r="N10">
-        <v>2.625</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>2.375</v>
-      </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6799825</v>
+        <v>6799829</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q11">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X11">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1871,7 +1871,7 @@
         <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,58 +2046,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O18">
         <v>3.6</v>
       </c>
       <c r="P18">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,13 +2106,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,58 +2135,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>44</v>
       </c>
       <c r="K19">
+        <v>1.571</v>
+      </c>
+      <c r="L19">
+        <v>3.6</v>
+      </c>
+      <c r="M19">
         <v>5</v>
       </c>
-      <c r="L19">
-        <v>3.75</v>
-      </c>
-      <c r="M19">
-        <v>1.533</v>
-      </c>
       <c r="N19">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O19">
         <v>3.6</v>
       </c>
       <c r="P19">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q19">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2195,13 +2195,13 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2316,7 +2316,7 @@
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>45192.5</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -2494,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6799841</v>
+        <v>6799846</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,10 +2580,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2595,46 +2595,46 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L24">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2649,7 +2649,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6799846</v>
+        <v>6799841</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,10 +2669,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2684,46 +2684,46 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
+        <v>3.25</v>
+      </c>
+      <c r="M25">
+        <v>2.75</v>
+      </c>
+      <c r="N25">
+        <v>2.3</v>
+      </c>
+      <c r="O25">
         <v>3.3</v>
       </c>
-      <c r="M25">
-        <v>2.3</v>
-      </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>3.2</v>
-      </c>
       <c r="P25">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y25">
         <v>-1</v>
@@ -2738,7 +2738,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2847,7 +2847,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -3028,7 +3028,7 @@
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6799854</v>
+        <v>6799853</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,55 +3203,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>45</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>3.25</v>
       </c>
       <c r="M31">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P31">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3260,19 +3260,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3280,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6799853</v>
+        <v>6799854</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3292,55 +3292,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>45</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
         <v>3.25</v>
       </c>
       <c r="M32">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O32">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q32">
         <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3349,19 +3349,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3737,10 +3737,10 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
         <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -4093,7 +4093,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4452,7 +4452,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4538,10 +4538,10 @@
         <v>45265.61458333334</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4630,7 +4630,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4894,7 +4894,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -4983,7 +4983,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5072,7 +5072,7 @@
         <v>45269.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5164,7 +5164,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5517,10 +5517,10 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7542499</v>
+        <v>7542748</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="L58">
         <v>3.2</v>
       </c>
       <c r="M58">
+        <v>2.625</v>
+      </c>
+      <c r="N58">
         <v>2.4</v>
       </c>
-      <c r="N58">
-        <v>3.2</v>
-      </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
+        <v>-0.25</v>
+      </c>
+      <c r="R58">
+        <v>2.125</v>
+      </c>
+      <c r="S58">
+        <v>1.75</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
         <v>2.05</v>
       </c>
-      <c r="Q58">
-        <v>0.25</v>
-      </c>
-      <c r="R58">
-        <v>2</v>
-      </c>
-      <c r="S58">
-        <v>1.85</v>
-      </c>
-      <c r="T58">
-        <v>2.25</v>
-      </c>
-      <c r="U58">
-        <v>1.85</v>
-      </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7542500</v>
+        <v>7542499</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="L59">
         <v>3.2</v>
       </c>
       <c r="M59">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N59">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5772,7 +5772,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7542748</v>
+        <v>7542500</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5784,13 +5784,13 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5799,43 +5799,43 @@
         <v>44</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L60">
         <v>3.2</v>
       </c>
       <c r="M60">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N60">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O60">
+        <v>3</v>
+      </c>
+      <c r="P60">
         <v>2.9</v>
-      </c>
-      <c r="P60">
-        <v>3</v>
       </c>
       <c r="Q60">
         <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5844,16 +5844,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.125</v>
+        <v>1.05</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>45277.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -6140,10 +6140,10 @@
         <v>45279.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s">
         <v>36</v>
-      </c>
-      <c r="G64" t="s">
-        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>45279.625</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6410,7 +6410,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6763,10 +6763,10 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7542639</v>
+        <v>7542719</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,76 +6941,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K73">
+        <v>2.6</v>
+      </c>
+      <c r="L73">
+        <v>3.1</v>
+      </c>
+      <c r="M73">
+        <v>2.6</v>
+      </c>
+      <c r="N73">
+        <v>2.9</v>
+      </c>
+      <c r="O73">
+        <v>3.2</v>
+      </c>
+      <c r="P73">
+        <v>2.3</v>
+      </c>
+      <c r="Q73">
+        <v>0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>2.05</v>
+      </c>
+      <c r="T73">
         <v>2.5</v>
       </c>
-      <c r="L73">
-        <v>3</v>
-      </c>
-      <c r="M73">
-        <v>2.75</v>
-      </c>
-      <c r="N73">
-        <v>2.7</v>
-      </c>
-      <c r="O73">
-        <v>2.8</v>
-      </c>
-      <c r="P73">
-        <v>2.75</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>1.925</v>
-      </c>
-      <c r="S73">
-        <v>1.925</v>
-      </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
       <c r="U73">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X73">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7542719</v>
+        <v>7542639</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,76 +7030,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N74">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O74">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P74">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
+        <v>1.925</v>
+      </c>
+      <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
+        <v>2.1</v>
+      </c>
+      <c r="V74">
+        <v>1.775</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
         <v>1.8</v>
       </c>
-      <c r="S74">
-        <v>2.05</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>2</v>
-      </c>
-      <c r="V74">
-        <v>1.85</v>
-      </c>
-      <c r="W74">
-        <v>1.9</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7567,7 +7567,7 @@
         <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7745,7 +7745,7 @@
         <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7834,7 +7834,7 @@
         <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>45290.41666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8098,7 +8098,7 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>29</v>
@@ -8454,7 +8454,7 @@
         <v>45291.625</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
         <v>33</v>
@@ -8543,7 +8543,7 @@
         <v>45291.64583333334</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>42</v>
@@ -8632,7 +8632,7 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -8899,7 +8899,7 @@
         <v>45294.61458333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9077,7 +9077,7 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>42</v>
@@ -9166,7 +9166,7 @@
         <v>45295.64583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9258,7 +9258,7 @@
         <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -9347,7 +9347,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9436,7 +9436,7 @@
         <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9703,7 +9703,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7542735</v>
+        <v>7542736</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N108">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O108">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P108">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7542737</v>
+        <v>7542735</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,76 +10145,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L109">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O109">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P109">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T109">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
+        <v>1.975</v>
+      </c>
+      <c r="V109">
         <v>1.875</v>
       </c>
-      <c r="V109">
-        <v>1.975</v>
-      </c>
       <c r="W109">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7542736</v>
+        <v>7542737</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
+        <v>2.45</v>
+      </c>
+      <c r="N110">
         <v>3.2</v>
       </c>
-      <c r="N110">
-        <v>2.375</v>
-      </c>
       <c r="O110">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P110">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
         <v>31</v>
@@ -10412,7 +10412,7 @@
         <v>45305.625</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10590,7 +10590,7 @@
         <v>45307.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
         <v>40</v>
@@ -10771,7 +10771,7 @@
         <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10949,7 +10949,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11127,7 +11127,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -11302,10 +11302,10 @@
         <v>45311.52083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>45312.625</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>33</v>
@@ -11747,7 +11747,7 @@
         <v>45313.625</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
         <v>34</v>
@@ -11839,7 +11839,7 @@
         <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12017,7 +12017,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12192,10 +12192,10 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F132" t="s">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s">
         <v>38</v>
-      </c>
-      <c r="G132" t="s">
-        <v>37</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -12637,10 +12637,10 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12726,7 +12726,7 @@
         <v>45325.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
         <v>41</v>
@@ -12815,7 +12815,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>40</v>
@@ -13174,7 +13174,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6799962</v>
+        <v>6799960</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,13 +13260,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>36</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -13275,43 +13275,43 @@
         <v>44</v>
       </c>
       <c r="K144">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N144">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13320,16 +13320,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6799960</v>
+        <v>6799962</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,13 +13349,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
         <v>35</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13364,43 +13364,43 @@
         <v>44</v>
       </c>
       <c r="K145">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M145">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O145">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13409,16 +13409,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>45334.625</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
         <v>39</v>
@@ -13705,10 +13705,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>45339.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>40</v>
@@ -14153,7 +14153,7 @@
         <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14331,7 +14331,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14417,7 +14417,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14862,10 +14862,10 @@
         <v>45348.625</v>
       </c>
       <c r="F162" t="s">
+        <v>36</v>
+      </c>
+      <c r="G162" t="s">
         <v>35</v>
-      </c>
-      <c r="G162" t="s">
-        <v>36</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14954,7 +14954,7 @@
         <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15028,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6799986</v>
+        <v>6799984</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15040,76 +15040,76 @@
         <v>45353.5625</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K164">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M164">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N164">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15117,7 +15117,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6799984</v>
+        <v>6799986</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15129,76 +15129,76 @@
         <v>45353.5625</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K165">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L165">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N165">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>1.775</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>2.025</v>
+      </c>
+      <c r="V165">
         <v>1.825</v>
       </c>
-      <c r="S165">
-        <v>2.025</v>
-      </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
-      <c r="U165">
-        <v>1.925</v>
-      </c>
-      <c r="V165">
-        <v>1.925</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X165">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA165">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15396,10 +15396,10 @@
         <v>45355.625</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6799988</v>
+        <v>6799991</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,49 +15571,49 @@
         <v>28</v>
       </c>
       <c r="E170" s="2">
-        <v>45360.41666666666</v>
+        <v>45360.52083333334</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K170">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M170">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N170">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O170">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P170">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="S170">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T170">
         <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15636,7 +15636,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6799991</v>
+        <v>6799992</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15645,49 +15645,49 @@
         <v>28</v>
       </c>
       <c r="E171" s="2">
-        <v>45360.52083333334</v>
+        <v>45360.5625</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K171">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L171">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N171">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O171">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q171">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
         <v>0</v>
@@ -15710,7 +15710,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6799992</v>
+        <v>6799989</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15719,34 +15719,34 @@
         <v>28</v>
       </c>
       <c r="E172" s="2">
-        <v>45360.5625</v>
+        <v>45360.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K172">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M172">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="N172">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="O172">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P172">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q172">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R172">
         <v>1.8</v>
@@ -15755,13 +15755,13 @@
         <v>2.05</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W172">
         <v>0</v>
@@ -15784,7 +15784,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6799989</v>
+        <v>6799990</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15793,34 +15793,34 @@
         <v>28</v>
       </c>
       <c r="E173" s="2">
-        <v>45360.60416666666</v>
+        <v>45361.625</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K173">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="L173">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="M173">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="N173">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="O173">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="P173">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R173">
         <v>1.8</v>
@@ -15829,13 +15829,13 @@
         <v>2.05</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
         <v>0</v>
@@ -15858,7 +15858,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6799990</v>
+        <v>6799994</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15867,49 +15867,49 @@
         <v>28</v>
       </c>
       <c r="E174" s="2">
-        <v>45361.625</v>
+        <v>45361.64583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K174">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="L174">
         <v>4.333</v>
       </c>
       <c r="M174">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="N174">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O174">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P174">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q174">
         <v>1.25</v>
       </c>
       <c r="R174">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S174">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U174">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
         <v>0</v>
@@ -15932,7 +15932,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6799994</v>
+        <v>6799993</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -15941,49 +15941,49 @@
         <v>28</v>
       </c>
       <c r="E175" s="2">
-        <v>45361.64583333334</v>
+        <v>45362.625</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K175">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="L175">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="N175">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="O175">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q175">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R175">
+        <v>1.825</v>
+      </c>
+      <c r="S175">
         <v>2.025</v>
       </c>
-      <c r="S175">
-        <v>1.825</v>
-      </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W175">
         <v>0</v>
@@ -15998,80 +15998,6 @@
         <v>0</v>
       </c>
       <c r="AA175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:29">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>6799993</v>
-      </c>
-      <c r="C176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D176" t="s">
-        <v>28</v>
-      </c>
-      <c r="E176" s="2">
-        <v>45362.625</v>
-      </c>
-      <c r="F176" t="s">
-        <v>38</v>
-      </c>
-      <c r="G176" t="s">
-        <v>31</v>
-      </c>
-      <c r="K176">
-        <v>4.5</v>
-      </c>
-      <c r="L176">
-        <v>3.5</v>
-      </c>
-      <c r="M176">
-        <v>1.8</v>
-      </c>
-      <c r="N176">
-        <v>4.5</v>
-      </c>
-      <c r="O176">
-        <v>3.5</v>
-      </c>
-      <c r="P176">
-        <v>1.8</v>
-      </c>
-      <c r="Q176">
-        <v>0.75</v>
-      </c>
-      <c r="R176">
-        <v>1.825</v>
-      </c>
-      <c r="S176">
-        <v>2.025</v>
-      </c>
-      <c r="T176">
-        <v>2.5</v>
-      </c>
-      <c r="U176">
-        <v>2</v>
-      </c>
-      <c r="V176">
-        <v>1.85</v>
-      </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-      <c r="X176">
-        <v>0</v>
-      </c>
-      <c r="Y176">
-        <v>0</v>
-      </c>
-      <c r="Z176">
-        <v>0</v>
-      </c>
-      <c r="AA176">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Maccabi Petach Tikva</t>
   </si>
   <si>
-    <t>Hapoel Beer Sheva</t>
+    <t>Maccabi Netanya</t>
   </si>
   <si>
-    <t>Maccabi Netanya</t>
+    <t>Hapoel Beer Sheva</t>
   </si>
   <si>
     <t>Maccabi Tel Aviv</t>
@@ -121,10 +121,10 @@
     <t>Beitar Jerusalem</t>
   </si>
   <si>
-    <t>Hapoel Petah Tikva</t>
+    <t>Maccabi Bnei Raina</t>
   </si>
   <si>
-    <t>Maccabi Bnei Raina</t>
+    <t>Hapoel Petah Tikva</t>
   </si>
   <si>
     <t>Hapoel Haifa</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC175"/>
+  <dimension ref="A1:AC176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6798412</v>
+        <v>6799822</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L4">
+        <v>3.3</v>
+      </c>
+      <c r="M4">
+        <v>3.7</v>
+      </c>
+      <c r="N4">
+        <v>1.65</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
         <v>4.5</v>
       </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>1.333</v>
-      </c>
-      <c r="O4">
-        <v>4.333</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
       <c r="Q4">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6799822</v>
+        <v>6798412</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L5">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R5">
+        <v>1.825</v>
+      </c>
+      <c r="S5">
+        <v>2.025</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
         <v>1.95</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>1.9</v>
       </c>
-      <c r="T5">
-        <v>2.5</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>1.85</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1171,61 +1171,61 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1260,61 +1260,61 @@
         <v>43</v>
       </c>
       <c r="K9">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N9">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>-0</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.825</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
-      <c r="AC9">
-        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1426,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1871,7 +1871,7 @@
         <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2135,10 +2135,10 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2313,7 +2313,7 @@
         <v>45187.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2402,10 +2402,10 @@
         <v>45192.5</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2583,7 +2583,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3028,7 +3028,7 @@
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3206,7 +3206,7 @@
         <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3470,7 +3470,7 @@
         <v>45200.59375</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3651,7 +3651,7 @@
         <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3918,7 +3918,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4004,7 +4004,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -4093,7 +4093,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4274,7 +4274,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4363,7 +4363,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4452,7 +4452,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>45266.61458333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -4894,7 +4894,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -4983,7 +4983,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5428,10 +5428,10 @@
         <v>45271.625</v>
       </c>
       <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
         <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>31</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7542748</v>
+        <v>7542499</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K58">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="L58">
         <v>3.2</v>
       </c>
       <c r="M58">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N58">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z58">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7542499</v>
+        <v>7542500</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="L59">
         <v>3.2</v>
       </c>
       <c r="M59">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N59">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P59">
+        <v>2.9</v>
+      </c>
+      <c r="Q59">
+        <v>-0.25</v>
+      </c>
+      <c r="R59">
         <v>2.05</v>
       </c>
-      <c r="Q59">
-        <v>0.25</v>
-      </c>
-      <c r="R59">
-        <v>2</v>
-      </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
         <v>1.05</v>
       </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5772,7 +5772,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7542500</v>
+        <v>7542748</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5784,13 +5784,13 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5799,43 +5799,43 @@
         <v>44</v>
       </c>
       <c r="K60">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
         <v>3.2</v>
       </c>
       <c r="M60">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N60">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O60">
+        <v>2.9</v>
+      </c>
+      <c r="P60">
         <v>3</v>
-      </c>
-      <c r="P60">
-        <v>2.9</v>
       </c>
       <c r="Q60">
         <v>-0.25</v>
       </c>
       <c r="R60">
+        <v>2.125</v>
+      </c>
+      <c r="S60">
+        <v>1.75</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
         <v>2.05</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>1.8</v>
       </c>
-      <c r="T60">
-        <v>2.25</v>
-      </c>
-      <c r="U60">
-        <v>1.925</v>
-      </c>
-      <c r="V60">
-        <v>1.925</v>
-      </c>
       <c r="W60">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5844,16 +5844,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.05</v>
+        <v>1.125</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6140,10 +6140,10 @@
         <v>45279.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" t="s">
         <v>35</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         <v>45280.61458333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>34</v>
@@ -6674,7 +6674,7 @@
         <v>45280.64583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6766,7 +6766,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6840,7 +6840,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7542640</v>
+        <v>7542639</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6852,40 +6852,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72">
+        <v>2.5</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>2.75</v>
+      </c>
+      <c r="N72">
+        <v>2.7</v>
+      </c>
+      <c r="O72">
+        <v>2.8</v>
+      </c>
+      <c r="P72">
+        <v>2.75</v>
+      </c>
+      <c r="Q72">
         <v>0</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72" t="s">
-        <v>45</v>
-      </c>
-      <c r="K72">
-        <v>2.05</v>
-      </c>
-      <c r="L72">
-        <v>3.2</v>
-      </c>
-      <c r="M72">
-        <v>3.5</v>
-      </c>
-      <c r="N72">
-        <v>2.15</v>
-      </c>
-      <c r="O72">
-        <v>3.1</v>
-      </c>
-      <c r="P72">
-        <v>3.2</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
       </c>
       <c r="R72">
         <v>1.925</v>
@@ -6894,34 +6894,34 @@
         <v>1.925</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y72">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6944,7 +6944,7 @@
         <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7542639</v>
+        <v>7542640</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,40 +7030,40 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K74">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M74">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N74">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O74">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P74">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
         <v>1.925</v>
@@ -7072,34 +7072,34 @@
         <v>1.925</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -7386,7 +7386,7 @@
         <v>45286.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>41</v>
@@ -7564,7 +7564,7 @@
         <v>45286.625</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
         <v>37</v>
@@ -7745,7 +7745,7 @@
         <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7834,7 +7834,7 @@
         <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>45290.41666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8098,7 +8098,7 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
         <v>29</v>
@@ -8190,7 +8190,7 @@
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8279,7 +8279,7 @@
         <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8632,10 +8632,10 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>42</v>
@@ -9255,10 +9255,10 @@
         <v>45297.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -9347,7 +9347,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>45297.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>38</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7542736</v>
+        <v>7542737</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
+        <v>2.45</v>
+      </c>
+      <c r="N108">
         <v>3.2</v>
       </c>
-      <c r="N108">
-        <v>2.375</v>
-      </c>
       <c r="O108">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P108">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,10 +10145,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7542737</v>
+        <v>7542736</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L110">
+        <v>3.4</v>
+      </c>
+      <c r="M110">
         <v>3.2</v>
       </c>
-      <c r="M110">
-        <v>2.45</v>
-      </c>
       <c r="N110">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P110">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y110">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10326,7 +10326,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10412,7 +10412,7 @@
         <v>45305.625</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10679,7 +10679,7 @@
         <v>45307.61458333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10768,10 +10768,10 @@
         <v>45307.625</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10949,7 +10949,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>45311.52083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>37</v>
@@ -11394,7 +11394,7 @@
         <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>45312.625</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>33</v>
@@ -11661,7 +11661,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -11839,7 +11839,7 @@
         <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>45321.61458333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12017,7 +12017,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12370,7 +12370,7 @@
         <v>45322.64583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12459,7 +12459,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12551,7 +12551,7 @@
         <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12637,7 +12637,7 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
         <v>37</v>
@@ -12815,7 +12815,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>40</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6799960</v>
+        <v>6799962</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,13 +13260,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G144" t="s">
         <v>36</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -13275,43 +13275,43 @@
         <v>44</v>
       </c>
       <c r="K144">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M144">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13320,16 +13320,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6799962</v>
+        <v>6799960</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,13 +13349,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>35</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13364,43 +13364,43 @@
         <v>44</v>
       </c>
       <c r="K145">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N145">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13409,16 +13409,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13527,10 +13527,10 @@
         <v>45333.625</v>
       </c>
       <c r="F147" t="s">
+        <v>32</v>
+      </c>
+      <c r="G147" t="s">
         <v>31</v>
-      </c>
-      <c r="G147" t="s">
-        <v>32</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13708,7 +13708,7 @@
         <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13794,7 +13794,7 @@
         <v>45339.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>30</v>
@@ -13871,7 +13871,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6799972</v>
+        <v>6799971</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13883,76 +13883,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K151">
+        <v>2.05</v>
+      </c>
+      <c r="L151">
+        <v>3.25</v>
+      </c>
+      <c r="M151">
+        <v>3.5</v>
+      </c>
+      <c r="N151">
         <v>2.1</v>
       </c>
-      <c r="L151">
-        <v>3.3</v>
-      </c>
-      <c r="M151">
-        <v>3.3</v>
-      </c>
-      <c r="N151">
-        <v>2.05</v>
-      </c>
       <c r="O151">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P151">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q151">
         <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y151">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA151">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB151">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13960,7 +13960,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6799971</v>
+        <v>6799972</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13972,76 +13972,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K152">
+        <v>2.1</v>
+      </c>
+      <c r="L152">
+        <v>3.3</v>
+      </c>
+      <c r="M152">
+        <v>3.3</v>
+      </c>
+      <c r="N152">
         <v>2.05</v>
       </c>
-      <c r="L152">
-        <v>3.25</v>
-      </c>
-      <c r="M152">
-        <v>3.5</v>
-      </c>
-      <c r="N152">
-        <v>2.1</v>
-      </c>
       <c r="O152">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P152">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q152">
         <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
+        <v>1.025</v>
+      </c>
+      <c r="AB152">
         <v>-0.5</v>
       </c>
-      <c r="AA152">
-        <v>0.4875</v>
-      </c>
-      <c r="AB152">
-        <v>0</v>
-      </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>45341.625</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14598,7 +14598,7 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14687,7 +14687,7 @@
         <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14862,10 +14862,10 @@
         <v>45348.625</v>
       </c>
       <c r="F162" t="s">
+        <v>35</v>
+      </c>
+      <c r="G162" t="s">
         <v>36</v>
-      </c>
-      <c r="G162" t="s">
-        <v>35</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
         <v>37</v>
@@ -15028,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6799984</v>
+        <v>6799986</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15040,76 +15040,76 @@
         <v>45353.5625</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N164">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>1.775</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>2.025</v>
+      </c>
+      <c r="V164">
         <v>1.825</v>
       </c>
-      <c r="S164">
-        <v>2.025</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
-      <c r="U164">
-        <v>1.925</v>
-      </c>
-      <c r="V164">
-        <v>1.925</v>
-      </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X164">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA164">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15117,7 +15117,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6799986</v>
+        <v>6799984</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15129,76 +15129,76 @@
         <v>45353.5625</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K165">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M165">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N165">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P165">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>45355.625</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>38</v>
@@ -15485,7 +15485,7 @@
         <v>45355.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6799991</v>
+        <v>6799988</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,28 +15571,37 @@
         <v>28</v>
       </c>
       <c r="E170" s="2">
-        <v>45360.52083333334</v>
+        <v>45360.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170" t="s">
+        <v>43</v>
       </c>
       <c r="K170">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="L170">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M170">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N170">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O170">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P170">
         <v>2.375</v>
@@ -15601,34 +15610,40 @@
         <v>0.25</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T170">
         <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA170">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB170">
+        <v>0.925</v>
+      </c>
+      <c r="AC170">
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15636,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6799992</v>
+        <v>6799991</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15645,64 +15660,79 @@
         <v>28</v>
       </c>
       <c r="E171" s="2">
-        <v>45360.5625</v>
+        <v>45360.52083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171" t="s">
+        <v>44</v>
       </c>
       <c r="K171">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M171">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="N171">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P171">
+        <v>2.375</v>
+      </c>
+      <c r="Q171">
+        <v>0.25</v>
+      </c>
+      <c r="R171">
+        <v>1.825</v>
+      </c>
+      <c r="S171">
+        <v>2.025</v>
+      </c>
+      <c r="T171">
+        <v>2.25</v>
+      </c>
+      <c r="U171">
+        <v>2</v>
+      </c>
+      <c r="V171">
         <v>1.85</v>
       </c>
-      <c r="Q171">
-        <v>0.5</v>
-      </c>
-      <c r="R171">
-        <v>2.025</v>
-      </c>
-      <c r="S171">
-        <v>1.825</v>
-      </c>
-      <c r="T171">
-        <v>2.5</v>
-      </c>
-      <c r="U171">
-        <v>1.95</v>
-      </c>
-      <c r="V171">
-        <v>1.9</v>
-      </c>
       <c r="W171">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA171">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15710,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6799989</v>
+        <v>6799992</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15719,64 +15749,79 @@
         <v>28</v>
       </c>
       <c r="E172" s="2">
-        <v>45360.60416666666</v>
+        <v>45360.5625</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>2</v>
+      </c>
+      <c r="J172" t="s">
+        <v>45</v>
       </c>
       <c r="K172">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L172">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N172">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O172">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P172">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R172">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15784,7 +15829,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6799990</v>
+        <v>6799989</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15793,43 +15838,52 @@
         <v>28</v>
       </c>
       <c r="E173" s="2">
-        <v>45361.625</v>
+        <v>45360.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173" t="s">
+        <v>43</v>
       </c>
       <c r="K173">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="L173">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="M173">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="N173">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="O173">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P173">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Q173">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U173">
         <v>1.9</v>
@@ -15838,19 +15892,25 @@
         <v>1.95</v>
       </c>
       <c r="W173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Y173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
         <v>0</v>
       </c>
       <c r="AA173">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
+        <v>0.95</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15858,7 +15918,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6799994</v>
+        <v>6799990</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15867,64 +15927,79 @@
         <v>28</v>
       </c>
       <c r="E174" s="2">
-        <v>45361.64583333334</v>
+        <v>45361.625</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174" t="s">
+        <v>44</v>
       </c>
       <c r="K174">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="L174">
         <v>4.333</v>
       </c>
       <c r="M174">
-        <v>1.444</v>
+        <v>1.45</v>
       </c>
       <c r="N174">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O174">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q174">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R174">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W174">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="X174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA174">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB174">
+        <v>0.875</v>
+      </c>
+      <c r="AC174">
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -15932,73 +16007,177 @@
         <v>173</v>
       </c>
       <c r="B175">
+        <v>6799994</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45361.64583333334</v>
+      </c>
+      <c r="F175" t="s">
+        <v>34</v>
+      </c>
+      <c r="G175" t="s">
+        <v>33</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>45</v>
+      </c>
+      <c r="K175">
+        <v>7.5</v>
+      </c>
+      <c r="L175">
+        <v>4.333</v>
+      </c>
+      <c r="M175">
+        <v>1.444</v>
+      </c>
+      <c r="N175">
+        <v>7</v>
+      </c>
+      <c r="O175">
+        <v>4.333</v>
+      </c>
+      <c r="P175">
+        <v>1.45</v>
+      </c>
+      <c r="Q175">
+        <v>1.25</v>
+      </c>
+      <c r="R175">
+        <v>1.85</v>
+      </c>
+      <c r="S175">
+        <v>2</v>
+      </c>
+      <c r="T175">
+        <v>3</v>
+      </c>
+      <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
+        <v>1.85</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>0.45</v>
+      </c>
+      <c r="Z175">
+        <v>0.425</v>
+      </c>
+      <c r="AA175">
+        <v>-0.5</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
         <v>6799993</v>
       </c>
-      <c r="C175" t="s">
-        <v>28</v>
-      </c>
-      <c r="D175" t="s">
-        <v>28</v>
-      </c>
-      <c r="E175" s="2">
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" s="2">
         <v>45362.625</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F176" t="s">
         <v>37</v>
       </c>
-      <c r="G175" t="s">
-        <v>31</v>
-      </c>
-      <c r="K175">
+      <c r="G176" t="s">
+        <v>32</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176" t="s">
+        <v>44</v>
+      </c>
+      <c r="K176">
         <v>4.5</v>
       </c>
-      <c r="L175">
+      <c r="L176">
         <v>3.5</v>
       </c>
-      <c r="M175">
+      <c r="M176">
         <v>1.8</v>
       </c>
-      <c r="N175">
-        <v>4.75</v>
-      </c>
-      <c r="O175">
-        <v>3.5</v>
-      </c>
-      <c r="P175">
-        <v>1.75</v>
-      </c>
-      <c r="Q175">
+      <c r="N176">
+        <v>4.333</v>
+      </c>
+      <c r="O176">
+        <v>3.6</v>
+      </c>
+      <c r="P176">
+        <v>1.8</v>
+      </c>
+      <c r="Q176">
         <v>0.75</v>
       </c>
-      <c r="R175">
+      <c r="R176">
         <v>1.825</v>
       </c>
-      <c r="S175">
+      <c r="S176">
         <v>2.025</v>
       </c>
-      <c r="T175">
+      <c r="T176">
         <v>2.5</v>
       </c>
-      <c r="U175">
-        <v>2.05</v>
-      </c>
-      <c r="V175">
-        <v>1.8</v>
-      </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-      <c r="X175">
-        <v>0</v>
-      </c>
-      <c r="Y175">
-        <v>0</v>
-      </c>
-      <c r="Z175">
-        <v>0</v>
-      </c>
-      <c r="AA175">
-        <v>0</v>
+      <c r="U176">
+        <v>1.875</v>
+      </c>
+      <c r="V176">
+        <v>1.975</v>
+      </c>
+      <c r="W176">
+        <v>3.333</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
+        <v>0.825</v>
+      </c>
+      <c r="AA176">
+        <v>-1</v>
+      </c>
+      <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -127,10 +127,10 @@
     <t>Hapoel Petah Tikva</t>
   </si>
   <si>
-    <t>Hapoel Haifa</t>
+    <t>Hapoel TelAviv</t>
   </si>
   <si>
-    <t>Hapoel TelAviv</t>
+    <t>Hapoel Haifa</t>
   </si>
   <si>
     <t>Hapoel Jerusalem FC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC176"/>
+  <dimension ref="A1:AC183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6799825</v>
+        <v>6799829</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O10">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X10">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6799829</v>
+        <v>6799825</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
+        <v>3.25</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>1.95</v>
+      </c>
+      <c r="O11">
+        <v>3.2</v>
+      </c>
+      <c r="P11">
         <v>3.4</v>
       </c>
-      <c r="M11">
-        <v>2.6</v>
-      </c>
-      <c r="N11">
-        <v>2.625</v>
-      </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
-        <v>2.375</v>
-      </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6799836</v>
+        <v>6799838</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,76 +1868,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N16">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
         <v>1.85</v>
       </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X16">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6799838</v>
+        <v>6799836</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,76 +1957,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>1.2</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>-1.75</v>
+      </c>
+      <c r="R17">
+        <v>1.825</v>
+      </c>
+      <c r="S17">
+        <v>2.025</v>
+      </c>
+      <c r="T17">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>3.2</v>
-      </c>
-      <c r="N17">
-        <v>2.15</v>
-      </c>
-      <c r="O17">
-        <v>3.1</v>
-      </c>
-      <c r="P17">
-        <v>3.1</v>
-      </c>
-      <c r="Q17">
-        <v>-0.25</v>
-      </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
+      <c r="U17">
         <v>1.85</v>
       </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6799846</v>
+        <v>6799841</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,10 +2580,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2595,46 +2595,46 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
+        <v>3.25</v>
+      </c>
+      <c r="M24">
+        <v>2.75</v>
+      </c>
+      <c r="N24">
+        <v>2.3</v>
+      </c>
+      <c r="O24">
         <v>3.3</v>
       </c>
-      <c r="M24">
-        <v>2.3</v>
-      </c>
-      <c r="N24">
-        <v>2.5</v>
-      </c>
-      <c r="O24">
-        <v>3.2</v>
-      </c>
       <c r="P24">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T24">
         <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2649,7 +2649,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6799841</v>
+        <v>6799846</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,10 +2669,10 @@
         <v>45192.57291666666</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2684,46 +2684,46 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
@@ -2738,7 +2738,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6799853</v>
+        <v>6799854</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,55 +3203,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>45</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
         <v>3.25</v>
       </c>
       <c r="M31">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O31">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3260,19 +3260,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3280,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6799854</v>
+        <v>6799853</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3292,55 +3292,55 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>45</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>3.25</v>
       </c>
       <c r="M32">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N32">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q32">
         <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3349,19 +3349,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
         <v>38</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>45265.61458333334</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4630,7 +4630,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -5072,7 +5072,7 @@
         <v>45269.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5164,7 +5164,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>45277.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -6318,7 +6318,7 @@
         <v>45279.625</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6410,7 +6410,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6763,7 +6763,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>36</v>
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7542719</v>
+        <v>7542640</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,76 +6941,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L73">
+        <v>3.2</v>
+      </c>
+      <c r="M73">
+        <v>3.5</v>
+      </c>
+      <c r="N73">
+        <v>2.15</v>
+      </c>
+      <c r="O73">
         <v>3.1</v>
       </c>
-      <c r="M73">
-        <v>2.6</v>
-      </c>
-      <c r="N73">
-        <v>2.9</v>
-      </c>
-      <c r="O73">
+      <c r="P73">
         <v>3.2</v>
       </c>
-      <c r="P73">
-        <v>2.3</v>
-      </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S73">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,76 +7030,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K74">
+        <v>2.6</v>
+      </c>
+      <c r="L74">
+        <v>3.1</v>
+      </c>
+      <c r="M74">
+        <v>2.6</v>
+      </c>
+      <c r="N74">
+        <v>2.9</v>
+      </c>
+      <c r="O74">
+        <v>3.2</v>
+      </c>
+      <c r="P74">
+        <v>2.3</v>
+      </c>
+      <c r="Q74">
+        <v>0.25</v>
+      </c>
+      <c r="R74">
+        <v>1.8</v>
+      </c>
+      <c r="S74">
         <v>2.05</v>
       </c>
-      <c r="L74">
-        <v>3.2</v>
-      </c>
-      <c r="M74">
-        <v>3.5</v>
-      </c>
-      <c r="N74">
-        <v>2.15</v>
-      </c>
-      <c r="O74">
-        <v>3.1</v>
-      </c>
-      <c r="P74">
-        <v>3.2</v>
-      </c>
-      <c r="Q74">
-        <v>-0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.925</v>
-      </c>
-      <c r="S74">
-        <v>1.925</v>
-      </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>1.85</v>
+      </c>
+      <c r="W74">
         <v>1.9</v>
       </c>
-      <c r="V74">
-        <v>1.95</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7567,7 +7567,7 @@
         <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,55 +8098,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L86">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>4.333</v>
+      </c>
+      <c r="O86">
         <v>3.6</v>
       </c>
-      <c r="N86">
-        <v>2.45</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
       <c r="P86">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R86">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8155,19 +8155,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,55 +8187,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>45</v>
       </c>
       <c r="K87">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N87">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P87">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q87">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8244,19 +8244,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>45291.625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
         <v>33</v>
@@ -8543,7 +8543,7 @@
         <v>45291.64583333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
         <v>42</v>
@@ -8899,7 +8899,7 @@
         <v>45294.61458333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9166,7 +9166,7 @@
         <v>45295.64583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9436,7 +9436,7 @@
         <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9703,7 +9703,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7542737</v>
+        <v>7542736</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
         <v>3.2</v>
       </c>
-      <c r="M108">
-        <v>2.45</v>
-      </c>
       <c r="N108">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y108">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7542735</v>
+        <v>7542737</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,76 +10145,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O109">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P109">
+        <v>2.3</v>
+      </c>
+      <c r="Q109">
+        <v>0.25</v>
+      </c>
+      <c r="R109">
         <v>1.85</v>
       </c>
-      <c r="Q109">
-        <v>0.5</v>
-      </c>
-      <c r="R109">
-        <v>1.95</v>
-      </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
+        <v>1.875</v>
+      </c>
+      <c r="V109">
         <v>1.975</v>
       </c>
-      <c r="V109">
-        <v>1.875</v>
-      </c>
       <c r="W109">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7542736</v>
+        <v>7542735</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O110">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X110">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA110">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10590,7 +10590,7 @@
         <v>45307.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
         <v>40</v>
@@ -11127,7 +11127,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -11305,7 +11305,7 @@
         <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>45313.625</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
         <v>34</v>
@@ -12192,10 +12192,10 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F132" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" t="s">
         <v>37</v>
-      </c>
-      <c r="G132" t="s">
-        <v>38</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -12640,7 +12640,7 @@
         <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12726,7 +12726,7 @@
         <v>45325.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>41</v>
@@ -13174,7 +13174,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13616,7 +13616,7 @@
         <v>45334.625</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
         <v>39</v>
@@ -13705,7 +13705,7 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
         <v>35</v>
@@ -14153,7 +14153,7 @@
         <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14331,7 +14331,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14417,7 +14417,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14954,7 +14954,7 @@
         <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15399,7 +15399,7 @@
         <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15841,7 +15841,7 @@
         <v>45360.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
         <v>39</v>
@@ -16108,7 +16108,7 @@
         <v>45362.625</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
         <v>32</v>
@@ -16178,6 +16178,599 @@
       </c>
       <c r="AC176">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>7952001</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45367.41666666666</v>
+      </c>
+      <c r="F177" t="s">
+        <v>39</v>
+      </c>
+      <c r="G177" t="s">
+        <v>36</v>
+      </c>
+      <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177" t="s">
+        <v>44</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>3.1</v>
+      </c>
+      <c r="M177">
+        <v>3.4</v>
+      </c>
+      <c r="N177">
+        <v>2.15</v>
+      </c>
+      <c r="O177">
+        <v>3</v>
+      </c>
+      <c r="P177">
+        <v>3.1</v>
+      </c>
+      <c r="Q177">
+        <v>-0.25</v>
+      </c>
+      <c r="R177">
+        <v>1.925</v>
+      </c>
+      <c r="S177">
+        <v>1.925</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
+        <v>1.875</v>
+      </c>
+      <c r="V177">
+        <v>1.975</v>
+      </c>
+      <c r="W177">
+        <v>1.15</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.925</v>
+      </c>
+      <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>0.875</v>
+      </c>
+      <c r="AC177">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>7951998</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45367.52083333334</v>
+      </c>
+      <c r="F178" t="s">
+        <v>32</v>
+      </c>
+      <c r="G178" t="s">
+        <v>41</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>44</v>
+      </c>
+      <c r="K178">
+        <v>1.4</v>
+      </c>
+      <c r="L178">
+        <v>4</v>
+      </c>
+      <c r="M178">
+        <v>6.5</v>
+      </c>
+      <c r="N178">
+        <v>1.363</v>
+      </c>
+      <c r="O178">
+        <v>4.2</v>
+      </c>
+      <c r="P178">
+        <v>7</v>
+      </c>
+      <c r="Q178">
+        <v>-1.25</v>
+      </c>
+      <c r="R178">
+        <v>1.975</v>
+      </c>
+      <c r="S178">
+        <v>1.875</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.95</v>
+      </c>
+      <c r="V178">
+        <v>1.9</v>
+      </c>
+      <c r="W178">
+        <v>0.363</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
+        <v>-0.5</v>
+      </c>
+      <c r="AA178">
+        <v>0.4375</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>7951999</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45367.5625</v>
+      </c>
+      <c r="F179" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179" t="s">
+        <v>40</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>3</v>
+      </c>
+      <c r="J179" t="s">
+        <v>45</v>
+      </c>
+      <c r="K179">
+        <v>1.727</v>
+      </c>
+      <c r="L179">
+        <v>3.5</v>
+      </c>
+      <c r="M179">
+        <v>4</v>
+      </c>
+      <c r="N179">
+        <v>1.666</v>
+      </c>
+      <c r="O179">
+        <v>3.5</v>
+      </c>
+      <c r="P179">
+        <v>4.2</v>
+      </c>
+      <c r="Q179">
+        <v>-0.75</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>1.85</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>1.975</v>
+      </c>
+      <c r="V179">
+        <v>1.875</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>3.2</v>
+      </c>
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB179">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC179">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>6799995</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45367.60416666666</v>
+      </c>
+      <c r="F180" t="s">
+        <v>30</v>
+      </c>
+      <c r="G180" t="s">
+        <v>34</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>3</v>
+      </c>
+      <c r="J180" t="s">
+        <v>45</v>
+      </c>
+      <c r="K180">
+        <v>2.5</v>
+      </c>
+      <c r="L180">
+        <v>3.2</v>
+      </c>
+      <c r="M180">
+        <v>2.5</v>
+      </c>
+      <c r="N180">
+        <v>2.875</v>
+      </c>
+      <c r="O180">
+        <v>3.2</v>
+      </c>
+      <c r="P180">
+        <v>2.25</v>
+      </c>
+      <c r="Q180">
+        <v>0.25</v>
+      </c>
+      <c r="R180">
+        <v>1.825</v>
+      </c>
+      <c r="S180">
+        <v>2.025</v>
+      </c>
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>1.975</v>
+      </c>
+      <c r="V180">
+        <v>1.875</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>1.25</v>
+      </c>
+      <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
+        <v>1.025</v>
+      </c>
+      <c r="AB180">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC180">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>6799999</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45367.60416666666</v>
+      </c>
+      <c r="F181" t="s">
+        <v>29</v>
+      </c>
+      <c r="G181" t="s">
+        <v>35</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181" t="s">
+        <v>43</v>
+      </c>
+      <c r="K181">
+        <v>2.1</v>
+      </c>
+      <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>3.3</v>
+      </c>
+      <c r="N181">
+        <v>2.45</v>
+      </c>
+      <c r="O181">
+        <v>2.875</v>
+      </c>
+      <c r="P181">
+        <v>2.875</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>1.8</v>
+      </c>
+      <c r="S181">
+        <v>2.05</v>
+      </c>
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
+        <v>2.025</v>
+      </c>
+      <c r="V181">
+        <v>1.825</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>1.875</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>-0</v>
+      </c>
+      <c r="AB181">
+        <v>-1</v>
+      </c>
+      <c r="AC181">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>7951997</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45368.625</v>
+      </c>
+      <c r="F182" t="s">
+        <v>33</v>
+      </c>
+      <c r="G182" t="s">
+        <v>38</v>
+      </c>
+      <c r="K182">
+        <v>1.333</v>
+      </c>
+      <c r="L182">
+        <v>4.333</v>
+      </c>
+      <c r="M182">
+        <v>7.5</v>
+      </c>
+      <c r="N182">
+        <v>1.333</v>
+      </c>
+      <c r="O182">
+        <v>4.2</v>
+      </c>
+      <c r="P182">
+        <v>8</v>
+      </c>
+      <c r="Q182">
+        <v>-1.25</v>
+      </c>
+      <c r="R182">
+        <v>1.825</v>
+      </c>
+      <c r="S182">
+        <v>2.025</v>
+      </c>
+      <c r="T182">
+        <v>2.75</v>
+      </c>
+      <c r="U182">
+        <v>1.9</v>
+      </c>
+      <c r="V182">
+        <v>1.95</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>7952000</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45368.64583333334</v>
+      </c>
+      <c r="F183" t="s">
+        <v>42</v>
+      </c>
+      <c r="G183" t="s">
+        <v>37</v>
+      </c>
+      <c r="K183">
+        <v>1.363</v>
+      </c>
+      <c r="L183">
+        <v>4.333</v>
+      </c>
+      <c r="M183">
+        <v>6.5</v>
+      </c>
+      <c r="N183">
+        <v>1.285</v>
+      </c>
+      <c r="O183">
+        <v>4.5</v>
+      </c>
+      <c r="P183">
+        <v>8.5</v>
+      </c>
+      <c r="Q183">
+        <v>-1.5</v>
+      </c>
+      <c r="R183">
+        <v>1.925</v>
+      </c>
+      <c r="S183">
+        <v>1.925</v>
+      </c>
+      <c r="T183">
+        <v>3</v>
+      </c>
+      <c r="U183">
+        <v>2</v>
+      </c>
+      <c r="V183">
+        <v>1.85</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Maccabi Petach Tikva</t>
   </si>
   <si>
-    <t>Maccabi Netanya</t>
+    <t>Hapoel Beer Sheva</t>
   </si>
   <si>
-    <t>Hapoel Beer Sheva</t>
+    <t>Maccabi Netanya</t>
   </si>
   <si>
     <t>Maccabi Tel Aviv</t>
@@ -127,10 +127,10 @@
     <t>Hapoel Petah Tikva</t>
   </si>
   <si>
-    <t>Hapoel TelAviv</t>
+    <t>Hapoel Haifa</t>
   </si>
   <si>
-    <t>Hapoel Haifa</t>
+    <t>Hapoel TelAviv</t>
   </si>
   <si>
     <t>Hapoel Jerusalem FC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC183"/>
+  <dimension ref="A1:AC188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6799822</v>
+        <v>6798412</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R4">
+        <v>1.825</v>
+      </c>
+      <c r="S4">
+        <v>2.025</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
         <v>1.95</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>1.9</v>
       </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>1.85</v>
-      </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6798412</v>
+        <v>6799822</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L5">
+        <v>3.3</v>
+      </c>
+      <c r="M5">
+        <v>3.7</v>
+      </c>
+      <c r="N5">
+        <v>1.65</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
         <v>4.5</v>
       </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.333</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
       <c r="Q5">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1070,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6799829</v>
+        <v>6799825</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L10">
+        <v>3.25</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1.95</v>
+      </c>
+      <c r="O10">
+        <v>3.2</v>
+      </c>
+      <c r="P10">
         <v>3.4</v>
       </c>
-      <c r="M10">
-        <v>2.6</v>
-      </c>
-      <c r="N10">
-        <v>2.625</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>2.375</v>
-      </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6799825</v>
+        <v>6799829</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q11">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X11">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6799838</v>
+        <v>6799836</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,76 +1868,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>1.2</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>-1.75</v>
+      </c>
+      <c r="R16">
+        <v>1.825</v>
+      </c>
+      <c r="S16">
+        <v>2.025</v>
+      </c>
+      <c r="T16">
         <v>3</v>
       </c>
-      <c r="M16">
-        <v>3.2</v>
-      </c>
-      <c r="N16">
-        <v>2.15</v>
-      </c>
-      <c r="O16">
-        <v>3.1</v>
-      </c>
-      <c r="P16">
-        <v>3.1</v>
-      </c>
-      <c r="Q16">
-        <v>-0.25</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
+      <c r="U16">
         <v>1.85</v>
       </c>
-      <c r="T16">
-        <v>2.5</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6799836</v>
+        <v>6799838</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,76 +1957,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N17">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O17">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q17">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.85</v>
       </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X17">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2313,10 +2313,10 @@
         <v>45187.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2494,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2672,7 +2672,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2847,7 +2847,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -3292,7 +3292,7 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3381,7 +3381,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3470,7 +3470,7 @@
         <v>45200.59375</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3562,7 +3562,7 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
         <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4363,7 +4363,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>45265.61458333334</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4630,7 +4630,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>45266.61458333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -5072,7 +5072,7 @@
         <v>45269.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5164,7 +5164,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5428,10 +5428,10 @@
         <v>45271.625</v>
       </c>
       <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
         <v>31</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5520,7 +5520,7 @@
         <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7542499</v>
+        <v>7542748</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,76 +5606,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="L58">
         <v>3.2</v>
       </c>
       <c r="M58">
+        <v>2.625</v>
+      </c>
+      <c r="N58">
         <v>2.4</v>
       </c>
-      <c r="N58">
-        <v>3.2</v>
-      </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
+        <v>-0.25</v>
+      </c>
+      <c r="R58">
+        <v>2.125</v>
+      </c>
+      <c r="S58">
+        <v>1.75</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
         <v>2.05</v>
       </c>
-      <c r="Q58">
-        <v>0.25</v>
-      </c>
-      <c r="R58">
-        <v>2</v>
-      </c>
-      <c r="S58">
-        <v>1.85</v>
-      </c>
-      <c r="T58">
-        <v>2.25</v>
-      </c>
-      <c r="U58">
-        <v>1.85</v>
-      </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5772,7 +5772,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7542748</v>
+        <v>7542499</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5784,76 +5784,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="L60">
         <v>3.2</v>
       </c>
       <c r="M60">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N60">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O60">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z60">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6051,7 +6051,7 @@
         <v>45277.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>42</v>
@@ -6318,7 +6318,7 @@
         <v>45279.625</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6410,7 +6410,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>45280.61458333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>34</v>
@@ -6674,7 +6674,7 @@
         <v>45280.64583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6763,7 +6763,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
         <v>36</v>
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,76 +6941,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K73">
+        <v>2.6</v>
+      </c>
+      <c r="L73">
+        <v>3.1</v>
+      </c>
+      <c r="M73">
+        <v>2.6</v>
+      </c>
+      <c r="N73">
+        <v>2.9</v>
+      </c>
+      <c r="O73">
+        <v>3.2</v>
+      </c>
+      <c r="P73">
+        <v>2.3</v>
+      </c>
+      <c r="Q73">
+        <v>0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
         <v>2.05</v>
       </c>
-      <c r="L73">
-        <v>3.2</v>
-      </c>
-      <c r="M73">
-        <v>3.5</v>
-      </c>
-      <c r="N73">
-        <v>2.15</v>
-      </c>
-      <c r="O73">
-        <v>3.1</v>
-      </c>
-      <c r="P73">
-        <v>3.2</v>
-      </c>
-      <c r="Q73">
-        <v>-0.25</v>
-      </c>
-      <c r="R73">
-        <v>1.925</v>
-      </c>
-      <c r="S73">
-        <v>1.925</v>
-      </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>1.85</v>
+      </c>
+      <c r="W73">
         <v>1.9</v>
       </c>
-      <c r="V73">
-        <v>1.95</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7542719</v>
+        <v>7542640</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,76 +7030,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L74">
+        <v>3.2</v>
+      </c>
+      <c r="M74">
+        <v>3.5</v>
+      </c>
+      <c r="N74">
+        <v>2.15</v>
+      </c>
+      <c r="O74">
         <v>3.1</v>
       </c>
-      <c r="M74">
-        <v>2.6</v>
-      </c>
-      <c r="N74">
-        <v>2.9</v>
-      </c>
-      <c r="O74">
+      <c r="P74">
         <v>3.2</v>
       </c>
-      <c r="P74">
-        <v>2.3</v>
-      </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -7386,7 +7386,7 @@
         <v>45286.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>41</v>
@@ -7478,7 +7478,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7564,10 +7564,10 @@
         <v>45286.625</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -8101,7 +8101,7 @@
         <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8279,7 +8279,7 @@
         <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8454,7 +8454,7 @@
         <v>45291.625</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
         <v>33</v>
@@ -8543,7 +8543,7 @@
         <v>45291.64583333334</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>42</v>
@@ -8635,7 +8635,7 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8899,7 +8899,7 @@
         <v>45294.61458333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9166,7 +9166,7 @@
         <v>45295.64583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9255,7 +9255,7 @@
         <v>45297.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9433,10 +9433,10 @@
         <v>45297.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9703,7 +9703,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7542737</v>
+        <v>7542735</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,76 +10145,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L109">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O109">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P109">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T109">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
+        <v>1.975</v>
+      </c>
+      <c r="V109">
         <v>1.875</v>
       </c>
-      <c r="V109">
-        <v>1.975</v>
-      </c>
       <c r="W109">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7542735</v>
+        <v>7542737</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N110">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P110">
+        <v>2.3</v>
+      </c>
+      <c r="Q110">
+        <v>0.25</v>
+      </c>
+      <c r="R110">
         <v>1.85</v>
       </c>
-      <c r="Q110">
-        <v>0.5</v>
-      </c>
-      <c r="R110">
-        <v>1.95</v>
-      </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
+        <v>1.875</v>
+      </c>
+      <c r="V110">
         <v>1.975</v>
       </c>
-      <c r="V110">
-        <v>1.875</v>
-      </c>
       <c r="W110">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,10 +10323,10 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>45307.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
         <v>40</v>
@@ -10679,7 +10679,7 @@
         <v>45307.61458333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10768,7 +10768,7 @@
         <v>45307.625</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
         <v>36</v>
@@ -11127,7 +11127,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -11305,7 +11305,7 @@
         <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11661,7 +11661,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -11747,7 +11747,7 @@
         <v>45313.625</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
         <v>34</v>
@@ -11925,7 +11925,7 @@
         <v>45321.61458333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12192,10 +12192,10 @@
         <v>45322.61458333334</v>
       </c>
       <c r="F132" t="s">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s">
         <v>38</v>
-      </c>
-      <c r="G132" t="s">
-        <v>37</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -12370,7 +12370,7 @@
         <v>45322.64583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12459,7 +12459,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12551,7 +12551,7 @@
         <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12640,7 +12640,7 @@
         <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12726,7 +12726,7 @@
         <v>45325.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
         <v>41</v>
@@ -13174,7 +13174,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13527,10 +13527,10 @@
         <v>45333.625</v>
       </c>
       <c r="F147" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" t="s">
         <v>32</v>
-      </c>
-      <c r="G147" t="s">
-        <v>31</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13616,7 +13616,7 @@
         <v>45334.625</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
         <v>39</v>
@@ -13705,7 +13705,7 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
         <v>35</v>
@@ -13794,7 +13794,7 @@
         <v>45339.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>30</v>
@@ -14153,7 +14153,7 @@
         <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14239,7 +14239,7 @@
         <v>45341.625</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14331,7 +14331,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14417,7 +14417,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14598,7 +14598,7 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14687,7 +14687,7 @@
         <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14951,10 +14951,10 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15028,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6799986</v>
+        <v>6799984</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15040,76 +15040,76 @@
         <v>45353.5625</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K164">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M164">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N164">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15117,7 +15117,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6799984</v>
+        <v>6799986</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15129,76 +15129,76 @@
         <v>45353.5625</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K165">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L165">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N165">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>1.775</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>2.025</v>
+      </c>
+      <c r="V165">
         <v>1.825</v>
       </c>
-      <c r="S165">
-        <v>2.025</v>
-      </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
-      <c r="U165">
-        <v>1.925</v>
-      </c>
-      <c r="V165">
-        <v>1.925</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X165">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA165">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15399,7 +15399,7 @@
         <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15485,7 +15485,7 @@
         <v>45355.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>
@@ -15755,7 +15755,7 @@
         <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15841,7 +15841,7 @@
         <v>45360.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
         <v>39</v>
@@ -16108,10 +16108,10 @@
         <v>45362.625</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16286,7 +16286,7 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
         <v>41</v>
@@ -16375,7 +16375,7 @@
         <v>45367.5625</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
         <v>40</v>
@@ -16645,7 +16645,16 @@
         <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H182">
+        <v>3</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182" t="s">
+        <v>44</v>
       </c>
       <c r="K182">
         <v>1.333</v>
@@ -16666,13 +16675,13 @@
         <v>8</v>
       </c>
       <c r="Q182">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R182">
+        <v>2.025</v>
+      </c>
+      <c r="S182">
         <v>1.825</v>
-      </c>
-      <c r="S182">
-        <v>2.025</v>
       </c>
       <c r="T182">
         <v>2.75</v>
@@ -16684,19 +16693,25 @@
         <v>1.95</v>
       </c>
       <c r="W182">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="X182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA182">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB182">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC182">
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16719,7 +16734,16 @@
         <v>42</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>43</v>
       </c>
       <c r="K183">
         <v>1.363</v>
@@ -16737,39 +16761,415 @@
         <v>4.5</v>
       </c>
       <c r="P183">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Q183">
         <v>-1.5</v>
       </c>
       <c r="R183">
+        <v>1.95</v>
+      </c>
+      <c r="S183">
+        <v>1.9</v>
+      </c>
+      <c r="T183">
+        <v>2.75</v>
+      </c>
+      <c r="U183">
+        <v>1.85</v>
+      </c>
+      <c r="V183">
+        <v>2</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
+        <v>3.5</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB183">
+        <v>-1</v>
+      </c>
+      <c r="AC183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>7986402</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45381.41666666666</v>
+      </c>
+      <c r="F184" t="s">
+        <v>31</v>
+      </c>
+      <c r="G184" t="s">
+        <v>37</v>
+      </c>
+      <c r="K184">
+        <v>1.727</v>
+      </c>
+      <c r="L184">
+        <v>3.4</v>
+      </c>
+      <c r="M184">
+        <v>4.2</v>
+      </c>
+      <c r="N184">
+        <v>1.666</v>
+      </c>
+      <c r="O184">
+        <v>3.5</v>
+      </c>
+      <c r="P184">
+        <v>4.5</v>
+      </c>
+      <c r="Q184">
+        <v>-0.75</v>
+      </c>
+      <c r="R184">
+        <v>1.975</v>
+      </c>
+      <c r="S184">
+        <v>1.875</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>1.9</v>
+      </c>
+      <c r="V184">
+        <v>1.95</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>7986406</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F185" t="s">
+        <v>40</v>
+      </c>
+      <c r="G185" t="s">
+        <v>36</v>
+      </c>
+      <c r="K185">
+        <v>2.5</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>2.6</v>
+      </c>
+      <c r="N185">
+        <v>2.4</v>
+      </c>
+      <c r="O185">
+        <v>3</v>
+      </c>
+      <c r="P185">
+        <v>2.7</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>1.8</v>
+      </c>
+      <c r="S185">
+        <v>2.05</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>1.9</v>
+      </c>
+      <c r="V185">
+        <v>1.95</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>7986407</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45381.5625</v>
+      </c>
+      <c r="F186" t="s">
+        <v>30</v>
+      </c>
+      <c r="G186" t="s">
+        <v>41</v>
+      </c>
+      <c r="K186">
+        <v>2.1</v>
+      </c>
+      <c r="L186">
+        <v>3.1</v>
+      </c>
+      <c r="M186">
+        <v>3.2</v>
+      </c>
+      <c r="N186">
+        <v>2.15</v>
+      </c>
+      <c r="O186">
+        <v>3.1</v>
+      </c>
+      <c r="P186">
+        <v>3.1</v>
+      </c>
+      <c r="Q186">
+        <v>-0.25</v>
+      </c>
+      <c r="R186">
         <v>1.925</v>
       </c>
-      <c r="S183">
+      <c r="S186">
         <v>1.925</v>
       </c>
-      <c r="T183">
-        <v>3</v>
-      </c>
-      <c r="U183">
-        <v>2</v>
-      </c>
-      <c r="V183">
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>1.9</v>
+      </c>
+      <c r="V186">
+        <v>1.95</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>7986206</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45381.58333333334</v>
+      </c>
+      <c r="F187" t="s">
+        <v>33</v>
+      </c>
+      <c r="G187" t="s">
+        <v>29</v>
+      </c>
+      <c r="K187">
+        <v>1.25</v>
+      </c>
+      <c r="L187">
+        <v>6</v>
+      </c>
+      <c r="M187">
+        <v>8</v>
+      </c>
+      <c r="N187">
+        <v>1.285</v>
+      </c>
+      <c r="O187">
+        <v>6</v>
+      </c>
+      <c r="P187">
+        <v>7</v>
+      </c>
+      <c r="Q187">
+        <v>-1.5</v>
+      </c>
+      <c r="R187">
         <v>1.85</v>
       </c>
-      <c r="W183">
-        <v>0</v>
-      </c>
-      <c r="X183">
-        <v>0</v>
-      </c>
-      <c r="Y183">
-        <v>0</v>
-      </c>
-      <c r="Z183">
-        <v>0</v>
-      </c>
-      <c r="AA183">
+      <c r="S187">
+        <v>2</v>
+      </c>
+      <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
+        <v>1.825</v>
+      </c>
+      <c r="V187">
+        <v>2.025</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>7986403</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45382.60416666666</v>
+      </c>
+      <c r="F188" t="s">
+        <v>42</v>
+      </c>
+      <c r="G188" t="s">
+        <v>35</v>
+      </c>
+      <c r="K188">
+        <v>1.333</v>
+      </c>
+      <c r="L188">
+        <v>4.5</v>
+      </c>
+      <c r="M188">
+        <v>8</v>
+      </c>
+      <c r="N188">
+        <v>1.363</v>
+      </c>
+      <c r="O188">
+        <v>4.333</v>
+      </c>
+      <c r="P188">
+        <v>7</v>
+      </c>
+      <c r="Q188">
+        <v>-1.25</v>
+      </c>
+      <c r="R188">
+        <v>1.925</v>
+      </c>
+      <c r="S188">
+        <v>1.925</v>
+      </c>
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
+        <v>1.925</v>
+      </c>
+      <c r="V188">
+        <v>1.925</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
         <v>0</v>
       </c>
     </row>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -109,10 +109,10 @@
     <t>Maccabi Petach Tikva</t>
   </si>
   <si>
-    <t>Hapoel Beer Sheva</t>
+    <t>Maccabi Netanya</t>
   </si>
   <si>
-    <t>Maccabi Netanya</t>
+    <t>Hapoel Beer Sheva</t>
   </si>
   <si>
     <t>Maccabi Tel Aviv</t>
@@ -121,10 +121,10 @@
     <t>Beitar Jerusalem</t>
   </si>
   <si>
-    <t>Maccabi Bnei Raina</t>
+    <t>Hapoel Petah Tikva</t>
   </si>
   <si>
-    <t>Hapoel Petah Tikva</t>
+    <t>Maccabi Bnei Raina</t>
   </si>
   <si>
     <t>Hapoel Haifa</t>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6798412</v>
+        <v>6799822</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L4">
+        <v>3.3</v>
+      </c>
+      <c r="M4">
+        <v>3.7</v>
+      </c>
+      <c r="N4">
+        <v>1.65</v>
+      </c>
+      <c r="O4">
+        <v>3.5</v>
+      </c>
+      <c r="P4">
         <v>4.5</v>
       </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>1.333</v>
-      </c>
-      <c r="O4">
-        <v>4.333</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
       <c r="Q4">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6799822</v>
+        <v>6798412</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,73 +892,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L5">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R5">
+        <v>1.825</v>
+      </c>
+      <c r="S5">
+        <v>2.025</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
         <v>1.95</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>1.9</v>
       </c>
-      <c r="T5">
-        <v>2.5</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>1.85</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6799828</v>
+        <v>6799830</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1171,61 +1171,61 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="N8">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>-0</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.825</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
-        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6799830</v>
+        <v>6799828</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1260,61 +1260,61 @@
         <v>43</v>
       </c>
       <c r="K9">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N9">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1426,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6799836</v>
+        <v>6799838</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,76 +1868,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="N16">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
         <v>1.85</v>
       </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X16">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6799838</v>
+        <v>6799836</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,76 +1957,76 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>1.2</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>-1.75</v>
+      </c>
+      <c r="R17">
+        <v>1.825</v>
+      </c>
+      <c r="S17">
+        <v>2.025</v>
+      </c>
+      <c r="T17">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>3.2</v>
-      </c>
-      <c r="N17">
-        <v>2.15</v>
-      </c>
-      <c r="O17">
-        <v>3.1</v>
-      </c>
-      <c r="P17">
-        <v>3.1</v>
-      </c>
-      <c r="Q17">
-        <v>-0.25</v>
-      </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
+      <c r="U17">
         <v>1.85</v>
       </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6799832</v>
+        <v>6799834</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,58 +2046,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18">
+        <v>1.571</v>
+      </c>
+      <c r="L18">
+        <v>3.6</v>
+      </c>
+      <c r="M18">
         <v>5</v>
       </c>
-      <c r="L18">
-        <v>3.75</v>
-      </c>
-      <c r="M18">
-        <v>1.533</v>
-      </c>
       <c r="N18">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
         <v>3.6</v>
       </c>
       <c r="P18">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,13 +2106,13 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6799834</v>
+        <v>6799832</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,58 +2135,58 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>44</v>
       </c>
       <c r="K19">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N19">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O19">
         <v>3.6</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2195,13 +2195,13 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2313,7 +2313,7 @@
         <v>45187.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2402,10 +2402,10 @@
         <v>45192.5</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2672,7 +2672,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3028,7 +3028,7 @@
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3470,7 +3470,7 @@
         <v>45200.59375</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3651,7 +3651,7 @@
         <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3918,7 +3918,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4004,7 +4004,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -4093,7 +4093,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4274,7 +4274,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7511180</v>
+        <v>7511181</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,76 +4360,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7511181</v>
+        <v>7511180</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,76 +4449,76 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
+        <v>2.5</v>
+      </c>
+      <c r="O45">
+        <v>3.2</v>
+      </c>
+      <c r="P45">
         <v>2.45</v>
       </c>
-      <c r="O45">
-        <v>3.25</v>
-      </c>
-      <c r="P45">
-        <v>2.7</v>
-      </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA45">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4541,7 +4541,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>45266.61458333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -4894,7 +4894,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -4983,7 +4983,7 @@
         <v>45269.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -5428,10 +5428,10 @@
         <v>45271.625</v>
       </c>
       <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
         <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>31</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5594,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7542748</v>
+        <v>7542500</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5606,13 +5606,13 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -5621,43 +5621,43 @@
         <v>44</v>
       </c>
       <c r="K58">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L58">
         <v>3.2</v>
       </c>
       <c r="M58">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O58">
+        <v>3</v>
+      </c>
+      <c r="P58">
         <v>2.9</v>
-      </c>
-      <c r="P58">
-        <v>3</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S58">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5666,16 +5666,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1.125</v>
+        <v>1.05</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7542500</v>
+        <v>7542499</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="L59">
         <v>3.2</v>
       </c>
       <c r="M59">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N59">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5772,7 +5772,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7542499</v>
+        <v>7542748</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5784,76 +5784,76 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K60">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
         <v>3.2</v>
       </c>
       <c r="M60">
+        <v>2.625</v>
+      </c>
+      <c r="N60">
         <v>2.4</v>
       </c>
-      <c r="N60">
-        <v>3.2</v>
-      </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P60">
+        <v>3</v>
+      </c>
+      <c r="Q60">
+        <v>-0.25</v>
+      </c>
+      <c r="R60">
+        <v>2.125</v>
+      </c>
+      <c r="S60">
+        <v>1.75</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
         <v>2.05</v>
       </c>
-      <c r="Q60">
-        <v>0.25</v>
-      </c>
-      <c r="R60">
-        <v>2</v>
-      </c>
-      <c r="S60">
-        <v>1.85</v>
-      </c>
-      <c r="T60">
-        <v>2.25</v>
-      </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
       <c r="V60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6140,10 +6140,10 @@
         <v>45279.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s">
         <v>36</v>
-      </c>
-      <c r="G64" t="s">
-        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         <v>45280.61458333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>34</v>
@@ -6674,7 +6674,7 @@
         <v>45280.64583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6766,7 +6766,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6852,7 +6852,7 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>39</v>
@@ -6929,7 +6929,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7542719</v>
+        <v>7542640</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6941,76 +6941,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L73">
+        <v>3.2</v>
+      </c>
+      <c r="M73">
+        <v>3.5</v>
+      </c>
+      <c r="N73">
+        <v>2.15</v>
+      </c>
+      <c r="O73">
         <v>3.1</v>
       </c>
-      <c r="M73">
-        <v>2.6</v>
-      </c>
-      <c r="N73">
-        <v>2.9</v>
-      </c>
-      <c r="O73">
+      <c r="P73">
         <v>3.2</v>
       </c>
-      <c r="P73">
-        <v>2.3</v>
-      </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S73">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7542640</v>
+        <v>7542719</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,76 +7030,76 @@
         <v>45283.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K74">
+        <v>2.6</v>
+      </c>
+      <c r="L74">
+        <v>3.1</v>
+      </c>
+      <c r="M74">
+        <v>2.6</v>
+      </c>
+      <c r="N74">
+        <v>2.9</v>
+      </c>
+      <c r="O74">
+        <v>3.2</v>
+      </c>
+      <c r="P74">
+        <v>2.3</v>
+      </c>
+      <c r="Q74">
+        <v>0.25</v>
+      </c>
+      <c r="R74">
+        <v>1.8</v>
+      </c>
+      <c r="S74">
         <v>2.05</v>
       </c>
-      <c r="L74">
-        <v>3.2</v>
-      </c>
-      <c r="M74">
-        <v>3.5</v>
-      </c>
-      <c r="N74">
-        <v>2.15</v>
-      </c>
-      <c r="O74">
-        <v>3.1</v>
-      </c>
-      <c r="P74">
-        <v>3.2</v>
-      </c>
-      <c r="Q74">
-        <v>-0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.925</v>
-      </c>
-      <c r="S74">
-        <v>1.925</v>
-      </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>1.85</v>
+      </c>
+      <c r="W74">
         <v>1.9</v>
       </c>
-      <c r="V74">
-        <v>1.95</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>4</v>
@@ -7386,7 +7386,7 @@
         <v>45286.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>41</v>
@@ -7564,7 +7564,7 @@
         <v>45286.625</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
         <v>37</v>
@@ -7745,7 +7745,7 @@
         <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7834,7 +7834,7 @@
         <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>45290.41666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>39</v>
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7542726</v>
+        <v>7542727</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,55 +8098,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
       </c>
       <c r="K86">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N86">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8155,19 +8155,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7542727</v>
+        <v>7542726</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,55 +8187,55 @@
         <v>45290.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="s">
         <v>45</v>
       </c>
       <c r="K87">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L87">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4.333</v>
+      </c>
+      <c r="O87">
         <v>3.6</v>
       </c>
-      <c r="N87">
-        <v>2.45</v>
-      </c>
-      <c r="O87">
-        <v>3</v>
-      </c>
       <c r="P87">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8244,19 +8244,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8632,10 +8632,10 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>42</v>
@@ -9255,10 +9255,10 @@
         <v>45297.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -9347,7 +9347,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>45297.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>38</v>
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7542735</v>
+        <v>7542737</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,76 +10145,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O109">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P109">
+        <v>2.3</v>
+      </c>
+      <c r="Q109">
+        <v>0.25</v>
+      </c>
+      <c r="R109">
         <v>1.85</v>
       </c>
-      <c r="Q109">
-        <v>0.5</v>
-      </c>
-      <c r="R109">
-        <v>1.95</v>
-      </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
+        <v>1.875</v>
+      </c>
+      <c r="V109">
         <v>1.975</v>
       </c>
-      <c r="V109">
-        <v>1.875</v>
-      </c>
       <c r="W109">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7542737</v>
+        <v>7542735</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K110">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N110">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O110">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
+        <v>1.975</v>
+      </c>
+      <c r="V110">
         <v>1.875</v>
       </c>
-      <c r="V110">
-        <v>1.975</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10326,7 +10326,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10412,7 +10412,7 @@
         <v>45305.625</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10679,7 +10679,7 @@
         <v>45307.61458333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10768,10 +10768,10 @@
         <v>45307.625</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10949,7 +10949,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>45311.52083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>37</v>
@@ -11394,7 +11394,7 @@
         <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>45312.625</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>33</v>
@@ -11661,7 +11661,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -11839,7 +11839,7 @@
         <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>45321.61458333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12017,7 +12017,7 @@
         <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12370,7 +12370,7 @@
         <v>45322.64583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12459,7 +12459,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12551,7 +12551,7 @@
         <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12637,7 +12637,7 @@
         <v>45325.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>37</v>
@@ -12815,7 +12815,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>40</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6799962</v>
+        <v>6799960</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,13 +13260,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>36</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -13275,43 +13275,43 @@
         <v>44</v>
       </c>
       <c r="K144">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N144">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13320,16 +13320,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6799960</v>
+        <v>6799962</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,13 +13349,13 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
         <v>35</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13364,43 +13364,43 @@
         <v>44</v>
       </c>
       <c r="K145">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M145">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O145">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13409,16 +13409,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13527,10 +13527,10 @@
         <v>45333.625</v>
       </c>
       <c r="F147" t="s">
+        <v>32</v>
+      </c>
+      <c r="G147" t="s">
         <v>31</v>
-      </c>
-      <c r="G147" t="s">
-        <v>32</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13708,7 +13708,7 @@
         <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13794,7 +13794,7 @@
         <v>45339.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>30</v>
@@ -13871,7 +13871,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6799971</v>
+        <v>6799972</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13883,76 +13883,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K151">
+        <v>2.1</v>
+      </c>
+      <c r="L151">
+        <v>3.3</v>
+      </c>
+      <c r="M151">
+        <v>3.3</v>
+      </c>
+      <c r="N151">
         <v>2.05</v>
       </c>
-      <c r="L151">
-        <v>3.25</v>
-      </c>
-      <c r="M151">
-        <v>3.5</v>
-      </c>
-      <c r="N151">
-        <v>2.1</v>
-      </c>
       <c r="O151">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P151">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q151">
         <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>1.025</v>
+      </c>
+      <c r="AB151">
         <v>-0.5</v>
       </c>
-      <c r="AA151">
-        <v>0.4875</v>
-      </c>
-      <c r="AB151">
-        <v>0</v>
-      </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13960,7 +13960,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6799972</v>
+        <v>6799971</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13972,76 +13972,76 @@
         <v>45339.5625</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K152">
+        <v>2.05</v>
+      </c>
+      <c r="L152">
+        <v>3.25</v>
+      </c>
+      <c r="M152">
+        <v>3.5</v>
+      </c>
+      <c r="N152">
         <v>2.1</v>
       </c>
-      <c r="L152">
-        <v>3.3</v>
-      </c>
-      <c r="M152">
-        <v>3.3</v>
-      </c>
-      <c r="N152">
-        <v>2.05</v>
-      </c>
       <c r="O152">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P152">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q152">
         <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y152">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA152">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>45341.625</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14598,7 +14598,7 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14687,7 +14687,7 @@
         <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14862,10 +14862,10 @@
         <v>45348.625</v>
       </c>
       <c r="F162" t="s">
+        <v>36</v>
+      </c>
+      <c r="G162" t="s">
         <v>35</v>
-      </c>
-      <c r="G162" t="s">
-        <v>36</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
         <v>37</v>
@@ -15028,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6799984</v>
+        <v>6799986</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15040,76 +15040,76 @@
         <v>45353.5625</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N164">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>1.775</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>2.025</v>
+      </c>
+      <c r="V164">
         <v>1.825</v>
       </c>
-      <c r="S164">
-        <v>2.025</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
-      <c r="U164">
-        <v>1.925</v>
-      </c>
-      <c r="V164">
-        <v>1.925</v>
-      </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X164">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA164">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15117,7 +15117,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6799986</v>
+        <v>6799984</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15129,76 +15129,76 @@
         <v>45353.5625</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K165">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M165">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N165">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P165">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>45355.625</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>38</v>
@@ -15485,7 +15485,7 @@
         <v>45355.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>
@@ -15574,7 +15574,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
         <v>30</v>
@@ -15755,7 +15755,7 @@
         <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15930,7 +15930,7 @@
         <v>45361.625</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
         <v>42</v>
@@ -16111,7 +16111,7 @@
         <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16200,7 +16200,7 @@
         <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>3</v>
@@ -16286,7 +16286,7 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
         <v>41</v>
@@ -16375,7 +16375,7 @@
         <v>45367.5625</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
         <v>40</v>
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6799995</v>
+        <v>6799999</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45367.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180" t="s">
+        <v>43</v>
+      </c>
+      <c r="K180">
+        <v>2.1</v>
+      </c>
+      <c r="L180">
         <v>3</v>
       </c>
-      <c r="J180" t="s">
-        <v>45</v>
-      </c>
-      <c r="K180">
-        <v>2.5</v>
-      </c>
-      <c r="L180">
-        <v>3.2</v>
-      </c>
       <c r="M180">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N180">
+        <v>2.45</v>
+      </c>
+      <c r="O180">
         <v>2.875</v>
       </c>
-      <c r="O180">
-        <v>3.2</v>
-      </c>
       <c r="P180">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
+        <v>1.8</v>
+      </c>
+      <c r="S180">
+        <v>2.05</v>
+      </c>
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>2.025</v>
+      </c>
+      <c r="V180">
         <v>1.825</v>
       </c>
-      <c r="S180">
-        <v>2.025</v>
-      </c>
-      <c r="T180">
-        <v>2.5</v>
-      </c>
-      <c r="U180">
-        <v>1.975</v>
-      </c>
-      <c r="V180">
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
         <v>1.875</v>
       </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
       <c r="Y180">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16541,7 +16541,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6799999</v>
+        <v>6799995</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16553,76 +16553,76 @@
         <v>45367.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K181">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L181">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M181">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N181">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="O181">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P181">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G184" t="s">
         <v>37</v>
@@ -16847,10 +16847,10 @@
         <v>-0.75</v>
       </c>
       <c r="R184">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S184">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T184">
         <v>2.25</v>
@@ -16897,7 +16897,7 @@
         <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K185">
         <v>2.5</v>
@@ -16930,10 +16930,10 @@
         <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -17119,7 +17119,7 @@
         <v>42</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K188">
         <v>1.333</v>

--- a/Israel Premier League/Israel Premier League.xlsx
+++ b/Israel Premier League/Israel Premier League.xlsx
@@ -127,10 +127,10 @@
     <t>Maccabi Bnei Raina</t>
   </si>
   <si>
-    <t>Hapoel Haifa</t>
+    <t>Hapoel TelAviv</t>
   </si>
   <si>
-    <t>Hapoel TelAviv</t>
+    <t>Hapoel Haifa</t>
   </si>
   <si>
     <t>Hapoel Jerusalem FC</t>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6799825</v>
+        <v>6799829</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O10">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X10">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6799829</v>
+        <v>6799825</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
+        <v>3.25</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>1.95</v>
+      </c>
+      <c r="O11">
+        <v>3.2</v>
+      </c>
+      <c r="P11">
         <v>3.4</v>
       </c>
-      <c r="M11">
-        <v>2.6</v>
-      </c>
-      <c r="N11">
-        <v>2.625</v>
-      </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
-        <v>2.375</v>
-      </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>45186.57291666666</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2847,7 +2847,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -3292,7 +3292,7 @@
         <v>45199.57291666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3562,7 +3562,7 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
         <v>38</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>45265.61458333334</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4630,7 +4630,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -5072,7 +5072,7 @@
         <v>45269.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5164,7 +5164,7 @